--- a/data/hotels_by_city/Dallas/Dallas_shard_632.xlsx
+++ b/data/hotels_by_city/Dallas/Dallas_shard_632.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="806">
   <si>
     <t>STR#</t>
   </si>
@@ -148,6 +148,2344 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>06/16/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d109570-r582530741-Quality_Suites_North_Galleria-Addison_Texas.html</t>
+  </si>
+  <si>
+    <t>30141</t>
+  </si>
+  <si>
+    <t>109570</t>
+  </si>
+  <si>
+    <t>582530741</t>
+  </si>
+  <si>
+    <t>05/24/2018</t>
+  </si>
+  <si>
+    <t>I Wanted To Love It but.....</t>
+  </si>
+  <si>
+    <t>I stayed 3 nights, checking in on Monday and Checking out on ThursdayRoom 123B - Check In - Fairly quick, very little conversation or greeting.A - Room - Excellent size and cleanB+ - Bed - Some age to the mattress, but it wasn't terrible.  Good pillowsA - Shower - Plenty of hot water and pressureA - Restaurants - Lots of choices within walking distance and plenty more within a mile of drivingB - Running - Oversized sidewalk that you can take into a small development.  Has lights for running in the dark.D - Customer Service - Small requests were not addressed.  There were only 2 hangers in the closet.  I requested more my first night, second night and then realized I wasn't getting any hangers.  No TV channel guide and it may sound small, but there was only one trash can in the room.  I felt like I was inconveniencing the staff.There was nothing horribly wrong with this hotel, they just didn't seem happy to have you staying with them.  If you are only there for one night, you will have no issue.  Suggestion - move the smoking away from the front door.  The lobby smells like smoke, you can't walk in or out the front without walking through smoke.Grade B (this would be an A, if not for the service)MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>I stayed 3 nights, checking in on Monday and Checking out on ThursdayRoom 123B - Check In - Fairly quick, very little conversation or greeting.A - Room - Excellent size and cleanB+ - Bed - Some age to the mattress, but it wasn't terrible.  Good pillowsA - Shower - Plenty of hot water and pressureA - Restaurants - Lots of choices within walking distance and plenty more within a mile of drivingB - Running - Oversized sidewalk that you can take into a small development.  Has lights for running in the dark.D - Customer Service - Small requests were not addressed.  There were only 2 hangers in the closet.  I requested more my first night, second night and then realized I wasn't getting any hangers.  No TV channel guide and it may sound small, but there was only one trash can in the room.  I felt like I was inconveniencing the staff.There was nothing horribly wrong with this hotel, they just didn't seem happy to have you staying with them.  If you are only there for one night, you will have no issue.  Suggestion - move the smoking away from the front door.  The lobby smells like smoke, you can't walk in or out the front without walking through smoke.Grade B (this would be an A, if not for the service)More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d109570-r574272082-Quality_Suites_North_Galleria-Addison_Texas.html</t>
+  </si>
+  <si>
+    <t>574272082</t>
+  </si>
+  <si>
+    <t>04/18/2018</t>
+  </si>
+  <si>
+    <t>Ghanshyan</t>
+  </si>
+  <si>
+    <t>Excellent place for the price. Manager, Shakil was so customer satisfaction oriented, it earns my repeat business to go back there again. Staff at front desk is also very helpful. Convenient location.</t>
+  </si>
+  <si>
+    <t>April 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d109570-r574191677-Quality_Suites_North_Galleria-Addison_Texas.html</t>
+  </si>
+  <si>
+    <t>574191677</t>
+  </si>
+  <si>
+    <t>OWNER WENT ABOVE AND BEYOND</t>
+  </si>
+  <si>
+    <t>After having arrived much earlier than expected from an exhaustive overnight flight, without a rental car, and in critical need of a phone card and assistance to help relocate my luggage from storage, Shakil (who is the owner) immediately jumped in and offered to drive me on my important errands, even prior to checking in! For that personal "can do" attitude alone, I happily rate this hotel 5 stars.  I stayed here for nearly one month.This is a pet friendly hotel, and although I did not have a pet, it was comforting to see how many guests enjoyed having their pets with their families.  The is also an indoor pool, and it was nice to see it was an added bonus.At the front desk, Darius deserves a special shout out too! His professionalism, kindness, and can-do attitude made my stay so much more enjoyable!As far as the hotel itself, it is not new, and a bit worn, but it was just fine for me to call home for nearly one month.I would definitely stay here again.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>After having arrived much earlier than expected from an exhaustive overnight flight, without a rental car, and in critical need of a phone card and assistance to help relocate my luggage from storage, Shakil (who is the owner) immediately jumped in and offered to drive me on my important errands, even prior to checking in! For that personal "can do" attitude alone, I happily rate this hotel 5 stars.  I stayed here for nearly one month.This is a pet friendly hotel, and although I did not have a pet, it was comforting to see how many guests enjoyed having their pets with their families.  The is also an indoor pool, and it was nice to see it was an added bonus.At the front desk, Darius deserves a special shout out too! His professionalism, kindness, and can-do attitude made my stay so much more enjoyable!As far as the hotel itself, it is not new, and a bit worn, but it was just fine for me to call home for nearly one month.I would definitely stay here again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d109570-r563742113-Quality_Suites_North_Galleria-Addison_Texas.html</t>
+  </si>
+  <si>
+    <t>563742113</t>
+  </si>
+  <si>
+    <t>03/02/2018</t>
+  </si>
+  <si>
+    <t>No longer a favorite hotel</t>
+  </si>
+  <si>
+    <t>We had been frequent guests when this was the 'Comfort Suites' and had actually written an excellent review on trip advisor, but we will not be staying here again. We checked in about 9:00PM and the hotel was very dirty and smelled very bad. We decided to stay at another hotel for the next night and checked out early the next morning. While we were loading our bags in our vehicle the Addison Police came as asked why we were staying there and advised us to stay ANYWHERE else and offered an escort off the property for our safety.</t>
+  </si>
+  <si>
+    <t>February 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d109570-r561120666-Quality_Suites_North_Galleria-Addison_Texas.html</t>
+  </si>
+  <si>
+    <t>561120666</t>
+  </si>
+  <si>
+    <t>02/17/2018</t>
+  </si>
+  <si>
+    <t>Find a better place to stay</t>
+  </si>
+  <si>
+    <t>This place is hard to find.  The Customer Service is terrible.  The check in clerk was sitting the entire time.  The lobby was full of DUST.  There are not enough plugs for a business traveler.  The TV channels are a mystery.  The hotel is noisy and outdated.  The security is not that well.  The doors are always propped open.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d109570-r561096799-Quality_Suites_North_Galleria-Addison_Texas.html</t>
+  </si>
+  <si>
+    <t>561096799</t>
+  </si>
+  <si>
+    <t>Absolutely Terrible!!!</t>
+  </si>
+  <si>
+    <t>When I checked in late on 2/11/18, I was met with a disturbing young man behind the desk.  He had on a hoodie (with the hood up), a torn denim jacket and a lanyard around his neck that said "Shut the f___ up".  I was shocked!  He handed me a piece of paper that had been drawn on by a child and told me to put my tag # on it.  By the time I got my things in my room, I was very scared.  I will never stay here again and don't recommend that you do!  My window in my room was open when I got there (it was 30 degrees outside).  No blowdryer, the toilet needing fixing and the light above the sink in the bathroom didn't work.MoreShow less</t>
+  </si>
+  <si>
+    <t>When I checked in late on 2/11/18, I was met with a disturbing young man behind the desk.  He had on a hoodie (with the hood up), a torn denim jacket and a lanyard around his neck that said "Shut the f___ up".  I was shocked!  He handed me a piece of paper that had been drawn on by a child and told me to put my tag # on it.  By the time I got my things in my room, I was very scared.  I will never stay here again and don't recommend that you do!  My window in my room was open when I got there (it was 30 degrees outside).  No blowdryer, the toilet needing fixing and the light above the sink in the bathroom didn't work.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d109570-r533761028-Quality_Suites_North_Galleria-Addison_Texas.html</t>
+  </si>
+  <si>
+    <t>533761028</t>
+  </si>
+  <si>
+    <t>10/17/2017</t>
+  </si>
+  <si>
+    <t>"Un-Quality" Inn</t>
+  </si>
+  <si>
+    <t>Cheap hotel.  Rude front desk staff.  Dirty hallways and stairwells.  Elevator did not work at times.  Too many dog owners.  Broke down mattress. Roaches in bathroom.  Web site was not reflective of actual condition.  Stayed here for business, but will not stay here again.  Accurate example of you get what you pay for!</t>
+  </si>
+  <si>
+    <t>October 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d109570-r525481542-Quality_Suites_North_Galleria-Addison_Texas.html</t>
+  </si>
+  <si>
+    <t>525481542</t>
+  </si>
+  <si>
+    <t>09/18/2017</t>
+  </si>
+  <si>
+    <t>Our favorite as always</t>
+  </si>
+  <si>
+    <t>We have stayed at this attractive, well-maintained and friendly hotel several times over the past year.
+The suites are very spacious and well-furnished. The bedroom area and the sitting area each have their own large flat-screen TVs, with a very good selection of TV channels. Each area can be closed off for privacy. The entire suite is fully carpeted, clean and stain-free. We really like the new and white towels.
+We like the bright sitting area in the lobby, the brand-new apple computer, linked to a super efficient printer. The front desk staff are extremely helpful.
+The 24 hour coffee in the lobby is always fresh. There is also an unusual selection of very high-quality imported English black and Japanese green Matcha teas. On our constant world-wide travels, it is rare to see this attention to free beverage quality in hotels of any price range.
+The included breakfast buffet is the single feature that has us always coming back. With two waffle machines, we never had a wait, with accompanying syrup, fresh butter, cream cheese and various jams and jellies. A bread tray offers bagels and assorted danishes and muffins. There is a tray of instant oatmeal in various flavors. A cereal dispenser has varieties of raisin bran and Cheerios, and a choice of whole or 2% milk. Orange and apple juice, baskets of fresh apples and bananas, and a cold cabinet with high-quality flavored individual yogurts are also offered....We have stayed at this attractive, well-maintained and friendly hotel several times over the past year.The suites are very spacious and well-furnished. The bedroom area and the sitting area each have their own large flat-screen TVs, with a very good selection of TV channels. Each area can be closed off for privacy. The entire suite is fully carpeted, clean and stain-free. We really like the new and white towels.We like the bright sitting area in the lobby, the brand-new apple computer, linked to a super efficient printer. The front desk staff are extremely helpful.The 24 hour coffee in the lobby is always fresh. There is also an unusual selection of very high-quality imported English black and Japanese green Matcha teas. On our constant world-wide travels, it is rare to see this attention to free beverage quality in hotels of any price range.The included breakfast buffet is the single feature that has us always coming back. With two waffle machines, we never had a wait, with accompanying syrup, fresh butter, cream cheese and various jams and jellies. A bread tray offers bagels and assorted danishes and muffins. There is a tray of instant oatmeal in various flavors. A cereal dispenser has varieties of raisin bran and Cheerios, and a choice of whole or 2% milk. Orange and apple juice, baskets of fresh apples and bananas, and a cold cabinet with high-quality flavored individual yogurts are also offered.The breakfast highlight is the hot dish that is replenished every ten minutes with scrambled eggs and tasty breakfast sausages. The homemade southern-style hot biscuits and gravy are made in small quantities and constantly refilled. The staff of three smiling ladies works hard to keep the food and coffee coming out of the nearby kitchen fresh and hot.We like the gym very much, equipped with modern machines perfect for a full workout.But what is missing for us is a small outdoor seating and recreational area for the many pleasant days that also can appear. We are told the hotel is looking into providing this.Finally, we would like to mention the very high level of customer care. The owner, Shakil, who recently acquired the property, is fine-tuning the operations and making upgrades where necessary. He has never failed to respond in minutes to any of our requests, from replacing a coffee maker to giving us a lift to a nearby facility. He is initiating a limited shuttle service to accommodate visitors like us who come without our own cars. He is training his staff in his own image of service, and that is why we will keep returning to this hotel when we need to be in the Dallas area.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2017</t>
+  </si>
+  <si>
+    <t>We have stayed at this attractive, well-maintained and friendly hotel several times over the past year.
+The suites are very spacious and well-furnished. The bedroom area and the sitting area each have their own large flat-screen TVs, with a very good selection of TV channels. Each area can be closed off for privacy. The entire suite is fully carpeted, clean and stain-free. We really like the new and white towels.
+We like the bright sitting area in the lobby, the brand-new apple computer, linked to a super efficient printer. The front desk staff are extremely helpful.
+The 24 hour coffee in the lobby is always fresh. There is also an unusual selection of very high-quality imported English black and Japanese green Matcha teas. On our constant world-wide travels, it is rare to see this attention to free beverage quality in hotels of any price range.
+The included breakfast buffet is the single feature that has us always coming back. With two waffle machines, we never had a wait, with accompanying syrup, fresh butter, cream cheese and various jams and jellies. A bread tray offers bagels and assorted danishes and muffins. There is a tray of instant oatmeal in various flavors. A cereal dispenser has varieties of raisin bran and Cheerios, and a choice of whole or 2% milk. Orange and apple juice, baskets of fresh apples and bananas, and a cold cabinet with high-quality flavored individual yogurts are also offered....We have stayed at this attractive, well-maintained and friendly hotel several times over the past year.The suites are very spacious and well-furnished. The bedroom area and the sitting area each have their own large flat-screen TVs, with a very good selection of TV channels. Each area can be closed off for privacy. The entire suite is fully carpeted, clean and stain-free. We really like the new and white towels.We like the bright sitting area in the lobby, the brand-new apple computer, linked to a super efficient printer. The front desk staff are extremely helpful.The 24 hour coffee in the lobby is always fresh. There is also an unusual selection of very high-quality imported English black and Japanese green Matcha teas. On our constant world-wide travels, it is rare to see this attention to free beverage quality in hotels of any price range.The included breakfast buffet is the single feature that has us always coming back. With two waffle machines, we never had a wait, with accompanying syrup, fresh butter, cream cheese and various jams and jellies. A bread tray offers bagels and assorted danishes and muffins. There is a tray of instant oatmeal in various flavors. A cereal dispenser has varieties of raisin bran and Cheerios, and a choice of whole or 2% milk. Orange and apple juice, baskets of fresh apples and bananas, and a cold cabinet with high-quality flavored individual yogurts are also offered.The breakfast highlight is the hot dish that is replenished every ten minutes with scrambled eggs and tasty breakfast sausages. The homemade southern-style hot biscuits and gravy are made in small quantities and constantly refilled. The staff of three smiling ladies works hard to keep the food and coffee coming out of the nearby kitchen fresh and hot.We like the gym very much, equipped with modern machines perfect for a full workout.But what is missing for us is a small outdoor seating and recreational area for the many pleasant days that also can appear. We are told the hotel is looking into providing this.Finally, we would like to mention the very high level of customer care. The owner, Shakil, who recently acquired the property, is fine-tuning the operations and making upgrades where necessary. He has never failed to respond in minutes to any of our requests, from replacing a coffee maker to giving us a lift to a nearby facility. He is initiating a limited shuttle service to accommodate visitors like us who come without our own cars. He is training his staff in his own image of service, and that is why we will keep returning to this hotel when we need to be in the Dallas area.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d109570-r522448219-Quality_Suites_North_Galleria-Addison_Texas.html</t>
+  </si>
+  <si>
+    <t>522448219</t>
+  </si>
+  <si>
+    <t>09/07/2017</t>
+  </si>
+  <si>
+    <t>2nd visit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">We stayed here before and had a nice but dated room. This visit they gave us a accessible room and it was dirty and the bed was so worn it needed to be replaced. We were moved to the second floor with no issue and the bed was better. This hotel has gone down hill. The pool water was green and lacking chlorine. I wouldn't go in. The entire hotel is in deperate need of repairs. The main floor smells like dogs.  It's a shame because it has so much potential.  </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d109570-r471757824-Quality_Suites_North_Galleria-Addison_Texas.html</t>
+  </si>
+  <si>
+    <t>471757824</t>
+  </si>
+  <si>
+    <t>03/31/2017</t>
+  </si>
+  <si>
+    <t>Good "Choice" for the Dallas area</t>
+  </si>
+  <si>
+    <t>Most of the hotels in Dallas are expensive. North Dallas is an expensive area, so we chose this hotel because of price, very reasonable, and it is in Addison, but very near to Dallas. We were pleased with our suite, plenty of room, breakfast, and the staff is very nice, professional. So we stayed several days. Next time in Dallas area, we hope to stay here again.</t>
+  </si>
+  <si>
+    <t>January 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d109570-r464550190-Quality_Suites_North_Galleria-Addison_Texas.html</t>
+  </si>
+  <si>
+    <t>464550190</t>
+  </si>
+  <si>
+    <t>03/04/2017</t>
+  </si>
+  <si>
+    <t>Great stay in a conveniently located hotel with amazing staff</t>
+  </si>
+  <si>
+    <t>The location is great as it is right in the middle of Belt Line, where you can walk to various parks, restaurants, and supermarkets such as whole food, kroger and walmart. 
+The staff at the hotel are polite, helpful and always make their best to accommodate requests and needs. Whenever i need a shuttle even though it is not within the shuttle hours, as long as I asked them in advance , they would always make sure the shuttle would be there. The front desks are super friendly as they always help me with whatever I need for the room, greeted me with big smiles when they see me in and out. 
+The breakfast is a big plus with three kinds of fresh fruits, plain bagels, white and brown bread, various fruity danishes, muffins, mini donuts, and cookies, freshly scrambled eggs , sausages or bacons, biscuits with gravy,. self-serving waffles.... Although sometimes it can be very crowed during breakfast hours, and the food does run out quickly no matter how fast the breakfast ladies tried to keep up with the pace, they always try to replenish the food as soon as possible. 
+The room is spacious. The housekeeping staff do try their best to clean the room on time  though sometimes there might be too many people checking out at the same time and too many people checking in very early. But whenever i asked them if they could do...The location is great as it is right in the middle of Belt Line, where you can walk to various parks, restaurants, and supermarkets such as whole food, kroger and walmart. The staff at the hotel are polite, helpful and always make their best to accommodate requests and needs. Whenever i need a shuttle even though it is not within the shuttle hours, as long as I asked them in advance , they would always make sure the shuttle would be there. The front desks are super friendly as they always help me with whatever I need for the room, greeted me with big smiles when they see me in and out. The breakfast is a big plus with three kinds of fresh fruits, plain bagels, white and brown bread, various fruity danishes, muffins, mini donuts, and cookies, freshly scrambled eggs , sausages or bacons, biscuits with gravy,. self-serving waffles.... Although sometimes it can be very crowed during breakfast hours, and the food does run out quickly no matter how fast the breakfast ladies tried to keep up with the pace, they always try to replenish the food as soon as possible. The room is spacious. The housekeeping staff do try their best to clean the room on time  though sometimes there might be too many people checking out at the same time and too many people checking in very early. But whenever i asked them if they could do a little bit more in terms of cleaning, they always did it and made my room clean.I have to for my almost three-month stay, I notice things needed to be improved or done. However, as long as I pointed out or asked, and if the staff can change or improve certain things, they would always make the efforts. I am glad i stayed in this hotel and made friends with the staff.. Definitely I would come back and stay again!MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2017</t>
+  </si>
+  <si>
+    <t>The location is great as it is right in the middle of Belt Line, where you can walk to various parks, restaurants, and supermarkets such as whole food, kroger and walmart. 
+The staff at the hotel are polite, helpful and always make their best to accommodate requests and needs. Whenever i need a shuttle even though it is not within the shuttle hours, as long as I asked them in advance , they would always make sure the shuttle would be there. The front desks are super friendly as they always help me with whatever I need for the room, greeted me with big smiles when they see me in and out. 
+The breakfast is a big plus with three kinds of fresh fruits, plain bagels, white and brown bread, various fruity danishes, muffins, mini donuts, and cookies, freshly scrambled eggs , sausages or bacons, biscuits with gravy,. self-serving waffles.... Although sometimes it can be very crowed during breakfast hours, and the food does run out quickly no matter how fast the breakfast ladies tried to keep up with the pace, they always try to replenish the food as soon as possible. 
+The room is spacious. The housekeeping staff do try their best to clean the room on time  though sometimes there might be too many people checking out at the same time and too many people checking in very early. But whenever i asked them if they could do...The location is great as it is right in the middle of Belt Line, where you can walk to various parks, restaurants, and supermarkets such as whole food, kroger and walmart. The staff at the hotel are polite, helpful and always make their best to accommodate requests and needs. Whenever i need a shuttle even though it is not within the shuttle hours, as long as I asked them in advance , they would always make sure the shuttle would be there. The front desks are super friendly as they always help me with whatever I need for the room, greeted me with big smiles when they see me in and out. The breakfast is a big plus with three kinds of fresh fruits, plain bagels, white and brown bread, various fruity danishes, muffins, mini donuts, and cookies, freshly scrambled eggs , sausages or bacons, biscuits with gravy,. self-serving waffles.... Although sometimes it can be very crowed during breakfast hours, and the food does run out quickly no matter how fast the breakfast ladies tried to keep up with the pace, they always try to replenish the food as soon as possible. The room is spacious. The housekeeping staff do try their best to clean the room on time  though sometimes there might be too many people checking out at the same time and too many people checking in very early. But whenever i asked them if they could do a little bit more in terms of cleaning, they always did it and made my room clean.I have to for my almost three-month stay, I notice things needed to be improved or done. However, as long as I pointed out or asked, and if the staff can change or improve certain things, they would always make the efforts. I am glad i stayed in this hotel and made friends with the staff.. Definitely I would come back and stay again!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d109570-r462537762-Quality_Suites_North_Galleria-Addison_Texas.html</t>
+  </si>
+  <si>
+    <t>462537762</t>
+  </si>
+  <si>
+    <t>02/24/2017</t>
+  </si>
+  <si>
+    <t>Staff is always friendly!!</t>
+  </si>
+  <si>
+    <t>Hello. My name is Quinton. I have been staying at this hotel for many years now. I really appreciate the customer service and friendly environment. The management is Great!! Mrs. Cala is the best!! She will make sure with the best of her ability to provide you and your family what you are asking for.. You don't see too many managers work around the clock like she does. Her her assistant Ms. Erica is a hard worker as well. I recommend this hotel to all that's traveling. Thanks Cala and Staff for all that you do!!</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d109570-r443415485-Quality_Suites_North_Galleria-Addison_Texas.html</t>
+  </si>
+  <si>
+    <t>443415485</t>
+  </si>
+  <si>
+    <t>12/10/2016</t>
+  </si>
+  <si>
+    <t>Quiet But Buggy</t>
+  </si>
+  <si>
+    <t>This hotel is interesting.  Its address is on Belt LIne Road in Addison, but it is actually right on Arapaho Road in Addison.  Nonetheless, it is a superb location:  close to the North Dallas Tollway and other main arteries of Dallas.
+Our room was very quiet.  That was the positive.
+The first day/morning there I killed over 10 yellow jackets in our room.  We bought bug spray at that point and kept it in our room the duration of our four night stay.  We could see the yellow jackets in the tree outside our window.  We did bring it to the attention of the hotel staff.
+Housekeeping is less than adequate.  When we checked into our room the first night we saw crumbs on the floor by the bed, a crumpled up piece of paper by the trash can near the bed, and a dead yellow jacket on the floor below the window by the bed.  There was a 3-gallon trash can by the refrigerator area in our suite and one in the bathroom.  We had pizza and newspapers that did not fit inside those tiny trash cans, so we placed them on the floor in front of the trash can by the refrigerator.  Housekeeping did not pick up either the pizza box or the newspaper.  The next day we stacked both on top of the little trash can by the refrigerator and then both were picked up by housekeeping....This hotel is interesting.  Its address is on Belt LIne Road in Addison, but it is actually right on Arapaho Road in Addison.  Nonetheless, it is a superb location:  close to the North Dallas Tollway and other main arteries of Dallas.Our room was very quiet.  That was the positive. The first day/morning there I killed over 10 yellow jackets in our room.  We bought bug spray at that point and kept it in our room the duration of our four night stay.  We could see the yellow jackets in the tree outside our window.  We did bring it to the attention of the hotel staff.Housekeeping is less than adequate.  When we checked into our room the first night we saw crumbs on the floor by the bed, a crumpled up piece of paper by the trash can near the bed, and a dead yellow jacket on the floor below the window by the bed.  There was a 3-gallon trash can by the refrigerator area in our suite and one in the bathroom.  We had pizza and newspapers that did not fit inside those tiny trash cans, so we placed them on the floor in front of the trash can by the refrigerator.  Housekeeping did not pick up either the pizza box or the newspaper.  The next day we stacked both on top of the little trash can by the refrigerator and then both were picked up by housekeeping.Our rate for the room was low and we paid for what we received.  However, we will not stay in this hotel in the future when visiting family.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2016</t>
+  </si>
+  <si>
+    <t>This hotel is interesting.  Its address is on Belt LIne Road in Addison, but it is actually right on Arapaho Road in Addison.  Nonetheless, it is a superb location:  close to the North Dallas Tollway and other main arteries of Dallas.
+Our room was very quiet.  That was the positive.
+The first day/morning there I killed over 10 yellow jackets in our room.  We bought bug spray at that point and kept it in our room the duration of our four night stay.  We could see the yellow jackets in the tree outside our window.  We did bring it to the attention of the hotel staff.
+Housekeeping is less than adequate.  When we checked into our room the first night we saw crumbs on the floor by the bed, a crumpled up piece of paper by the trash can near the bed, and a dead yellow jacket on the floor below the window by the bed.  There was a 3-gallon trash can by the refrigerator area in our suite and one in the bathroom.  We had pizza and newspapers that did not fit inside those tiny trash cans, so we placed them on the floor in front of the trash can by the refrigerator.  Housekeeping did not pick up either the pizza box or the newspaper.  The next day we stacked both on top of the little trash can by the refrigerator and then both were picked up by housekeeping....This hotel is interesting.  Its address is on Belt LIne Road in Addison, but it is actually right on Arapaho Road in Addison.  Nonetheless, it is a superb location:  close to the North Dallas Tollway and other main arteries of Dallas.Our room was very quiet.  That was the positive. The first day/morning there I killed over 10 yellow jackets in our room.  We bought bug spray at that point and kept it in our room the duration of our four night stay.  We could see the yellow jackets in the tree outside our window.  We did bring it to the attention of the hotel staff.Housekeeping is less than adequate.  When we checked into our room the first night we saw crumbs on the floor by the bed, a crumpled up piece of paper by the trash can near the bed, and a dead yellow jacket on the floor below the window by the bed.  There was a 3-gallon trash can by the refrigerator area in our suite and one in the bathroom.  We had pizza and newspapers that did not fit inside those tiny trash cans, so we placed them on the floor in front of the trash can by the refrigerator.  Housekeeping did not pick up either the pizza box or the newspaper.  The next day we stacked both on top of the little trash can by the refrigerator and then both were picked up by housekeeping.Our rate for the room was low and we paid for what we received.  However, we will not stay in this hotel in the future when visiting family.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d109570-r440672991-Quality_Suites_North_Galleria-Addison_Texas.html</t>
+  </si>
+  <si>
+    <t>440672991</t>
+  </si>
+  <si>
+    <t>11/28/2016</t>
+  </si>
+  <si>
+    <t>Run-down...</t>
+  </si>
+  <si>
+    <t xml:space="preserve">While a decent location (very close to good restaurants), the hotel is run down and shabby.  There were marks on the room walls, there were shelves missing (with the screws still visible), the carpet was visibly worn, and the couch in the room was on its last legs.  The elevator was noticeably deteriorating.  On the positive side, the hotel allowed for pets... </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d109570-r437583172-Quality_Suites_North_Galleria-Addison_Texas.html</t>
+  </si>
+  <si>
+    <t>437583172</t>
+  </si>
+  <si>
+    <t>11/15/2016</t>
+  </si>
+  <si>
+    <t>No longer Comfort Suites/ Quality suites (shack) now</t>
+  </si>
+  <si>
+    <t>Stayed here a few years ago when it was Comfort Suites and it was pretty nice.Now it's changed into a Quality Suites (same family of Choice Hotels) and it's not the same. Stayed here November 2016.Pros: close to Dallas, reasonable rates, staff was nice CONS: DIRTY! Had on whites socks that I wore around room. They were black on the bottom like I had been outside just from the trim. Curtains were dirty. Rooms are just not cleaned and kept up like they should be. Beds are not very comfortable. Will go elsewhere next time.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d109570-r408490926-Quality_Suites_North_Galleria-Addison_Texas.html</t>
+  </si>
+  <si>
+    <t>408490926</t>
+  </si>
+  <si>
+    <t>08/21/2016</t>
+  </si>
+  <si>
+    <t>Functional and comfortable but run-down</t>
+  </si>
+  <si>
+    <t>Used my hotel points to stay 5 nights. We helped my daughter move in to her college dorm. Hotel address is confusing because it is not on Belt Line Rd but in Arapaho Rd. A lot of shops and restaurants nearby. We were able to do our college-list shopping at nearby Target, Kroger, Office Depot and Ikea. 
+The building exterior, parking, lobby and breakfast area are quite nice. Only 1 elevator, but fast enough. Elevator interior badly needs updating. There's an indoor pool (we didn't use). Breakfast and wifi are great. The staff are all courteous and accommodating.
+We had a king suite with a French door dividing the bedroom from living area, which was nice. The door hinges are creaky though, loud enough to wake up light sleepers at night. Sofa bed &amp; sofa chair were quite wornout, saggy, with a musty smell. You can feel the springs of the sofa bed mattress when you lay down on it. Bathroom was quite comfortable. The kitchenette is great, fridge, microwave and coffeemaker. Hotel provided free coffee in the lobby 24 hours.
+All in all, hotel is functional and comfortable enough but has a run-down feel. Has a lot of potential to be better if the rooms get updated, especially the sofa bed and sofa chair. The walls will look much better/updated if they use flat/matte paint instead of glossy (will hide flaws better), and if the white bulbs are replaced...Used my hotel points to stay 5 nights. We helped my daughter move in to her college dorm. Hotel address is confusing because it is not on Belt Line Rd but in Arapaho Rd. A lot of shops and restaurants nearby. We were able to do our college-list shopping at nearby Target, Kroger, Office Depot and Ikea. The building exterior, parking, lobby and breakfast area are quite nice. Only 1 elevator, but fast enough. Elevator interior badly needs updating. There's an indoor pool (we didn't use). Breakfast and wifi are great. The staff are all courteous and accommodating.We had a king suite with a French door dividing the bedroom from living area, which was nice. The door hinges are creaky though, loud enough to wake up light sleepers at night. Sofa bed &amp; sofa chair were quite wornout, saggy, with a musty smell. You can feel the springs of the sofa bed mattress when you lay down on it. Bathroom was quite comfortable. The kitchenette is great, fridge, microwave and coffeemaker. Hotel provided free coffee in the lobby 24 hours.All in all, hotel is functional and comfortable enough but has a run-down feel. Has a lot of potential to be better if the rooms get updated, especially the sofa bed and sofa chair. The walls will look much better/updated if they use flat/matte paint instead of glossy (will hide flaws better), and if the white bulbs are replaced with yellowish LED lighting.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2016</t>
+  </si>
+  <si>
+    <t>Used my hotel points to stay 5 nights. We helped my daughter move in to her college dorm. Hotel address is confusing because it is not on Belt Line Rd but in Arapaho Rd. A lot of shops and restaurants nearby. We were able to do our college-list shopping at nearby Target, Kroger, Office Depot and Ikea. 
+The building exterior, parking, lobby and breakfast area are quite nice. Only 1 elevator, but fast enough. Elevator interior badly needs updating. There's an indoor pool (we didn't use). Breakfast and wifi are great. The staff are all courteous and accommodating.
+We had a king suite with a French door dividing the bedroom from living area, which was nice. The door hinges are creaky though, loud enough to wake up light sleepers at night. Sofa bed &amp; sofa chair were quite wornout, saggy, with a musty smell. You can feel the springs of the sofa bed mattress when you lay down on it. Bathroom was quite comfortable. The kitchenette is great, fridge, microwave and coffeemaker. Hotel provided free coffee in the lobby 24 hours.
+All in all, hotel is functional and comfortable enough but has a run-down feel. Has a lot of potential to be better if the rooms get updated, especially the sofa bed and sofa chair. The walls will look much better/updated if they use flat/matte paint instead of glossy (will hide flaws better), and if the white bulbs are replaced...Used my hotel points to stay 5 nights. We helped my daughter move in to her college dorm. Hotel address is confusing because it is not on Belt Line Rd but in Arapaho Rd. A lot of shops and restaurants nearby. We were able to do our college-list shopping at nearby Target, Kroger, Office Depot and Ikea. The building exterior, parking, lobby and breakfast area are quite nice. Only 1 elevator, but fast enough. Elevator interior badly needs updating. There's an indoor pool (we didn't use). Breakfast and wifi are great. The staff are all courteous and accommodating.We had a king suite with a French door dividing the bedroom from living area, which was nice. The door hinges are creaky though, loud enough to wake up light sleepers at night. Sofa bed &amp; sofa chair were quite wornout, saggy, with a musty smell. You can feel the springs of the sofa bed mattress when you lay down on it. Bathroom was quite comfortable. The kitchenette is great, fridge, microwave and coffeemaker. Hotel provided free coffee in the lobby 24 hours.All in all, hotel is functional and comfortable enough but has a run-down feel. Has a lot of potential to be better if the rooms get updated, especially the sofa bed and sofa chair. The walls will look much better/updated if they use flat/matte paint instead of glossy (will hide flaws better), and if the white bulbs are replaced with yellowish LED lighting.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d109570-r408278195-Quality_Suites_North_Galleria-Addison_Texas.html</t>
+  </si>
+  <si>
+    <t>408278195</t>
+  </si>
+  <si>
+    <t>Nice hotel but some issues</t>
+  </si>
+  <si>
+    <t>Overall a nice hotel back off the road, so quiet.  Although it's near the local airport, we had no issues with the sounds of planes landing or taking off. The breakfast bar was very good. The only two issues were that there was a big cockroach in our room and there looked to be A patch of black mold under the bathroom sink above the trashcan. I informed the guy at the front desk upon checkout. He seemed somewhat ambivalent, but hopefully he reported it to his management so that those issues could be rectified.  This won't prevent us from coming back, but hopefully they will have addressed these issues throughout the hotel.MoreShow less</t>
+  </si>
+  <si>
+    <t>Overall a nice hotel back off the road, so quiet.  Although it's near the local airport, we had no issues with the sounds of planes landing or taking off. The breakfast bar was very good. The only two issues were that there was a big cockroach in our room and there looked to be A patch of black mold under the bathroom sink above the trashcan. I informed the guy at the front desk upon checkout. He seemed somewhat ambivalent, but hopefully he reported it to his management so that those issues could be rectified.  This won't prevent us from coming back, but hopefully they will have addressed these issues throughout the hotel.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d109570-r400546617-Quality_Suites_North_Galleria-Addison_Texas.html</t>
+  </si>
+  <si>
+    <t>400546617</t>
+  </si>
+  <si>
+    <t>08/02/2016</t>
+  </si>
+  <si>
+    <t>Once again a great stay.</t>
+  </si>
+  <si>
+    <t>Once again I find myself in Dallas Texas and once again I enjoyed staying at this location.  The people were very nice. The General Manager even though she hasn't seen me in a while, recongized me and said hello to me by name.  The place has a home feeling to it.  Once again this is my favorite hotel to stay in and of course I will e back again and again.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d109570-r389784842-Quality_Suites_North_Galleria-Addison_Texas.html</t>
+  </si>
+  <si>
+    <t>389784842</t>
+  </si>
+  <si>
+    <t>07/06/2016</t>
+  </si>
+  <si>
+    <t>Great Place, . . .Great Staff!</t>
+  </si>
+  <si>
+    <t>I can't say enough how great of a hotel/suite this place is. The manager (Kayla) is awesome. She greets you with a smile and makes sure everything is RIGHT. The front lobby, dining area, indoor swimming area and even the driveway/carport are well maintained and clean. I've stayed here before and I'll stay here again!</t>
+  </si>
+  <si>
+    <t>July 2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d109570-r368457000-Quality_Suites_North_Galleria-Addison_Texas.html</t>
+  </si>
+  <si>
+    <t>368457000</t>
+  </si>
+  <si>
+    <t>04/28/2016</t>
+  </si>
+  <si>
+    <t>Fabulous Location</t>
+  </si>
+  <si>
+    <t>I can't say enough good things about this hotel. I travel for business several weeks a month and love staying at this hotel. It is so close to many great restaurants and shopping. The staff are professional and helpful. Best Choice network breakfast I have had with a lot of fresh fruit and healthy choices. Great fitness center too.</t>
+  </si>
+  <si>
+    <t>April 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d109570-r366037073-Quality_Suites_North_Galleria-Addison_Texas.html</t>
+  </si>
+  <si>
+    <t>366037073</t>
+  </si>
+  <si>
+    <t>04/21/2016</t>
+  </si>
+  <si>
+    <t>Best Hotel so far...</t>
+  </si>
+  <si>
+    <t>It was amazing, the room I booked was a king suite with Jacuzzi. Me and my wife loved it, a lovely relaxing stay at this hotel. The size of hot tub is perfect, I haven't seen a larger hot tub than this in any other Comfort Suites so far. We loved this property and would recommend to other guests.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d109570-r355064879-Quality_Suites_North_Galleria-Addison_Texas.html</t>
+  </si>
+  <si>
+    <t>355064879</t>
+  </si>
+  <si>
+    <t>03/13/2016</t>
+  </si>
+  <si>
+    <t>Note to self...when it's the ONLY hotel available...</t>
+  </si>
+  <si>
+    <t>Wanted to book at the Hilton close by but it was full.   Comfort Suites was the ONLY hotel available - Note to self, when it's the ONLY accommodation in the area available be forewarned.  Should have listened to my gut.This is an old property recently refurbished.  Nice try but no cigar.   In general it was a sloppy job - one example -- a lot of areas painted over without sanding - which in my view, set the tone for the rest of the work done.   Several large stains on the hallway carpet leading to our room did not make a good impression either.  Room was just OK.   The breakfast was a notch above toast and cereal.  Although the hotel is close to DART (Dallas Rapid Transit) and a small airport, the hotel was quiet.Staff were friendly enough but not especially helpful.  Fire alarm went off during the night which caused firemen to roam hallway checking out source for alarm.  Thankfully, no fire but left concerns over "glitch" in system.  "We don't know what happened" the front desk personnel said to my husband when he went downstairs and asked.  No communication to guests that fire alarm was a false alarm - didn't make me feel very safe.  I would not rebook.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2016</t>
+  </si>
+  <si>
+    <t>comfortsuitesaddison, General Manager at Quality Suites North / Galleria, responded to this reviewResponded March 15, 2016</t>
+  </si>
+  <si>
+    <t>Responded March 15, 2016</t>
+  </si>
+  <si>
+    <t>Wanted to book at the Hilton close by but it was full.   Comfort Suites was the ONLY hotel available - Note to self, when it's the ONLY accommodation in the area available be forewarned.  Should have listened to my gut.This is an old property recently refurbished.  Nice try but no cigar.   In general it was a sloppy job - one example -- a lot of areas painted over without sanding - which in my view, set the tone for the rest of the work done.   Several large stains on the hallway carpet leading to our room did not make a good impression either.  Room was just OK.   The breakfast was a notch above toast and cereal.  Although the hotel is close to DART (Dallas Rapid Transit) and a small airport, the hotel was quiet.Staff were friendly enough but not especially helpful.  Fire alarm went off during the night which caused firemen to roam hallway checking out source for alarm.  Thankfully, no fire but left concerns over "glitch" in system.  "We don't know what happened" the front desk personnel said to my husband when he went downstairs and asked.  No communication to guests that fire alarm was a false alarm - didn't make me feel very safe.  I would not rebook.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d109570-r353797004-Quality_Suites_North_Galleria-Addison_Texas.html</t>
+  </si>
+  <si>
+    <t>353797004</t>
+  </si>
+  <si>
+    <t>03/08/2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Top floor a must! </t>
+  </si>
+  <si>
+    <t>I've stayed at many nice comfort suites, but I was not too impressed with this one.  Our room had an  Overwhelming musky smell.  From 4am on I could hear from what sounded like an elephant trampling on the floor above me.  I could hear toilets flushing and a baby crying in room next to me.  Walls very thin.  I don't recommend this Comfort Suites.  I won't be back!MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2016</t>
+  </si>
+  <si>
+    <t>comfortsuitesaddison, General Manager at Quality Suites North / Galleria, responded to this reviewResponded March 9, 2016</t>
+  </si>
+  <si>
+    <t>Responded March 9, 2016</t>
+  </si>
+  <si>
+    <t>I've stayed at many nice comfort suites, but I was not too impressed with this one.  Our room had an  Overwhelming musky smell.  From 4am on I could hear from what sounded like an elephant trampling on the floor above me.  I could hear toilets flushing and a baby crying in room next to me.  Walls very thin.  I don't recommend this Comfort Suites.  I won't be back!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d109570-r349901671-Quality_Suites_North_Galleria-Addison_Texas.html</t>
+  </si>
+  <si>
+    <t>349901671</t>
+  </si>
+  <si>
+    <t>02/22/2016</t>
+  </si>
+  <si>
+    <t>Is this the same hotel???</t>
+  </si>
+  <si>
+    <t>It is hard to believe that the hotel I saw is the same as the one that goes with these other favorable reviews.  I booked this hotel on Choice Privileges points, having reviewed all of the Choice Hotel properties in the Love Field vicinity.  The photos &amp; reviews created a certain expectation that fell far short.  We checked in &amp; out of the hotel in about a 5 minute span, finding our room with damaged furnishings, stained bedding &amp; just an overall uncleanness.  I raised the rating up to poor due to the front desk personnel being cooperative on assisting me in getting our Choice Privileges points reimbursed to our account.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2016</t>
+  </si>
+  <si>
+    <t>comfortsuitesaddison, General Manager at Quality Suites North / Galleria, responded to this reviewResponded February 23, 2016</t>
+  </si>
+  <si>
+    <t>Responded February 23, 2016</t>
+  </si>
+  <si>
+    <t>It is hard to believe that the hotel I saw is the same as the one that goes with these other favorable reviews.  I booked this hotel on Choice Privileges points, having reviewed all of the Choice Hotel properties in the Love Field vicinity.  The photos &amp; reviews created a certain expectation that fell far short.  We checked in &amp; out of the hotel in about a 5 minute span, finding our room with damaged furnishings, stained bedding &amp; just an overall uncleanness.  I raised the rating up to poor due to the front desk personnel being cooperative on assisting me in getting our Choice Privileges points reimbursed to our account.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d109570-r334006701-Quality_Suites_North_Galleria-Addison_Texas.html</t>
+  </si>
+  <si>
+    <t>334006701</t>
+  </si>
+  <si>
+    <t>12/20/2015</t>
+  </si>
+  <si>
+    <t>Clean and comfortable but excessive pet fee</t>
+  </si>
+  <si>
+    <t>The room was nice, the breakfast was fair, the $20.00 per night pet fee was excessive compared to other hotels.  We would consider staying here again if we needed to be in the area, but not to the exclusion of other properties.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2015</t>
+  </si>
+  <si>
+    <t>comfortsuitesaddison, General Manager at Quality Suites North / Galleria, responded to this reviewResponded December 24, 2015</t>
+  </si>
+  <si>
+    <t>Responded December 24, 2015</t>
+  </si>
+  <si>
+    <t>The room was nice, the breakfast was fair, the $20.00 per night pet fee was excessive compared to other hotels.  We would consider staying here again if we needed to be in the area, but not to the exclusion of other properties.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d109570-r326000761-Quality_Suites_North_Galleria-Addison_Texas.html</t>
+  </si>
+  <si>
+    <t>326000761</t>
+  </si>
+  <si>
+    <t>11/11/2015</t>
+  </si>
+  <si>
+    <t>Better than expected</t>
+  </si>
+  <si>
+    <t>Great customer service from Alexis at front desk! Room was big and comfortable . aC only bedroom, ceiling fan in living area. Kitchenette, two tvs and bathroom just ok. Complimentary hot breakfast is perfect just enough, scrambled eggs, sausage, biscuits &amp; gravy plus Texas shaped waffles! Didn't get into pool used the fitness center very old equipment but treadmill fine. Eateries in area &amp; shopping about 10-15 mins away! Galleria is huge! Great stay! Would returnMoreShow less</t>
+  </si>
+  <si>
+    <t>November 2015</t>
+  </si>
+  <si>
+    <t>comfortsuitesaddison, General Manager at Quality Suites North / Galleria, responded to this reviewResponded November 13, 2015</t>
+  </si>
+  <si>
+    <t>Responded November 13, 2015</t>
+  </si>
+  <si>
+    <t>Great customer service from Alexis at front desk! Room was big and comfortable . aC only bedroom, ceiling fan in living area. Kitchenette, two tvs and bathroom just ok. Complimentary hot breakfast is perfect just enough, scrambled eggs, sausage, biscuits &amp; gravy plus Texas shaped waffles! Didn't get into pool used the fitness center very old equipment but treadmill fine. Eateries in area &amp; shopping about 10-15 mins away! Galleria is huge! Great stay! Would returnMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d109570-r323038150-Quality_Suites_North_Galleria-Addison_Texas.html</t>
+  </si>
+  <si>
+    <t>323038150</t>
+  </si>
+  <si>
+    <t>10/29/2015</t>
+  </si>
+  <si>
+    <t>Good value</t>
+  </si>
+  <si>
+    <t>This is a very nice hotel. The room was a suite with doors between the bedroom and the living room - kitchen combination. The windows open to a field, so fresh air was flowing freely. The bed was comfortable and the couch nicely upholstered for watching TV. The bathroom was large.  The staff was welcoming. Chamberlain Fish Market Grill was a short stroll back up the driveway. Yum.The breakfast waffle is in the shape of the state of Texas, which I imagined would make it drier, but it came out beautifully. They do not have hot chocolate, but have the more expensive coffee - a strange economy, to my way of thinking. They have Activa Yogurt which was great. No bananas were available. Hot cereal was handy and juices.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2015</t>
+  </si>
+  <si>
+    <t>This is a very nice hotel. The room was a suite with doors between the bedroom and the living room - kitchen combination. The windows open to a field, so fresh air was flowing freely. The bed was comfortable and the couch nicely upholstered for watching TV. The bathroom was large.  The staff was welcoming. Chamberlain Fish Market Grill was a short stroll back up the driveway. Yum.The breakfast waffle is in the shape of the state of Texas, which I imagined would make it drier, but it came out beautifully. They do not have hot chocolate, but have the more expensive coffee - a strange economy, to my way of thinking. They have Activa Yogurt which was great. No bananas were available. Hot cereal was handy and juices.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d109570-r320447574-Quality_Suites_North_Galleria-Addison_Texas.html</t>
+  </si>
+  <si>
+    <t>320447574</t>
+  </si>
+  <si>
+    <t>10/20/2015</t>
+  </si>
+  <si>
+    <t>Filthy, unhealthy conditions</t>
+  </si>
+  <si>
+    <t>My husband &amp; I acquired an upper respiratory infection after our week stay in this hotel.  The black mold or mildew up in the bathroom ceiling over the shower was never cleaned, even after I informed the hotel staff of this issue.   Or maybe the filthy condition of the air-conditioning unit itself ?After I asked front desk employees to have housekeeping mop the elevator's  stickyfloor, and at least rinse off the waiting bench outside that was also dirty &amp; sticky, along with someone from maint. to look at the moldly ceiling in the bathroom, we were "locked" out of our room that night.   We did not have any problems getting in and out of our room for 3 days, until I asked for some of the filth to be cleaned.   Boring, same food offered all week in breakfast bar, along with another filthy floor just outside the eating area - linoleum hallway.    Unfriendly front desk staff.     I booked through Hotels.com and was told upon check-out that I wouldn't get any of the reward points for staying in this chain of hotels due to booking online.MoreShow less</t>
+  </si>
+  <si>
+    <t>comfortsuitesaddison, General Manager at Quality Suites North / Galleria, responded to this reviewResponded October 22, 2015</t>
+  </si>
+  <si>
+    <t>Responded October 22, 2015</t>
+  </si>
+  <si>
+    <t>My husband &amp; I acquired an upper respiratory infection after our week stay in this hotel.  The black mold or mildew up in the bathroom ceiling over the shower was never cleaned, even after I informed the hotel staff of this issue.   Or maybe the filthy condition of the air-conditioning unit itself ?After I asked front desk employees to have housekeeping mop the elevator's  stickyfloor, and at least rinse off the waiting bench outside that was also dirty &amp; sticky, along with someone from maint. to look at the moldly ceiling in the bathroom, we were "locked" out of our room that night.   We did not have any problems getting in and out of our room for 3 days, until I asked for some of the filth to be cleaned.   Boring, same food offered all week in breakfast bar, along with another filthy floor just outside the eating area - linoleum hallway.    Unfriendly front desk staff.     I booked through Hotels.com and was told upon check-out that I wouldn't get any of the reward points for staying in this chain of hotels due to booking online.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d109570-r317710558-Quality_Suites_North_Galleria-Addison_Texas.html</t>
+  </si>
+  <si>
+    <t>317710558</t>
+  </si>
+  <si>
+    <t>10/11/2015</t>
+  </si>
+  <si>
+    <t>Nice hotel, Friendly staff</t>
+  </si>
+  <si>
+    <t>The hotel was a little hard to find and see from Beltline. They are back behind some other buildings.Once we arrived everything was good. The staff was friendly and helpful.Room was clean and comfortable.The breakfast was great and had lots of options. There are plenty of restaurants within walking distance.Had an indoor pool but we did not use it.MoreShow less</t>
+  </si>
+  <si>
+    <t>comfortsuitesaddison, General Manager at Quality Suites North / Galleria, responded to this reviewResponded October 14, 2015</t>
+  </si>
+  <si>
+    <t>Responded October 14, 2015</t>
+  </si>
+  <si>
+    <t>The hotel was a little hard to find and see from Beltline. They are back behind some other buildings.Once we arrived everything was good. The staff was friendly and helpful.Room was clean and comfortable.The breakfast was great and had lots of options. There are plenty of restaurants within walking distance.Had an indoor pool but we did not use it.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d109570-r316696231-Quality_Suites_North_Galleria-Addison_Texas.html</t>
+  </si>
+  <si>
+    <t>316696231</t>
+  </si>
+  <si>
+    <t>10/06/2015</t>
+  </si>
+  <si>
+    <t>Great Value</t>
+  </si>
+  <si>
+    <t>Staff was very friendly.  I did not take advantage of the morning breakfast but the dining area looked much better than most hotels in this price range.  Free WiFi, large room with sitting room, two LCD TV's.  AC did not cool the room too well, had the temp set at 66 all night and it never got close to that although it wasn't uncomfortable.  Lots of restaurant opportunities within walking distance of the hotel.  Would stay here again.MoreShow less</t>
+  </si>
+  <si>
+    <t>Staff was very friendly.  I did not take advantage of the morning breakfast but the dining area looked much better than most hotels in this price range.  Free WiFi, large room with sitting room, two LCD TV's.  AC did not cool the room too well, had the temp set at 66 all night and it never got close to that although it wasn't uncomfortable.  Lots of restaurant opportunities within walking distance of the hotel.  Would stay here again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d109570-r308990383-Quality_Suites_North_Galleria-Addison_Texas.html</t>
+  </si>
+  <si>
+    <t>308990383</t>
+  </si>
+  <si>
+    <t>09/10/2015</t>
+  </si>
+  <si>
+    <t>Good Location</t>
+  </si>
+  <si>
+    <t>The hotel is in a good area around a lot of food places which are walking distance, rooms are very very comfortable, staff were very pleasant took very good care of me, breakfast also wonderful! I would def stay againMoreShow less</t>
+  </si>
+  <si>
+    <t>August 2015</t>
+  </si>
+  <si>
+    <t>comfortsuitesaddison, General Manager at Quality Suites North / Galleria, responded to this reviewResponded October 1, 2015</t>
+  </si>
+  <si>
+    <t>Responded October 1, 2015</t>
+  </si>
+  <si>
+    <t>The hotel is in a good area around a lot of food places which are walking distance, rooms are very very comfortable, staff were very pleasant took very good care of me, breakfast also wonderful! I would def stay againMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d109570-r304368613-Quality_Suites_North_Galleria-Addison_Texas.html</t>
+  </si>
+  <si>
+    <t>304368613</t>
+  </si>
+  <si>
+    <t>08/28/2015</t>
+  </si>
+  <si>
+    <t>Great place</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The room was great and bed was toooooo comfortable. The room had recently been upgraded but you can tell who ever did it has rushing and did a half decent job. The front desk staff was awesome and speedy. I would stay here over again. </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d109570-r302304986-Quality_Suites_North_Galleria-Addison_Texas.html</t>
+  </si>
+  <si>
+    <t>302304986</t>
+  </si>
+  <si>
+    <t>08/22/2015</t>
+  </si>
+  <si>
+    <t>Very nice motel, good location and excelent staff</t>
+  </si>
+  <si>
+    <t>I was pleasantly surprised by the accommodations and its location. It was easy to access the metro Dallas area from the motel and its rates were reasonable. The staff was excellent and one young man by the name of Fernando stands out in my mind. Would definitely stay here again and highly recommend it.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d109570-r293925503-Quality_Suites_North_Galleria-Addison_Texas.html</t>
+  </si>
+  <si>
+    <t>293925503</t>
+  </si>
+  <si>
+    <t>07/29/2015</t>
+  </si>
+  <si>
+    <t>We would stay here again!</t>
+  </si>
+  <si>
+    <t>Hotel is difficult to findas it cannot be seenfrom the street. A quick call to the hotel and we received excellent directions. Excellent service, very nice and spacious suite with dining and sitting areas, convenient to restaurants. Made our visit with family enjoyable!MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2015</t>
+  </si>
+  <si>
+    <t>comfortsuitesaddison, General Manager at Quality Suites North / Galleria, responded to this reviewResponded July 31, 2015</t>
+  </si>
+  <si>
+    <t>Responded July 31, 2015</t>
+  </si>
+  <si>
+    <t>Hotel is difficult to findas it cannot be seenfrom the street. A quick call to the hotel and we received excellent directions. Excellent service, very nice and spacious suite with dining and sitting areas, convenient to restaurants. Made our visit with family enjoyable!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d109570-r293060728-Quality_Suites_North_Galleria-Addison_Texas.html</t>
+  </si>
+  <si>
+    <t>293060728</t>
+  </si>
+  <si>
+    <t>07/27/2015</t>
+  </si>
+  <si>
+    <t>Recent Stay</t>
+  </si>
+  <si>
+    <t>I had the opportunity to stay at the Comfort Suites, Addison, TX last week. What an awesome staff...Very Friendly and Accommodating! Everyone that I encountered was eager to assist with anything in-house or outside suggestions for lunch, dinner, etc. My room was spacious and equipped with everything that I needed. If my travels bring me back into their area once again, its my place to stay! Keep up the Great Job guys. Sincerely. Jacques</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d109570-r286600654-Quality_Suites_North_Galleria-Addison_Texas.html</t>
+  </si>
+  <si>
+    <t>286600654</t>
+  </si>
+  <si>
+    <t>07/07/2015</t>
+  </si>
+  <si>
+    <t>Nice place</t>
+  </si>
+  <si>
+    <t>Rooms have ceiling fans in sitting area!  Nice touch.  Good wi-fi.  Also desk area with extra plugs.  Nice breakfast.  Near many places to eat!  Close to the tollway.  No traffic noise as it sits way back from main road and road nearest is not that busy in the evenings.</t>
+  </si>
+  <si>
+    <t>June 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d109570-r267571874-Quality_Suites_North_Galleria-Addison_Texas.html</t>
+  </si>
+  <si>
+    <t>267571874</t>
+  </si>
+  <si>
+    <t>04/23/2015</t>
+  </si>
+  <si>
+    <t>Great Property, Mediocre Service</t>
+  </si>
+  <si>
+    <t>My check-in experience was atrocious. I checked-in at about 10pm on 4/20/15. The entire experience was scripted with no care whatsoever. When I got to my room, the air conditioner didn't work. I called down and the attendant (female) said that it was highly unusual and that I should press the on and off switch. I explained that the air conditioner had a F1 error message so it wasn't going to happen any time soon. I also asked to be moved in terms of floors, plus (as a Platinum member) I was put across the hallway from a room with literally 10 school kids with their door wide open.When I got my new key at the front desk, all I received was the key on the counter...no apologizes and no care. I later received a call in my room asking if the air conditioner worked. I only assume that I received the call because I specifically looked at the name of the employee's badge at the front desk.Security is also a joke. He's sitting in the dark reading his IPad and not looking at who is going in and out at all.With so many Choice properties to choose from in Dallas, I would never recommend this property.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2015</t>
+  </si>
+  <si>
+    <t>My check-in experience was atrocious. I checked-in at about 10pm on 4/20/15. The entire experience was scripted with no care whatsoever. When I got to my room, the air conditioner didn't work. I called down and the attendant (female) said that it was highly unusual and that I should press the on and off switch. I explained that the air conditioner had a F1 error message so it wasn't going to happen any time soon. I also asked to be moved in terms of floors, plus (as a Platinum member) I was put across the hallway from a room with literally 10 school kids with their door wide open.When I got my new key at the front desk, all I received was the key on the counter...no apologizes and no care. I later received a call in my room asking if the air conditioner worked. I only assume that I received the call because I specifically looked at the name of the employee's badge at the front desk.Security is also a joke. He's sitting in the dark reading his IPad and not looking at who is going in and out at all.With so many Choice properties to choose from in Dallas, I would never recommend this property.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d109570-r262571769-Quality_Suites_North_Galleria-Addison_Texas.html</t>
+  </si>
+  <si>
+    <t>262571769</t>
+  </si>
+  <si>
+    <t>03/29/2015</t>
+  </si>
+  <si>
+    <t>Great Value, but Excellent Service.</t>
+  </si>
+  <si>
+    <t>We spent five nights at this hotel.  There are some minor details that should be attended to, such as tub drains missing, and painting details like under the bathroom counters.  (we were provided a new rubber stopper during our stay) Overall, though, the service is excellent.  Smiles abound with the staff, the rooms were very clean, the breakfast was great, coffee always fresh and hot.  The pool and exercise room, while small, were awesome.  The area is quite nice and it's an easy walk to the local transit center for city busses, or just walk across the street for local routes.  There is a small airport close, however, from our room, we never heard any planes.  We were very pleased with our stay.  Be sure to ask about local restaurants that deliver, and the daytime shuttle service for shopping and incidentals.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2015</t>
+  </si>
+  <si>
+    <t>We spent five nights at this hotel.  There are some minor details that should be attended to, such as tub drains missing, and painting details like under the bathroom counters.  (we were provided a new rubber stopper during our stay) Overall, though, the service is excellent.  Smiles abound with the staff, the rooms were very clean, the breakfast was great, coffee always fresh and hot.  The pool and exercise room, while small, were awesome.  The area is quite nice and it's an easy walk to the local transit center for city busses, or just walk across the street for local routes.  There is a small airport close, however, from our room, we never heard any planes.  We were very pleased with our stay.  Be sure to ask about local restaurants that deliver, and the daytime shuttle service for shopping and incidentals.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d109570-r260595353-Quality_Suites_North_Galleria-Addison_Texas.html</t>
+  </si>
+  <si>
+    <t>260595353</t>
+  </si>
+  <si>
+    <t>03/19/2015</t>
+  </si>
+  <si>
+    <t>We'd stay here again!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Our one bedroom suite was pretty spacious and was just what our family needed for our stay. The staff was very friendly and helpful. The housekeeping staff was so nice and thorough. Breakfast was hot and pretty decent. Welcome through Dallas fairly often and will be sure to stay here again on future trips! </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d109570-r255707514-Quality_Suites_North_Galleria-Addison_Texas.html</t>
+  </si>
+  <si>
+    <t>255707514</t>
+  </si>
+  <si>
+    <t>02/21/2015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Family getaway </t>
+  </si>
+  <si>
+    <t>We have stayed in this hotel in the past thought it was a great place. This time the room was nice but beds are broke down, sofa bed usable.  Mold in shower and sinks room has a musty smell. Staff is very friendly and breakfast is really good.  Not sure if we will stay here again or not.  MoreShow less</t>
+  </si>
+  <si>
+    <t>comfortsuitesaddison, General Manager at Quality Suites North / Galleria, responded to this reviewResponded March 16, 2015</t>
+  </si>
+  <si>
+    <t>Responded March 16, 2015</t>
+  </si>
+  <si>
+    <t>We have stayed in this hotel in the past thought it was a great place. This time the room was nice but beds are broke down, sofa bed usable.  Mold in shower and sinks room has a musty smell. Staff is very friendly and breakfast is really good.  Not sure if we will stay here again or not.  More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d109570-r247029119-Quality_Suites_North_Galleria-Addison_Texas.html</t>
+  </si>
+  <si>
+    <t>247029119</t>
+  </si>
+  <si>
+    <t>01/02/2015</t>
+  </si>
+  <si>
+    <t>Discomfort Suites</t>
+  </si>
+  <si>
+    <t>Stayed on 31 Dec 2014, This place is by far the Worst Hotel I've ever been at !! Starting with a door that would not lock correctly, Bed mattress worn out (springs popping) pillows not fluffy. A distinct odor in the room like dog odor and febreeze mixed together. Slow internet (1mb), And if you are sensitive to sounds at night bring your double hearing protection ! You will here every foot step and every door slamming not to mention the domestic disputes in the hallway. When I told the night manager she called me a liar in reference to the room odor. DO NOT waste your money or time at this establishment They should change the name to discomfort Inn !! • • •MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2014</t>
+  </si>
+  <si>
+    <t>Stayed on 31 Dec 2014, This place is by far the Worst Hotel I've ever been at !! Starting with a door that would not lock correctly, Bed mattress worn out (springs popping) pillows not fluffy. A distinct odor in the room like dog odor and febreeze mixed together. Slow internet (1mb), And if you are sensitive to sounds at night bring your double hearing protection ! You will here every foot step and every door slamming not to mention the domestic disputes in the hallway. When I told the night manager she called me a liar in reference to the room odor. DO NOT waste your money or time at this establishment They should change the name to discomfort Inn !! • • •More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d109570-r240282625-Quality_Suites_North_Galleria-Addison_Texas.html</t>
+  </si>
+  <si>
+    <t>240282625</t>
+  </si>
+  <si>
+    <t>11/17/2014</t>
+  </si>
+  <si>
+    <t>Great price, great location, could be a 4 or 5.</t>
+  </si>
+  <si>
+    <t>The summary is this hotel is in a great location and it's a great price.  It lacks quality and basic attention to detail.
+Hotel has a ton of pros / positives going for it.  With some work, this hotel could be a 4 or even a 5.
+Great price. Period.
+Great location, close to tons of restaurants and right off major highway.
+I'm a huge fan of a full hot breakfast and it's one of the things I look for in a hotel so I can start my day off right.  There were a lot of choices, including biscuits &amp; sausage gravy, scrambled eggs, bacon or sausage, waffles, bagels, toast, oatmeal, cereal, fresh fruit, juice, coffee, etc.  Even with all the choices, the breakfast was just okay.  It lacked quality.
+The room was okay, living room furniture was old/dated and the couch was well used.  Upon arrival, for some reason, the room was set to 60F on the 'cool' setting.  The light when you first entered the room didn't work. The ironing board was bare metal and didn't have any cover/pad on it.  The TV in the living room wasn't hooked up to cable/dish/sat.   Lastly, there was some mold in the shower.
+When booking the room, weeks in advance, I had requested top (3rd) floor away from the elevator or stairs.  They gave me a room on the 2nd floor right next to the stairs.  Needless to say, I wasn't...The summary is this hotel is in a great location and it's a great price.  It lacks quality and basic attention to detail.Hotel has a ton of pros / positives going for it.  With some work, this hotel could be a 4 or even a 5.Great price. Period.Great location, close to tons of restaurants and right off major highway.I'm a huge fan of a full hot breakfast and it's one of the things I look for in a hotel so I can start my day off right.  There were a lot of choices, including biscuits &amp; sausage gravy, scrambled eggs, bacon or sausage, waffles, bagels, toast, oatmeal, cereal, fresh fruit, juice, coffee, etc.  Even with all the choices, the breakfast was just okay.  It lacked quality.The room was okay, living room furniture was old/dated and the couch was well used.  Upon arrival, for some reason, the room was set to 60F on the 'cool' setting.  The light when you first entered the room didn't work. The ironing board was bare metal and didn't have any cover/pad on it.  The TV in the living room wasn't hooked up to cable/dish/sat.   Lastly, there was some mold in the shower.When booking the room, weeks in advance, I had requested top (3rd) floor away from the elevator or stairs.  They gave me a room on the 2nd floor right next to the stairs.  Needless to say, I wasn't happy.They were doing some renovations on the 2nd floor hallway, which is fine.  I still think the areas should have been kept cleaner than they were.  When I do renovations at my house, it's not that hard to clean the work area at the end of the day.Not sure what was going on with trash pickup, etc.  They was a bag of trash in the hallway on the first floor that sat there for a minimum of two days.  I walked past it four times a day.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2014</t>
+  </si>
+  <si>
+    <t>The summary is this hotel is in a great location and it's a great price.  It lacks quality and basic attention to detail.
+Hotel has a ton of pros / positives going for it.  With some work, this hotel could be a 4 or even a 5.
+Great price. Period.
+Great location, close to tons of restaurants and right off major highway.
+I'm a huge fan of a full hot breakfast and it's one of the things I look for in a hotel so I can start my day off right.  There were a lot of choices, including biscuits &amp; sausage gravy, scrambled eggs, bacon or sausage, waffles, bagels, toast, oatmeal, cereal, fresh fruit, juice, coffee, etc.  Even with all the choices, the breakfast was just okay.  It lacked quality.
+The room was okay, living room furniture was old/dated and the couch was well used.  Upon arrival, for some reason, the room was set to 60F on the 'cool' setting.  The light when you first entered the room didn't work. The ironing board was bare metal and didn't have any cover/pad on it.  The TV in the living room wasn't hooked up to cable/dish/sat.   Lastly, there was some mold in the shower.
+When booking the room, weeks in advance, I had requested top (3rd) floor away from the elevator or stairs.  They gave me a room on the 2nd floor right next to the stairs.  Needless to say, I wasn't...The summary is this hotel is in a great location and it's a great price.  It lacks quality and basic attention to detail.Hotel has a ton of pros / positives going for it.  With some work, this hotel could be a 4 or even a 5.Great price. Period.Great location, close to tons of restaurants and right off major highway.I'm a huge fan of a full hot breakfast and it's one of the things I look for in a hotel so I can start my day off right.  There were a lot of choices, including biscuits &amp; sausage gravy, scrambled eggs, bacon or sausage, waffles, bagels, toast, oatmeal, cereal, fresh fruit, juice, coffee, etc.  Even with all the choices, the breakfast was just okay.  It lacked quality.The room was okay, living room furniture was old/dated and the couch was well used.  Upon arrival, for some reason, the room was set to 60F on the 'cool' setting.  The light when you first entered the room didn't work. The ironing board was bare metal and didn't have any cover/pad on it.  The TV in the living room wasn't hooked up to cable/dish/sat.   Lastly, there was some mold in the shower.When booking the room, weeks in advance, I had requested top (3rd) floor away from the elevator or stairs.  They gave me a room on the 2nd floor right next to the stairs.  Needless to say, I wasn't happy.They were doing some renovations on the 2nd floor hallway, which is fine.  I still think the areas should have been kept cleaner than they were.  When I do renovations at my house, it's not that hard to clean the work area at the end of the day.Not sure what was going on with trash pickup, etc.  They was a bag of trash in the hallway on the first floor that sat there for a minimum of two days.  I walked past it four times a day.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d109570-r222671989-Quality_Suites_North_Galleria-Addison_Texas.html</t>
+  </si>
+  <si>
+    <t>222671989</t>
+  </si>
+  <si>
+    <t>08/18/2014</t>
+  </si>
+  <si>
+    <t>KaBOOM!! Great Extended Stay!!</t>
+  </si>
+  <si>
+    <t>Our 10 day extended stay through the week of 4th of July was Outstanding. We enjoyed the perfect view of Addison's KaBOOM Town. Our Suite, the Hotel Staff and Room Service, Great Breakfasts, Indoor pool...PERFECT!!MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2014</t>
+  </si>
+  <si>
+    <t>comfortsuitesaddison, General Manager at Quality Suites North / Galleria, responded to this reviewResponded August 21, 2014</t>
+  </si>
+  <si>
+    <t>Responded August 21, 2014</t>
+  </si>
+  <si>
+    <t>Our 10 day extended stay through the week of 4th of July was Outstanding. We enjoyed the perfect view of Addison's KaBOOM Town. Our Suite, the Hotel Staff and Room Service, Great Breakfasts, Indoor pool...PERFECT!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d109570-r220982790-Quality_Suites_North_Galleria-Addison_Texas.html</t>
+  </si>
+  <si>
+    <t>220982790</t>
+  </si>
+  <si>
+    <t>08/10/2014</t>
+  </si>
+  <si>
+    <t>Nice Property, Great Breakfast</t>
+  </si>
+  <si>
+    <t>Modern and clean property. The Choice Hotels breakfast is usually average, but this property had better choices and makes a great presentation. I highly recommend a stay at this Comfort Suites property. Close to shopping and restaurants.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2014</t>
+  </si>
+  <si>
+    <t>Modern and clean property. The Choice Hotels breakfast is usually average, but this property had better choices and makes a great presentation. I highly recommend a stay at this Comfort Suites property. Close to shopping and restaurants.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d109570-r220675996-Quality_Suites_North_Galleria-Addison_Texas.html</t>
+  </si>
+  <si>
+    <t>220675996</t>
+  </si>
+  <si>
+    <t>08/09/2014</t>
+  </si>
+  <si>
+    <t>Nice place, nice beds, nice price, okay breakfast</t>
+  </si>
+  <si>
+    <t>Like any good stay in a hotel, most everything worked as needed. Nice staff and okay breakfast (more fresh fruit please and larger coffee cups...), a very comfortable bed at a great price. Liked the suite and used both microwave &amp; fridge. I am planning to return in the next few weeks.MoreShow less</t>
+  </si>
+  <si>
+    <t>Like any good stay in a hotel, most everything worked as needed. Nice staff and okay breakfast (more fresh fruit please and larger coffee cups...), a very comfortable bed at a great price. Liked the suite and used both microwave &amp; fridge. I am planning to return in the next few weeks.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d109570-r216284908-Quality_Suites_North_Galleria-Addison_Texas.html</t>
+  </si>
+  <si>
+    <t>216284908</t>
+  </si>
+  <si>
+    <t>07/19/2014</t>
+  </si>
+  <si>
+    <t>family fun</t>
+  </si>
+  <si>
+    <t>Other than having trouble looking for the hotel, this was very nice. The staff was great and friendly. And the room was spacious and the bed very comfortable. The location is great had bunch of restuarnts to choose from and walking distance too.MoreShow less</t>
+  </si>
+  <si>
+    <t>comfortsuitesaddison, General Manager at Quality Suites North / Galleria, responded to this reviewResponded July 30, 2014</t>
+  </si>
+  <si>
+    <t>Responded July 30, 2014</t>
+  </si>
+  <si>
+    <t>Other than having trouble looking for the hotel, this was very nice. The staff was great and friendly. And the room was spacious and the bed very comfortable. The location is great had bunch of restuarnts to choose from and walking distance too.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d109570-r213395026-Quality_Suites_North_Galleria-Addison_Texas.html</t>
+  </si>
+  <si>
+    <t>213395026</t>
+  </si>
+  <si>
+    <t>07/02/2014</t>
+  </si>
+  <si>
+    <t>Horrible!</t>
+  </si>
+  <si>
+    <t>Stayed this weekend with my family. The walls had dents and scratches. The floors felt wet and moldy, I had to wear socks my entire stay to feel comfortable, of course my socks were black after walking around. The bathroom floor had black  hair, dirt smudges under sink, the lining of the tub was molded and the shower had molded spots. There were no sheets available for the sofa sleeper. The only good thing about the hotel was the location, it was very nice. The toilet was leaking constantly creating the bathroom floor being wet. The breakfast was not as the website said, no cereal or waffles, there was very little variety and ran out of everything to drink and was all watered down including the coffee. The  ice maker was broken and leaked all over the hallway and no carts for luggage. The girl up front was never helpful and just kept saying.she didn't know she just got here. This was by far the worst hotel experience I have ever had and will not return.MoreShow less</t>
+  </si>
+  <si>
+    <t>comfortsuitesaddison, General Manager at Quality Suites North / Galleria, responded to this reviewResponded July 6, 2014</t>
+  </si>
+  <si>
+    <t>Responded July 6, 2014</t>
+  </si>
+  <si>
+    <t>Stayed this weekend with my family. The walls had dents and scratches. The floors felt wet and moldy, I had to wear socks my entire stay to feel comfortable, of course my socks were black after walking around. The bathroom floor had black  hair, dirt smudges under sink, the lining of the tub was molded and the shower had molded spots. There were no sheets available for the sofa sleeper. The only good thing about the hotel was the location, it was very nice. The toilet was leaking constantly creating the bathroom floor being wet. The breakfast was not as the website said, no cereal or waffles, there was very little variety and ran out of everything to drink and was all watered down including the coffee. The  ice maker was broken and leaked all over the hallway and no carts for luggage. The girl up front was never helpful and just kept saying.she didn't know she just got here. This was by far the worst hotel experience I have ever had and will not return.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d109570-r211906194-Quality_Suites_North_Galleria-Addison_Texas.html</t>
+  </si>
+  <si>
+    <t>211906194</t>
+  </si>
+  <si>
+    <t>06/24/2014</t>
+  </si>
+  <si>
+    <t>Great location, excellent staff</t>
+  </si>
+  <si>
+    <t>Highly recommended if you are looking for a dependable night’s stay at a good value.  The property has been recently refreshed.  Very clean rooms with plenty of towels.  Great location.  Several restaurants on Addison’s main drag are walkable from the hotel.  The hotel address is on Belt Line Rd. but its “rear” entrance on Arapaho is easier to navigate.The manager is both personable and available.  The staff could not be more friendly or helpful.  I felt genuinely welcome when I checked in.  Very reasonably priced for the area.  Both the mattress and bedding were very comfortable.  Good water pressure.  Free breakfast was the standard offering but offered plentiful choices.Plenty of free parking.  Wi-Fi is strong and free.  The pool and Jacuzzi looked inviting.  Two complimentary newspapers are offered in the lobby.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2014</t>
+  </si>
+  <si>
+    <t>Highly recommended if you are looking for a dependable night’s stay at a good value.  The property has been recently refreshed.  Very clean rooms with plenty of towels.  Great location.  Several restaurants on Addison’s main drag are walkable from the hotel.  The hotel address is on Belt Line Rd. but its “rear” entrance on Arapaho is easier to navigate.The manager is both personable and available.  The staff could not be more friendly or helpful.  I felt genuinely welcome when I checked in.  Very reasonably priced for the area.  Both the mattress and bedding were very comfortable.  Good water pressure.  Free breakfast was the standard offering but offered plentiful choices.Plenty of free parking.  Wi-Fi is strong and free.  The pool and Jacuzzi looked inviting.  Two complimentary newspapers are offered in the lobby.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d109570-r202866413-Quality_Suites_North_Galleria-Addison_Texas.html</t>
+  </si>
+  <si>
+    <t>202866413</t>
+  </si>
+  <si>
+    <t>04/26/2014</t>
+  </si>
+  <si>
+    <t>Excellent Stay In a Good Location</t>
+  </si>
+  <si>
+    <t>Comfort Suites North/Galleria was a wonderful surprise for a friend and I during an Easter weekend vacation. The parking lot is roomy, with easy access to main roads. Friendly and helpful staff, which made check-in and -out a breeze. We were at the end of the hall in one of the fancier suites, with a large jacuzzi, and we never heard a bit of noise for three nights, even though the hotel was packed. Our room was large and very comfortable, and the bed was one of the best I've experienced in a hotel in some time. A hot buffet breakfast is available every day, with enough variety to satisfy most folks. One strong positive is the hotel's location - restaurants, retail stores, and other facilities abound, leaving the guests with lots of choices nearby. On the downside, as with a number of hotels in the area, there is no sign on the main road saying 'turn here for hotel.' If we hadn't searched for directions in advance, I'm not sure if we would have easily found it (hint - it's behind the Fish Market Restaurant)! We'll definitely stay there again on our next visit to the DFW area.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2014</t>
+  </si>
+  <si>
+    <t>Comfort Suites North/Galleria was a wonderful surprise for a friend and I during an Easter weekend vacation. The parking lot is roomy, with easy access to main roads. Friendly and helpful staff, which made check-in and -out a breeze. We were at the end of the hall in one of the fancier suites, with a large jacuzzi, and we never heard a bit of noise for three nights, even though the hotel was packed. Our room was large and very comfortable, and the bed was one of the best I've experienced in a hotel in some time. A hot buffet breakfast is available every day, with enough variety to satisfy most folks. One strong positive is the hotel's location - restaurants, retail stores, and other facilities abound, leaving the guests with lots of choices nearby. On the downside, as with a number of hotels in the area, there is no sign on the main road saying 'turn here for hotel.' If we hadn't searched for directions in advance, I'm not sure if we would have easily found it (hint - it's behind the Fish Market Restaurant)! We'll definitely stay there again on our next visit to the DFW area.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d109570-r201309414-Quality_Suites_North_Galleria-Addison_Texas.html</t>
+  </si>
+  <si>
+    <t>201309414</t>
+  </si>
+  <si>
+    <t>04/15/2014</t>
+  </si>
+  <si>
+    <t>Cala is a dream to work with!</t>
+  </si>
+  <si>
+    <t>I have taken a group of 100+ teenagers to a conference in Dallas every year for the past 7 years. This was my first year staying at Comfort Suites North/Galleria. I have never been so impressed with service at a hotel. Cala and her entire staff were incredibly easy to work with and gracious! Most hotels tend to dread a group of teenagers this size; however, everyone we encountered went above and beyond to let us know we were welcome there. I know where I'll be booking every year!!</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d109570-r200291876-Quality_Suites_North_Galleria-Addison_Texas.html</t>
+  </si>
+  <si>
+    <t>200291876</t>
+  </si>
+  <si>
+    <t>04/07/2014</t>
+  </si>
+  <si>
+    <t>Wonderful Experience</t>
+  </si>
+  <si>
+    <t>I made it into Addison Texas early March 2014 totally exhausted and the Manager Kala was so friendly and the staff you all made a lasting impression on me just the smiles and helpfulness, Thank YouLindaMoreShow less</t>
+  </si>
+  <si>
+    <t>March 2014</t>
+  </si>
+  <si>
+    <t>comfortsuitesaddison, General Manager at Quality Suites North / Galleria, responded to this reviewResponded April 9, 2014</t>
+  </si>
+  <si>
+    <t>Responded April 9, 2014</t>
+  </si>
+  <si>
+    <t>I made it into Addison Texas early March 2014 totally exhausted and the Manager Kala was so friendly and the staff you all made a lasting impression on me just the smiles and helpfulness, Thank YouLindaMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d109570-r188051702-Quality_Suites_North_Galleria-Addison_Texas.html</t>
+  </si>
+  <si>
+    <t>188051702</t>
+  </si>
+  <si>
+    <t>12/19/2013</t>
+  </si>
+  <si>
+    <t>Above &amp; Beyond</t>
+  </si>
+  <si>
+    <t>I stayed here for 3 nights &amp; had a wonderful time. It was a very comfortable &amp; had a homey feel.Once I got home I realized that I had lost a bracelet.I called &amp; spoke w/ Kayla Montano when I explained to her the meaning of the bracelet she said she would search the rooms we stayed in and call me back. They could not find it anywhere but she did't stop there she walked the same path we took to Chamberlain's restaurant and also checked w/ the Mgr there to see if anyone had found.I was really touched by the time she spent to try to help me find my bracelet &amp; will always rememberher kindness and willigness to help.We will definitely stay here again.JulietteMoreShow less</t>
+  </si>
+  <si>
+    <t>December 2013</t>
+  </si>
+  <si>
+    <t>I stayed here for 3 nights &amp; had a wonderful time. It was a very comfortable &amp; had a homey feel.Once I got home I realized that I had lost a bracelet.I called &amp; spoke w/ Kayla Montano when I explained to her the meaning of the bracelet she said she would search the rooms we stayed in and call me back. They could not find it anywhere but she did't stop there she walked the same path we took to Chamberlain's restaurant and also checked w/ the Mgr there to see if anyone had found.I was really touched by the time she spent to try to help me find my bracelet &amp; will always rememberher kindness and willigness to help.We will definitely stay here again.JulietteMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d109570-r186580538-Quality_Suites_North_Galleria-Addison_Texas.html</t>
+  </si>
+  <si>
+    <t>186580538</t>
+  </si>
+  <si>
+    <t>12/02/2013</t>
+  </si>
+  <si>
+    <t>Excellent stay- love staying here!</t>
+  </si>
+  <si>
+    <t>This is a great hotel in a great location!  Somewhat difficult to find the first time as it is behind Macaroni Grill (can also be accessed off Arapaho).  Walking distance to great restaurants and very close to many shopping areas!  It's great for our family with a child and dogs!  Big area to walk the dogs, indoor pool, hot breakfast, and more room in the suites (incl a fridge/micro)!  The manager of this hotel is outstanding and goes above and beyond to really care about her hotel and guests.  I definitely recommend staying here!MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2013</t>
+  </si>
+  <si>
+    <t>comfortsuitesaddison, General Manager at Quality Suites North / Galleria, responded to this reviewResponded December 12, 2013</t>
+  </si>
+  <si>
+    <t>Responded December 12, 2013</t>
+  </si>
+  <si>
+    <t>This is a great hotel in a great location!  Somewhat difficult to find the first time as it is behind Macaroni Grill (can also be accessed off Arapaho).  Walking distance to great restaurants and very close to many shopping areas!  It's great for our family with a child and dogs!  Big area to walk the dogs, indoor pool, hot breakfast, and more room in the suites (incl a fridge/micro)!  The manager of this hotel is outstanding and goes above and beyond to really care about her hotel and guests.  I definitely recommend staying here!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d109570-r186027517-Quality_Suites_North_Galleria-Addison_Texas.html</t>
+  </si>
+  <si>
+    <t>186027517</t>
+  </si>
+  <si>
+    <t>11/26/2013</t>
+  </si>
+  <si>
+    <t>Two Retreats</t>
+  </si>
+  <si>
+    <t>I have had two retreats at this hotel in the pass and wish the one comming up would be there but it can't/.   all the staff and managerment team are very nice, helpful and has very good cust. svc.  This is not an only hotel and someone stated in their message- it is about 4 - 6 years old.  Not old at all..  It is hard to locate it is off the street just east of  Homewood suite</t>
+  </si>
+  <si>
+    <t>January 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d109570-r182573557-Quality_Suites_North_Galleria-Addison_Texas.html</t>
+  </si>
+  <si>
+    <t>182573557</t>
+  </si>
+  <si>
+    <t>10/27/2013</t>
+  </si>
+  <si>
+    <t>Quiet 4 day trip</t>
+  </si>
+  <si>
+    <t>Hotel is old. Drove all day but Junior was friendly &amp; quick to get us our room which was on the 3rd floor away from the noise from having ppl above us. Breakfast was a normal meal. Everything was hot and lady was nice. Bed was comfortable but internet is very slow.  Everything was clean and the view from room 327 in the AM &amp; PM was great.</t>
+  </si>
+  <si>
+    <t>October 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d109570-r180238749-Quality_Suites_North_Galleria-Addison_Texas.html</t>
+  </si>
+  <si>
+    <t>180238749</t>
+  </si>
+  <si>
+    <t>10/08/2013</t>
+  </si>
+  <si>
+    <t>Philippine Dance Company of San Antonio stayed at their favorite hotel</t>
+  </si>
+  <si>
+    <t>Since 2003 my folk dance troupe have been staying at this hotel every year.  More than 75 of us travel to Dallas to perform at the State Fair.  I had bought pizza and sodas for the whole group and the place provided me with utensils, cups and place.  The hotel has a new mini store that really came in handy for that midnight snacks.  The place have gone thru new renovation and looks good.  The things I like about place the comfortabal beds, the layout of the room and the close proximaty of the restaurants, stores and mostly galeria mall.  I would like to thank the general manager (cala montana) for providing with good customer service and the friendliness of the staff.MoreShow less</t>
+  </si>
+  <si>
+    <t>Since 2003 my folk dance troupe have been staying at this hotel every year.  More than 75 of us travel to Dallas to perform at the State Fair.  I had bought pizza and sodas for the whole group and the place provided me with utensils, cups and place.  The hotel has a new mini store that really came in handy for that midnight snacks.  The place have gone thru new renovation and looks good.  The things I like about place the comfortabal beds, the layout of the room and the close proximaty of the restaurants, stores and mostly galeria mall.  I would like to thank the general manager (cala montana) for providing with good customer service and the friendliness of the staff.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d109570-r179259061-Quality_Suites_North_Galleria-Addison_Texas.html</t>
+  </si>
+  <si>
+    <t>179259061</t>
+  </si>
+  <si>
+    <t>09/30/2013</t>
+  </si>
+  <si>
+    <t>Good value, but several issues on this particular stay</t>
+  </si>
+  <si>
+    <t>This isolated hotel is really a great value, for the area it's in being close to shopping, dining, etc... Like others have mentioned, you can get to the hotel off Belt Line, but the main access is of Arapaho, one street north, so if looking for it, go there first, and it's hard to miss. The good: Check in was fast, and thorough, despite my arriving at the same time three other guests did. The lone agent at the desk got the line cleared quickly and we all knew the pool are, the breakfast hours, and that there was just one entrance to the hotel, etc..The room was typical Comfort Suites, spacious, with nice amenities, though a bit of aging can be seen. Parking was plentiful.BAD:-The room had a smell of burnt popcorn covered by air freshner. as the best way to describe it.-Upon inspection of the shower, several long hairs were in the tub. The room and shower were otherwise clean, and I'm not phobic about this things so I let it go. -The showerhead was worn and grimy. -Breakfast. My timing may have just been bad but when I went all the hot items were gone, save one biscuit. No eggs, no sides, etc. SO I settled for some muffins and was on my way. Fix a few things and this place is definitely worth staying at.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2013</t>
+  </si>
+  <si>
+    <t>This isolated hotel is really a great value, for the area it's in being close to shopping, dining, etc... Like others have mentioned, you can get to the hotel off Belt Line, but the main access is of Arapaho, one street north, so if looking for it, go there first, and it's hard to miss. The good: Check in was fast, and thorough, despite my arriving at the same time three other guests did. The lone agent at the desk got the line cleared quickly and we all knew the pool are, the breakfast hours, and that there was just one entrance to the hotel, etc..The room was typical Comfort Suites, spacious, with nice amenities, though a bit of aging can be seen. Parking was plentiful.BAD:-The room had a smell of burnt popcorn covered by air freshner. as the best way to describe it.-Upon inspection of the shower, several long hairs were in the tub. The room and shower were otherwise clean, and I'm not phobic about this things so I let it go. -The showerhead was worn and grimy. -Breakfast. My timing may have just been bad but when I went all the hot items were gone, save one biscuit. No eggs, no sides, etc. SO I settled for some muffins and was on my way. Fix a few things and this place is definitely worth staying at.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d109570-r178074210-Quality_Suites_North_Galleria-Addison_Texas.html</t>
+  </si>
+  <si>
+    <t>178074210</t>
+  </si>
+  <si>
+    <t>09/21/2013</t>
+  </si>
+  <si>
+    <t>Great place to stay</t>
+  </si>
+  <si>
+    <t>I stayed in this hotel for 5 nights and it was quite pleasant. The lobby and entrance tile floor just got done. The rooms are remodeled and the beds/mattresses are brand new. The furniture is simple, nice and stylish. First I got a handicap room with a king size bed, which I was ok with even though I don't have any disabilities. 3 days later a big group of kids came to stay at the hotel and front desk decided to put them right next door so i asked for a room move. They moved me without any problem. I liked my new room even better.  Although I was bothered by two things. 1., the pool is indoor which is a big turn off specially if you travel in the summer or when the weather is warm., 2., the A/C unit right by the bed -underneath the window - and it kept blowing the freezing cold air to my blanket and it made me feel uncomfortable. I had to lower the air, but then I was warm at night. The breakfast was good, staff is nice and friendly, location is excellent if you wanna be in the middle of 100's of dining options. The Galleria mall isn't far away either. Walmart is 5 minutes drive. Overall I had a good experience and I would recommend this place but not for families with kids.MoreShow less</t>
+  </si>
+  <si>
+    <t>I stayed in this hotel for 5 nights and it was quite pleasant. The lobby and entrance tile floor just got done. The rooms are remodeled and the beds/mattresses are brand new. The furniture is simple, nice and stylish. First I got a handicap room with a king size bed, which I was ok with even though I don't have any disabilities. 3 days later a big group of kids came to stay at the hotel and front desk decided to put them right next door so i asked for a room move. They moved me without any problem. I liked my new room even better.  Although I was bothered by two things. 1., the pool is indoor which is a big turn off specially if you travel in the summer or when the weather is warm., 2., the A/C unit right by the bed -underneath the window - and it kept blowing the freezing cold air to my blanket and it made me feel uncomfortable. I had to lower the air, but then I was warm at night. The breakfast was good, staff is nice and friendly, location is excellent if you wanna be in the middle of 100's of dining options. The Galleria mall isn't far away either. Walmart is 5 minutes drive. Overall I had a good experience and I would recommend this place but not for families with kids.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d109570-r177464452-Quality_Suites_North_Galleria-Addison_Texas.html</t>
+  </si>
+  <si>
+    <t>177464452</t>
+  </si>
+  <si>
+    <t>09/16/2013</t>
+  </si>
+  <si>
+    <t>awesome</t>
+  </si>
+  <si>
+    <t>I recently stay here is one of the best hotel I have ever stayed in the staff was fabulous!!! My room was very  nice and clean and breakfast was delicious. They also have a shuttle and there were able to take me to the office near by I didn't have to take a taxi that was A+.I will definitely be back on my next trip to Addison Texas.MoreShow less</t>
+  </si>
+  <si>
+    <t>comfortsuitesaddison, General Manager at Quality Suites North / Galleria, responded to this reviewResponded September 20, 2013</t>
+  </si>
+  <si>
+    <t>Responded September 20, 2013</t>
+  </si>
+  <si>
+    <t>I recently stay here is one of the best hotel I have ever stayed in the staff was fabulous!!! My room was very  nice and clean and breakfast was delicious. They also have a shuttle and there were able to take me to the office near by I didn't have to take a taxi that was A+.I will definitely be back on my next trip to Addison Texas.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d109570-r176925005-Quality_Suites_North_Galleria-Addison_Texas.html</t>
+  </si>
+  <si>
+    <t>176925005</t>
+  </si>
+  <si>
+    <t>09/12/2013</t>
+  </si>
+  <si>
+    <t>Remodeling nightmare</t>
+  </si>
+  <si>
+    <t>We arrived for an overnight stay on September 4th. The lobby entryway looked like a bomb had gone off. They had torn up all the tile in the entry lobby. I was unable to even get to the desk to check-in.There was so much dust in the air that the fire alarms were going off and the elevators would not work.  I had to ask the front desk clerk to let me in the office door so I could hear what she was saying so I could check in.  The staff was doing as much as they could to overcome incredible negatives and keep the hotel running. The fire alarms kept sounding periodically.  Thankfully they eventually quit creating dust in the lobby which was setting them off.  I was hoping that this would not continue through the night so we could sleep.   We were placed on the third floor. The office staff had to prop open a side door so we could access the stairwell. There were old air conditioning units and debris randomly laying in the stairwells. It was difficult to drag our luggage up three floors because the elevator was not working.  After this trying beginning, we took a break and went to Macaroni Grille which is directly adjacent to the hotel. The front desk clerk called me on my cell during dinner to apologize for the circumstances under which we arrived.  The staff was courteous and went...We arrived for an overnight stay on September 4th. The lobby entryway looked like a bomb had gone off. They had torn up all the tile in the entry lobby. I was unable to even get to the desk to check-in.There was so much dust in the air that the fire alarms were going off and the elevators would not work.  I had to ask the front desk clerk to let me in the office door so I could hear what she was saying so I could check in.  The staff was doing as much as they could to overcome incredible negatives and keep the hotel running. The fire alarms kept sounding periodically.  Thankfully they eventually quit creating dust in the lobby which was setting them off.  I was hoping that this would not continue through the night so we could sleep.   We were placed on the third floor. The office staff had to prop open a side door so we could access the stairwell. There were old air conditioning units and debris randomly laying in the stairwells. It was difficult to drag our luggage up three floors because the elevator was not working.  After this trying beginning, we took a break and went to Macaroni Grille which is directly adjacent to the hotel. The front desk clerk called me on my cell during dinner to apologize for the circumstances under which we arrived.  The staff was courteous and went above and beyond trying be as helpful as they could. Pretty much this hotel was in great need of a renovation, but the management should have been more selective about exposing customers to this demolition mayhem.  On a positive note, the breakfast area was shielded from the dust and destruction.   Breakfast was very good.  I am sure that this property will be a good choice once the renovation is complete.MoreShow less</t>
+  </si>
+  <si>
+    <t>comfortsuitesaddison, General Manager at Quality Suites North / Galleria, responded to this reviewResponded September 15, 2013</t>
+  </si>
+  <si>
+    <t>Responded September 15, 2013</t>
+  </si>
+  <si>
+    <t>We arrived for an overnight stay on September 4th. The lobby entryway looked like a bomb had gone off. They had torn up all the tile in the entry lobby. I was unable to even get to the desk to check-in.There was so much dust in the air that the fire alarms were going off and the elevators would not work.  I had to ask the front desk clerk to let me in the office door so I could hear what she was saying so I could check in.  The staff was doing as much as they could to overcome incredible negatives and keep the hotel running. The fire alarms kept sounding periodically.  Thankfully they eventually quit creating dust in the lobby which was setting them off.  I was hoping that this would not continue through the night so we could sleep.   We were placed on the third floor. The office staff had to prop open a side door so we could access the stairwell. There were old air conditioning units and debris randomly laying in the stairwells. It was difficult to drag our luggage up three floors because the elevator was not working.  After this trying beginning, we took a break and went to Macaroni Grille which is directly adjacent to the hotel. The front desk clerk called me on my cell during dinner to apologize for the circumstances under which we arrived.  The staff was courteous and went...We arrived for an overnight stay on September 4th. The lobby entryway looked like a bomb had gone off. They had torn up all the tile in the entry lobby. I was unable to even get to the desk to check-in.There was so much dust in the air that the fire alarms were going off and the elevators would not work.  I had to ask the front desk clerk to let me in the office door so I could hear what she was saying so I could check in.  The staff was doing as much as they could to overcome incredible negatives and keep the hotel running. The fire alarms kept sounding periodically.  Thankfully they eventually quit creating dust in the lobby which was setting them off.  I was hoping that this would not continue through the night so we could sleep.   We were placed on the third floor. The office staff had to prop open a side door so we could access the stairwell. There were old air conditioning units and debris randomly laying in the stairwells. It was difficult to drag our luggage up three floors because the elevator was not working.  After this trying beginning, we took a break and went to Macaroni Grille which is directly adjacent to the hotel. The front desk clerk called me on my cell during dinner to apologize for the circumstances under which we arrived.  The staff was courteous and went above and beyond trying be as helpful as they could. Pretty much this hotel was in great need of a renovation, but the management should have been more selective about exposing customers to this demolition mayhem.  On a positive note, the breakfast area was shielded from the dust and destruction.   Breakfast was very good.  I am sure that this property will be a good choice once the renovation is complete.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d109570-r170947197-Quality_Suites_North_Galleria-Addison_Texas.html</t>
+  </si>
+  <si>
+    <t>170947197</t>
+  </si>
+  <si>
+    <t>08/05/2013</t>
+  </si>
+  <si>
+    <t>Good location, well-priced</t>
+  </si>
+  <si>
+    <t>We enjoyed our stay at this Comfort Suites.  Located in a good part of town, with plenty of gas stations, restaurants, and shopping nearby.  Convenient to Dallas but far enough away to offer some seclusion.  Although we used Choice Privileges points for our weekend stay, I also checked the rates, and they are very reasonable.  Breakfast was good both days, and even though the breakfast area was very busy, the attendants did a great job keeping everything stocked.  The staff was very courteous, and we enjoyed our suite very much - our stay was very peaceful.  I would recommend this hotel to others, and I would stay here again.</t>
+  </si>
+  <si>
+    <t>June 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d109570-r170870508-Quality_Suites_North_Galleria-Addison_Texas.html</t>
+  </si>
+  <si>
+    <t>170870508</t>
+  </si>
+  <si>
+    <t>Nice property, hard to find</t>
+  </si>
+  <si>
+    <t>After driving around and around trying to actually find the property (the address says Beltline, but the property is actually a street over - more like the address should be Arapaho - and there are NO signs on Beltline pointing to the hotel), we checked in.  The AC was off in the room, so it was hot, but we were leaving for dinner right away anyway.  Turned on the AC and when we got back there was no change in the room.  Went to front desk and room was changed no problem.  Bathroom exhaust fan didn't work in either room, but that wasn't a HUGE problem.  The hotel is very nice inside, clean and updated.  The pool water was more than a little cloudy the night we swam.  Breakfast was standard Comfort line fare.  Like most Comfort/Choice Hotels, I found the mattresses to be a little too soft.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2013</t>
+  </si>
+  <si>
+    <t>After driving around and around trying to actually find the property (the address says Beltline, but the property is actually a street over - more like the address should be Arapaho - and there are NO signs on Beltline pointing to the hotel), we checked in.  The AC was off in the room, so it was hot, but we were leaving for dinner right away anyway.  Turned on the AC and when we got back there was no change in the room.  Went to front desk and room was changed no problem.  Bathroom exhaust fan didn't work in either room, but that wasn't a HUGE problem.  The hotel is very nice inside, clean and updated.  The pool water was more than a little cloudy the night we swam.  Breakfast was standard Comfort line fare.  Like most Comfort/Choice Hotels, I found the mattresses to be a little too soft.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d109570-r167287208-Quality_Suites_North_Galleria-Addison_Texas.html</t>
+  </si>
+  <si>
+    <t>167287208</t>
+  </si>
+  <si>
+    <t>07/12/2013</t>
+  </si>
+  <si>
+    <t>Comfortable, Affordable, Great Staff</t>
+  </si>
+  <si>
+    <t>In the heart of a great dining area in Addison Texas, this Comfort Suites was suprisingly affordable and very well kept.Martha at the front desk was enthusiastic and professional and friendly as we checked in and throughout our stay.The jacuzzi-suites are wondeful; spacious and the a.c. works great!Morning breakfast was great both days and we totally enjoyed our stay.MoreShow less</t>
+  </si>
+  <si>
+    <t>comfortsuitesaddison, Martha Front Desk Agent at Quality Suites North / Galleria, responded to this reviewResponded July 16, 2013</t>
+  </si>
+  <si>
+    <t>Responded July 16, 2013</t>
+  </si>
+  <si>
+    <t>In the heart of a great dining area in Addison Texas, this Comfort Suites was suprisingly affordable and very well kept.Martha at the front desk was enthusiastic and professional and friendly as we checked in and throughout our stay.The jacuzzi-suites are wondeful; spacious and the a.c. works great!Morning breakfast was great both days and we totally enjoyed our stay.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d109570-r162983768-Quality_Suites_North_Galleria-Addison_Texas.html</t>
+  </si>
+  <si>
+    <t>162983768</t>
+  </si>
+  <si>
+    <t>06/04/2013</t>
+  </si>
+  <si>
+    <t>Great Experience!</t>
+  </si>
+  <si>
+    <t>I recently stayed at the Comfort Suites in Addison, TX for business and had a very positive experience.  All staff members were extremely pleasant and helpful.  The room and entire hotel was very clean and well maintained.  Breakfast was diverse and the hot items changed slightly each day.  The hotel is in a great, safe area and close to many stores and restaurants.  I would definitely recommend this property and if I have lodging needs in north Dallas again, I will stay at the Comfort Suites North/Galleria!MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2013</t>
+  </si>
+  <si>
+    <t>comfortsuitesaddison, General Manager at Quality Suites North / Galleria, responded to this reviewResponded June 7, 2013</t>
+  </si>
+  <si>
+    <t>Responded June 7, 2013</t>
+  </si>
+  <si>
+    <t>I recently stayed at the Comfort Suites in Addison, TX for business and had a very positive experience.  All staff members were extremely pleasant and helpful.  The room and entire hotel was very clean and well maintained.  Breakfast was diverse and the hot items changed slightly each day.  The hotel is in a great, safe area and close to many stores and restaurants.  I would definitely recommend this property and if I have lodging needs in north Dallas again, I will stay at the Comfort Suites North/Galleria!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d109570-r160985314-Quality_Suites_North_Galleria-Addison_Texas.html</t>
+  </si>
+  <si>
+    <t>160985314</t>
+  </si>
+  <si>
+    <t>05/17/2013</t>
+  </si>
+  <si>
+    <t>Old Friends</t>
+  </si>
+  <si>
+    <t>We had the pleasure of staying a night at the Comfort Suites in Addison Texas.  The room was clean and very spacious.  We went to see an old family friend and the beautiful comfortable room was icing on the cake.  It was in a nice part of town, very quite and peaceful. We were assisted by a nice young lady named Martha.  She was friendly and personable, yet very professional.  Thanks Martha for helping us have a great trip.MoreShow less</t>
+  </si>
+  <si>
+    <t>comfortsuitesaddison, Martha Front Desk Agent at Quality Suites North / Galleria, responded to this reviewResponded June 7, 2013</t>
+  </si>
+  <si>
+    <t>We had the pleasure of staying a night at the Comfort Suites in Addison Texas.  The room was clean and very spacious.  We went to see an old family friend and the beautiful comfortable room was icing on the cake.  It was in a nice part of town, very quite and peaceful. We were assisted by a nice young lady named Martha.  She was friendly and personable, yet very professional.  Thanks Martha for helping us have a great trip.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d109570-r160550318-Quality_Suites_North_Galleria-Addison_Texas.html</t>
+  </si>
+  <si>
+    <t>160550318</t>
+  </si>
+  <si>
+    <t>05/13/2013</t>
+  </si>
+  <si>
+    <t>Great Stay!!  Exceptional Customer Service!!</t>
+  </si>
+  <si>
+    <t>From the moment I checked into this hotel I was greeted with a warm pleasant smile with Stephanie the Night Auditor.  She had my registration cards printed and ready for me to sign because I was a late arrival.  Stephanie has a very contagious personality and that is simply hard to find these days.  Despite having a soccer team in house, I was still able to get a good nights rest.  My room was wonderful.  Housekeeping staff were great!  David the morning person was dealing with a lot of issues when I had gone down to the desk, but he was great!!  He has a great attitude and personality as well.  I am using this property for a group event in August and now I am glad that I chose this location. Cala, if you don't have to change anything, don't!  You have a great staff, and you guys ROCK!!  Thank you for such a wonderful weekend and I look forward to seeing you in August.MoreShow less</t>
+  </si>
+  <si>
+    <t>comfortsuitesaddison, Stephanie Front Desk Agent at Quality Suites North / Galleria, responded to this reviewResponded June 7, 2013</t>
+  </si>
+  <si>
+    <t>From the moment I checked into this hotel I was greeted with a warm pleasant smile with Stephanie the Night Auditor.  She had my registration cards printed and ready for me to sign because I was a late arrival.  Stephanie has a very contagious personality and that is simply hard to find these days.  Despite having a soccer team in house, I was still able to get a good nights rest.  My room was wonderful.  Housekeeping staff were great!  David the morning person was dealing with a lot of issues when I had gone down to the desk, but he was great!!  He has a great attitude and personality as well.  I am using this property for a group event in August and now I am glad that I chose this location. Cala, if you don't have to change anything, don't!  You have a great staff, and you guys ROCK!!  Thank you for such a wonderful weekend and I look forward to seeing you in August.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d109570-r158378235-Quality_Suites_North_Galleria-Addison_Texas.html</t>
+  </si>
+  <si>
+    <t>158378235</t>
+  </si>
+  <si>
+    <t>04/21/2013</t>
+  </si>
+  <si>
+    <t>Good customer services, and really clean rooms! One day, great stay!</t>
+  </si>
+  <si>
+    <t>I had really kind and friendly customer service from the front desk, by a girl named Martha, she was really nice, and over the top helpful. She signed me in as a  member, with my permission of course, and sense i became a member with them my checkout time was at 2pm which was perfect because i love to sleep late, and the cleaning ladies did a awesome job, especially with breakfast, and when i would call the front desk sometimes Martha the worker at the front desk would answer the phone so fast, it would not even ring,(excellent)!</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d109570-r157801315-Quality_Suites_North_Galleria-Addison_Texas.html</t>
+  </si>
+  <si>
+    <t>157801315</t>
+  </si>
+  <si>
+    <t>04/15/2013</t>
+  </si>
+  <si>
+    <t>Very Comfortable Hotel</t>
+  </si>
+  <si>
+    <t>We stayed here during a weekend trip to Dallas in April 2013.  We chose this hotel because of its north Dallas location which was close to the places we had to go, and the fact that it had an indoor pool.  The best way to describe this hotel is "comfortable".  The room itself was comfortable with very nice beds.  The hotel was very quiet and there didn't seem to be very many people there.  In fact we were the only ones in the pool when we went and I didn't see many people during breakfast in the morning.  As many people have said before, this hotel is a little hard to find as it sits behind a couple of restaurants and is not visible from Beltline.  The address is on Beltline, however, the street that runs behind the hotel, Arapaho, is the best way to go.  Other than that the location was great!  There are several restaurants in the immediate area and you won't even need a GPS get to them. The area was very nice and I always felt safe coming and going at night. My only issue with the hotel was breakfast.  I have stayed at several Comfort Suites before but this one probably had the worst breakfast so far. This was only a minor issue however and would not be enough to deter me from staying at this hotel again.  One more note, the pool was extremely...We stayed here during a weekend trip to Dallas in April 2013.  We chose this hotel because of its north Dallas location which was close to the places we had to go, and the fact that it had an indoor pool.  The best way to describe this hotel is "comfortable".  The room itself was comfortable with very nice beds.  The hotel was very quiet and there didn't seem to be very many people there.  In fact we were the only ones in the pool when we went and I didn't see many people during breakfast in the morning.  As many people have said before, this hotel is a little hard to find as it sits behind a couple of restaurants and is not visible from Beltline.  The address is on Beltline, however, the street that runs behind the hotel, Arapaho, is the best way to go.  Other than that the location was great!  There are several restaurants in the immediate area and you won't even need a GPS get to them. The area was very nice and I always felt safe coming and going at night. My only issue with the hotel was breakfast.  I have stayed at several Comfort Suites before but this one probably had the worst breakfast so far. This was only a minor issue however and would not be enough to deter me from staying at this hotel again.  One more note, the pool was extremely cold.  Not sure if it is like that all the time but we still managed to tough it out.  All things considered this was a very nice hotel in a great area and I would definitely come back.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2013</t>
+  </si>
+  <si>
+    <t>We stayed here during a weekend trip to Dallas in April 2013.  We chose this hotel because of its north Dallas location which was close to the places we had to go, and the fact that it had an indoor pool.  The best way to describe this hotel is "comfortable".  The room itself was comfortable with very nice beds.  The hotel was very quiet and there didn't seem to be very many people there.  In fact we were the only ones in the pool when we went and I didn't see many people during breakfast in the morning.  As many people have said before, this hotel is a little hard to find as it sits behind a couple of restaurants and is not visible from Beltline.  The address is on Beltline, however, the street that runs behind the hotel, Arapaho, is the best way to go.  Other than that the location was great!  There are several restaurants in the immediate area and you won't even need a GPS get to them. The area was very nice and I always felt safe coming and going at night. My only issue with the hotel was breakfast.  I have stayed at several Comfort Suites before but this one probably had the worst breakfast so far. This was only a minor issue however and would not be enough to deter me from staying at this hotel again.  One more note, the pool was extremely...We stayed here during a weekend trip to Dallas in April 2013.  We chose this hotel because of its north Dallas location which was close to the places we had to go, and the fact that it had an indoor pool.  The best way to describe this hotel is "comfortable".  The room itself was comfortable with very nice beds.  The hotel was very quiet and there didn't seem to be very many people there.  In fact we were the only ones in the pool when we went and I didn't see many people during breakfast in the morning.  As many people have said before, this hotel is a little hard to find as it sits behind a couple of restaurants and is not visible from Beltline.  The address is on Beltline, however, the street that runs behind the hotel, Arapaho, is the best way to go.  Other than that the location was great!  There are several restaurants in the immediate area and you won't even need a GPS get to them. The area was very nice and I always felt safe coming and going at night. My only issue with the hotel was breakfast.  I have stayed at several Comfort Suites before but this one probably had the worst breakfast so far. This was only a minor issue however and would not be enough to deter me from staying at this hotel again.  One more note, the pool was extremely cold.  Not sure if it is like that all the time but we still managed to tough it out.  All things considered this was a very nice hotel in a great area and I would definitely come back.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d109570-r155187496-Quality_Suites_North_Galleria-Addison_Texas.html</t>
+  </si>
+  <si>
+    <t>155187496</t>
+  </si>
+  <si>
+    <t>03/20/2013</t>
+  </si>
+  <si>
+    <t>Great Hotel</t>
+  </si>
+  <si>
+    <t>We stay here frequently when in town to go to Bayler medical, catch a Rangers game or just have fun. The staff is always nice and rooms are clean and the price is just right. We stay here several times each year and have never had a bad stay.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2012</t>
+  </si>
+  <si>
+    <t>comfortsuitesaddison, General Manager at Quality Suites North / Galleria, responded to this reviewResponded April 1, 2013</t>
+  </si>
+  <si>
+    <t>Responded April 1, 2013</t>
+  </si>
+  <si>
+    <t>We stay here frequently when in town to go to Bayler medical, catch a Rangers game or just have fun. The staff is always nice and rooms are clean and the price is just right. We stay here several times each year and have never had a bad stay.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d109570-r150590180-Quality_Suites_North_Galleria-Addison_Texas.html</t>
+  </si>
+  <si>
+    <t>150590180</t>
+  </si>
+  <si>
+    <t>01/25/2013</t>
+  </si>
+  <si>
+    <t>Great Suite Hotel</t>
+  </si>
+  <si>
+    <t>I just want to say the staff and facilities are very nice. Centrally located in North Dallas by Addison Airport and too many restaurants. My fav for North Dallas. I have stayed twice now and am going back in a few weeks. Breakfast was perfect and many choices on their buffet.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d109570-r148728911-Quality_Suites_North_Galleria-Addison_Texas.html</t>
+  </si>
+  <si>
+    <t>148728911</t>
+  </si>
+  <si>
+    <t>01/03/2013</t>
+  </si>
+  <si>
+    <t>a quick trip to Dallas -- good hotel room for our family of 4</t>
+  </si>
+  <si>
+    <t>We had an appointment at Medical City in Dallas, and knew we would be coming in on one day and leaving the next.  So we didnt want to spend a whole lot of money on a hotel room, and then just turn around and come home.  We were pleasantly surprised with this hotel, and we will probably stay again if in the area.  Our base rate was only $69 for a suite, with a sofa, microwave, 2nd sink (wet bar) and refrigerator.  That's quite a bit!  Clean room, smelled nice, no issues with towels (very clean!  not musty!) -- and Im a picky traveler.  This met my picky test.  Sure the rooms are a little worn, but at this price point, again we were pleasantly surprised.  Beds were comfy, I actually was able to sleep.  No unusual noises that I could tell (light sleeper, forgot ear plugs).  I saw a few worn areas in the carpet, but it was clean.  Bathroom was nice, oh... and forgot, granite counters in both the bathroom and the little wet bar area.  We spent some time in the indoor pool while there -- as long as there is water -- my kids are happy.  So we splashed for a while and came back to the room.  Breakfast was fine... eggs, sausage, biscuits and gravy, pastries, yogurt, fruit.  Waffle iron was out of service, but everything else was good.  We had zero issues!  easy check...We had an appointment at Medical City in Dallas, and knew we would be coming in on one day and leaving the next.  So we didnt want to spend a whole lot of money on a hotel room, and then just turn around and come home.  We were pleasantly surprised with this hotel, and we will probably stay again if in the area.  Our base rate was only $69 for a suite, with a sofa, microwave, 2nd sink (wet bar) and refrigerator.  That's quite a bit!  Clean room, smelled nice, no issues with towels (very clean!  not musty!) -- and Im a picky traveler.  This met my picky test.  Sure the rooms are a little worn, but at this price point, again we were pleasantly surprised.  Beds were comfy, I actually was able to sleep.  No unusual noises that I could tell (light sleeper, forgot ear plugs).  I saw a few worn areas in the carpet, but it was clean.  Bathroom was nice, oh... and forgot, granite counters in both the bathroom and the little wet bar area.  We spent some time in the indoor pool while there -- as long as there is water -- my kids are happy.  So we splashed for a while and came back to the room.  Breakfast was fine... eggs, sausage, biscuits and gravy, pastries, yogurt, fruit.  Waffle iron was out of service, but everything else was good.  We had zero issues!  easy check in, check out... and we were back on the road.  I am also glad I paid attention to another person's review -- in that there is NO sign on the main road coming in.  (off Belt Line)  If I recall, the other posting said the hotel was behind Macaroni Grill.  And yes, it was.  So Im glad I noted that, or we would have driven right past.  Its tucked in behind, and in a nice neighborhood.  Kind of an odd location, but if you know ahead of time where it is, its easy to find.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2012</t>
+  </si>
+  <si>
+    <t>We had an appointment at Medical City in Dallas, and knew we would be coming in on one day and leaving the next.  So we didnt want to spend a whole lot of money on a hotel room, and then just turn around and come home.  We were pleasantly surprised with this hotel, and we will probably stay again if in the area.  Our base rate was only $69 for a suite, with a sofa, microwave, 2nd sink (wet bar) and refrigerator.  That's quite a bit!  Clean room, smelled nice, no issues with towels (very clean!  not musty!) -- and Im a picky traveler.  This met my picky test.  Sure the rooms are a little worn, but at this price point, again we were pleasantly surprised.  Beds were comfy, I actually was able to sleep.  No unusual noises that I could tell (light sleeper, forgot ear plugs).  I saw a few worn areas in the carpet, but it was clean.  Bathroom was nice, oh... and forgot, granite counters in both the bathroom and the little wet bar area.  We spent some time in the indoor pool while there -- as long as there is water -- my kids are happy.  So we splashed for a while and came back to the room.  Breakfast was fine... eggs, sausage, biscuits and gravy, pastries, yogurt, fruit.  Waffle iron was out of service, but everything else was good.  We had zero issues!  easy check...We had an appointment at Medical City in Dallas, and knew we would be coming in on one day and leaving the next.  So we didnt want to spend a whole lot of money on a hotel room, and then just turn around and come home.  We were pleasantly surprised with this hotel, and we will probably stay again if in the area.  Our base rate was only $69 for a suite, with a sofa, microwave, 2nd sink (wet bar) and refrigerator.  That's quite a bit!  Clean room, smelled nice, no issues with towels (very clean!  not musty!) -- and Im a picky traveler.  This met my picky test.  Sure the rooms are a little worn, but at this price point, again we were pleasantly surprised.  Beds were comfy, I actually was able to sleep.  No unusual noises that I could tell (light sleeper, forgot ear plugs).  I saw a few worn areas in the carpet, but it was clean.  Bathroom was nice, oh... and forgot, granite counters in both the bathroom and the little wet bar area.  We spent some time in the indoor pool while there -- as long as there is water -- my kids are happy.  So we splashed for a while and came back to the room.  Breakfast was fine... eggs, sausage, biscuits and gravy, pastries, yogurt, fruit.  Waffle iron was out of service, but everything else was good.  We had zero issues!  easy check in, check out... and we were back on the road.  I am also glad I paid attention to another person's review -- in that there is NO sign on the main road coming in.  (off Belt Line)  If I recall, the other posting said the hotel was behind Macaroni Grill.  And yes, it was.  So Im glad I noted that, or we would have driven right past.  Its tucked in behind, and in a nice neighborhood.  Kind of an odd location, but if you know ahead of time where it is, its easy to find.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d109570-r148322836-Quality_Suites_North_Galleria-Addison_Texas.html</t>
+  </si>
+  <si>
+    <t>148322836</t>
+  </si>
+  <si>
+    <t>12/29/2012</t>
+  </si>
+  <si>
+    <t>Good try but a miss</t>
+  </si>
+  <si>
+    <t>Entry smelled of sewer and floors were not clean.  One elevator for the whole place.  Room was worn but was large.  Bare electrical exposed on bedroom ceiling.  Nice touch with Kleenex stuffed in a hole in the wall.  Pet friendly and nice location</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d109570-r144806016-Quality_Suites_North_Galleria-Addison_Texas.html</t>
+  </si>
+  <si>
+    <t>144806016</t>
+  </si>
+  <si>
+    <t>11/06/2012</t>
+  </si>
+  <si>
+    <t>very nice staff/service</t>
+  </si>
+  <si>
+    <t>very nice hotel, lovely staff, great location.. close to the mall and also local nightlife.. would deffo stay here again! lovely. we can to dallas just to visit family and explore.. ti was during halloween so there was lots of decorations with my fiance loved! a++++</t>
+  </si>
+  <si>
+    <t>October 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d109570-r144098890-Quality_Suites_North_Galleria-Addison_Texas.html</t>
+  </si>
+  <si>
+    <t>144098890</t>
+  </si>
+  <si>
+    <t>10/30/2012</t>
+  </si>
+  <si>
+    <t>Simply Outstanding</t>
+  </si>
+  <si>
+    <t>I have had the privledge of staying at the Comfort Suites in Addison on several occasions.  The most important time was when I had to have my father brought down after an auto accident.  The staff went above and beyond to make sure that his stay was totally comfortable.  He was spoiled rotten and to this day still brags about how well he was taken care of at the 1st of the year.Since that time, I have stayed at the same hotel for granddaughter's birthday, had several family members stay for various occasions and we all get the same results - simply outstanding, top notch, excellent service.  A veritable "home away from home".  I would highly recommend this place.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2012</t>
+  </si>
+  <si>
+    <t>I have had the privledge of staying at the Comfort Suites in Addison on several occasions.  The most important time was when I had to have my father brought down after an auto accident.  The staff went above and beyond to make sure that his stay was totally comfortable.  He was spoiled rotten and to this day still brags about how well he was taken care of at the 1st of the year.Since that time, I have stayed at the same hotel for granddaughter's birthday, had several family members stay for various occasions and we all get the same results - simply outstanding, top notch, excellent service.  A veritable "home away from home".  I would highly recommend this place.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d109570-r143757750-Quality_Suites_North_Galleria-Addison_Texas.html</t>
+  </si>
+  <si>
+    <t>143757750</t>
+  </si>
+  <si>
+    <t>10/26/2012</t>
+  </si>
+  <si>
+    <t>My most recent stay at Comfort Suites in Addison!</t>
+  </si>
+  <si>
+    <t>I absolutely love staying at the Comfort Suites in Addison.  The staff is superb, especially the manager, Cala.  They all go out of their way to make my stay feel like home away from home!  I have stayed weekly with them for over two years now and wouldn't stay anyplace else.  They have the best service including their full breakfast.  The hotel is always being upgraded, most recently with flat screens in every room and new floors in the elevator.  I saw some beautiful tile ready to be laid so I am anxious to come back next week and see what they have done!</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d109570-r135377397-Quality_Suites_North_Galleria-Addison_Texas.html</t>
+  </si>
+  <si>
+    <t>135377397</t>
+  </si>
+  <si>
+    <t>07/25/2012</t>
+  </si>
+  <si>
+    <t>Best relaxing, friendly and fun vacation spot!</t>
+  </si>
+  <si>
+    <t>We chose this hotel chain based on the show "Undercover Boss," and we chose the city based on previous Trip Advisor reviews of this specific hotel. We were extremely happy with the service, the quality of the rooms, the great breakfast (biscuits and gravy, bacon, ham, eggs, waffles, fruit, yogurt, cereal, coffee, milk) and even the very friendly guests! The rooms were very updated, the beds were ultra comfortable, the bathrooms were spotless, and the staff made sure we had everything. The TVs were new and had multiple channels. We even had a living room with an extra TV, refrigerator, microwave and sink, for the price of a regular room! We saw the hotel photos in ChoiceHotels.com, but booked by phone with a very friendly person. We had never been to Addison, TX, and we were very impressed with the whole big town luxuries they offered (restaurants &amp; shopping) and the small town friendliness! The hotel is conveniently placed in the middle of all the attractions. It was also very easy to walk to a variety of restaurants. This Comfort Suites at Addison was only 22 minutes away from the Dallas Museum of Art, the stadium was about 30 minutes away and family entertainment with Go-Kartz was only 14 minutes away. They even had a computer in the business center we could use to find more attractions in the area. We have stayed at 5 star hotels in North America,...We chose this hotel chain based on the show "Undercover Boss," and we chose the city based on previous Trip Advisor reviews of this specific hotel. We were extremely happy with the service, the quality of the rooms, the great breakfast (biscuits and gravy, bacon, ham, eggs, waffles, fruit, yogurt, cereal, coffee, milk) and even the very friendly guests! The rooms were very updated, the beds were ultra comfortable, the bathrooms were spotless, and the staff made sure we had everything. The TVs were new and had multiple channels. We even had a living room with an extra TV, refrigerator, microwave and sink, for the price of a regular room! We saw the hotel photos in ChoiceHotels.com, but booked by phone with a very friendly person. We had never been to Addison, TX, and we were very impressed with the whole big town luxuries they offered (restaurants &amp; shopping) and the small town friendliness! The hotel is conveniently placed in the middle of all the attractions. It was also very easy to walk to a variety of restaurants. This Comfort Suites at Addison was only 22 minutes away from the Dallas Museum of Art, the stadium was about 30 minutes away and family entertainment with Go-Kartz was only 14 minutes away. They even had a computer in the business center we could use to find more attractions in the area. We have stayed at 5 star hotels in North America, and we have never experienced such friendly front desk and maid service. We even had a request on a Sunday night very late, and we had the item delivered the very next morning. You will find this great hotel right behind "Chamberlain's Fish Market Grill" on Beltline Road.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2012</t>
+  </si>
+  <si>
+    <t>We chose this hotel chain based on the show "Undercover Boss," and we chose the city based on previous Trip Advisor reviews of this specific hotel. We were extremely happy with the service, the quality of the rooms, the great breakfast (biscuits and gravy, bacon, ham, eggs, waffles, fruit, yogurt, cereal, coffee, milk) and even the very friendly guests! The rooms were very updated, the beds were ultra comfortable, the bathrooms were spotless, and the staff made sure we had everything. The TVs were new and had multiple channels. We even had a living room with an extra TV, refrigerator, microwave and sink, for the price of a regular room! We saw the hotel photos in ChoiceHotels.com, but booked by phone with a very friendly person. We had never been to Addison, TX, and we were very impressed with the whole big town luxuries they offered (restaurants &amp; shopping) and the small town friendliness! The hotel is conveniently placed in the middle of all the attractions. It was also very easy to walk to a variety of restaurants. This Comfort Suites at Addison was only 22 minutes away from the Dallas Museum of Art, the stadium was about 30 minutes away and family entertainment with Go-Kartz was only 14 minutes away. They even had a computer in the business center we could use to find more attractions in the area. We have stayed at 5 star hotels in North America,...We chose this hotel chain based on the show "Undercover Boss," and we chose the city based on previous Trip Advisor reviews of this specific hotel. We were extremely happy with the service, the quality of the rooms, the great breakfast (biscuits and gravy, bacon, ham, eggs, waffles, fruit, yogurt, cereal, coffee, milk) and even the very friendly guests! The rooms were very updated, the beds were ultra comfortable, the bathrooms were spotless, and the staff made sure we had everything. The TVs were new and had multiple channels. We even had a living room with an extra TV, refrigerator, microwave and sink, for the price of a regular room! We saw the hotel photos in ChoiceHotels.com, but booked by phone with a very friendly person. We had never been to Addison, TX, and we were very impressed with the whole big town luxuries they offered (restaurants &amp; shopping) and the small town friendliness! The hotel is conveniently placed in the middle of all the attractions. It was also very easy to walk to a variety of restaurants. This Comfort Suites at Addison was only 22 minutes away from the Dallas Museum of Art, the stadium was about 30 minutes away and family entertainment with Go-Kartz was only 14 minutes away. They even had a computer in the business center we could use to find more attractions in the area. We have stayed at 5 star hotels in North America, and we have never experienced such friendly front desk and maid service. We even had a request on a Sunday night very late, and we had the item delivered the very next morning. You will find this great hotel right behind "Chamberlain's Fish Market Grill" on Beltline Road.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d109570-r135115382-Quality_Suites_North_Galleria-Addison_Texas.html</t>
+  </si>
+  <si>
+    <t>135115382</t>
+  </si>
+  <si>
+    <t>07/22/2012</t>
+  </si>
+  <si>
+    <t>Good hotel</t>
+  </si>
+  <si>
+    <t>I'd give the hotel an overall 5 stars but opted for 4 stars due to some minor over sites. I've stayed here at this location on 2 previous occasions and have never had a problem. It is confusing to locate, but a quick phone call to the helpful people at the front desk will get you there. I'm guessing that during the last remodel they were in a hurry. The baseboard tile in the bathroom was completely missing behind the door and was bare concrete. Also, in the bedroom beside the door there was about a 1 inch strip from floor to ceiling that didn't get painted beside the French doors. The room was clean, well stocked and everything was in working order. As usual, the bed was very comfortable. The hotel is close to all the fine dining Addison has to offer along Beltline. The breakfast was great! Ham, eggs, bagels, cereal, yogurt, fruit and all the other breakfast stuff. I love this hotel. By far the best Comfort Suites I've stayed at. Hopefully the management will read my review and investigate the oversights mentioned. Overall, I'd highly recommend this hotel! MoreShow less</t>
+  </si>
+  <si>
+    <t>I'd give the hotel an overall 5 stars but opted for 4 stars due to some minor over sites. I've stayed here at this location on 2 previous occasions and have never had a problem. It is confusing to locate, but a quick phone call to the helpful people at the front desk will get you there. I'm guessing that during the last remodel they were in a hurry. The baseboard tile in the bathroom was completely missing behind the door and was bare concrete. Also, in the bedroom beside the door there was about a 1 inch strip from floor to ceiling that didn't get painted beside the French doors. The room was clean, well stocked and everything was in working order. As usual, the bed was very comfortable. The hotel is close to all the fine dining Addison has to offer along Beltline. The breakfast was great! Ham, eggs, bagels, cereal, yogurt, fruit and all the other breakfast stuff. I love this hotel. By far the best Comfort Suites I've stayed at. Hopefully the management will read my review and investigate the oversights mentioned. Overall, I'd highly recommend this hotel! More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d109570-r135105588-Quality_Suites_North_Galleria-Addison_Texas.html</t>
+  </si>
+  <si>
+    <t>135105588</t>
+  </si>
+  <si>
+    <t>Great getaway easy access to activities</t>
+  </si>
+  <si>
+    <t>Spent 3 days here breakfast was delicious rooms were decently clean with minor issues like lamp shade had a small tear and a piece of toilet paper crumpled up under table in bathroom  (used? No clue didn't look but didn't notice till 3rd day very sure it wasn't ours). Ac didn't seem to get as cold as we wish but we had a second floor room so maybe that was part of the problem.  Staff was friendly and really had no issues.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d109570-r133041219-Quality_Suites_North_Galleria-Addison_Texas.html</t>
+  </si>
+  <si>
+    <t>133041219</t>
+  </si>
+  <si>
+    <t>06/29/2012</t>
+  </si>
+  <si>
+    <t>This hotel takes great care of you thanks to the caring GM Cala</t>
+  </si>
+  <si>
+    <t>This property has it's wrinkles to be sure. It's older and the upgrades are coming around slowly but surely. Rooms are very generous in size and everything worked to my satisfaction. Comfortable bed and the shower pressure was good. Breakfast isn't my thing but a very well designed and stocked offering each and every day.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2012</t>
+  </si>
+  <si>
+    <t>Management response:Responded July 4, 2012</t>
+  </si>
+  <si>
+    <t>Responded July 4, 2012</t>
+  </si>
+  <si>
+    <t>This property has it's wrinkles to be sure. It's older and the upgrades are coming around slowly but surely. Rooms are very generous in size and everything worked to my satisfaction. Comfortable bed and the shower pressure was good. Breakfast isn't my thing but a very well designed and stocked offering each and every day.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d109570-r132629834-Quality_Suites_North_Galleria-Addison_Texas.html</t>
+  </si>
+  <si>
+    <t>132629834</t>
+  </si>
+  <si>
+    <t>06/23/2012</t>
+  </si>
+  <si>
+    <t>Expected better</t>
+  </si>
+  <si>
+    <t>I stayed at this hotel for three days and was ready to leave.  The hotel is difficult to find, no signs on Beltline Rd, it sits on the backside of Macaroni Grill.  First Impression was trash laying out front of the doors.  Lobby was nice, staff was pleasant.  The elevator has a horrible smell along with dated and worn out carpet.  There is only one elevator and it is very small.  The hallways are nice.
+The suite is really just an overisized regular room,  there is a small living area with no tv and a dated couch and scratched up furniture.  We found a black banana behind the curtains, looked like it had been there for days,  also found several pieces of cany under the table.  Its obvious that the cleaning staff need to pay better atttention.  The bathroom is tiny,  the door almost hits the toilet (smallest bathroom ive seen in a hotel)  there were black mold spots all over the bathroom ceiling and peeling paint.  
+The beds are hard and the pillows are small.  Dont plan on sleeping,   you can hear everything going on in the rooms above you,  i was able to hear every movment from room above us, and we had broght our own fan for noise.  
+The pool area is very plain,  smells like moldly stale air.  There is no longer a hot tub and green residue all around the perimiter of the pool.  The...I stayed at this hotel for three days and was ready to leave.  The hotel is difficult to find, no signs on Beltline Rd, it sits on the backside of Macaroni Grill.  First Impression was trash laying out front of the doors.  Lobby was nice, staff was pleasant.  The elevator has a horrible smell along with dated and worn out carpet.  There is only one elevator and it is very small.  The hallways are nice.The suite is really just an overisized regular room,  there is a small living area with no tv and a dated couch and scratched up furniture.  We found a black banana behind the curtains, looked like it had been there for days,  also found several pieces of cany under the table.  Its obvious that the cleaning staff need to pay better atttention.  The bathroom is tiny,  the door almost hits the toilet (smallest bathroom ive seen in a hotel)  there were black mold spots all over the bathroom ceiling and peeling paint.  The beds are hard and the pillows are small.  Dont plan on sleeping,   you can hear everything going on in the rooms above you,  i was able to hear every movment from room above us, and we had broght our own fan for noise.  The pool area is very plain,  smells like moldly stale air.  There is no longer a hot tub and green residue all around the perimiter of the pool.  The door to the patio area was broken so you could not go outsideFor what i paid, ive stayed in better,  my advise, go elsewhere.MoreShow less</t>
+  </si>
+  <si>
+    <t>Management response:Responded June 25, 2012</t>
+  </si>
+  <si>
+    <t>Responded June 25, 2012</t>
+  </si>
+  <si>
+    <t>I stayed at this hotel for three days and was ready to leave.  The hotel is difficult to find, no signs on Beltline Rd, it sits on the backside of Macaroni Grill.  First Impression was trash laying out front of the doors.  Lobby was nice, staff was pleasant.  The elevator has a horrible smell along with dated and worn out carpet.  There is only one elevator and it is very small.  The hallways are nice.
+The suite is really just an overisized regular room,  there is a small living area with no tv and a dated couch and scratched up furniture.  We found a black banana behind the curtains, looked like it had been there for days,  also found several pieces of cany under the table.  Its obvious that the cleaning staff need to pay better atttention.  The bathroom is tiny,  the door almost hits the toilet (smallest bathroom ive seen in a hotel)  there were black mold spots all over the bathroom ceiling and peeling paint.  
+The beds are hard and the pillows are small.  Dont plan on sleeping,   you can hear everything going on in the rooms above you,  i was able to hear every movment from room above us, and we had broght our own fan for noise.  
+The pool area is very plain,  smells like moldly stale air.  There is no longer a hot tub and green residue all around the perimiter of the pool.  The...I stayed at this hotel for three days and was ready to leave.  The hotel is difficult to find, no signs on Beltline Rd, it sits on the backside of Macaroni Grill.  First Impression was trash laying out front of the doors.  Lobby was nice, staff was pleasant.  The elevator has a horrible smell along with dated and worn out carpet.  There is only one elevator and it is very small.  The hallways are nice.The suite is really just an overisized regular room,  there is a small living area with no tv and a dated couch and scratched up furniture.  We found a black banana behind the curtains, looked like it had been there for days,  also found several pieces of cany under the table.  Its obvious that the cleaning staff need to pay better atttention.  The bathroom is tiny,  the door almost hits the toilet (smallest bathroom ive seen in a hotel)  there were black mold spots all over the bathroom ceiling and peeling paint.  The beds are hard and the pillows are small.  Dont plan on sleeping,   you can hear everything going on in the rooms above you,  i was able to hear every movment from room above us, and we had broght our own fan for noise.  The pool area is very plain,  smells like moldly stale air.  There is no longer a hot tub and green residue all around the perimiter of the pool.  The door to the patio area was broken so you could not go outsideFor what i paid, ive stayed in better,  my advise, go elsewhere.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d109570-r131778845-Quality_Suites_North_Galleria-Addison_Texas.html</t>
+  </si>
+  <si>
+    <t>131778845</t>
+  </si>
+  <si>
+    <t>06/11/2012</t>
+  </si>
+  <si>
+    <t>Excellent</t>
+  </si>
+  <si>
+    <t>I stayed at this hotel for 18 days I could not ask anymore from the staff they where GREAT!! It is well kept always cleanded and HUGE ROOMS!! I would reccomend this room to anyone at any time. Management is by far the best!! STAY HERE!!!!!!!MoreShow less</t>
+  </si>
+  <si>
+    <t>I stayed at this hotel for 18 days I could not ask anymore from the staff they where GREAT!! It is well kept always cleanded and HUGE ROOMS!! I would reccomend this room to anyone at any time. Management is by far the best!! STAY HERE!!!!!!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d109570-r128956037-Quality_Suites_North_Galleria-Addison_Texas.html</t>
+  </si>
+  <si>
+    <t>128956037</t>
+  </si>
+  <si>
+    <t>04/27/2012</t>
+  </si>
+  <si>
+    <t>Just okay</t>
+  </si>
+  <si>
+    <t>We stayed here for several nights on a trip. It was your average Comfort Inn.  While we appreciated the fridge and microwave in the room, and the general size of the room was nice, there were many downsides.  The bathroom water is very loud - you can hear the flushing and showers of those above you through the night.  Sounds traveled easily - we likely had a family with kids above us.  They are pretty tight on towels and we had to keep asking for more.  Breakfast was adequate mostly, though we had to ask to have things replenished - they were always running out of coffee and other items. We enjoyed the coffee available in the lobby, also.  Overall it was a decent place to stay in a good area, near lots of restaurants in shops.  However, I don't think we're likely to stay there again as the biggest downside was the beds - very uncomfortable and woke up with back pain each day.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2012</t>
+  </si>
+  <si>
+    <t>We stayed here for several nights on a trip. It was your average Comfort Inn.  While we appreciated the fridge and microwave in the room, and the general size of the room was nice, there were many downsides.  The bathroom water is very loud - you can hear the flushing and showers of those above you through the night.  Sounds traveled easily - we likely had a family with kids above us.  They are pretty tight on towels and we had to keep asking for more.  Breakfast was adequate mostly, though we had to ask to have things replenished - they were always running out of coffee and other items. We enjoyed the coffee available in the lobby, also.  Overall it was a decent place to stay in a good area, near lots of restaurants in shops.  However, I don't think we're likely to stay there again as the biggest downside was the beds - very uncomfortable and woke up with back pain each day.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d109570-r126370961-Quality_Suites_North_Galleria-Addison_Texas.html</t>
+  </si>
+  <si>
+    <t>126370961</t>
+  </si>
+  <si>
+    <t>03/19/2012</t>
+  </si>
+  <si>
+    <t>Really wonderful!!</t>
+  </si>
+  <si>
+    <t>My family and I stayed here for 2 days when we went to my cousin's wedding in Texas. The rooms are very clean and the tv is kind of tiny, but otherwise, I loved the place! The hotel staff was nice, and everyone at the desk were very nice and willing to answer questions that I had. The breakfast was good too! And the wifi was speedy which was definitely a plus. I would stay here again if I ever came back to Arlington!</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d109570-r126302911-Quality_Suites_North_Galleria-Addison_Texas.html</t>
+  </si>
+  <si>
+    <t>126302911</t>
+  </si>
+  <si>
+    <t>03/18/2012</t>
+  </si>
+  <si>
+    <t>Nice, great price</t>
+  </si>
+  <si>
+    <t>We were in Dallas for a couple of nights, and since we needed to be in Arlington the second night , I reserved this room because of the great price, and because we stay at Comfort Suites  most of the time when we travel.  We arrived  earlier than anticipated, and were planning to just get directions for going to Fort Worth for the afternoon.  But, the young lady at the desk said if we did not mind having a room without french doors, we could check in right away. This was especially nice, since we could freshen up a bit before heading out.  The room was huge, clean, quiet, and comfortable.  We really liked the decor, and the only thing that was not super was the room was a bit dark, even with all lights on.  We did not need to have much light anyway, so it was very nice.  Breakfast was good, with several choices, and the area was large enough to feel uncrowded.  Would stay here again if in the area.MoreShow less</t>
+  </si>
+  <si>
+    <t>We were in Dallas for a couple of nights, and since we needed to be in Arlington the second night , I reserved this room because of the great price, and because we stay at Comfort Suites  most of the time when we travel.  We arrived  earlier than anticipated, and were planning to just get directions for going to Fort Worth for the afternoon.  But, the young lady at the desk said if we did not mind having a room without french doors, we could check in right away. This was especially nice, since we could freshen up a bit before heading out.  The room was huge, clean, quiet, and comfortable.  We really liked the decor, and the only thing that was not super was the room was a bit dark, even with all lights on.  We did not need to have much light anyway, so it was very nice.  Breakfast was good, with several choices, and the area was large enough to feel uncrowded.  Would stay here again if in the area.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d109570-r125009813-Quality_Suites_North_Galleria-Addison_Texas.html</t>
+  </si>
+  <si>
+    <t>125009813</t>
+  </si>
+  <si>
+    <t>02/21/2012</t>
+  </si>
+  <si>
+    <t>Best comfort suites I've stayed at.</t>
+  </si>
+  <si>
+    <t>I stay at comf suites very regularly (I get discounts) and this was an awesome value. Highly recommend it!</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d109570-r124884472-Quality_Suites_North_Galleria-Addison_Texas.html</t>
+  </si>
+  <si>
+    <t>124884472</t>
+  </si>
+  <si>
+    <t>02/20/2012</t>
+  </si>
+  <si>
+    <t>Excellent Value!!!</t>
+  </si>
+  <si>
+    <t>For what the price of the room was, we couldn't ask for more. The breakfast was great, the room was spacious and the staff we ready to help. The next time we come to Dallas, we plan to stay here. Close to restaurants and grocery stores in case you for get something.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d109570-r124764138-Quality_Suites_North_Galleria-Addison_Texas.html</t>
+  </si>
+  <si>
+    <t>124764138</t>
+  </si>
+  <si>
+    <t>02/18/2012</t>
+  </si>
+  <si>
+    <t>Nice hotel at a great price</t>
+  </si>
+  <si>
+    <t>I stay here regularly.  The hotel is clean, and close to many restaurants of all types.  The area is quite, clean and safe.  The hotel is also pet friendly with a full breakfast.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d109570-r123404651-Quality_Suites_North_Galleria-Addison_Texas.html</t>
+  </si>
+  <si>
+    <t>123404651</t>
+  </si>
+  <si>
+    <t>01/21/2012</t>
+  </si>
+  <si>
+    <t>LOCATION FOR SMALL CONFERENCE IN DALLAS AREA</t>
+  </si>
+  <si>
+    <t>This hotel was indeed the best &amp; most economical location for our retreat (Men of Adodi Southern Regional Retreat) which took place on MLK weekend, 2012. The staff was most helpful in their assistance to make this retreat a good success. The meeting room was sufficient for our needs. Breakfast was great. Kudos to the manager &amp; staff for a job well done.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d109570-r122332222-Quality_Suites_North_Galleria-Addison_Texas.html</t>
+  </si>
+  <si>
+    <t>122332222</t>
+  </si>
+  <si>
+    <t>12/31/2011</t>
+  </si>
+  <si>
+    <t>Just ok</t>
+  </si>
+  <si>
+    <t>quiet location. Nice warm pool. Spa is not there...it has been removed. Carpeting needs updating and gave me the creeps to walk on it barefoot. Breakfast is good. Good location near restaurants but not on the main road.</t>
+  </si>
+  <si>
+    <t>December 2011</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d109570-r122199619-Quality_Suites_North_Galleria-Addison_Texas.html</t>
+  </si>
+  <si>
+    <t>122199619</t>
+  </si>
+  <si>
+    <t>12/28/2011</t>
+  </si>
+  <si>
+    <t>Best Kept Secret</t>
+  </si>
+  <si>
+    <t xml:space="preserve">We have been staying here 2-3 times a year for about 7 years. Great value: Breakfast is above and beyond most Comfort Suites. Staff has always been friendly and helpful, although we miss Lindsey. Hotel has real  suites with French doors which I just love. </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d109570-r119814664-Quality_Suites_North_Galleria-Addison_Texas.html</t>
+  </si>
+  <si>
+    <t>119814664</t>
+  </si>
+  <si>
+    <t>10/27/2011</t>
+  </si>
+  <si>
+    <t>Disappointed by error &amp; service</t>
+  </si>
+  <si>
+    <t>I am rather disappointed for the service received and lack of attentiveness during my recent stay this past weekend. The Front Desk agent that  took my reservation was great, very helpful, she set my family and I up with a great rate; and  her pleasant voice made me excited for my stay. The bed is comfortable and breakfast is above average, but the ceiling fan did not work in the room with the pull out couch. I went down and told the Front Desk that it was not working and I was told that maintenance was gone for the day but that they would inform them of the non working fan and send someone up tomorrow. I understand it was after hours, but a maintenance personnel never came. I was told on Saturday that they did not work weekends. I was offered a box fan from downstairs but did not receive it, I was told I would have to go get it.  Those things I feel are minor, but charging my card after I told the Front Desk twice we were switching to another card  is frustrating. There are many things I can over look in errors, but to reassure me that I was not being charged and then still do so, causing overdraft fees and inconveniences is very disappointing and the lack of attentiveness is disenchanting.   Victoria was very professional and her can do attitude is greatly appreciated in...I am rather disappointed for the service received and lack of attentiveness during my recent stay this past weekend. The Front Desk agent that  took my reservation was great, very helpful, she set my family and I up with a great rate; and  her pleasant voice made me excited for my stay. The bed is comfortable and breakfast is above average, but the ceiling fan did not work in the room with the pull out couch. I went down and told the Front Desk that it was not working and I was told that maintenance was gone for the day but that they would inform them of the non working fan and send someone up tomorrow. I understand it was after hours, but a maintenance personnel never came. I was told on Saturday that they did not work weekends. I was offered a box fan from downstairs but did not receive it, I was told I would have to go get it.  Those things I feel are minor, but charging my card after I told the Front Desk twice we were switching to another card  is frustrating. There are many things I can over look in errors, but to reassure me that I was not being charged and then still do so, causing overdraft fees and inconveniences is very disappointing and the lack of attentiveness is disenchanting.   Victoria was very professional and her can do attitude is greatly appreciated in trying to fix the error. I can only hope that my billing error is resolved promptly.  I will choose to stay elsewhere next time I am in the area.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2011</t>
+  </si>
+  <si>
+    <t>comfortsuitesaddison, General Manager at Quality Suites North / Galleria, responded to this reviewResponded November 22, 2011</t>
+  </si>
+  <si>
+    <t>Responded November 22, 2011</t>
+  </si>
+  <si>
+    <t>I am rather disappointed for the service received and lack of attentiveness during my recent stay this past weekend. The Front Desk agent that  took my reservation was great, very helpful, she set my family and I up with a great rate; and  her pleasant voice made me excited for my stay. The bed is comfortable and breakfast is above average, but the ceiling fan did not work in the room with the pull out couch. I went down and told the Front Desk that it was not working and I was told that maintenance was gone for the day but that they would inform them of the non working fan and send someone up tomorrow. I understand it was after hours, but a maintenance personnel never came. I was told on Saturday that they did not work weekends. I was offered a box fan from downstairs but did not receive it, I was told I would have to go get it.  Those things I feel are minor, but charging my card after I told the Front Desk twice we were switching to another card  is frustrating. There are many things I can over look in errors, but to reassure me that I was not being charged and then still do so, causing overdraft fees and inconveniences is very disappointing and the lack of attentiveness is disenchanting.   Victoria was very professional and her can do attitude is greatly appreciated in...I am rather disappointed for the service received and lack of attentiveness during my recent stay this past weekend. The Front Desk agent that  took my reservation was great, very helpful, she set my family and I up with a great rate; and  her pleasant voice made me excited for my stay. The bed is comfortable and breakfast is above average, but the ceiling fan did not work in the room with the pull out couch. I went down and told the Front Desk that it was not working and I was told that maintenance was gone for the day but that they would inform them of the non working fan and send someone up tomorrow. I understand it was after hours, but a maintenance personnel never came. I was told on Saturday that they did not work weekends. I was offered a box fan from downstairs but did not receive it, I was told I would have to go get it.  Those things I feel are minor, but charging my card after I told the Front Desk twice we were switching to another card  is frustrating. There are many things I can over look in errors, but to reassure me that I was not being charged and then still do so, causing overdraft fees and inconveniences is very disappointing and the lack of attentiveness is disenchanting.   Victoria was very professional and her can do attitude is greatly appreciated in trying to fix the error. I can only hope that my billing error is resolved promptly.  I will choose to stay elsewhere next time I am in the area.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d109570-r119269105-Quality_Suites_North_Galleria-Addison_Texas.html</t>
+  </si>
+  <si>
+    <t>119269105</t>
+  </si>
+  <si>
+    <t>10/13/2011</t>
+  </si>
+  <si>
+    <t>Excels its service</t>
+  </si>
+  <si>
+    <t>Traveling to Addison from Oklahoma for the TX/OU game was a little hit to the pocket book. But staying at the Comfort Suites in Addison sure saved us money. For the price we paid the rooms were very clean and the location had plenty of places to eat at in the area. Oh and the Galleria was only down the street.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d109570-r119268877-Quality_Suites_North_Galleria-Addison_Texas.html</t>
+  </si>
+  <si>
+    <t>119268877</t>
+  </si>
+  <si>
+    <t>Amazing stay!!!!</t>
+  </si>
+  <si>
+    <t>I stayed at the Comfort Suites this past weekend with my family and I must say that it was better than amazing. From the moment we walked through the door the staff was very welcoming and throughout the stay they made sure that all of our needs were met. The breakfast was always well stocked and saved us tons of money from having to go out and feed the family at a local restaurant. I would suggest to anyone traveling to the Addison area this world be the place to stay.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d109570-r116172516-Quality_Suites_North_Galleria-Addison_Texas.html</t>
+  </si>
+  <si>
+    <t>116172516</t>
+  </si>
+  <si>
+    <t>08/02/2011</t>
+  </si>
+  <si>
+    <t>never again!</t>
+  </si>
+  <si>
+    <t>well the bed was amazing and breakfast was very good as well, however I booked a handicapped room, what i got was not accesible! the bathroom door opened away from the main room door blocking the path to the room. what this means is you cannot get into the bathroom FROM THE ROOM!!! YOU CANNOT GET PASSED THE OPENED BATHROOM DOOR TO GET FROM THE ROOM TO THE BATHROOM!!! Im not even going to discuss the woodwork!! oh and when we asked for more pillows, the man argued with my wife that we didnt need them!!!</t>
+  </si>
+  <si>
+    <t>July 2011</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d109570-r116171883-Quality_Suites_North_Galleria-Addison_Texas.html</t>
+  </si>
+  <si>
+    <t>116171883</t>
+  </si>
+  <si>
+    <t>Great value and comfort</t>
+  </si>
+  <si>
+    <t>Wonderful experience here - got fantastic service, clean room, and affordable rate. Made this trip more relaxing to have a great place to unwind after meetings!</t>
+  </si>
+  <si>
+    <t>June 2011</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d109570-r116169869-Quality_Suites_North_Galleria-Addison_Texas.html</t>
+  </si>
+  <si>
+    <t>116169869</t>
+  </si>
+  <si>
+    <t>We will be Back</t>
+  </si>
+  <si>
+    <t>The Staff is Awesome and very helpful and meets all of our needs.... Roooms are great and the experience is always pleasant!!!!!</t>
+  </si>
+  <si>
+    <t>August 2011</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d109570-r115401019-Quality_Suites_North_Galleria-Addison_Texas.html</t>
+  </si>
+  <si>
+    <t>115401019</t>
+  </si>
+  <si>
+    <t>07/15/2011</t>
+  </si>
+  <si>
+    <t>Above and beyond</t>
+  </si>
+  <si>
+    <t>Nearing the end of nearly 2 months of travel, I had SO many treasures to pack into my car that I had somehow failed to pack a Hard Rock Cafe/NY coat I had purchased. I didn't notice this fact until I was home (Spokane WA). Argh!! Being such a well known trademarked item, I felt confident whomever came across this loss would surely discreetly help it along to their own closet.
+   Fearing the worst, I still made a call to the last place I remembered seeing my treasured coat. I found my receipt for the Comfort Suites in Addison, TX and dialed their number. The clerk answered and checked lost-and-found. To my delight, the coat was there!! The cleaning staff had found it and turned it in. I made arrangements with the manager (Cala Montano) to have it shipped to me and a few days later my coat hung in my closet.
+   The relief was great and the honesty of the staff gave me pause. I suppose I have seen too often the greed and deceit of others; I hadn't expected this outcome and have had to re-evaluate some of my social expectations - well, certainly my expectations of Comfort Suites personnel.
+   Just in case you want to know... Not only are the staff friendly and helpful AND Honest... the room was perfect. My suite had Two TVs. One in the bedroom and one in the adjoining living area. The...Nearing the end of nearly 2 months of travel, I had SO many treasures to pack into my car that I had somehow failed to pack a Hard Rock Cafe/NY coat I had purchased. I didn't notice this fact until I was home (Spokane WA). Argh!! Being such a well known trademarked item, I felt confident whomever came across this loss would surely discreetly help it along to their own closet.   Fearing the worst, I still made a call to the last place I remembered seeing my treasured coat. I found my receipt for the Comfort Suites in Addison, TX and dialed their number. The clerk answered and checked lost-and-found. To my delight, the coat was there!! The cleaning staff had found it and turned it in. I made arrangements with the manager (Cala Montano) to have it shipped to me and a few days later my coat hung in my closet.   The relief was great and the honesty of the staff gave me pause. I suppose I have seen too often the greed and deceit of others; I hadn't expected this outcome and have had to re-evaluate some of my social expectations - well, certainly my expectations of Comfort Suites personnel.   Just in case you want to know... Not only are the staff friendly and helpful AND Honest... the room was perfect. My suite had Two TVs. One in the bedroom and one in the adjoining living area. The mini-kitchen was also a delight. In retrospect, every Comfort Suites Inn I had stayed at had Truly been a Comfort. Should I ever make another journey around the country you KNOW I will be booking my rooms with Comfort Suites!!   PS: To the staff in Addison, TX - I again send my heartfelt Thanks and Best Wishes!!  :)MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2011</t>
+  </si>
+  <si>
+    <t>Nearing the end of nearly 2 months of travel, I had SO many treasures to pack into my car that I had somehow failed to pack a Hard Rock Cafe/NY coat I had purchased. I didn't notice this fact until I was home (Spokane WA). Argh!! Being such a well known trademarked item, I felt confident whomever came across this loss would surely discreetly help it along to their own closet.
+   Fearing the worst, I still made a call to the last place I remembered seeing my treasured coat. I found my receipt for the Comfort Suites in Addison, TX and dialed their number. The clerk answered and checked lost-and-found. To my delight, the coat was there!! The cleaning staff had found it and turned it in. I made arrangements with the manager (Cala Montano) to have it shipped to me and a few days later my coat hung in my closet.
+   The relief was great and the honesty of the staff gave me pause. I suppose I have seen too often the greed and deceit of others; I hadn't expected this outcome and have had to re-evaluate some of my social expectations - well, certainly my expectations of Comfort Suites personnel.
+   Just in case you want to know... Not only are the staff friendly and helpful AND Honest... the room was perfect. My suite had Two TVs. One in the bedroom and one in the adjoining living area. The...Nearing the end of nearly 2 months of travel, I had SO many treasures to pack into my car that I had somehow failed to pack a Hard Rock Cafe/NY coat I had purchased. I didn't notice this fact until I was home (Spokane WA). Argh!! Being such a well known trademarked item, I felt confident whomever came across this loss would surely discreetly help it along to their own closet.   Fearing the worst, I still made a call to the last place I remembered seeing my treasured coat. I found my receipt for the Comfort Suites in Addison, TX and dialed their number. The clerk answered and checked lost-and-found. To my delight, the coat was there!! The cleaning staff had found it and turned it in. I made arrangements with the manager (Cala Montano) to have it shipped to me and a few days later my coat hung in my closet.   The relief was great and the honesty of the staff gave me pause. I suppose I have seen too often the greed and deceit of others; I hadn't expected this outcome and have had to re-evaluate some of my social expectations - well, certainly my expectations of Comfort Suites personnel.   Just in case you want to know... Not only are the staff friendly and helpful AND Honest... the room was perfect. My suite had Two TVs. One in the bedroom and one in the adjoining living area. The mini-kitchen was also a delight. In retrospect, every Comfort Suites Inn I had stayed at had Truly been a Comfort. Should I ever make another journey around the country you KNOW I will be booking my rooms with Comfort Suites!!   PS: To the staff in Addison, TX - I again send my heartfelt Thanks and Best Wishes!!  :)More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d109570-r112242598-Quality_Suites_North_Galleria-Addison_Texas.html</t>
+  </si>
+  <si>
+    <t>112242598</t>
+  </si>
+  <si>
+    <t>06/08/2011</t>
+  </si>
+  <si>
+    <t>Treated as if we were the only ones there</t>
+  </si>
+  <si>
+    <t>Rooms were spotless! service was consistant! staff was pleaseant and very helpful!This was hands down the best place I have ever stayed. I made all the arrangements for 25 plus family members and since I had never been there ,I was hoping I had made a good choice. Noting but the best from the second we all walked in! My Aunt asked if we were the only folks there as they sure attended to us all !</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d109570-r108489007-Quality_Suites_North_Galleria-Addison_Texas.html</t>
+  </si>
+  <si>
+    <t>108489007</t>
+  </si>
+  <si>
+    <t>05/16/2011</t>
+  </si>
+  <si>
+    <t>This hotel was AWESOME! The staff was wonderful &amp; we'll be back!</t>
+  </si>
+  <si>
+    <t>I would highly recommend this hotel. We had an extended stay and it was most enjoyable. They serve continental breakfast daily and it was always fresh and plenty available. The staff was extremely friendly and helpful and made me feel like this was my home away from home.Oh...and the beds were so incredibly comfortable! What a great sleep each night!I will definitely stay here again.Thanks to all staff at the hotel!Christy</t>
+  </si>
+  <si>
+    <t>April 2011</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d109570-r102897283-Quality_Suites_North_Galleria-Addison_Texas.html</t>
+  </si>
+  <si>
+    <t>102897283</t>
+  </si>
+  <si>
+    <t>04/05/2011</t>
+  </si>
+  <si>
+    <t>It was OK, nothing negative to say...just OK</t>
+  </si>
+  <si>
+    <t>This hotel is tucked away off Beltline Rd, so my GPS had a difficult time locating it behind other businesses. The hotel location is GREAT if you stay here for shopping purposes (which is why I stayed here for 2 nights). Near lots of neat restaurants and close location to Galleria, Tollway, and I-635. It is located VERY close to the Addison airport though, so you hear the small planes landing until around midnight. It could use some updating, but the staff was very nice and the buffet breakfast was decent. For the price paid, it was worth the stay. The living room was large with a nice comfy couch and kitchenette, and the king bed in a separate room that could be closed off for privacy.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2011</t>
+  </si>
+  <si>
+    <t>This hotel is tucked away off Beltline Rd, so my GPS had a difficult time locating it behind other businesses. The hotel location is GREAT if you stay here for shopping purposes (which is why I stayed here for 2 nights). Near lots of neat restaurants and close location to Galleria, Tollway, and I-635. It is located VERY close to the Addison airport though, so you hear the small planes landing until around midnight. It could use some updating, but the staff was very nice and the buffet breakfast was decent. For the price paid, it was worth the stay. The living room was large with a nice comfy couch and kitchenette, and the king bed in a separate room that could be closed off for privacy.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d109570-r91743244-Quality_Suites_North_Galleria-Addison_Texas.html</t>
+  </si>
+  <si>
+    <t>91743244</t>
+  </si>
+  <si>
+    <t>01/04/2011</t>
+  </si>
+  <si>
+    <t>Great service, Great Rooms!! Very pleased especially with price!</t>
+  </si>
+  <si>
+    <t>The staff were so nice, great amenities, spacious rooms, this hotel saved my budget, this is the place I will plan for my trip to Dallas every time! Beds were great, the kids had their own TVs, breakfast was the best I have had in all the hotels i've stayed at. Tons of variety for the pickiest person, and the indoor pool was clean and not overly cholrinated. Even with the remodeling, there was still order. This was a great location to stay for all of Addison's great places to eat. Easy in and out access! My Mollie (minature sheltie) had plenty of grass to do her business and still had room to run around and get her excercise.  Very pet friendly.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2010</t>
+  </si>
+  <si>
+    <t>The staff were so nice, great amenities, spacious rooms, this hotel saved my budget, this is the place I will plan for my trip to Dallas every time! Beds were great, the kids had their own TVs, breakfast was the best I have had in all the hotels i've stayed at. Tons of variety for the pickiest person, and the indoor pool was clean and not overly cholrinated. Even with the remodeling, there was still order. This was a great location to stay for all of Addison's great places to eat. Easy in and out access! My Mollie (minature sheltie) had plenty of grass to do her business and still had room to run around and get her excercise.  Very pet friendly.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d109570-r87535791-Quality_Suites_North_Galleria-Addison_Texas.html</t>
+  </si>
+  <si>
+    <t>87535791</t>
+  </si>
+  <si>
+    <t>11/18/2010</t>
+  </si>
+  <si>
+    <t>Fabulous service</t>
+  </si>
+  <si>
+    <t>You want a friendly staff, decent amenities, spacious rooms, and stay within a budget, this is the place. The beds are great, breakfast is on the mark, and the indoor pool is clean. The hotel is in the process of remodeling, but even for an older Choice, it outshines all the other Choice hotels I stay at. Stay here, then spend the savings at any of Addison's great places to eat. Joe's Italian Cafe on Beltline is a guaranteed great place, and great prices too. Pets have lots of grass available.</t>
+  </si>
+  <si>
+    <t>November 2010</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d109570-r84535062-Quality_Suites_North_Galleria-Addison_Texas.html</t>
+  </si>
+  <si>
+    <t>84535062</t>
+  </si>
+  <si>
+    <t>10/23/2010</t>
+  </si>
+  <si>
+    <t>Great stay</t>
+  </si>
+  <si>
+    <t>I stayed here for a recent meet up with friends from different parts and therefore I found this hotel. It was a great place, the rooms were HUGE! the service was great and I needed a few things that i forgot at home and the staff jumped right on my requests. It was a little hard to find from belt line but that is about the only "complaint" I had. Great value and great stay. Good amenities alsp</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d109570-r83420939-Quality_Suites_North_Galleria-Addison_Texas.html</t>
+  </si>
+  <si>
+    <t>83420939</t>
+  </si>
+  <si>
+    <t>10/13/2010</t>
+  </si>
+  <si>
+    <t>pretty good!</t>
+  </si>
+  <si>
+    <t>pretty nice hotel.. great customer service! when I arrived for check in the lady behind the desk asked if I would be using the pull out couch/bed and I said yes (brought 2 friend with us) and she said the one she had us in didnt have a pull out so she upgraded our room to one with a pull out bed, jacuzzi, and doors separating the bedroom and the living room. I paid about 80 for my 120 dollar hotel room. If you are a regular joe like me then this hotel is perfect. If you are snooty and uptight probably not a good choice. No room service and things like that noone waiting on you hand and foot. My only complaint is..my 2 friends needed pillows for the pull out sofa bed and they went to ask the front desk for some and the man said will 1 work? and he was dead serious and they came back with 1 pillow! ended up not being a big deal because we had like 6 on our bed lol but still "will one work???????????????" idiot..all in all I was very satisfied though also a really great area they have just about anything within 5 miles of the hotel!MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2010</t>
+  </si>
+  <si>
+    <t>pretty nice hotel.. great customer service! when I arrived for check in the lady behind the desk asked if I would be using the pull out couch/bed and I said yes (brought 2 friend with us) and she said the one she had us in didnt have a pull out so she upgraded our room to one with a pull out bed, jacuzzi, and doors separating the bedroom and the living room. I paid about 80 for my 120 dollar hotel room. If you are a regular joe like me then this hotel is perfect. If you are snooty and uptight probably not a good choice. No room service and things like that noone waiting on you hand and foot. My only complaint is..my 2 friends needed pillows for the pull out sofa bed and they went to ask the front desk for some and the man said will 1 work? and he was dead serious and they came back with 1 pillow! ended up not being a big deal because we had like 6 on our bed lol but still "will one work???????????????" idiot..all in all I was very satisfied though also a really great area they have just about anything within 5 miles of the hotel!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d109570-r66030305-Quality_Suites_North_Galleria-Addison_Texas.html</t>
+  </si>
+  <si>
+    <t>66030305</t>
+  </si>
+  <si>
+    <t>06/01/2010</t>
+  </si>
+  <si>
+    <t>Awsomeness, Great staff, Great times</t>
+  </si>
+  <si>
+    <t>I stayed at this location for the Taste Of Addison which was an awsome showing of food, music, and alcohol right down the road. It helped that the hotel was about a half a mile away considering I got so hammered that we didn't drive, and we found good parking at the event. We just walked right down the road back to the hotel, which was a nice romantic stroll. The hotel itself does need to be more modernized, but hey what is modern in this day in age. I needed a few things asked to the staff and they were so willing to help, I felt bad but they were on top of their game without hesitation. The beds are awsome, the staffs amazing, the foods pretty bomb, and the location is sweeeet. I would definitely stay here again and will recommend to anyone in the area. The price is awsome for the stay.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2010</t>
+  </si>
+  <si>
+    <t>I stayed at this location for the Taste Of Addison which was an awsome showing of food, music, and alcohol right down the road. It helped that the hotel was about a half a mile away considering I got so hammered that we didn't drive, and we found good parking at the event. We just walked right down the road back to the hotel, which was a nice romantic stroll. The hotel itself does need to be more modernized, but hey what is modern in this day in age. I needed a few things asked to the staff and they were so willing to help, I felt bad but they were on top of their game without hesitation. The beds are awsome, the staffs amazing, the foods pretty bomb, and the location is sweeeet. I would definitely stay here again and will recommend to anyone in the area. The price is awsome for the stay.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d109570-r39740704-Quality_Suites_North_Galleria-Addison_Texas.html</t>
+  </si>
+  <si>
+    <t>39740704</t>
+  </si>
+  <si>
+    <t>09/04/2009</t>
+  </si>
+  <si>
+    <t>Do not stay here</t>
+  </si>
+  <si>
+    <t>The room we had had dirty carpets, the light sconces were falling off the walls.  During the night the toilet leaked, apparently the wax seal broke.  My wife had left her make-up/jewelry bag on the floor of the bathroom and found it soaked.  When advised of the situation the desk clerk only offered another room.  We insisted upon a refund which she was not authorized to issue.  My wife left a note for the manager (whom the clerk could not find or contact - believe it or not his phone was disconnected!) with her cell phone number.  She detailed our experience and asked him to call as soon as possible.  No call was forthcoming, ever.  I will also note the "breakfast" was sub par.  It consisted of a few dry cereals, a bagel and maybe a sweet roll.  Poor, it seemed it was an afterthought, something to do to put in the advertising.  We did check out by 8am went to the Best Western just 2 blocks away and got wonderful service, they allowed us to have thier hot breakfast and they were able to let us in a room that early.  The price was the same. I have since used this Best Western many times.
+As an addendum, I did write to the chairman of Choice Hotels with a copy of my wife's note and a detailed letter from me explaining that we choose this hotel because it was...The room we had had dirty carpets, the light sconces were falling off the walls.  During the night the toilet leaked, apparently the wax seal broke.  My wife had left her make-up/jewelry bag on the floor of the bathroom and found it soaked.  When advised of the situation the desk clerk only offered another room.  We insisted upon a refund which she was not authorized to issue.  My wife left a note for the manager (whom the clerk could not find or contact - believe it or not his phone was disconnected!) with her cell phone number.  She detailed our experience and asked him to call as soon as possible.  No call was forthcoming, ever.  I will also note the "breakfast" was sub par.  It consisted of a few dry cereals, a bagel and maybe a sweet roll.  Poor, it seemed it was an afterthought, something to do to put in the advertising.  We did check out by 8am went to the Best Western just 2 blocks away and got wonderful service, they allowed us to have thier hot breakfast and they were able to let us in a room that early.  The price was the same. I have since used this Best Western many times.As an addendum, I did write to the chairman of Choice Hotels with a copy of my wife's note and a detailed letter from me explaining that we choose this hotel because it was a) close to my daughter, b) it was a national chain, c) most of the Choice hotels we have stayed at were fine.  I will also note the manager never responded to us, except to send us a refund with a curt note.  The chairman had an assistant write us, and unbelievably the assistant said that since each hotel is owned by a franchisee they had no control over their policies!  I will avoid using any Choice Hotel property.  The customer seems to be wrong at this facility.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2008</t>
+  </si>
+  <si>
+    <t>The room we had had dirty carpets, the light sconces were falling off the walls.  During the night the toilet leaked, apparently the wax seal broke.  My wife had left her make-up/jewelry bag on the floor of the bathroom and found it soaked.  When advised of the situation the desk clerk only offered another room.  We insisted upon a refund which she was not authorized to issue.  My wife left a note for the manager (whom the clerk could not find or contact - believe it or not his phone was disconnected!) with her cell phone number.  She detailed our experience and asked him to call as soon as possible.  No call was forthcoming, ever.  I will also note the "breakfast" was sub par.  It consisted of a few dry cereals, a bagel and maybe a sweet roll.  Poor, it seemed it was an afterthought, something to do to put in the advertising.  We did check out by 8am went to the Best Western just 2 blocks away and got wonderful service, they allowed us to have thier hot breakfast and they were able to let us in a room that early.  The price was the same. I have since used this Best Western many times.
+As an addendum, I did write to the chairman of Choice Hotels with a copy of my wife's note and a detailed letter from me explaining that we choose this hotel because it was...The room we had had dirty carpets, the light sconces were falling off the walls.  During the night the toilet leaked, apparently the wax seal broke.  My wife had left her make-up/jewelry bag on the floor of the bathroom and found it soaked.  When advised of the situation the desk clerk only offered another room.  We insisted upon a refund which she was not authorized to issue.  My wife left a note for the manager (whom the clerk could not find or contact - believe it or not his phone was disconnected!) with her cell phone number.  She detailed our experience and asked him to call as soon as possible.  No call was forthcoming, ever.  I will also note the "breakfast" was sub par.  It consisted of a few dry cereals, a bagel and maybe a sweet roll.  Poor, it seemed it was an afterthought, something to do to put in the advertising.  We did check out by 8am went to the Best Western just 2 blocks away and got wonderful service, they allowed us to have thier hot breakfast and they were able to let us in a room that early.  The price was the same. I have since used this Best Western many times.As an addendum, I did write to the chairman of Choice Hotels with a copy of my wife's note and a detailed letter from me explaining that we choose this hotel because it was a) close to my daughter, b) it was a national chain, c) most of the Choice hotels we have stayed at were fine.  I will also note the manager never responded to us, except to send us a refund with a curt note.  The chairman had an assistant write us, and unbelievably the assistant said that since each hotel is owned by a franchisee they had no control over their policies!  I will avoid using any Choice Hotel property.  The customer seems to be wrong at this facility.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d109570-r36636007-Quality_Suites_North_Galleria-Addison_Texas.html</t>
+  </si>
+  <si>
+    <t>36636007</t>
+  </si>
+  <si>
+    <t>08/03/2009</t>
+  </si>
+  <si>
+    <t>Horrible and outdated</t>
+  </si>
+  <si>
+    <t>I stayed in this motel while my daughter competed in a National basketball tournament.  I was so disappointed in the motel from the time I got on the elevator and even more so when I opened the door to the room.  The elevator is extremely outdated and probably in need of repair. The stains in the carpet started in the elevator and were also in the hallways.  The room smelled like mold that was trying to be covered up by bleach. The hallways were hot and the chairrails in the hallways looked like a child painted them.  The only high point of the stay was the breakfast.  I was booked for two nights, but decided that 1 night was way too much.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2009</t>
+  </si>
+  <si>
+    <t>I stayed in this motel while my daughter competed in a National basketball tournament.  I was so disappointed in the motel from the time I got on the elevator and even more so when I opened the door to the room.  The elevator is extremely outdated and probably in need of repair. The stains in the carpet started in the elevator and were also in the hallways.  The room smelled like mold that was trying to be covered up by bleach. The hallways were hot and the chairrails in the hallways looked like a child painted them.  The only high point of the stay was the breakfast.  I was booked for two nights, but decided that 1 night was way too much.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d109570-r35616310-Quality_Suites_North_Galleria-Addison_Texas.html</t>
+  </si>
+  <si>
+    <t>35616310</t>
+  </si>
+  <si>
+    <t>07/23/2009</t>
+  </si>
+  <si>
+    <t>Good price and location</t>
+  </si>
+  <si>
+    <t>We stayed with our family and grand[parents after a day of shopping the Galleria. The room was large and comfortable and the only disappointment was that the jacuzzi by the pool was down, the desk clerk told us that a large group had been there recently and broke it. The breakfast was excellent and a staff member came around with refills for our coffee and orange juice which I have never had done for me at a continental breakfast at a hotel. It was a pleasant surprise. We would stay here again if we came to the area.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d109570-r24528690-Quality_Suites_North_Galleria-Addison_Texas.html</t>
+  </si>
+  <si>
+    <t>24528690</t>
+  </si>
+  <si>
+    <t>02/13/2009</t>
+  </si>
+  <si>
+    <t>No complaints</t>
+  </si>
+  <si>
+    <t>The room was clean, spacious and a great price for the money we spent.  The location is awesome for finding a place to eat, too!  If we are driving through Addison again, we will stay here.</t>
+  </si>
+  <si>
+    <t>February 2009</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d109570-r23710315-Quality_Suites_North_Galleria-Addison_Texas.html</t>
+  </si>
+  <si>
+    <t>23710315</t>
+  </si>
+  <si>
+    <t>01/19/2009</t>
+  </si>
+  <si>
+    <t>Was disappointed</t>
+  </si>
+  <si>
+    <t>I was optimistic about my stay this last weekend. The hotel was a recommendation from a colleague, so I booked a weekend there for my husband and I. The room was okay (about what you'd expect for a hotel of this class), but on the first day, our room was cleaned and we weren't left any towels. Not an earth shattering occurrence, but  when I'm giving an establishment my money, I expect proper service. Additionally, the light cover outside the door fell on my head the second night and it took a whole day for someone to get the broken piece from outside the room. The front desk is dismissive, and the breakfast area is ridiculously crowded in the morning, with no room to move. Overall, I wasn't surprised by any of these circumstances, but I definitely won't give this hotel any more of my business.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2009</t>
+  </si>
+  <si>
+    <t>I was optimistic about my stay this last weekend. The hotel was a recommendation from a colleague, so I booked a weekend there for my husband and I. The room was okay (about what you'd expect for a hotel of this class), but on the first day, our room was cleaned and we weren't left any towels. Not an earth shattering occurrence, but  when I'm giving an establishment my money, I expect proper service. Additionally, the light cover outside the door fell on my head the second night and it took a whole day for someone to get the broken piece from outside the room. The front desk is dismissive, and the breakfast area is ridiculously crowded in the morning, with no room to move. Overall, I wasn't surprised by any of these circumstances, but I definitely won't give this hotel any more of my business.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d109570-r19543429-Quality_Suites_North_Galleria-Addison_Texas.html</t>
+  </si>
+  <si>
+    <t>19543429</t>
+  </si>
+  <si>
+    <t>08/30/2008</t>
+  </si>
+  <si>
+    <t>Comfort Suites provide true COMFORT! definite 3.5 star</t>
+  </si>
+  <si>
+    <t>I was impressed by the hospitality, the accomadations and the price. I have stayed at this property before, and I was planning another stay in this area, but decided to view some reviews first to see if the quality has changed. The reviews are not very accurate when describing the hotel nor the service. When I called the property to confirm information on their National website, the front desk agent was glad to see that I was a returning guest and was willing to help me find a room tailored to my needs. That was key in my decision to select this hotel. I was impressed by her willingness to assist, she was super friendly and accomadating. Once arriving at the hotel I was greeted by another front desk agent who was also very friendly. Check in time took less then 60 seconds I swear it was awesome. My suite was huge, I had a king size corner jacuzzi suite and I was blown away at the value.If this was a 4 star hotel I would easily pay 3 times as much. The furnishings matched and were in good shape. I had a slight housekeeping problem so I called the front desk, I was greeted by name (I thought only upscale hotels did this) and she said she would get someone down to correct. Once again they were on the ball, less than 60 seconds later housekeeping was at my...I was impressed by the hospitality, the accomadations and the price. I have stayed at this property before, and I was planning another stay in this area, but decided to view some reviews first to see if the quality has changed. The reviews are not very accurate when describing the hotel nor the service. When I called the property to confirm information on their National website, the front desk agent was glad to see that I was a returning guest and was willing to help me find a room tailored to my needs. That was key in my decision to select this hotel. I was impressed by her willingness to assist, she was super friendly and accomadating. Once arriving at the hotel I was greeted by another front desk agent who was also very friendly. Check in time took less then 60 seconds I swear it was awesome. My suite was huge, I had a king size corner jacuzzi suite and I was blown away at the value.If this was a 4 star hotel I would easily pay 3 times as much. The furnishings matched and were in good shape. I had a slight housekeeping problem so I called the front desk, I was greeted by name (I thought only upscale hotels did this) and she said she would get someone down to correct. Once again they were on the ball, less than 60 seconds later housekeeping was at my door and corrected my issue.  Then within 10 min the front desk called to make sure the issue was resolved to my satisfaction. (I thought only upscale hotels did this too) The bed has been mentioned in reviews below as being hard, not comfortable, covers too short etc. Well they must read reviews because my bed is perfect, it is comfortable, with a pillowtop, more than enough pillows, and nice linens, not just the cheesy flowery bedspreads. The free breakfast had great variety. I will definitely stay here again. I feel safe in this area. It would be difficult to locate for someone new to this area but CS has put up a huge sign with an arrow directing guests to their property, so they do listen to feedback and I think that is awesome.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2008</t>
+  </si>
+  <si>
+    <t>I was impressed by the hospitality, the accomadations and the price. I have stayed at this property before, and I was planning another stay in this area, but decided to view some reviews first to see if the quality has changed. The reviews are not very accurate when describing the hotel nor the service. When I called the property to confirm information on their National website, the front desk agent was glad to see that I was a returning guest and was willing to help me find a room tailored to my needs. That was key in my decision to select this hotel. I was impressed by her willingness to assist, she was super friendly and accomadating. Once arriving at the hotel I was greeted by another front desk agent who was also very friendly. Check in time took less then 60 seconds I swear it was awesome. My suite was huge, I had a king size corner jacuzzi suite and I was blown away at the value.If this was a 4 star hotel I would easily pay 3 times as much. The furnishings matched and were in good shape. I had a slight housekeeping problem so I called the front desk, I was greeted by name (I thought only upscale hotels did this) and she said she would get someone down to correct. Once again they were on the ball, less than 60 seconds later housekeeping was at my...I was impressed by the hospitality, the accomadations and the price. I have stayed at this property before, and I was planning another stay in this area, but decided to view some reviews first to see if the quality has changed. The reviews are not very accurate when describing the hotel nor the service. When I called the property to confirm information on their National website, the front desk agent was glad to see that I was a returning guest and was willing to help me find a room tailored to my needs. That was key in my decision to select this hotel. I was impressed by her willingness to assist, she was super friendly and accomadating. Once arriving at the hotel I was greeted by another front desk agent who was also very friendly. Check in time took less then 60 seconds I swear it was awesome. My suite was huge, I had a king size corner jacuzzi suite and I was blown away at the value.If this was a 4 star hotel I would easily pay 3 times as much. The furnishings matched and were in good shape. I had a slight housekeeping problem so I called the front desk, I was greeted by name (I thought only upscale hotels did this) and she said she would get someone down to correct. Once again they were on the ball, less than 60 seconds later housekeeping was at my door and corrected my issue.  Then within 10 min the front desk called to make sure the issue was resolved to my satisfaction. (I thought only upscale hotels did this too) The bed has been mentioned in reviews below as being hard, not comfortable, covers too short etc. Well they must read reviews because my bed is perfect, it is comfortable, with a pillowtop, more than enough pillows, and nice linens, not just the cheesy flowery bedspreads. The free breakfast had great variety. I will definitely stay here again. I feel safe in this area. It would be difficult to locate for someone new to this area but CS has put up a huge sign with an arrow directing guests to their property, so they do listen to feedback and I think that is awesome.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d109570-r14574295-Quality_Suites_North_Galleria-Addison_Texas.html</t>
+  </si>
+  <si>
+    <t>14574295</t>
+  </si>
+  <si>
+    <t>03/27/2008</t>
+  </si>
+  <si>
+    <t>poor hotel and service</t>
+  </si>
+  <si>
+    <t>I live in the Addison area and needed a hotel stay for 1 week. I chose this hotel because it was at a convenient location. The first night there, my son slept on the sofa bed where he fell through the springs mattress because it was poorly in need of replacement. I called roomservice the next morning and they replaced it. Three days later, I left at 10:15 am going to work, I returned at 7:45 pm that night and my room door was open. It looked as though the maids had come in and left the security latch flipped so the door would not close. I walked in and my laptop had been stolen. I called front desk and she told me that the maids had cleaned my room around 5 something but closed the door behind them..ANYWAY, I went downstairs and talked to her. I gave her my cell number and name and asked her to have a manager call me because I had to leave. 2 hours later when I returned receiving no phone call, I asked her why she never called or anything. THEN, out of nowhere, AN OLDER  CAUCASIAN gentleman rudely and loudly commented , "WHAT DO YOU WANT US TO DO, DO YOU WANT ME TO COME OUT OF MY POCKET AND PAY FOR YOUR LAPTOP. WE ARE NOT RESPONSIBLE FOR YOUR PERSONAL ITEMS. OUR MAIDS LOCKED THE DOOR BEHIND THEM WHEN THEY LEFT...I live in the Addison area and needed a hotel stay for 1 week. I chose this hotel because it was at a convenient location. The first night there, my son slept on the sofa bed where he fell through the springs mattress because it was poorly in need of replacement. I called roomservice the next morning and they replaced it. Three days later, I left at 10:15 am going to work, I returned at 7:45 pm that night and my room door was open. It looked as though the maids had come in and left the security latch flipped so the door would not close. I walked in and my laptop had been stolen. I called front desk and she told me that the maids had cleaned my room around 5 something but closed the door behind them..ANYWAY, I went downstairs and talked to her. I gave her my cell number and name and asked her to have a manager call me because I had to leave. 2 hours later when I returned receiving no phone call, I asked her why she never called or anything. THEN, out of nowhere, AN OLDER  CAUCASIAN gentleman rudely and loudly commented , "WHAT DO YOU WANT US TO DO, DO YOU WANT ME TO COME OUT OF MY POCKET AND PAY FOR YOUR LAPTOP. WE ARE NOT RESPONSIBLE FOR YOUR PERSONAL ITEMS. OUR MAIDS LOCKED THE DOOR BEHIND THEM WHEN THEY LEFT YOUR ROOM". He was very dispectful and rude. After an hour had passed and police report being filed, my Fiance' came and asked me what happened and we went back down stairs. The guy at the front desk spoke to us using Racial slurs and would not call the manager or anything.. ...I would advise everyone wanting to stay here to find somewhere else to stay. The price may be cheap, but you get what you pay for. The district manager  was no help to the us. I called the hotel the day after this happened and spoke to another desk clerk. She advised me that they manually input the time in and out of the keycard use to the rooms..With this being said, They manually inputed the times that I told them to make it look legit AND I KNOW THIS FOR A FACT BECAUSE  SOME ENTRIES TO MY ROOM WERE NOT DOCUMENTED...THEY USED THE TIMES THAT I GAVE THEM AND WHAT THE MAIDS LOGGED ON THEIR SHHETS....I'm pretty sure the rude workers still work there . Also, I will not have my laptop replaced by this hotel because by they did not have insurance coverage....WHAT A SURPRISE..  Oh, the district manager says they provide safe deposit boxes for jewelry only...GOOD LUCK WITH YOUR PERSONAL ITEMS THAT AREN'T JEWELRY....MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2008</t>
+  </si>
+  <si>
+    <t>I live in the Addison area and needed a hotel stay for 1 week. I chose this hotel because it was at a convenient location. The first night there, my son slept on the sofa bed where he fell through the springs mattress because it was poorly in need of replacement. I called roomservice the next morning and they replaced it. Three days later, I left at 10:15 am going to work, I returned at 7:45 pm that night and my room door was open. It looked as though the maids had come in and left the security latch flipped so the door would not close. I walked in and my laptop had been stolen. I called front desk and she told me that the maids had cleaned my room around 5 something but closed the door behind them..ANYWAY, I went downstairs and talked to her. I gave her my cell number and name and asked her to have a manager call me because I had to leave. 2 hours later when I returned receiving no phone call, I asked her why she never called or anything. THEN, out of nowhere, AN OLDER  CAUCASIAN gentleman rudely and loudly commented , "WHAT DO YOU WANT US TO DO, DO YOU WANT ME TO COME OUT OF MY POCKET AND PAY FOR YOUR LAPTOP. WE ARE NOT RESPONSIBLE FOR YOUR PERSONAL ITEMS. OUR MAIDS LOCKED THE DOOR BEHIND THEM WHEN THEY LEFT...I live in the Addison area and needed a hotel stay for 1 week. I chose this hotel because it was at a convenient location. The first night there, my son slept on the sofa bed where he fell through the springs mattress because it was poorly in need of replacement. I called roomservice the next morning and they replaced it. Three days later, I left at 10:15 am going to work, I returned at 7:45 pm that night and my room door was open. It looked as though the maids had come in and left the security latch flipped so the door would not close. I walked in and my laptop had been stolen. I called front desk and she told me that the maids had cleaned my room around 5 something but closed the door behind them..ANYWAY, I went downstairs and talked to her. I gave her my cell number and name and asked her to have a manager call me because I had to leave. 2 hours later when I returned receiving no phone call, I asked her why she never called or anything. THEN, out of nowhere, AN OLDER  CAUCASIAN gentleman rudely and loudly commented , "WHAT DO YOU WANT US TO DO, DO YOU WANT ME TO COME OUT OF MY POCKET AND PAY FOR YOUR LAPTOP. WE ARE NOT RESPONSIBLE FOR YOUR PERSONAL ITEMS. OUR MAIDS LOCKED THE DOOR BEHIND THEM WHEN THEY LEFT YOUR ROOM". He was very dispectful and rude. After an hour had passed and police report being filed, my Fiance' came and asked me what happened and we went back down stairs. The guy at the front desk spoke to us using Racial slurs and would not call the manager or anything.. ...I would advise everyone wanting to stay here to find somewhere else to stay. The price may be cheap, but you get what you pay for. The district manager  was no help to the us. I called the hotel the day after this happened and spoke to another desk clerk. She advised me that they manually input the time in and out of the keycard use to the rooms..With this being said, They manually inputed the times that I told them to make it look legit AND I KNOW THIS FOR A FACT BECAUSE  SOME ENTRIES TO MY ROOM WERE NOT DOCUMENTED...THEY USED THE TIMES THAT I GAVE THEM AND WHAT THE MAIDS LOGGED ON THEIR SHHETS....I'm pretty sure the rude workers still work there . Also, I will not have my laptop replaced by this hotel because by they did not have insurance coverage....WHAT A SURPRISE..  Oh, the district manager says they provide safe deposit boxes for jewelry only...GOOD LUCK WITH YOUR PERSONAL ITEMS THAT AREN'T JEWELRY....More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d109570-r8829676-Quality_Suites_North_Galleria-Addison_Texas.html</t>
+  </si>
+  <si>
+    <t>8829676</t>
+  </si>
+  <si>
+    <t>09/19/2007</t>
+  </si>
+  <si>
+    <t>One of the worst hotels in DFW</t>
+  </si>
+  <si>
+    <t>The place is in serious need of a renovation.  Everything is rundown.  I didn't want to move an inch in the bed I slept in because the matress cover didnt cover the whole bed.  There are many stains in my room and all over the halls of the hotel.  The best part about my stay was that the internet was fast.  I feared for my safety because when I lost my car donce, the girl up front didn't ask to see an I.D. or anything before handing me a new one.  The bath towels had stains on them.  There were tears in the carpet and even a hole in the wall behind the door.  I did like how the t.v. had many channels.  I could hear people running and walking on the floor above me every night of my stay until 3 in the morning.  The rooms are large, which is a plus but that doesn't make up for how gross this place is.  Does this place have a manager?  Has he or she ever seen the inside of the rooms?  Is this place on such a tight budget that the owners can not replace the carpet or fix the holes in the walls?  Bad hotel- no good.  You would be better off almost anywhere else in Dallas.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2007</t>
+  </si>
+  <si>
+    <t>The place is in serious need of a renovation.  Everything is rundown.  I didn't want to move an inch in the bed I slept in because the matress cover didnt cover the whole bed.  There are many stains in my room and all over the halls of the hotel.  The best part about my stay was that the internet was fast.  I feared for my safety because when I lost my car donce, the girl up front didn't ask to see an I.D. or anything before handing me a new one.  The bath towels had stains on them.  There were tears in the carpet and even a hole in the wall behind the door.  I did like how the t.v. had many channels.  I could hear people running and walking on the floor above me every night of my stay until 3 in the morning.  The rooms are large, which is a plus but that doesn't make up for how gross this place is.  Does this place have a manager?  Has he or she ever seen the inside of the rooms?  Is this place on such a tight budget that the owners can not replace the carpet or fix the holes in the walls?  Bad hotel- no good.  You would be better off almost anywhere else in Dallas.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d109570-r4707111-Quality_Suites_North_Galleria-Addison_Texas.html</t>
+  </si>
+  <si>
+    <t>4707111</t>
+  </si>
+  <si>
+    <t>03/19/2006</t>
+  </si>
+  <si>
+    <t>Less than average in every way</t>
+  </si>
+  <si>
+    <t>Totally less than average in every way except the location, is my description of the Comfort Suites Addison. The rooms and corridors were not vacuumed well, sheets not long enough for beds and scratchy, pool not useable due to over chlorination.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d109570-r3255165-Quality_Suites_North_Galleria-Addison_Texas.html</t>
+  </si>
+  <si>
+    <t>3255165</t>
+  </si>
+  <si>
+    <t>03/05/2005</t>
+  </si>
+  <si>
+    <t>Wonderful place</t>
+  </si>
+  <si>
+    <t>My son and I travel to Dallas every other month to go to the hospital there.  We have tried staying at many hotels and this one is the best for the price.  We are always treated wonderful!!!  Rooms are great and service is wonderful.  Everytime I decide to stay closer to the hospital, I am very disappointed.  I have vowed to my son that from now on we will not try any other hotels.  Get job Comfort in of Addison.  Thanks alot</t>
+  </si>
+  <si>
+    <t>November 2004</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d109570-r3117135-Quality_Suites_North_Galleria-Addison_Texas.html</t>
+  </si>
+  <si>
+    <t>3117135</t>
+  </si>
+  <si>
+    <t>02/02/2005</t>
+  </si>
+  <si>
+    <t>Mixed Review</t>
+  </si>
+  <si>
+    <t>I've stayed here 3 times, and had mixed results. What I love: fabulous room design...spacious, with French doors separating bedroom from living room/kitchen area, a TV in both areas, and both shower facilities or grand whirlpool tub in bedroom. I also love the indoor pool and well-equipped exercise room. Now, for the problems........first stay, checked into a room without a working toilet. They reaccommodated me with another room. Unlike at the nearby Hampton Inn, though, which assists you with your move from one room to another, you do it all yourself at this hotel. Then, that night, I was awakened by an ear-splitting fire alarm positioned over my bed. There was no fire.....no explanation why the alarm went off....just a horrible night's sleep. Second visit....fine. Third (and final) visit: had a smaller room without the French doors separating the living area and the bedroom. Service indifferent....maid did not refill obviously empty Kleenex holder; my call to the front desk for replenishment was greeted by an obviously "can't-be-bothered" clerk, and....no surprise....nothing was done. But the absolute worst of it all was waking up the next morning to find a roach crawling on my bare skin under my pajamas. YIKES!!! After that, I viewed the continental breakfast.....with cereal and milk served from bulk containers instead of individual packages, like at a Fairfield or Hampton Inn......with much more distaste than usual. This has the potential for being a lovely property....great design, super location.....but...I've stayed here 3 times, and had mixed results. What I love: fabulous room design...spacious, with French doors separating bedroom from living room/kitchen area, a TV in both areas, and both shower facilities or grand whirlpool tub in bedroom. I also love the indoor pool and well-equipped exercise room. Now, for the problems........first stay, checked into a room without a working toilet. They reaccommodated me with another room. Unlike at the nearby Hampton Inn, though, which assists you with your move from one room to another, you do it all yourself at this hotel. Then, that night, I was awakened by an ear-splitting fire alarm positioned over my bed. There was no fire.....no explanation why the alarm went off....just a horrible night's sleep. Second visit....fine. Third (and final) visit: had a smaller room without the French doors separating the living area and the bedroom. Service indifferent....maid did not refill obviously empty Kleenex holder; my call to the front desk for replenishment was greeted by an obviously "can't-be-bothered" clerk, and....no surprise....nothing was done. But the absolute worst of it all was waking up the next morning to find a roach crawling on my bare skin under my pajamas. YIKES!!! After that, I viewed the continental breakfast.....with cereal and milk served from bulk containers instead of individual packages, like at a Fairfield or Hampton Inn......with much more distaste than usual. This has the potential for being a lovely property....great design, super location.....but service and maintenance are not up to the standards of the Marriott or Hilton value-priced properties.MoreShow less</t>
+  </si>
+  <si>
+    <t>I've stayed here 3 times, and had mixed results. What I love: fabulous room design...spacious, with French doors separating bedroom from living room/kitchen area, a TV in both areas, and both shower facilities or grand whirlpool tub in bedroom. I also love the indoor pool and well-equipped exercise room. Now, for the problems........first stay, checked into a room without a working toilet. They reaccommodated me with another room. Unlike at the nearby Hampton Inn, though, which assists you with your move from one room to another, you do it all yourself at this hotel. Then, that night, I was awakened by an ear-splitting fire alarm positioned over my bed. There was no fire.....no explanation why the alarm went off....just a horrible night's sleep. Second visit....fine. Third (and final) visit: had a smaller room without the French doors separating the living area and the bedroom. Service indifferent....maid did not refill obviously empty Kleenex holder; my call to the front desk for replenishment was greeted by an obviously "can't-be-bothered" clerk, and....no surprise....nothing was done. But the absolute worst of it all was waking up the next morning to find a roach crawling on my bare skin under my pajamas. YIKES!!! After that, I viewed the continental breakfast.....with cereal and milk served from bulk containers instead of individual packages, like at a Fairfield or Hampton Inn......with much more distaste than usual. This has the potential for being a lovely property....great design, super location.....but...I've stayed here 3 times, and had mixed results. What I love: fabulous room design...spacious, with French doors separating bedroom from living room/kitchen area, a TV in both areas, and both shower facilities or grand whirlpool tub in bedroom. I also love the indoor pool and well-equipped exercise room. Now, for the problems........first stay, checked into a room without a working toilet. They reaccommodated me with another room. Unlike at the nearby Hampton Inn, though, which assists you with your move from one room to another, you do it all yourself at this hotel. Then, that night, I was awakened by an ear-splitting fire alarm positioned over my bed. There was no fire.....no explanation why the alarm went off....just a horrible night's sleep. Second visit....fine. Third (and final) visit: had a smaller room without the French doors separating the living area and the bedroom. Service indifferent....maid did not refill obviously empty Kleenex holder; my call to the front desk for replenishment was greeted by an obviously "can't-be-bothered" clerk, and....no surprise....nothing was done. But the absolute worst of it all was waking up the next morning to find a roach crawling on my bare skin under my pajamas. YIKES!!! After that, I viewed the continental breakfast.....with cereal and milk served from bulk containers instead of individual packages, like at a Fairfield or Hampton Inn......with much more distaste than usual. This has the potential for being a lovely property....great design, super location.....but service and maintenance are not up to the standards of the Marriott or Hilton value-priced properties.More</t>
   </si>
 </sst>
 </file>
@@ -648,6 +2986,7500 @@
         <v>43</v>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>36476</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K2" t="s">
+        <v>50</v>
+      </c>
+      <c r="L2" t="s">
+        <v>51</v>
+      </c>
+      <c r="M2" t="n">
+        <v>3</v>
+      </c>
+      <c r="N2" t="s">
+        <v>52</v>
+      </c>
+      <c r="O2" t="s">
+        <v>53</v>
+      </c>
+      <c r="P2" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q2" t="s"/>
+      <c r="R2" t="s"/>
+      <c r="S2" t="n">
+        <v>5</v>
+      </c>
+      <c r="T2" t="s"/>
+      <c r="U2" t="n">
+        <v>2</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s"/>
+      <c r="X2" t="s"/>
+      <c r="Y2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>36476</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" t="s">
+        <v>55</v>
+      </c>
+      <c r="G3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" t="s">
+        <v>56</v>
+      </c>
+      <c r="J3" t="s">
+        <v>57</v>
+      </c>
+      <c r="K3" t="s">
+        <v>58</v>
+      </c>
+      <c r="L3" t="s">
+        <v>59</v>
+      </c>
+      <c r="M3" t="n">
+        <v>5</v>
+      </c>
+      <c r="N3" t="s">
+        <v>60</v>
+      </c>
+      <c r="O3" t="s">
+        <v>61</v>
+      </c>
+      <c r="P3" t="s"/>
+      <c r="Q3" t="s"/>
+      <c r="R3" t="s"/>
+      <c r="S3" t="s"/>
+      <c r="T3" t="s"/>
+      <c r="U3" t="s"/>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s"/>
+      <c r="X3" t="s"/>
+      <c r="Y3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>36476</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" t="s">
+        <v>62</v>
+      </c>
+      <c r="G4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" t="s">
+        <v>63</v>
+      </c>
+      <c r="J4" t="s">
+        <v>57</v>
+      </c>
+      <c r="K4" t="s">
+        <v>64</v>
+      </c>
+      <c r="L4" t="s">
+        <v>65</v>
+      </c>
+      <c r="M4" t="n">
+        <v>5</v>
+      </c>
+      <c r="N4" t="s">
+        <v>66</v>
+      </c>
+      <c r="O4" t="s">
+        <v>67</v>
+      </c>
+      <c r="P4" t="s"/>
+      <c r="Q4" t="s"/>
+      <c r="R4" t="s"/>
+      <c r="S4" t="s"/>
+      <c r="T4" t="s"/>
+      <c r="U4" t="s"/>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s"/>
+      <c r="X4" t="s"/>
+      <c r="Y4" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>36476</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" t="s">
+        <v>69</v>
+      </c>
+      <c r="G5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" t="s">
+        <v>70</v>
+      </c>
+      <c r="J5" t="s">
+        <v>71</v>
+      </c>
+      <c r="K5" t="s">
+        <v>72</v>
+      </c>
+      <c r="L5" t="s">
+        <v>73</v>
+      </c>
+      <c r="M5" t="n">
+        <v>1</v>
+      </c>
+      <c r="N5" t="s">
+        <v>74</v>
+      </c>
+      <c r="O5" t="s">
+        <v>75</v>
+      </c>
+      <c r="P5" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q5" t="s"/>
+      <c r="R5" t="s"/>
+      <c r="S5" t="n">
+        <v>1</v>
+      </c>
+      <c r="T5" t="s"/>
+      <c r="U5" t="n">
+        <v>1</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s"/>
+      <c r="X5" t="s"/>
+      <c r="Y5" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>36476</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" t="s">
+        <v>76</v>
+      </c>
+      <c r="G6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" t="s">
+        <v>77</v>
+      </c>
+      <c r="J6" t="s">
+        <v>78</v>
+      </c>
+      <c r="K6" t="s">
+        <v>79</v>
+      </c>
+      <c r="L6" t="s">
+        <v>80</v>
+      </c>
+      <c r="M6" t="n">
+        <v>1</v>
+      </c>
+      <c r="N6" t="s">
+        <v>74</v>
+      </c>
+      <c r="O6" t="s">
+        <v>53</v>
+      </c>
+      <c r="P6" t="s"/>
+      <c r="Q6" t="s"/>
+      <c r="R6" t="s"/>
+      <c r="S6" t="n">
+        <v>1</v>
+      </c>
+      <c r="T6" t="s"/>
+      <c r="U6" t="n">
+        <v>1</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s"/>
+      <c r="X6" t="s"/>
+      <c r="Y6" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>36476</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" t="s">
+        <v>81</v>
+      </c>
+      <c r="G7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7" t="s">
+        <v>82</v>
+      </c>
+      <c r="J7" t="s">
+        <v>78</v>
+      </c>
+      <c r="K7" t="s">
+        <v>83</v>
+      </c>
+      <c r="L7" t="s">
+        <v>84</v>
+      </c>
+      <c r="M7" t="n">
+        <v>1</v>
+      </c>
+      <c r="N7" t="s">
+        <v>74</v>
+      </c>
+      <c r="O7" t="s">
+        <v>53</v>
+      </c>
+      <c r="P7" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>1</v>
+      </c>
+      <c r="R7" t="s"/>
+      <c r="S7" t="s"/>
+      <c r="T7" t="s"/>
+      <c r="U7" t="n">
+        <v>1</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s"/>
+      <c r="X7" t="s"/>
+      <c r="Y7" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>36476</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" t="s">
+        <v>86</v>
+      </c>
+      <c r="G8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8" t="s">
+        <v>87</v>
+      </c>
+      <c r="J8" t="s">
+        <v>88</v>
+      </c>
+      <c r="K8" t="s">
+        <v>89</v>
+      </c>
+      <c r="L8" t="s">
+        <v>90</v>
+      </c>
+      <c r="M8" t="n">
+        <v>2</v>
+      </c>
+      <c r="N8" t="s">
+        <v>91</v>
+      </c>
+      <c r="O8" t="s">
+        <v>53</v>
+      </c>
+      <c r="P8" t="s"/>
+      <c r="Q8" t="s"/>
+      <c r="R8" t="n">
+        <v>3</v>
+      </c>
+      <c r="S8" t="s"/>
+      <c r="T8" t="s"/>
+      <c r="U8" t="n">
+        <v>2</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s"/>
+      <c r="X8" t="s"/>
+      <c r="Y8" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>36476</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" t="s">
+        <v>92</v>
+      </c>
+      <c r="G9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I9" t="s">
+        <v>93</v>
+      </c>
+      <c r="J9" t="s">
+        <v>94</v>
+      </c>
+      <c r="K9" t="s">
+        <v>95</v>
+      </c>
+      <c r="L9" t="s">
+        <v>96</v>
+      </c>
+      <c r="M9" t="n">
+        <v>5</v>
+      </c>
+      <c r="N9" t="s">
+        <v>97</v>
+      </c>
+      <c r="O9" t="s">
+        <v>53</v>
+      </c>
+      <c r="P9" t="s"/>
+      <c r="Q9" t="s"/>
+      <c r="R9" t="n">
+        <v>5</v>
+      </c>
+      <c r="S9" t="n">
+        <v>5</v>
+      </c>
+      <c r="T9" t="s"/>
+      <c r="U9" t="n">
+        <v>5</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s"/>
+      <c r="X9" t="s"/>
+      <c r="Y9" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>36476</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" t="s">
+        <v>99</v>
+      </c>
+      <c r="G10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" t="s">
+        <v>47</v>
+      </c>
+      <c r="I10" t="s">
+        <v>100</v>
+      </c>
+      <c r="J10" t="s">
+        <v>101</v>
+      </c>
+      <c r="K10" t="s">
+        <v>102</v>
+      </c>
+      <c r="L10" t="s">
+        <v>103</v>
+      </c>
+      <c r="M10" t="n">
+        <v>2</v>
+      </c>
+      <c r="N10" t="s">
+        <v>97</v>
+      </c>
+      <c r="O10" t="s">
+        <v>61</v>
+      </c>
+      <c r="P10" t="s"/>
+      <c r="Q10" t="s"/>
+      <c r="R10" t="s"/>
+      <c r="S10" t="s"/>
+      <c r="T10" t="s"/>
+      <c r="U10" t="s"/>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s"/>
+      <c r="X10" t="s"/>
+      <c r="Y10" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>36476</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11" t="s">
+        <v>104</v>
+      </c>
+      <c r="G11" t="s">
+        <v>46</v>
+      </c>
+      <c r="H11" t="s">
+        <v>47</v>
+      </c>
+      <c r="I11" t="s">
+        <v>105</v>
+      </c>
+      <c r="J11" t="s">
+        <v>106</v>
+      </c>
+      <c r="K11" t="s">
+        <v>107</v>
+      </c>
+      <c r="L11" t="s">
+        <v>108</v>
+      </c>
+      <c r="M11" t="n">
+        <v>4</v>
+      </c>
+      <c r="N11" t="s">
+        <v>109</v>
+      </c>
+      <c r="O11" t="s">
+        <v>61</v>
+      </c>
+      <c r="P11" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q11" t="s"/>
+      <c r="R11" t="s"/>
+      <c r="S11" t="s"/>
+      <c r="T11" t="s"/>
+      <c r="U11" t="n">
+        <v>4</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="s"/>
+      <c r="X11" t="s"/>
+      <c r="Y11" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>36476</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="n">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>44</v>
+      </c>
+      <c r="F12" t="s">
+        <v>110</v>
+      </c>
+      <c r="G12" t="s">
+        <v>46</v>
+      </c>
+      <c r="H12" t="s">
+        <v>47</v>
+      </c>
+      <c r="I12" t="s">
+        <v>111</v>
+      </c>
+      <c r="J12" t="s">
+        <v>112</v>
+      </c>
+      <c r="K12" t="s">
+        <v>113</v>
+      </c>
+      <c r="L12" t="s">
+        <v>114</v>
+      </c>
+      <c r="M12" t="n">
+        <v>5</v>
+      </c>
+      <c r="N12" t="s">
+        <v>115</v>
+      </c>
+      <c r="O12" t="s">
+        <v>53</v>
+      </c>
+      <c r="P12" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q12" t="s"/>
+      <c r="R12" t="n">
+        <v>5</v>
+      </c>
+      <c r="S12" t="s"/>
+      <c r="T12" t="s"/>
+      <c r="U12" t="n">
+        <v>5</v>
+      </c>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="s"/>
+      <c r="X12" t="s"/>
+      <c r="Y12" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>36476</v>
+      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
+      <c r="D13" t="n">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>44</v>
+      </c>
+      <c r="F13" t="s">
+        <v>117</v>
+      </c>
+      <c r="G13" t="s">
+        <v>46</v>
+      </c>
+      <c r="H13" t="s">
+        <v>47</v>
+      </c>
+      <c r="I13" t="s">
+        <v>118</v>
+      </c>
+      <c r="J13" t="s">
+        <v>119</v>
+      </c>
+      <c r="K13" t="s">
+        <v>120</v>
+      </c>
+      <c r="L13" t="s">
+        <v>121</v>
+      </c>
+      <c r="M13" t="n">
+        <v>5</v>
+      </c>
+      <c r="N13" t="s">
+        <v>115</v>
+      </c>
+      <c r="O13" t="s">
+        <v>53</v>
+      </c>
+      <c r="P13" t="s"/>
+      <c r="Q13" t="n">
+        <v>5</v>
+      </c>
+      <c r="R13" t="s"/>
+      <c r="S13" t="s"/>
+      <c r="T13" t="s"/>
+      <c r="U13" t="n">
+        <v>5</v>
+      </c>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="s"/>
+      <c r="X13" t="s"/>
+      <c r="Y13" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>36476</v>
+      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
+      <c r="D14" t="n">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>44</v>
+      </c>
+      <c r="F14" t="s">
+        <v>122</v>
+      </c>
+      <c r="G14" t="s">
+        <v>46</v>
+      </c>
+      <c r="H14" t="s">
+        <v>47</v>
+      </c>
+      <c r="I14" t="s">
+        <v>123</v>
+      </c>
+      <c r="J14" t="s">
+        <v>124</v>
+      </c>
+      <c r="K14" t="s">
+        <v>125</v>
+      </c>
+      <c r="L14" t="s">
+        <v>126</v>
+      </c>
+      <c r="M14" t="n">
+        <v>3</v>
+      </c>
+      <c r="N14" t="s">
+        <v>127</v>
+      </c>
+      <c r="O14" t="s">
+        <v>61</v>
+      </c>
+      <c r="P14" t="s"/>
+      <c r="Q14" t="n">
+        <v>3</v>
+      </c>
+      <c r="R14" t="s"/>
+      <c r="S14" t="s"/>
+      <c r="T14" t="s"/>
+      <c r="U14" t="n">
+        <v>2</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="s"/>
+      <c r="X14" t="s"/>
+      <c r="Y14" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>36476</v>
+      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
+      <c r="D15" t="n">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>44</v>
+      </c>
+      <c r="F15" t="s">
+        <v>129</v>
+      </c>
+      <c r="G15" t="s">
+        <v>46</v>
+      </c>
+      <c r="H15" t="s">
+        <v>47</v>
+      </c>
+      <c r="I15" t="s">
+        <v>130</v>
+      </c>
+      <c r="J15" t="s">
+        <v>131</v>
+      </c>
+      <c r="K15" t="s">
+        <v>132</v>
+      </c>
+      <c r="L15" t="s">
+        <v>133</v>
+      </c>
+      <c r="M15" t="n">
+        <v>2</v>
+      </c>
+      <c r="N15" t="s"/>
+      <c r="O15" t="s"/>
+      <c r="P15" t="s"/>
+      <c r="Q15" t="s"/>
+      <c r="R15" t="s"/>
+      <c r="S15" t="s"/>
+      <c r="T15" t="s"/>
+      <c r="U15" t="s"/>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="s"/>
+      <c r="X15" t="s"/>
+      <c r="Y15" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>36476</v>
+      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
+      <c r="D16" t="n">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>44</v>
+      </c>
+      <c r="F16" t="s">
+        <v>134</v>
+      </c>
+      <c r="G16" t="s">
+        <v>46</v>
+      </c>
+      <c r="H16" t="s">
+        <v>47</v>
+      </c>
+      <c r="I16" t="s">
+        <v>135</v>
+      </c>
+      <c r="J16" t="s">
+        <v>136</v>
+      </c>
+      <c r="K16" t="s">
+        <v>137</v>
+      </c>
+      <c r="L16" t="s">
+        <v>138</v>
+      </c>
+      <c r="M16" t="n">
+        <v>1</v>
+      </c>
+      <c r="N16" t="s"/>
+      <c r="O16" t="s"/>
+      <c r="P16" t="s"/>
+      <c r="Q16" t="s"/>
+      <c r="R16" t="s"/>
+      <c r="S16" t="s"/>
+      <c r="T16" t="s"/>
+      <c r="U16" t="s"/>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="s"/>
+      <c r="X16" t="s"/>
+      <c r="Y16" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>36476</v>
+      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
+      <c r="D17" t="n">
+        <v>16</v>
+      </c>
+      <c r="E17" t="s">
+        <v>44</v>
+      </c>
+      <c r="F17" t="s">
+        <v>139</v>
+      </c>
+      <c r="G17" t="s">
+        <v>46</v>
+      </c>
+      <c r="H17" t="s">
+        <v>47</v>
+      </c>
+      <c r="I17" t="s">
+        <v>140</v>
+      </c>
+      <c r="J17" t="s">
+        <v>141</v>
+      </c>
+      <c r="K17" t="s">
+        <v>142</v>
+      </c>
+      <c r="L17" t="s">
+        <v>143</v>
+      </c>
+      <c r="M17" t="n">
+        <v>3</v>
+      </c>
+      <c r="N17" t="s">
+        <v>144</v>
+      </c>
+      <c r="O17" t="s">
+        <v>75</v>
+      </c>
+      <c r="P17" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q17" t="s"/>
+      <c r="R17" t="n">
+        <v>5</v>
+      </c>
+      <c r="S17" t="s"/>
+      <c r="T17" t="s"/>
+      <c r="U17" t="n">
+        <v>4</v>
+      </c>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="s"/>
+      <c r="X17" t="s"/>
+      <c r="Y17" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>36476</v>
+      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
+      <c r="D18" t="n">
+        <v>17</v>
+      </c>
+      <c r="E18" t="s">
+        <v>44</v>
+      </c>
+      <c r="F18" t="s">
+        <v>146</v>
+      </c>
+      <c r="G18" t="s">
+        <v>46</v>
+      </c>
+      <c r="H18" t="s">
+        <v>47</v>
+      </c>
+      <c r="I18" t="s">
+        <v>147</v>
+      </c>
+      <c r="J18" t="s">
+        <v>141</v>
+      </c>
+      <c r="K18" t="s">
+        <v>148</v>
+      </c>
+      <c r="L18" t="s">
+        <v>149</v>
+      </c>
+      <c r="M18" t="n">
+        <v>3</v>
+      </c>
+      <c r="N18" t="s">
+        <v>144</v>
+      </c>
+      <c r="O18" t="s">
+        <v>75</v>
+      </c>
+      <c r="P18" t="s"/>
+      <c r="Q18" t="s"/>
+      <c r="R18" t="s"/>
+      <c r="S18" t="s"/>
+      <c r="T18" t="s"/>
+      <c r="U18" t="s"/>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="s"/>
+      <c r="X18" t="s"/>
+      <c r="Y18" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>36476</v>
+      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
+      <c r="D19" t="n">
+        <v>18</v>
+      </c>
+      <c r="E19" t="s">
+        <v>44</v>
+      </c>
+      <c r="F19" t="s">
+        <v>151</v>
+      </c>
+      <c r="G19" t="s">
+        <v>46</v>
+      </c>
+      <c r="H19" t="s">
+        <v>47</v>
+      </c>
+      <c r="I19" t="s">
+        <v>152</v>
+      </c>
+      <c r="J19" t="s">
+        <v>153</v>
+      </c>
+      <c r="K19" t="s">
+        <v>154</v>
+      </c>
+      <c r="L19" t="s">
+        <v>155</v>
+      </c>
+      <c r="M19" t="n">
+        <v>5</v>
+      </c>
+      <c r="N19" t="s">
+        <v>144</v>
+      </c>
+      <c r="O19" t="s">
+        <v>75</v>
+      </c>
+      <c r="P19" t="s"/>
+      <c r="Q19" t="s"/>
+      <c r="R19" t="s"/>
+      <c r="S19" t="s"/>
+      <c r="T19" t="s"/>
+      <c r="U19" t="s"/>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="s"/>
+      <c r="X19" t="s"/>
+      <c r="Y19" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>36476</v>
+      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
+      <c r="D20" t="n">
+        <v>19</v>
+      </c>
+      <c r="E20" t="s">
+        <v>44</v>
+      </c>
+      <c r="F20" t="s">
+        <v>156</v>
+      </c>
+      <c r="G20" t="s">
+        <v>46</v>
+      </c>
+      <c r="H20" t="s">
+        <v>47</v>
+      </c>
+      <c r="I20" t="s">
+        <v>157</v>
+      </c>
+      <c r="J20" t="s">
+        <v>158</v>
+      </c>
+      <c r="K20" t="s">
+        <v>159</v>
+      </c>
+      <c r="L20" t="s">
+        <v>160</v>
+      </c>
+      <c r="M20" t="n">
+        <v>5</v>
+      </c>
+      <c r="N20" t="s">
+        <v>161</v>
+      </c>
+      <c r="O20" t="s">
+        <v>162</v>
+      </c>
+      <c r="P20" t="s"/>
+      <c r="Q20" t="n">
+        <v>4</v>
+      </c>
+      <c r="R20" t="s"/>
+      <c r="S20" t="s"/>
+      <c r="T20" t="s"/>
+      <c r="U20" t="n">
+        <v>5</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="s"/>
+      <c r="X20" t="s"/>
+      <c r="Y20" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>36476</v>
+      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
+      <c r="D21" t="n">
+        <v>20</v>
+      </c>
+      <c r="E21" t="s">
+        <v>44</v>
+      </c>
+      <c r="F21" t="s">
+        <v>163</v>
+      </c>
+      <c r="G21" t="s">
+        <v>46</v>
+      </c>
+      <c r="H21" t="s">
+        <v>47</v>
+      </c>
+      <c r="I21" t="s">
+        <v>164</v>
+      </c>
+      <c r="J21" t="s">
+        <v>165</v>
+      </c>
+      <c r="K21" t="s">
+        <v>166</v>
+      </c>
+      <c r="L21" t="s">
+        <v>167</v>
+      </c>
+      <c r="M21" t="n">
+        <v>5</v>
+      </c>
+      <c r="N21" t="s">
+        <v>168</v>
+      </c>
+      <c r="O21" t="s">
+        <v>53</v>
+      </c>
+      <c r="P21" t="s"/>
+      <c r="Q21" t="s"/>
+      <c r="R21" t="s"/>
+      <c r="S21" t="n">
+        <v>5</v>
+      </c>
+      <c r="T21" t="s"/>
+      <c r="U21" t="n">
+        <v>5</v>
+      </c>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="s"/>
+      <c r="X21" t="s"/>
+      <c r="Y21" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>36476</v>
+      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
+      <c r="D22" t="n">
+        <v>21</v>
+      </c>
+      <c r="E22" t="s">
+        <v>44</v>
+      </c>
+      <c r="F22" t="s">
+        <v>169</v>
+      </c>
+      <c r="G22" t="s">
+        <v>46</v>
+      </c>
+      <c r="H22" t="s">
+        <v>47</v>
+      </c>
+      <c r="I22" t="s">
+        <v>170</v>
+      </c>
+      <c r="J22" t="s">
+        <v>171</v>
+      </c>
+      <c r="K22" t="s">
+        <v>172</v>
+      </c>
+      <c r="L22" t="s">
+        <v>173</v>
+      </c>
+      <c r="M22" t="n">
+        <v>4</v>
+      </c>
+      <c r="N22" t="s">
+        <v>168</v>
+      </c>
+      <c r="O22" t="s">
+        <v>61</v>
+      </c>
+      <c r="P22" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q22" t="s"/>
+      <c r="R22" t="n">
+        <v>4</v>
+      </c>
+      <c r="S22" t="s"/>
+      <c r="T22" t="s"/>
+      <c r="U22" t="n">
+        <v>4</v>
+      </c>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="s"/>
+      <c r="X22" t="s"/>
+      <c r="Y22" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>36476</v>
+      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
+      <c r="D23" t="n">
+        <v>22</v>
+      </c>
+      <c r="E23" t="s">
+        <v>44</v>
+      </c>
+      <c r="F23" t="s">
+        <v>174</v>
+      </c>
+      <c r="G23" t="s">
+        <v>46</v>
+      </c>
+      <c r="H23" t="s">
+        <v>47</v>
+      </c>
+      <c r="I23" t="s">
+        <v>175</v>
+      </c>
+      <c r="J23" t="s">
+        <v>176</v>
+      </c>
+      <c r="K23" t="s">
+        <v>177</v>
+      </c>
+      <c r="L23" t="s">
+        <v>178</v>
+      </c>
+      <c r="M23" t="n">
+        <v>2</v>
+      </c>
+      <c r="N23" t="s">
+        <v>179</v>
+      </c>
+      <c r="O23" t="s">
+        <v>53</v>
+      </c>
+      <c r="P23" t="s"/>
+      <c r="Q23" t="s"/>
+      <c r="R23" t="s"/>
+      <c r="S23" t="n">
+        <v>2</v>
+      </c>
+      <c r="T23" t="s"/>
+      <c r="U23" t="n">
+        <v>2</v>
+      </c>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="s">
+        <v>180</v>
+      </c>
+      <c r="X23" t="s">
+        <v>181</v>
+      </c>
+      <c r="Y23" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>36476</v>
+      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
+      <c r="D24" t="n">
+        <v>23</v>
+      </c>
+      <c r="E24" t="s">
+        <v>44</v>
+      </c>
+      <c r="F24" t="s">
+        <v>183</v>
+      </c>
+      <c r="G24" t="s">
+        <v>46</v>
+      </c>
+      <c r="H24" t="s">
+        <v>47</v>
+      </c>
+      <c r="I24" t="s">
+        <v>184</v>
+      </c>
+      <c r="J24" t="s">
+        <v>185</v>
+      </c>
+      <c r="K24" t="s">
+        <v>186</v>
+      </c>
+      <c r="L24" t="s">
+        <v>187</v>
+      </c>
+      <c r="M24" t="n">
+        <v>2</v>
+      </c>
+      <c r="N24" t="s">
+        <v>188</v>
+      </c>
+      <c r="O24" t="s">
+        <v>75</v>
+      </c>
+      <c r="P24" t="s"/>
+      <c r="Q24" t="s"/>
+      <c r="R24" t="s"/>
+      <c r="S24" t="s"/>
+      <c r="T24" t="s"/>
+      <c r="U24" t="s"/>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="s">
+        <v>189</v>
+      </c>
+      <c r="X24" t="s">
+        <v>190</v>
+      </c>
+      <c r="Y24" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>36476</v>
+      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
+      <c r="D25" t="n">
+        <v>24</v>
+      </c>
+      <c r="E25" t="s">
+        <v>44</v>
+      </c>
+      <c r="F25" t="s">
+        <v>192</v>
+      </c>
+      <c r="G25" t="s">
+        <v>46</v>
+      </c>
+      <c r="H25" t="s">
+        <v>47</v>
+      </c>
+      <c r="I25" t="s">
+        <v>193</v>
+      </c>
+      <c r="J25" t="s">
+        <v>194</v>
+      </c>
+      <c r="K25" t="s">
+        <v>195</v>
+      </c>
+      <c r="L25" t="s">
+        <v>196</v>
+      </c>
+      <c r="M25" t="n">
+        <v>2</v>
+      </c>
+      <c r="N25" t="s">
+        <v>197</v>
+      </c>
+      <c r="O25" t="s">
+        <v>75</v>
+      </c>
+      <c r="P25" t="s"/>
+      <c r="Q25" t="s"/>
+      <c r="R25" t="n">
+        <v>2</v>
+      </c>
+      <c r="S25" t="n">
+        <v>1</v>
+      </c>
+      <c r="T25" t="s"/>
+      <c r="U25" t="n">
+        <v>3</v>
+      </c>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="s">
+        <v>198</v>
+      </c>
+      <c r="X25" t="s">
+        <v>199</v>
+      </c>
+      <c r="Y25" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>36476</v>
+      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
+      <c r="D26" t="n">
+        <v>25</v>
+      </c>
+      <c r="E26" t="s">
+        <v>44</v>
+      </c>
+      <c r="F26" t="s">
+        <v>201</v>
+      </c>
+      <c r="G26" t="s">
+        <v>46</v>
+      </c>
+      <c r="H26" t="s">
+        <v>47</v>
+      </c>
+      <c r="I26" t="s">
+        <v>202</v>
+      </c>
+      <c r="J26" t="s">
+        <v>203</v>
+      </c>
+      <c r="K26" t="s">
+        <v>204</v>
+      </c>
+      <c r="L26" t="s">
+        <v>205</v>
+      </c>
+      <c r="M26" t="n">
+        <v>3</v>
+      </c>
+      <c r="N26" t="s">
+        <v>206</v>
+      </c>
+      <c r="O26" t="s">
+        <v>75</v>
+      </c>
+      <c r="P26" t="s"/>
+      <c r="Q26" t="s"/>
+      <c r="R26" t="n">
+        <v>3</v>
+      </c>
+      <c r="S26" t="n">
+        <v>3</v>
+      </c>
+      <c r="T26" t="s"/>
+      <c r="U26" t="n">
+        <v>3</v>
+      </c>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="s">
+        <v>207</v>
+      </c>
+      <c r="X26" t="s">
+        <v>208</v>
+      </c>
+      <c r="Y26" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>36476</v>
+      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
+      <c r="D27" t="n">
+        <v>26</v>
+      </c>
+      <c r="E27" t="s">
+        <v>44</v>
+      </c>
+      <c r="F27" t="s">
+        <v>210</v>
+      </c>
+      <c r="G27" t="s">
+        <v>46</v>
+      </c>
+      <c r="H27" t="s">
+        <v>47</v>
+      </c>
+      <c r="I27" t="s">
+        <v>211</v>
+      </c>
+      <c r="J27" t="s">
+        <v>212</v>
+      </c>
+      <c r="K27" t="s">
+        <v>213</v>
+      </c>
+      <c r="L27" t="s">
+        <v>214</v>
+      </c>
+      <c r="M27" t="n">
+        <v>5</v>
+      </c>
+      <c r="N27" t="s">
+        <v>215</v>
+      </c>
+      <c r="O27" t="s">
+        <v>75</v>
+      </c>
+      <c r="P27" t="s"/>
+      <c r="Q27" t="s"/>
+      <c r="R27" t="s"/>
+      <c r="S27" t="s"/>
+      <c r="T27" t="s"/>
+      <c r="U27" t="s"/>
+      <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="s">
+        <v>216</v>
+      </c>
+      <c r="X27" t="s">
+        <v>217</v>
+      </c>
+      <c r="Y27" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>36476</v>
+      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
+      <c r="D28" t="n">
+        <v>27</v>
+      </c>
+      <c r="E28" t="s">
+        <v>44</v>
+      </c>
+      <c r="F28" t="s">
+        <v>219</v>
+      </c>
+      <c r="G28" t="s">
+        <v>46</v>
+      </c>
+      <c r="H28" t="s">
+        <v>47</v>
+      </c>
+      <c r="I28" t="s">
+        <v>220</v>
+      </c>
+      <c r="J28" t="s">
+        <v>221</v>
+      </c>
+      <c r="K28" t="s">
+        <v>222</v>
+      </c>
+      <c r="L28" t="s">
+        <v>223</v>
+      </c>
+      <c r="M28" t="n">
+        <v>4</v>
+      </c>
+      <c r="N28" t="s">
+        <v>224</v>
+      </c>
+      <c r="O28" t="s">
+        <v>61</v>
+      </c>
+      <c r="P28" t="s"/>
+      <c r="Q28" t="n">
+        <v>5</v>
+      </c>
+      <c r="R28" t="s"/>
+      <c r="S28" t="s"/>
+      <c r="T28" t="s"/>
+      <c r="U28" t="n">
+        <v>5</v>
+      </c>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="s"/>
+      <c r="X28" t="s"/>
+      <c r="Y28" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>36476</v>
+      </c>
+      <c r="B29" t="s"/>
+      <c r="C29" t="s"/>
+      <c r="D29" t="n">
+        <v>28</v>
+      </c>
+      <c r="E29" t="s">
+        <v>44</v>
+      </c>
+      <c r="F29" t="s">
+        <v>226</v>
+      </c>
+      <c r="G29" t="s">
+        <v>46</v>
+      </c>
+      <c r="H29" t="s">
+        <v>47</v>
+      </c>
+      <c r="I29" t="s">
+        <v>227</v>
+      </c>
+      <c r="J29" t="s">
+        <v>228</v>
+      </c>
+      <c r="K29" t="s">
+        <v>229</v>
+      </c>
+      <c r="L29" t="s">
+        <v>230</v>
+      </c>
+      <c r="M29" t="n">
+        <v>1</v>
+      </c>
+      <c r="N29" t="s">
+        <v>224</v>
+      </c>
+      <c r="O29" t="s">
+        <v>75</v>
+      </c>
+      <c r="P29" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q29" t="s"/>
+      <c r="R29" t="s"/>
+      <c r="S29" t="n">
+        <v>1</v>
+      </c>
+      <c r="T29" t="s"/>
+      <c r="U29" t="n">
+        <v>1</v>
+      </c>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="s">
+        <v>231</v>
+      </c>
+      <c r="X29" t="s">
+        <v>232</v>
+      </c>
+      <c r="Y29" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>36476</v>
+      </c>
+      <c r="B30" t="s"/>
+      <c r="C30" t="s"/>
+      <c r="D30" t="n">
+        <v>29</v>
+      </c>
+      <c r="E30" t="s">
+        <v>44</v>
+      </c>
+      <c r="F30" t="s">
+        <v>234</v>
+      </c>
+      <c r="G30" t="s">
+        <v>46</v>
+      </c>
+      <c r="H30" t="s">
+        <v>47</v>
+      </c>
+      <c r="I30" t="s">
+        <v>235</v>
+      </c>
+      <c r="J30" t="s">
+        <v>236</v>
+      </c>
+      <c r="K30" t="s">
+        <v>237</v>
+      </c>
+      <c r="L30" t="s">
+        <v>238</v>
+      </c>
+      <c r="M30" t="n">
+        <v>4</v>
+      </c>
+      <c r="N30" t="s">
+        <v>224</v>
+      </c>
+      <c r="O30" t="s">
+        <v>61</v>
+      </c>
+      <c r="P30" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q30" t="s"/>
+      <c r="R30" t="s"/>
+      <c r="S30" t="s"/>
+      <c r="T30" t="s"/>
+      <c r="U30" t="n">
+        <v>4</v>
+      </c>
+      <c r="V30" t="n">
+        <v>0</v>
+      </c>
+      <c r="W30" t="s">
+        <v>239</v>
+      </c>
+      <c r="X30" t="s">
+        <v>240</v>
+      </c>
+      <c r="Y30" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>36476</v>
+      </c>
+      <c r="B31" t="s"/>
+      <c r="C31" t="s"/>
+      <c r="D31" t="n">
+        <v>30</v>
+      </c>
+      <c r="E31" t="s">
+        <v>44</v>
+      </c>
+      <c r="F31" t="s">
+        <v>242</v>
+      </c>
+      <c r="G31" t="s">
+        <v>46</v>
+      </c>
+      <c r="H31" t="s">
+        <v>47</v>
+      </c>
+      <c r="I31" t="s">
+        <v>243</v>
+      </c>
+      <c r="J31" t="s">
+        <v>244</v>
+      </c>
+      <c r="K31" t="s">
+        <v>245</v>
+      </c>
+      <c r="L31" t="s">
+        <v>246</v>
+      </c>
+      <c r="M31" t="n">
+        <v>4</v>
+      </c>
+      <c r="N31" t="s">
+        <v>224</v>
+      </c>
+      <c r="O31" t="s">
+        <v>53</v>
+      </c>
+      <c r="P31" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q31" t="s"/>
+      <c r="R31" t="n">
+        <v>4</v>
+      </c>
+      <c r="S31" t="s"/>
+      <c r="T31" t="s"/>
+      <c r="U31" t="n">
+        <v>4</v>
+      </c>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="s">
+        <v>239</v>
+      </c>
+      <c r="X31" t="s">
+        <v>240</v>
+      </c>
+      <c r="Y31" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>36476</v>
+      </c>
+      <c r="B32" t="s"/>
+      <c r="C32" t="s"/>
+      <c r="D32" t="n">
+        <v>31</v>
+      </c>
+      <c r="E32" t="s">
+        <v>44</v>
+      </c>
+      <c r="F32" t="s">
+        <v>248</v>
+      </c>
+      <c r="G32" t="s">
+        <v>46</v>
+      </c>
+      <c r="H32" t="s">
+        <v>47</v>
+      </c>
+      <c r="I32" t="s">
+        <v>249</v>
+      </c>
+      <c r="J32" t="s">
+        <v>250</v>
+      </c>
+      <c r="K32" t="s">
+        <v>251</v>
+      </c>
+      <c r="L32" t="s">
+        <v>252</v>
+      </c>
+      <c r="M32" t="n">
+        <v>5</v>
+      </c>
+      <c r="N32" t="s">
+        <v>253</v>
+      </c>
+      <c r="O32" t="s">
+        <v>53</v>
+      </c>
+      <c r="P32" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q32" t="s"/>
+      <c r="R32" t="s"/>
+      <c r="S32" t="s"/>
+      <c r="T32" t="s"/>
+      <c r="U32" t="n">
+        <v>5</v>
+      </c>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="s">
+        <v>254</v>
+      </c>
+      <c r="X32" t="s">
+        <v>255</v>
+      </c>
+      <c r="Y32" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>36476</v>
+      </c>
+      <c r="B33" t="s"/>
+      <c r="C33" t="s"/>
+      <c r="D33" t="n">
+        <v>32</v>
+      </c>
+      <c r="E33" t="s">
+        <v>44</v>
+      </c>
+      <c r="F33" t="s">
+        <v>257</v>
+      </c>
+      <c r="G33" t="s">
+        <v>46</v>
+      </c>
+      <c r="H33" t="s">
+        <v>47</v>
+      </c>
+      <c r="I33" t="s">
+        <v>258</v>
+      </c>
+      <c r="J33" t="s">
+        <v>259</v>
+      </c>
+      <c r="K33" t="s">
+        <v>260</v>
+      </c>
+      <c r="L33" t="s">
+        <v>261</v>
+      </c>
+      <c r="M33" t="n">
+        <v>4</v>
+      </c>
+      <c r="N33" t="s">
+        <v>253</v>
+      </c>
+      <c r="O33" t="s">
+        <v>67</v>
+      </c>
+      <c r="P33" t="s"/>
+      <c r="Q33" t="s"/>
+      <c r="R33" t="s"/>
+      <c r="S33" t="s"/>
+      <c r="T33" t="s"/>
+      <c r="U33" t="s"/>
+      <c r="V33" t="n">
+        <v>0</v>
+      </c>
+      <c r="W33" t="s"/>
+      <c r="X33" t="s"/>
+      <c r="Y33" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>36476</v>
+      </c>
+      <c r="B34" t="s"/>
+      <c r="C34" t="s"/>
+      <c r="D34" t="n">
+        <v>33</v>
+      </c>
+      <c r="E34" t="s">
+        <v>44</v>
+      </c>
+      <c r="F34" t="s">
+        <v>262</v>
+      </c>
+      <c r="G34" t="s">
+        <v>46</v>
+      </c>
+      <c r="H34" t="s">
+        <v>47</v>
+      </c>
+      <c r="I34" t="s">
+        <v>263</v>
+      </c>
+      <c r="J34" t="s">
+        <v>264</v>
+      </c>
+      <c r="K34" t="s">
+        <v>265</v>
+      </c>
+      <c r="L34" t="s">
+        <v>266</v>
+      </c>
+      <c r="M34" t="n">
+        <v>4</v>
+      </c>
+      <c r="N34" t="s">
+        <v>253</v>
+      </c>
+      <c r="O34" t="s">
+        <v>53</v>
+      </c>
+      <c r="P34" t="s"/>
+      <c r="Q34" t="s"/>
+      <c r="R34" t="n">
+        <v>4</v>
+      </c>
+      <c r="S34" t="s"/>
+      <c r="T34" t="s"/>
+      <c r="U34" t="n">
+        <v>5</v>
+      </c>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="s"/>
+      <c r="X34" t="s"/>
+      <c r="Y34" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>36476</v>
+      </c>
+      <c r="B35" t="s"/>
+      <c r="C35" t="s"/>
+      <c r="D35" t="n">
+        <v>34</v>
+      </c>
+      <c r="E35" t="s">
+        <v>44</v>
+      </c>
+      <c r="F35" t="s">
+        <v>267</v>
+      </c>
+      <c r="G35" t="s">
+        <v>46</v>
+      </c>
+      <c r="H35" t="s">
+        <v>47</v>
+      </c>
+      <c r="I35" t="s">
+        <v>268</v>
+      </c>
+      <c r="J35" t="s">
+        <v>269</v>
+      </c>
+      <c r="K35" t="s">
+        <v>270</v>
+      </c>
+      <c r="L35" t="s">
+        <v>271</v>
+      </c>
+      <c r="M35" t="n">
+        <v>5</v>
+      </c>
+      <c r="N35" t="s">
+        <v>272</v>
+      </c>
+      <c r="O35" t="s">
+        <v>75</v>
+      </c>
+      <c r="P35" t="s"/>
+      <c r="Q35" t="s"/>
+      <c r="R35" t="n">
+        <v>5</v>
+      </c>
+      <c r="S35" t="s"/>
+      <c r="T35" t="s"/>
+      <c r="U35" t="n">
+        <v>5</v>
+      </c>
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="s">
+        <v>273</v>
+      </c>
+      <c r="X35" t="s">
+        <v>274</v>
+      </c>
+      <c r="Y35" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>36476</v>
+      </c>
+      <c r="B36" t="s"/>
+      <c r="C36" t="s"/>
+      <c r="D36" t="n">
+        <v>35</v>
+      </c>
+      <c r="E36" t="s">
+        <v>44</v>
+      </c>
+      <c r="F36" t="s">
+        <v>276</v>
+      </c>
+      <c r="G36" t="s">
+        <v>46</v>
+      </c>
+      <c r="H36" t="s">
+        <v>47</v>
+      </c>
+      <c r="I36" t="s">
+        <v>277</v>
+      </c>
+      <c r="J36" t="s">
+        <v>278</v>
+      </c>
+      <c r="K36" t="s">
+        <v>279</v>
+      </c>
+      <c r="L36" t="s">
+        <v>280</v>
+      </c>
+      <c r="M36" t="n">
+        <v>5</v>
+      </c>
+      <c r="N36" t="s">
+        <v>272</v>
+      </c>
+      <c r="O36" t="s">
+        <v>53</v>
+      </c>
+      <c r="P36" t="s"/>
+      <c r="Q36" t="s"/>
+      <c r="R36" t="n">
+        <v>5</v>
+      </c>
+      <c r="S36" t="n">
+        <v>5</v>
+      </c>
+      <c r="T36" t="s"/>
+      <c r="U36" t="n">
+        <v>5</v>
+      </c>
+      <c r="V36" t="n">
+        <v>0</v>
+      </c>
+      <c r="W36" t="s"/>
+      <c r="X36" t="s"/>
+      <c r="Y36" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>36476</v>
+      </c>
+      <c r="B37" t="s"/>
+      <c r="C37" t="s"/>
+      <c r="D37" t="n">
+        <v>36</v>
+      </c>
+      <c r="E37" t="s">
+        <v>44</v>
+      </c>
+      <c r="F37" t="s">
+        <v>281</v>
+      </c>
+      <c r="G37" t="s">
+        <v>46</v>
+      </c>
+      <c r="H37" t="s">
+        <v>47</v>
+      </c>
+      <c r="I37" t="s">
+        <v>282</v>
+      </c>
+      <c r="J37" t="s">
+        <v>283</v>
+      </c>
+      <c r="K37" t="s">
+        <v>284</v>
+      </c>
+      <c r="L37" t="s">
+        <v>285</v>
+      </c>
+      <c r="M37" t="n">
+        <v>4</v>
+      </c>
+      <c r="N37" t="s">
+        <v>286</v>
+      </c>
+      <c r="O37" t="s">
+        <v>53</v>
+      </c>
+      <c r="P37" t="s"/>
+      <c r="Q37" t="s"/>
+      <c r="R37" t="n">
+        <v>4</v>
+      </c>
+      <c r="S37" t="n">
+        <v>4</v>
+      </c>
+      <c r="T37" t="s"/>
+      <c r="U37" t="n">
+        <v>4</v>
+      </c>
+      <c r="V37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" t="s"/>
+      <c r="X37" t="s"/>
+      <c r="Y37" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>36476</v>
+      </c>
+      <c r="B38" t="s"/>
+      <c r="C38" t="s"/>
+      <c r="D38" t="n">
+        <v>37</v>
+      </c>
+      <c r="E38" t="s">
+        <v>44</v>
+      </c>
+      <c r="F38" t="s">
+        <v>287</v>
+      </c>
+      <c r="G38" t="s">
+        <v>46</v>
+      </c>
+      <c r="H38" t="s">
+        <v>47</v>
+      </c>
+      <c r="I38" t="s">
+        <v>288</v>
+      </c>
+      <c r="J38" t="s">
+        <v>289</v>
+      </c>
+      <c r="K38" t="s">
+        <v>290</v>
+      </c>
+      <c r="L38" t="s">
+        <v>291</v>
+      </c>
+      <c r="M38" t="n">
+        <v>3</v>
+      </c>
+      <c r="N38" t="s">
+        <v>292</v>
+      </c>
+      <c r="O38" t="s">
+        <v>53</v>
+      </c>
+      <c r="P38" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q38" t="s"/>
+      <c r="R38" t="s"/>
+      <c r="S38" t="s"/>
+      <c r="T38" t="s"/>
+      <c r="U38" t="n">
+        <v>1</v>
+      </c>
+      <c r="V38" t="n">
+        <v>0</v>
+      </c>
+      <c r="W38" t="s"/>
+      <c r="X38" t="s"/>
+      <c r="Y38" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>36476</v>
+      </c>
+      <c r="B39" t="s"/>
+      <c r="C39" t="s"/>
+      <c r="D39" t="n">
+        <v>38</v>
+      </c>
+      <c r="E39" t="s">
+        <v>44</v>
+      </c>
+      <c r="F39" t="s">
+        <v>294</v>
+      </c>
+      <c r="G39" t="s">
+        <v>46</v>
+      </c>
+      <c r="H39" t="s">
+        <v>47</v>
+      </c>
+      <c r="I39" t="s">
+        <v>295</v>
+      </c>
+      <c r="J39" t="s">
+        <v>296</v>
+      </c>
+      <c r="K39" t="s">
+        <v>297</v>
+      </c>
+      <c r="L39" t="s">
+        <v>298</v>
+      </c>
+      <c r="M39" t="n">
+        <v>4</v>
+      </c>
+      <c r="N39" t="s">
+        <v>299</v>
+      </c>
+      <c r="O39" t="s">
+        <v>75</v>
+      </c>
+      <c r="P39" t="s"/>
+      <c r="Q39" t="n">
+        <v>3</v>
+      </c>
+      <c r="R39" t="s"/>
+      <c r="S39" t="n">
+        <v>5</v>
+      </c>
+      <c r="T39" t="s"/>
+      <c r="U39" t="n">
+        <v>5</v>
+      </c>
+      <c r="V39" t="n">
+        <v>0</v>
+      </c>
+      <c r="W39" t="s"/>
+      <c r="X39" t="s"/>
+      <c r="Y39" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>36476</v>
+      </c>
+      <c r="B40" t="s"/>
+      <c r="C40" t="s"/>
+      <c r="D40" t="n">
+        <v>39</v>
+      </c>
+      <c r="E40" t="s">
+        <v>44</v>
+      </c>
+      <c r="F40" t="s">
+        <v>301</v>
+      </c>
+      <c r="G40" t="s">
+        <v>46</v>
+      </c>
+      <c r="H40" t="s">
+        <v>47</v>
+      </c>
+      <c r="I40" t="s">
+        <v>302</v>
+      </c>
+      <c r="J40" t="s">
+        <v>303</v>
+      </c>
+      <c r="K40" t="s">
+        <v>304</v>
+      </c>
+      <c r="L40" t="s">
+        <v>305</v>
+      </c>
+      <c r="M40" t="n">
+        <v>4</v>
+      </c>
+      <c r="N40" t="s"/>
+      <c r="O40" t="s"/>
+      <c r="P40" t="s"/>
+      <c r="Q40" t="s"/>
+      <c r="R40" t="s"/>
+      <c r="S40" t="s"/>
+      <c r="T40" t="s"/>
+      <c r="U40" t="s"/>
+      <c r="V40" t="n">
+        <v>0</v>
+      </c>
+      <c r="W40" t="s"/>
+      <c r="X40" t="s"/>
+      <c r="Y40" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>36476</v>
+      </c>
+      <c r="B41" t="s"/>
+      <c r="C41" t="s"/>
+      <c r="D41" t="n">
+        <v>40</v>
+      </c>
+      <c r="E41" t="s">
+        <v>44</v>
+      </c>
+      <c r="F41" t="s">
+        <v>306</v>
+      </c>
+      <c r="G41" t="s">
+        <v>46</v>
+      </c>
+      <c r="H41" t="s">
+        <v>47</v>
+      </c>
+      <c r="I41" t="s">
+        <v>307</v>
+      </c>
+      <c r="J41" t="s">
+        <v>308</v>
+      </c>
+      <c r="K41" t="s">
+        <v>309</v>
+      </c>
+      <c r="L41" t="s">
+        <v>310</v>
+      </c>
+      <c r="M41" t="n">
+        <v>3</v>
+      </c>
+      <c r="N41" t="s"/>
+      <c r="O41" t="s"/>
+      <c r="P41" t="s"/>
+      <c r="Q41" t="s"/>
+      <c r="R41" t="s"/>
+      <c r="S41" t="s"/>
+      <c r="T41" t="s"/>
+      <c r="U41" t="s"/>
+      <c r="V41" t="n">
+        <v>0</v>
+      </c>
+      <c r="W41" t="s">
+        <v>311</v>
+      </c>
+      <c r="X41" t="s">
+        <v>312</v>
+      </c>
+      <c r="Y41" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>36476</v>
+      </c>
+      <c r="B42" t="s"/>
+      <c r="C42" t="s"/>
+      <c r="D42" t="n">
+        <v>41</v>
+      </c>
+      <c r="E42" t="s">
+        <v>44</v>
+      </c>
+      <c r="F42" t="s">
+        <v>314</v>
+      </c>
+      <c r="G42" t="s">
+        <v>46</v>
+      </c>
+      <c r="H42" t="s">
+        <v>47</v>
+      </c>
+      <c r="I42" t="s">
+        <v>315</v>
+      </c>
+      <c r="J42" t="s">
+        <v>316</v>
+      </c>
+      <c r="K42" t="s">
+        <v>317</v>
+      </c>
+      <c r="L42" t="s">
+        <v>318</v>
+      </c>
+      <c r="M42" t="n">
+        <v>1</v>
+      </c>
+      <c r="N42" t="s">
+        <v>319</v>
+      </c>
+      <c r="O42" t="s">
+        <v>75</v>
+      </c>
+      <c r="P42" t="s"/>
+      <c r="Q42" t="s"/>
+      <c r="R42" t="s"/>
+      <c r="S42" t="n">
+        <v>1</v>
+      </c>
+      <c r="T42" t="s"/>
+      <c r="U42" t="n">
+        <v>1</v>
+      </c>
+      <c r="V42" t="n">
+        <v>0</v>
+      </c>
+      <c r="W42" t="s"/>
+      <c r="X42" t="s"/>
+      <c r="Y42" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>36476</v>
+      </c>
+      <c r="B43" t="s"/>
+      <c r="C43" t="s"/>
+      <c r="D43" t="n">
+        <v>42</v>
+      </c>
+      <c r="E43" t="s">
+        <v>44</v>
+      </c>
+      <c r="F43" t="s">
+        <v>321</v>
+      </c>
+      <c r="G43" t="s">
+        <v>46</v>
+      </c>
+      <c r="H43" t="s">
+        <v>47</v>
+      </c>
+      <c r="I43" t="s">
+        <v>322</v>
+      </c>
+      <c r="J43" t="s">
+        <v>323</v>
+      </c>
+      <c r="K43" t="s">
+        <v>324</v>
+      </c>
+      <c r="L43" t="s">
+        <v>325</v>
+      </c>
+      <c r="M43" t="n">
+        <v>3</v>
+      </c>
+      <c r="N43" t="s">
+        <v>326</v>
+      </c>
+      <c r="O43" t="s">
+        <v>53</v>
+      </c>
+      <c r="P43" t="s"/>
+      <c r="Q43" t="n">
+        <v>4</v>
+      </c>
+      <c r="R43" t="s"/>
+      <c r="S43" t="s"/>
+      <c r="T43" t="s"/>
+      <c r="U43" t="n">
+        <v>3</v>
+      </c>
+      <c r="V43" t="n">
+        <v>0</v>
+      </c>
+      <c r="W43" t="s"/>
+      <c r="X43" t="s"/>
+      <c r="Y43" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>36476</v>
+      </c>
+      <c r="B44" t="s"/>
+      <c r="C44" t="s"/>
+      <c r="D44" t="n">
+        <v>43</v>
+      </c>
+      <c r="E44" t="s">
+        <v>44</v>
+      </c>
+      <c r="F44" t="s">
+        <v>328</v>
+      </c>
+      <c r="G44" t="s">
+        <v>46</v>
+      </c>
+      <c r="H44" t="s">
+        <v>47</v>
+      </c>
+      <c r="I44" t="s">
+        <v>329</v>
+      </c>
+      <c r="J44" t="s">
+        <v>330</v>
+      </c>
+      <c r="K44" t="s">
+        <v>331</v>
+      </c>
+      <c r="L44" t="s">
+        <v>332</v>
+      </c>
+      <c r="M44" t="n">
+        <v>5</v>
+      </c>
+      <c r="N44" t="s">
+        <v>333</v>
+      </c>
+      <c r="O44" t="s">
+        <v>75</v>
+      </c>
+      <c r="P44" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q44" t="s"/>
+      <c r="R44" t="n">
+        <v>5</v>
+      </c>
+      <c r="S44" t="s"/>
+      <c r="T44" t="s"/>
+      <c r="U44" t="n">
+        <v>5</v>
+      </c>
+      <c r="V44" t="n">
+        <v>0</v>
+      </c>
+      <c r="W44" t="s">
+        <v>334</v>
+      </c>
+      <c r="X44" t="s">
+        <v>335</v>
+      </c>
+      <c r="Y44" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>36476</v>
+      </c>
+      <c r="B45" t="s"/>
+      <c r="C45" t="s"/>
+      <c r="D45" t="n">
+        <v>44</v>
+      </c>
+      <c r="E45" t="s">
+        <v>44</v>
+      </c>
+      <c r="F45" t="s">
+        <v>337</v>
+      </c>
+      <c r="G45" t="s">
+        <v>46</v>
+      </c>
+      <c r="H45" t="s">
+        <v>47</v>
+      </c>
+      <c r="I45" t="s">
+        <v>338</v>
+      </c>
+      <c r="J45" t="s">
+        <v>339</v>
+      </c>
+      <c r="K45" t="s">
+        <v>340</v>
+      </c>
+      <c r="L45" t="s">
+        <v>341</v>
+      </c>
+      <c r="M45" t="n">
+        <v>5</v>
+      </c>
+      <c r="N45" t="s">
+        <v>342</v>
+      </c>
+      <c r="O45" t="s">
+        <v>61</v>
+      </c>
+      <c r="P45" t="s"/>
+      <c r="Q45" t="n">
+        <v>4</v>
+      </c>
+      <c r="R45" t="n">
+        <v>4</v>
+      </c>
+      <c r="S45" t="s"/>
+      <c r="T45" t="s"/>
+      <c r="U45" t="n">
+        <v>4</v>
+      </c>
+      <c r="V45" t="n">
+        <v>0</v>
+      </c>
+      <c r="W45" t="s">
+        <v>334</v>
+      </c>
+      <c r="X45" t="s">
+        <v>335</v>
+      </c>
+      <c r="Y45" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>36476</v>
+      </c>
+      <c r="B46" t="s"/>
+      <c r="C46" t="s"/>
+      <c r="D46" t="n">
+        <v>45</v>
+      </c>
+      <c r="E46" t="s">
+        <v>44</v>
+      </c>
+      <c r="F46" t="s">
+        <v>344</v>
+      </c>
+      <c r="G46" t="s">
+        <v>46</v>
+      </c>
+      <c r="H46" t="s">
+        <v>47</v>
+      </c>
+      <c r="I46" t="s">
+        <v>345</v>
+      </c>
+      <c r="J46" t="s">
+        <v>346</v>
+      </c>
+      <c r="K46" t="s">
+        <v>347</v>
+      </c>
+      <c r="L46" t="s">
+        <v>348</v>
+      </c>
+      <c r="M46" t="n">
+        <v>4</v>
+      </c>
+      <c r="N46" t="s">
+        <v>342</v>
+      </c>
+      <c r="O46" t="s">
+        <v>53</v>
+      </c>
+      <c r="P46" t="s"/>
+      <c r="Q46" t="s"/>
+      <c r="R46" t="n">
+        <v>3</v>
+      </c>
+      <c r="S46" t="n">
+        <v>4</v>
+      </c>
+      <c r="T46" t="s"/>
+      <c r="U46" t="n">
+        <v>4</v>
+      </c>
+      <c r="V46" t="n">
+        <v>0</v>
+      </c>
+      <c r="W46" t="s">
+        <v>334</v>
+      </c>
+      <c r="X46" t="s">
+        <v>335</v>
+      </c>
+      <c r="Y46" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>36476</v>
+      </c>
+      <c r="B47" t="s"/>
+      <c r="C47" t="s"/>
+      <c r="D47" t="n">
+        <v>46</v>
+      </c>
+      <c r="E47" t="s">
+        <v>44</v>
+      </c>
+      <c r="F47" t="s">
+        <v>350</v>
+      </c>
+      <c r="G47" t="s">
+        <v>46</v>
+      </c>
+      <c r="H47" t="s">
+        <v>47</v>
+      </c>
+      <c r="I47" t="s">
+        <v>351</v>
+      </c>
+      <c r="J47" t="s">
+        <v>352</v>
+      </c>
+      <c r="K47" t="s">
+        <v>353</v>
+      </c>
+      <c r="L47" t="s">
+        <v>354</v>
+      </c>
+      <c r="M47" t="n">
+        <v>4</v>
+      </c>
+      <c r="N47" t="s"/>
+      <c r="O47" t="s"/>
+      <c r="P47" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q47" t="n">
+        <v>5</v>
+      </c>
+      <c r="R47" t="n">
+        <v>3</v>
+      </c>
+      <c r="S47" t="n">
+        <v>4</v>
+      </c>
+      <c r="T47" t="s"/>
+      <c r="U47" t="n">
+        <v>5</v>
+      </c>
+      <c r="V47" t="n">
+        <v>0</v>
+      </c>
+      <c r="W47" t="s">
+        <v>355</v>
+      </c>
+      <c r="X47" t="s">
+        <v>356</v>
+      </c>
+      <c r="Y47" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>36476</v>
+      </c>
+      <c r="B48" t="s"/>
+      <c r="C48" t="s"/>
+      <c r="D48" t="n">
+        <v>47</v>
+      </c>
+      <c r="E48" t="s">
+        <v>44</v>
+      </c>
+      <c r="F48" t="s">
+        <v>358</v>
+      </c>
+      <c r="G48" t="s">
+        <v>46</v>
+      </c>
+      <c r="H48" t="s">
+        <v>47</v>
+      </c>
+      <c r="I48" t="s">
+        <v>359</v>
+      </c>
+      <c r="J48" t="s">
+        <v>360</v>
+      </c>
+      <c r="K48" t="s">
+        <v>361</v>
+      </c>
+      <c r="L48" t="s">
+        <v>362</v>
+      </c>
+      <c r="M48" t="n">
+        <v>1</v>
+      </c>
+      <c r="N48" t="s"/>
+      <c r="O48" t="s"/>
+      <c r="P48" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q48" t="n">
+        <v>1</v>
+      </c>
+      <c r="R48" t="n">
+        <v>4</v>
+      </c>
+      <c r="S48" t="n">
+        <v>1</v>
+      </c>
+      <c r="T48" t="s"/>
+      <c r="U48" t="n">
+        <v>1</v>
+      </c>
+      <c r="V48" t="n">
+        <v>0</v>
+      </c>
+      <c r="W48" t="s">
+        <v>363</v>
+      </c>
+      <c r="X48" t="s">
+        <v>364</v>
+      </c>
+      <c r="Y48" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>36476</v>
+      </c>
+      <c r="B49" t="s"/>
+      <c r="C49" t="s"/>
+      <c r="D49" t="n">
+        <v>48</v>
+      </c>
+      <c r="E49" t="s">
+        <v>44</v>
+      </c>
+      <c r="F49" t="s">
+        <v>366</v>
+      </c>
+      <c r="G49" t="s">
+        <v>46</v>
+      </c>
+      <c r="H49" t="s">
+        <v>47</v>
+      </c>
+      <c r="I49" t="s">
+        <v>367</v>
+      </c>
+      <c r="J49" t="s">
+        <v>368</v>
+      </c>
+      <c r="K49" t="s">
+        <v>369</v>
+      </c>
+      <c r="L49" t="s">
+        <v>370</v>
+      </c>
+      <c r="M49" t="n">
+        <v>5</v>
+      </c>
+      <c r="N49" t="s">
+        <v>371</v>
+      </c>
+      <c r="O49" t="s">
+        <v>67</v>
+      </c>
+      <c r="P49" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q49" t="n">
+        <v>5</v>
+      </c>
+      <c r="R49" t="n">
+        <v>5</v>
+      </c>
+      <c r="S49" t="n">
+        <v>5</v>
+      </c>
+      <c r="T49" t="s"/>
+      <c r="U49" t="n">
+        <v>5</v>
+      </c>
+      <c r="V49" t="n">
+        <v>0</v>
+      </c>
+      <c r="W49" t="s">
+        <v>355</v>
+      </c>
+      <c r="X49" t="s">
+        <v>356</v>
+      </c>
+      <c r="Y49" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>36476</v>
+      </c>
+      <c r="B50" t="s"/>
+      <c r="C50" t="s"/>
+      <c r="D50" t="n">
+        <v>49</v>
+      </c>
+      <c r="E50" t="s">
+        <v>44</v>
+      </c>
+      <c r="F50" t="s">
+        <v>373</v>
+      </c>
+      <c r="G50" t="s">
+        <v>46</v>
+      </c>
+      <c r="H50" t="s">
+        <v>47</v>
+      </c>
+      <c r="I50" t="s">
+        <v>374</v>
+      </c>
+      <c r="J50" t="s">
+        <v>375</v>
+      </c>
+      <c r="K50" t="s">
+        <v>376</v>
+      </c>
+      <c r="L50" t="s">
+        <v>377</v>
+      </c>
+      <c r="M50" t="n">
+        <v>5</v>
+      </c>
+      <c r="N50" t="s">
+        <v>378</v>
+      </c>
+      <c r="O50" t="s">
+        <v>162</v>
+      </c>
+      <c r="P50" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q50" t="n">
+        <v>5</v>
+      </c>
+      <c r="R50" t="n">
+        <v>5</v>
+      </c>
+      <c r="S50" t="n">
+        <v>5</v>
+      </c>
+      <c r="T50" t="s"/>
+      <c r="U50" t="n">
+        <v>5</v>
+      </c>
+      <c r="V50" t="n">
+        <v>0</v>
+      </c>
+      <c r="W50" t="s"/>
+      <c r="X50" t="s"/>
+      <c r="Y50" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>36476</v>
+      </c>
+      <c r="B51" t="s"/>
+      <c r="C51" t="s"/>
+      <c r="D51" t="n">
+        <v>50</v>
+      </c>
+      <c r="E51" t="s">
+        <v>44</v>
+      </c>
+      <c r="F51" t="s">
+        <v>380</v>
+      </c>
+      <c r="G51" t="s">
+        <v>46</v>
+      </c>
+      <c r="H51" t="s">
+        <v>47</v>
+      </c>
+      <c r="I51" t="s">
+        <v>381</v>
+      </c>
+      <c r="J51" t="s">
+        <v>382</v>
+      </c>
+      <c r="K51" t="s">
+        <v>383</v>
+      </c>
+      <c r="L51" t="s">
+        <v>384</v>
+      </c>
+      <c r="M51" t="n">
+        <v>5</v>
+      </c>
+      <c r="N51" t="s">
+        <v>378</v>
+      </c>
+      <c r="O51" t="s">
+        <v>162</v>
+      </c>
+      <c r="P51" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q51" t="n">
+        <v>5</v>
+      </c>
+      <c r="R51" t="n">
+        <v>5</v>
+      </c>
+      <c r="S51" t="n">
+        <v>5</v>
+      </c>
+      <c r="T51" t="s"/>
+      <c r="U51" t="n">
+        <v>5</v>
+      </c>
+      <c r="V51" t="n">
+        <v>0</v>
+      </c>
+      <c r="W51" t="s"/>
+      <c r="X51" t="s"/>
+      <c r="Y51" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>36476</v>
+      </c>
+      <c r="B52" t="s"/>
+      <c r="C52" t="s"/>
+      <c r="D52" t="n">
+        <v>51</v>
+      </c>
+      <c r="E52" t="s">
+        <v>44</v>
+      </c>
+      <c r="F52" t="s">
+        <v>385</v>
+      </c>
+      <c r="G52" t="s">
+        <v>46</v>
+      </c>
+      <c r="H52" t="s">
+        <v>47</v>
+      </c>
+      <c r="I52" t="s">
+        <v>386</v>
+      </c>
+      <c r="J52" t="s">
+        <v>387</v>
+      </c>
+      <c r="K52" t="s">
+        <v>388</v>
+      </c>
+      <c r="L52" t="s">
+        <v>389</v>
+      </c>
+      <c r="M52" t="n">
+        <v>5</v>
+      </c>
+      <c r="N52" t="s">
+        <v>390</v>
+      </c>
+      <c r="O52" t="s">
+        <v>53</v>
+      </c>
+      <c r="P52" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q52" t="n">
+        <v>5</v>
+      </c>
+      <c r="R52" t="n">
+        <v>5</v>
+      </c>
+      <c r="S52" t="n">
+        <v>5</v>
+      </c>
+      <c r="T52" t="s"/>
+      <c r="U52" t="n">
+        <v>5</v>
+      </c>
+      <c r="V52" t="n">
+        <v>0</v>
+      </c>
+      <c r="W52" t="s">
+        <v>391</v>
+      </c>
+      <c r="X52" t="s">
+        <v>392</v>
+      </c>
+      <c r="Y52" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>36476</v>
+      </c>
+      <c r="B53" t="s"/>
+      <c r="C53" t="s"/>
+      <c r="D53" t="n">
+        <v>52</v>
+      </c>
+      <c r="E53" t="s">
+        <v>44</v>
+      </c>
+      <c r="F53" t="s">
+        <v>394</v>
+      </c>
+      <c r="G53" t="s">
+        <v>46</v>
+      </c>
+      <c r="H53" t="s">
+        <v>47</v>
+      </c>
+      <c r="I53" t="s">
+        <v>395</v>
+      </c>
+      <c r="J53" t="s">
+        <v>396</v>
+      </c>
+      <c r="K53" t="s">
+        <v>397</v>
+      </c>
+      <c r="L53" t="s">
+        <v>398</v>
+      </c>
+      <c r="M53" t="n">
+        <v>5</v>
+      </c>
+      <c r="N53" t="s">
+        <v>399</v>
+      </c>
+      <c r="O53" t="s">
+        <v>61</v>
+      </c>
+      <c r="P53" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q53" t="n">
+        <v>5</v>
+      </c>
+      <c r="R53" t="n">
+        <v>5</v>
+      </c>
+      <c r="S53" t="n">
+        <v>5</v>
+      </c>
+      <c r="T53" t="s"/>
+      <c r="U53" t="n">
+        <v>5</v>
+      </c>
+      <c r="V53" t="n">
+        <v>0</v>
+      </c>
+      <c r="W53" t="s"/>
+      <c r="X53" t="s"/>
+      <c r="Y53" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>36476</v>
+      </c>
+      <c r="B54" t="s"/>
+      <c r="C54" t="s"/>
+      <c r="D54" t="n">
+        <v>53</v>
+      </c>
+      <c r="E54" t="s">
+        <v>44</v>
+      </c>
+      <c r="F54" t="s">
+        <v>401</v>
+      </c>
+      <c r="G54" t="s">
+        <v>46</v>
+      </c>
+      <c r="H54" t="s">
+        <v>47</v>
+      </c>
+      <c r="I54" t="s">
+        <v>402</v>
+      </c>
+      <c r="J54" t="s">
+        <v>403</v>
+      </c>
+      <c r="K54" t="s">
+        <v>404</v>
+      </c>
+      <c r="L54" t="s">
+        <v>405</v>
+      </c>
+      <c r="M54" t="n">
+        <v>5</v>
+      </c>
+      <c r="N54" t="s">
+        <v>406</v>
+      </c>
+      <c r="O54" t="s">
+        <v>75</v>
+      </c>
+      <c r="P54" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q54" t="n">
+        <v>5</v>
+      </c>
+      <c r="R54" t="n">
+        <v>5</v>
+      </c>
+      <c r="S54" t="n">
+        <v>5</v>
+      </c>
+      <c r="T54" t="s"/>
+      <c r="U54" t="n">
+        <v>5</v>
+      </c>
+      <c r="V54" t="n">
+        <v>0</v>
+      </c>
+      <c r="W54" t="s">
+        <v>407</v>
+      </c>
+      <c r="X54" t="s">
+        <v>408</v>
+      </c>
+      <c r="Y54" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>36476</v>
+      </c>
+      <c r="B55" t="s"/>
+      <c r="C55" t="s"/>
+      <c r="D55" t="n">
+        <v>54</v>
+      </c>
+      <c r="E55" t="s">
+        <v>44</v>
+      </c>
+      <c r="F55" t="s">
+        <v>410</v>
+      </c>
+      <c r="G55" t="s">
+        <v>46</v>
+      </c>
+      <c r="H55" t="s">
+        <v>47</v>
+      </c>
+      <c r="I55" t="s">
+        <v>411</v>
+      </c>
+      <c r="J55" t="s">
+        <v>412</v>
+      </c>
+      <c r="K55" t="s">
+        <v>413</v>
+      </c>
+      <c r="L55" t="s">
+        <v>414</v>
+      </c>
+      <c r="M55" t="n">
+        <v>5</v>
+      </c>
+      <c r="N55" t="s">
+        <v>415</v>
+      </c>
+      <c r="O55" t="s">
+        <v>162</v>
+      </c>
+      <c r="P55" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q55" t="n">
+        <v>5</v>
+      </c>
+      <c r="R55" t="n">
+        <v>5</v>
+      </c>
+      <c r="S55" t="n">
+        <v>5</v>
+      </c>
+      <c r="T55" t="s"/>
+      <c r="U55" t="n">
+        <v>5</v>
+      </c>
+      <c r="V55" t="n">
+        <v>0</v>
+      </c>
+      <c r="W55" t="s"/>
+      <c r="X55" t="s"/>
+      <c r="Y55" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>36476</v>
+      </c>
+      <c r="B56" t="s"/>
+      <c r="C56" t="s"/>
+      <c r="D56" t="n">
+        <v>55</v>
+      </c>
+      <c r="E56" t="s">
+        <v>44</v>
+      </c>
+      <c r="F56" t="s">
+        <v>416</v>
+      </c>
+      <c r="G56" t="s">
+        <v>46</v>
+      </c>
+      <c r="H56" t="s">
+        <v>47</v>
+      </c>
+      <c r="I56" t="s">
+        <v>417</v>
+      </c>
+      <c r="J56" t="s">
+        <v>418</v>
+      </c>
+      <c r="K56" t="s">
+        <v>419</v>
+      </c>
+      <c r="L56" t="s">
+        <v>420</v>
+      </c>
+      <c r="M56" t="n">
+        <v>4</v>
+      </c>
+      <c r="N56" t="s">
+        <v>421</v>
+      </c>
+      <c r="O56" t="s">
+        <v>61</v>
+      </c>
+      <c r="P56" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q56" t="n">
+        <v>4</v>
+      </c>
+      <c r="R56" t="n">
+        <v>4</v>
+      </c>
+      <c r="S56" t="n">
+        <v>4</v>
+      </c>
+      <c r="T56" t="s"/>
+      <c r="U56" t="n">
+        <v>4</v>
+      </c>
+      <c r="V56" t="n">
+        <v>0</v>
+      </c>
+      <c r="W56" t="s"/>
+      <c r="X56" t="s"/>
+      <c r="Y56" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>36476</v>
+      </c>
+      <c r="B57" t="s"/>
+      <c r="C57" t="s"/>
+      <c r="D57" t="n">
+        <v>56</v>
+      </c>
+      <c r="E57" t="s">
+        <v>44</v>
+      </c>
+      <c r="F57" t="s">
+        <v>422</v>
+      </c>
+      <c r="G57" t="s">
+        <v>46</v>
+      </c>
+      <c r="H57" t="s">
+        <v>47</v>
+      </c>
+      <c r="I57" t="s">
+        <v>423</v>
+      </c>
+      <c r="J57" t="s">
+        <v>424</v>
+      </c>
+      <c r="K57" t="s">
+        <v>425</v>
+      </c>
+      <c r="L57" t="s">
+        <v>426</v>
+      </c>
+      <c r="M57" t="n">
+        <v>5</v>
+      </c>
+      <c r="N57" t="s">
+        <v>421</v>
+      </c>
+      <c r="O57" t="s">
+        <v>53</v>
+      </c>
+      <c r="P57" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q57" t="n">
+        <v>5</v>
+      </c>
+      <c r="R57" t="n">
+        <v>5</v>
+      </c>
+      <c r="S57" t="n">
+        <v>4</v>
+      </c>
+      <c r="T57" t="s"/>
+      <c r="U57" t="n">
+        <v>5</v>
+      </c>
+      <c r="V57" t="n">
+        <v>0</v>
+      </c>
+      <c r="W57" t="s"/>
+      <c r="X57" t="s"/>
+      <c r="Y57" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>36476</v>
+      </c>
+      <c r="B58" t="s"/>
+      <c r="C58" t="s"/>
+      <c r="D58" t="n">
+        <v>57</v>
+      </c>
+      <c r="E58" t="s">
+        <v>44</v>
+      </c>
+      <c r="F58" t="s">
+        <v>428</v>
+      </c>
+      <c r="G58" t="s">
+        <v>46</v>
+      </c>
+      <c r="H58" t="s">
+        <v>47</v>
+      </c>
+      <c r="I58" t="s">
+        <v>429</v>
+      </c>
+      <c r="J58" t="s">
+        <v>430</v>
+      </c>
+      <c r="K58" t="s">
+        <v>431</v>
+      </c>
+      <c r="L58" t="s">
+        <v>432</v>
+      </c>
+      <c r="M58" t="n">
+        <v>3</v>
+      </c>
+      <c r="N58" t="s">
+        <v>433</v>
+      </c>
+      <c r="O58" t="s">
+        <v>67</v>
+      </c>
+      <c r="P58" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q58" t="n">
+        <v>4</v>
+      </c>
+      <c r="R58" t="n">
+        <v>5</v>
+      </c>
+      <c r="S58" t="n">
+        <v>3</v>
+      </c>
+      <c r="T58" t="s"/>
+      <c r="U58" t="n">
+        <v>4</v>
+      </c>
+      <c r="V58" t="n">
+        <v>0</v>
+      </c>
+      <c r="W58" t="s"/>
+      <c r="X58" t="s"/>
+      <c r="Y58" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>36476</v>
+      </c>
+      <c r="B59" t="s"/>
+      <c r="C59" t="s"/>
+      <c r="D59" t="n">
+        <v>58</v>
+      </c>
+      <c r="E59" t="s">
+        <v>44</v>
+      </c>
+      <c r="F59" t="s">
+        <v>435</v>
+      </c>
+      <c r="G59" t="s">
+        <v>46</v>
+      </c>
+      <c r="H59" t="s">
+        <v>47</v>
+      </c>
+      <c r="I59" t="s">
+        <v>436</v>
+      </c>
+      <c r="J59" t="s">
+        <v>437</v>
+      </c>
+      <c r="K59" t="s">
+        <v>438</v>
+      </c>
+      <c r="L59" t="s">
+        <v>439</v>
+      </c>
+      <c r="M59" t="n">
+        <v>4</v>
+      </c>
+      <c r="N59" t="s">
+        <v>433</v>
+      </c>
+      <c r="O59" t="s">
+        <v>67</v>
+      </c>
+      <c r="P59" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q59" t="n">
+        <v>5</v>
+      </c>
+      <c r="R59" t="n">
+        <v>4</v>
+      </c>
+      <c r="S59" t="n">
+        <v>4</v>
+      </c>
+      <c r="T59" t="s"/>
+      <c r="U59" t="n">
+        <v>5</v>
+      </c>
+      <c r="V59" t="n">
+        <v>0</v>
+      </c>
+      <c r="W59" t="s"/>
+      <c r="X59" t="s"/>
+      <c r="Y59" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>36476</v>
+      </c>
+      <c r="B60" t="s"/>
+      <c r="C60" t="s"/>
+      <c r="D60" t="n">
+        <v>59</v>
+      </c>
+      <c r="E60" t="s">
+        <v>44</v>
+      </c>
+      <c r="F60" t="s">
+        <v>441</v>
+      </c>
+      <c r="G60" t="s">
+        <v>46</v>
+      </c>
+      <c r="H60" t="s">
+        <v>47</v>
+      </c>
+      <c r="I60" t="s">
+        <v>442</v>
+      </c>
+      <c r="J60" t="s">
+        <v>443</v>
+      </c>
+      <c r="K60" t="s">
+        <v>444</v>
+      </c>
+      <c r="L60" t="s">
+        <v>445</v>
+      </c>
+      <c r="M60" t="n">
+        <v>5</v>
+      </c>
+      <c r="N60" t="s">
+        <v>433</v>
+      </c>
+      <c r="O60" t="s">
+        <v>67</v>
+      </c>
+      <c r="P60" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q60" t="n">
+        <v>5</v>
+      </c>
+      <c r="R60" t="n">
+        <v>4</v>
+      </c>
+      <c r="S60" t="n">
+        <v>5</v>
+      </c>
+      <c r="T60" t="s"/>
+      <c r="U60" t="n">
+        <v>5</v>
+      </c>
+      <c r="V60" t="n">
+        <v>0</v>
+      </c>
+      <c r="W60" t="s">
+        <v>446</v>
+      </c>
+      <c r="X60" t="s">
+        <v>447</v>
+      </c>
+      <c r="Y60" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>36476</v>
+      </c>
+      <c r="B61" t="s"/>
+      <c r="C61" t="s"/>
+      <c r="D61" t="n">
+        <v>60</v>
+      </c>
+      <c r="E61" t="s">
+        <v>44</v>
+      </c>
+      <c r="F61" t="s">
+        <v>449</v>
+      </c>
+      <c r="G61" t="s">
+        <v>46</v>
+      </c>
+      <c r="H61" t="s">
+        <v>47</v>
+      </c>
+      <c r="I61" t="s">
+        <v>450</v>
+      </c>
+      <c r="J61" t="s">
+        <v>451</v>
+      </c>
+      <c r="K61" t="s">
+        <v>452</v>
+      </c>
+      <c r="L61" t="s">
+        <v>453</v>
+      </c>
+      <c r="M61" t="n">
+        <v>2</v>
+      </c>
+      <c r="N61" t="s">
+        <v>433</v>
+      </c>
+      <c r="O61" t="s">
+        <v>61</v>
+      </c>
+      <c r="P61" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q61" t="n">
+        <v>2</v>
+      </c>
+      <c r="R61" t="n">
+        <v>3</v>
+      </c>
+      <c r="S61" t="n">
+        <v>3</v>
+      </c>
+      <c r="T61" t="s"/>
+      <c r="U61" t="n">
+        <v>4</v>
+      </c>
+      <c r="V61" t="n">
+        <v>0</v>
+      </c>
+      <c r="W61" t="s">
+        <v>454</v>
+      </c>
+      <c r="X61" t="s">
+        <v>455</v>
+      </c>
+      <c r="Y61" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>36476</v>
+      </c>
+      <c r="B62" t="s"/>
+      <c r="C62" t="s"/>
+      <c r="D62" t="n">
+        <v>61</v>
+      </c>
+      <c r="E62" t="s">
+        <v>44</v>
+      </c>
+      <c r="F62" t="s">
+        <v>457</v>
+      </c>
+      <c r="G62" t="s">
+        <v>46</v>
+      </c>
+      <c r="H62" t="s">
+        <v>47</v>
+      </c>
+      <c r="I62" t="s">
+        <v>458</v>
+      </c>
+      <c r="J62" t="s">
+        <v>459</v>
+      </c>
+      <c r="K62" t="s">
+        <v>460</v>
+      </c>
+      <c r="L62" t="s">
+        <v>461</v>
+      </c>
+      <c r="M62" t="n">
+        <v>5</v>
+      </c>
+      <c r="N62" t="s">
+        <v>462</v>
+      </c>
+      <c r="O62" t="s">
+        <v>61</v>
+      </c>
+      <c r="P62" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q62" t="n">
+        <v>5</v>
+      </c>
+      <c r="R62" t="n">
+        <v>5</v>
+      </c>
+      <c r="S62" t="n">
+        <v>5</v>
+      </c>
+      <c r="T62" t="s"/>
+      <c r="U62" t="n">
+        <v>5</v>
+      </c>
+      <c r="V62" t="n">
+        <v>0</v>
+      </c>
+      <c r="W62" t="s"/>
+      <c r="X62" t="s"/>
+      <c r="Y62" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>36476</v>
+      </c>
+      <c r="B63" t="s"/>
+      <c r="C63" t="s"/>
+      <c r="D63" t="n">
+        <v>62</v>
+      </c>
+      <c r="E63" t="s">
+        <v>44</v>
+      </c>
+      <c r="F63" t="s">
+        <v>463</v>
+      </c>
+      <c r="G63" t="s">
+        <v>46</v>
+      </c>
+      <c r="H63" t="s">
+        <v>47</v>
+      </c>
+      <c r="I63" t="s">
+        <v>464</v>
+      </c>
+      <c r="J63" t="s">
+        <v>459</v>
+      </c>
+      <c r="K63" t="s">
+        <v>465</v>
+      </c>
+      <c r="L63" t="s">
+        <v>466</v>
+      </c>
+      <c r="M63" t="n">
+        <v>4</v>
+      </c>
+      <c r="N63" t="s">
+        <v>467</v>
+      </c>
+      <c r="O63" t="s">
+        <v>75</v>
+      </c>
+      <c r="P63" t="s"/>
+      <c r="Q63" t="n">
+        <v>4</v>
+      </c>
+      <c r="R63" t="n">
+        <v>4</v>
+      </c>
+      <c r="S63" t="n">
+        <v>5</v>
+      </c>
+      <c r="T63" t="s"/>
+      <c r="U63" t="n">
+        <v>4</v>
+      </c>
+      <c r="V63" t="n">
+        <v>0</v>
+      </c>
+      <c r="W63" t="s"/>
+      <c r="X63" t="s"/>
+      <c r="Y63" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>36476</v>
+      </c>
+      <c r="B64" t="s"/>
+      <c r="C64" t="s"/>
+      <c r="D64" t="n">
+        <v>63</v>
+      </c>
+      <c r="E64" t="s">
+        <v>44</v>
+      </c>
+      <c r="F64" t="s">
+        <v>469</v>
+      </c>
+      <c r="G64" t="s">
+        <v>46</v>
+      </c>
+      <c r="H64" t="s">
+        <v>47</v>
+      </c>
+      <c r="I64" t="s">
+        <v>470</v>
+      </c>
+      <c r="J64" t="s">
+        <v>471</v>
+      </c>
+      <c r="K64" t="s">
+        <v>472</v>
+      </c>
+      <c r="L64" t="s">
+        <v>473</v>
+      </c>
+      <c r="M64" t="n">
+        <v>5</v>
+      </c>
+      <c r="N64" t="s">
+        <v>467</v>
+      </c>
+      <c r="O64" t="s">
+        <v>53</v>
+      </c>
+      <c r="P64" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q64" t="n">
+        <v>5</v>
+      </c>
+      <c r="R64" t="n">
+        <v>5</v>
+      </c>
+      <c r="S64" t="n">
+        <v>5</v>
+      </c>
+      <c r="T64" t="s"/>
+      <c r="U64" t="n">
+        <v>5</v>
+      </c>
+      <c r="V64" t="n">
+        <v>0</v>
+      </c>
+      <c r="W64" t="s">
+        <v>474</v>
+      </c>
+      <c r="X64" t="s">
+        <v>475</v>
+      </c>
+      <c r="Y64" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>36476</v>
+      </c>
+      <c r="B65" t="s"/>
+      <c r="C65" t="s"/>
+      <c r="D65" t="n">
+        <v>64</v>
+      </c>
+      <c r="E65" t="s">
+        <v>44</v>
+      </c>
+      <c r="F65" t="s">
+        <v>477</v>
+      </c>
+      <c r="G65" t="s">
+        <v>46</v>
+      </c>
+      <c r="H65" t="s">
+        <v>47</v>
+      </c>
+      <c r="I65" t="s">
+        <v>478</v>
+      </c>
+      <c r="J65" t="s">
+        <v>479</v>
+      </c>
+      <c r="K65" t="s">
+        <v>480</v>
+      </c>
+      <c r="L65" t="s">
+        <v>481</v>
+      </c>
+      <c r="M65" t="n">
+        <v>5</v>
+      </c>
+      <c r="N65" t="s">
+        <v>482</v>
+      </c>
+      <c r="O65" t="s">
+        <v>53</v>
+      </c>
+      <c r="P65" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q65" t="n">
+        <v>5</v>
+      </c>
+      <c r="R65" t="n">
+        <v>5</v>
+      </c>
+      <c r="S65" t="n">
+        <v>5</v>
+      </c>
+      <c r="T65" t="s"/>
+      <c r="U65" t="n">
+        <v>5</v>
+      </c>
+      <c r="V65" t="n">
+        <v>0</v>
+      </c>
+      <c r="W65" t="s">
+        <v>483</v>
+      </c>
+      <c r="X65" t="s">
+        <v>484</v>
+      </c>
+      <c r="Y65" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>36476</v>
+      </c>
+      <c r="B66" t="s"/>
+      <c r="C66" t="s"/>
+      <c r="D66" t="n">
+        <v>65</v>
+      </c>
+      <c r="E66" t="s">
+        <v>44</v>
+      </c>
+      <c r="F66" t="s">
+        <v>486</v>
+      </c>
+      <c r="G66" t="s">
+        <v>46</v>
+      </c>
+      <c r="H66" t="s">
+        <v>47</v>
+      </c>
+      <c r="I66" t="s">
+        <v>487</v>
+      </c>
+      <c r="J66" t="s">
+        <v>488</v>
+      </c>
+      <c r="K66" t="s">
+        <v>489</v>
+      </c>
+      <c r="L66" t="s">
+        <v>490</v>
+      </c>
+      <c r="M66" t="n">
+        <v>5</v>
+      </c>
+      <c r="N66" t="s">
+        <v>482</v>
+      </c>
+      <c r="O66" t="s">
+        <v>162</v>
+      </c>
+      <c r="P66" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q66" t="n">
+        <v>5</v>
+      </c>
+      <c r="R66" t="n">
+        <v>5</v>
+      </c>
+      <c r="S66" t="n">
+        <v>5</v>
+      </c>
+      <c r="T66" t="s"/>
+      <c r="U66" t="n">
+        <v>5</v>
+      </c>
+      <c r="V66" t="n">
+        <v>0</v>
+      </c>
+      <c r="W66" t="s">
+        <v>491</v>
+      </c>
+      <c r="X66" t="s">
+        <v>484</v>
+      </c>
+      <c r="Y66" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>36476</v>
+      </c>
+      <c r="B67" t="s"/>
+      <c r="C67" t="s"/>
+      <c r="D67" t="n">
+        <v>66</v>
+      </c>
+      <c r="E67" t="s">
+        <v>44</v>
+      </c>
+      <c r="F67" t="s">
+        <v>493</v>
+      </c>
+      <c r="G67" t="s">
+        <v>46</v>
+      </c>
+      <c r="H67" t="s">
+        <v>47</v>
+      </c>
+      <c r="I67" t="s">
+        <v>494</v>
+      </c>
+      <c r="J67" t="s">
+        <v>495</v>
+      </c>
+      <c r="K67" t="s">
+        <v>496</v>
+      </c>
+      <c r="L67" t="s">
+        <v>497</v>
+      </c>
+      <c r="M67" t="n">
+        <v>5</v>
+      </c>
+      <c r="N67" t="s">
+        <v>482</v>
+      </c>
+      <c r="O67" t="s">
+        <v>162</v>
+      </c>
+      <c r="P67" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q67" t="n">
+        <v>5</v>
+      </c>
+      <c r="R67" t="n">
+        <v>5</v>
+      </c>
+      <c r="S67" t="n">
+        <v>5</v>
+      </c>
+      <c r="T67" t="s"/>
+      <c r="U67" t="n">
+        <v>5</v>
+      </c>
+      <c r="V67" t="n">
+        <v>0</v>
+      </c>
+      <c r="W67" t="s">
+        <v>498</v>
+      </c>
+      <c r="X67" t="s">
+        <v>484</v>
+      </c>
+      <c r="Y67" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>36476</v>
+      </c>
+      <c r="B68" t="s"/>
+      <c r="C68" t="s"/>
+      <c r="D68" t="n">
+        <v>67</v>
+      </c>
+      <c r="E68" t="s">
+        <v>44</v>
+      </c>
+      <c r="F68" t="s">
+        <v>500</v>
+      </c>
+      <c r="G68" t="s">
+        <v>46</v>
+      </c>
+      <c r="H68" t="s">
+        <v>47</v>
+      </c>
+      <c r="I68" t="s">
+        <v>501</v>
+      </c>
+      <c r="J68" t="s">
+        <v>502</v>
+      </c>
+      <c r="K68" t="s">
+        <v>503</v>
+      </c>
+      <c r="L68" t="s">
+        <v>504</v>
+      </c>
+      <c r="M68" t="n">
+        <v>5</v>
+      </c>
+      <c r="N68" t="s"/>
+      <c r="O68" t="s"/>
+      <c r="P68" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q68" t="n">
+        <v>5</v>
+      </c>
+      <c r="R68" t="n">
+        <v>5</v>
+      </c>
+      <c r="S68" t="n">
+        <v>5</v>
+      </c>
+      <c r="T68" t="s"/>
+      <c r="U68" t="n">
+        <v>5</v>
+      </c>
+      <c r="V68" t="n">
+        <v>0</v>
+      </c>
+      <c r="W68" t="s"/>
+      <c r="X68" t="s"/>
+      <c r="Y68" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>36476</v>
+      </c>
+      <c r="B69" t="s"/>
+      <c r="C69" t="s"/>
+      <c r="D69" t="n">
+        <v>68</v>
+      </c>
+      <c r="E69" t="s">
+        <v>44</v>
+      </c>
+      <c r="F69" t="s">
+        <v>505</v>
+      </c>
+      <c r="G69" t="s">
+        <v>46</v>
+      </c>
+      <c r="H69" t="s">
+        <v>47</v>
+      </c>
+      <c r="I69" t="s">
+        <v>506</v>
+      </c>
+      <c r="J69" t="s">
+        <v>507</v>
+      </c>
+      <c r="K69" t="s">
+        <v>508</v>
+      </c>
+      <c r="L69" t="s">
+        <v>509</v>
+      </c>
+      <c r="M69" t="n">
+        <v>4</v>
+      </c>
+      <c r="N69" t="s">
+        <v>510</v>
+      </c>
+      <c r="O69" t="s">
+        <v>75</v>
+      </c>
+      <c r="P69" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q69" t="n">
+        <v>3</v>
+      </c>
+      <c r="R69" t="n">
+        <v>5</v>
+      </c>
+      <c r="S69" t="n">
+        <v>4</v>
+      </c>
+      <c r="T69" t="s"/>
+      <c r="U69" t="n">
+        <v>4</v>
+      </c>
+      <c r="V69" t="n">
+        <v>0</v>
+      </c>
+      <c r="W69" t="s"/>
+      <c r="X69" t="s"/>
+      <c r="Y69" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>36476</v>
+      </c>
+      <c r="B70" t="s"/>
+      <c r="C70" t="s"/>
+      <c r="D70" t="n">
+        <v>69</v>
+      </c>
+      <c r="E70" t="s">
+        <v>44</v>
+      </c>
+      <c r="F70" t="s">
+        <v>512</v>
+      </c>
+      <c r="G70" t="s">
+        <v>46</v>
+      </c>
+      <c r="H70" t="s">
+        <v>47</v>
+      </c>
+      <c r="I70" t="s">
+        <v>513</v>
+      </c>
+      <c r="J70" t="s">
+        <v>514</v>
+      </c>
+      <c r="K70" t="s">
+        <v>515</v>
+      </c>
+      <c r="L70" t="s">
+        <v>516</v>
+      </c>
+      <c r="M70" t="n">
+        <v>5</v>
+      </c>
+      <c r="N70" t="s">
+        <v>517</v>
+      </c>
+      <c r="O70" t="s">
+        <v>75</v>
+      </c>
+      <c r="P70" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q70" t="n">
+        <v>5</v>
+      </c>
+      <c r="R70" t="n">
+        <v>5</v>
+      </c>
+      <c r="S70" t="n">
+        <v>5</v>
+      </c>
+      <c r="T70" t="s"/>
+      <c r="U70" t="n">
+        <v>5</v>
+      </c>
+      <c r="V70" t="n">
+        <v>0</v>
+      </c>
+      <c r="W70" t="s">
+        <v>518</v>
+      </c>
+      <c r="X70" t="s">
+        <v>519</v>
+      </c>
+      <c r="Y70" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>36476</v>
+      </c>
+      <c r="B71" t="s"/>
+      <c r="C71" t="s"/>
+      <c r="D71" t="n">
+        <v>70</v>
+      </c>
+      <c r="E71" t="s">
+        <v>44</v>
+      </c>
+      <c r="F71" t="s">
+        <v>521</v>
+      </c>
+      <c r="G71" t="s">
+        <v>46</v>
+      </c>
+      <c r="H71" t="s">
+        <v>47</v>
+      </c>
+      <c r="I71" t="s">
+        <v>522</v>
+      </c>
+      <c r="J71" t="s">
+        <v>523</v>
+      </c>
+      <c r="K71" t="s">
+        <v>524</v>
+      </c>
+      <c r="L71" t="s">
+        <v>525</v>
+      </c>
+      <c r="M71" t="n">
+        <v>5</v>
+      </c>
+      <c r="N71" t="s">
+        <v>415</v>
+      </c>
+      <c r="O71" t="s">
+        <v>53</v>
+      </c>
+      <c r="P71" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q71" t="n">
+        <v>5</v>
+      </c>
+      <c r="R71" t="n">
+        <v>5</v>
+      </c>
+      <c r="S71" t="n">
+        <v>5</v>
+      </c>
+      <c r="T71" t="s"/>
+      <c r="U71" t="n">
+        <v>5</v>
+      </c>
+      <c r="V71" t="n">
+        <v>0</v>
+      </c>
+      <c r="W71" t="s"/>
+      <c r="X71" t="s"/>
+      <c r="Y71" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>36476</v>
+      </c>
+      <c r="B72" t="s"/>
+      <c r="C72" t="s"/>
+      <c r="D72" t="n">
+        <v>71</v>
+      </c>
+      <c r="E72" t="s">
+        <v>44</v>
+      </c>
+      <c r="F72" t="s">
+        <v>526</v>
+      </c>
+      <c r="G72" t="s">
+        <v>46</v>
+      </c>
+      <c r="H72" t="s">
+        <v>47</v>
+      </c>
+      <c r="I72" t="s">
+        <v>527</v>
+      </c>
+      <c r="J72" t="s">
+        <v>528</v>
+      </c>
+      <c r="K72" t="s">
+        <v>529</v>
+      </c>
+      <c r="L72" t="s">
+        <v>530</v>
+      </c>
+      <c r="M72" t="n">
+        <v>4</v>
+      </c>
+      <c r="N72" t="s">
+        <v>531</v>
+      </c>
+      <c r="O72" t="s">
+        <v>75</v>
+      </c>
+      <c r="P72" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q72" t="n">
+        <v>4</v>
+      </c>
+      <c r="R72" t="n">
+        <v>5</v>
+      </c>
+      <c r="S72" t="n">
+        <v>5</v>
+      </c>
+      <c r="T72" t="s"/>
+      <c r="U72" t="n">
+        <v>4</v>
+      </c>
+      <c r="V72" t="n">
+        <v>0</v>
+      </c>
+      <c r="W72" t="s">
+        <v>518</v>
+      </c>
+      <c r="X72" t="s">
+        <v>519</v>
+      </c>
+      <c r="Y72" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>36476</v>
+      </c>
+      <c r="B73" t="s"/>
+      <c r="C73" t="s"/>
+      <c r="D73" t="n">
+        <v>72</v>
+      </c>
+      <c r="E73" t="s">
+        <v>44</v>
+      </c>
+      <c r="F73" t="s">
+        <v>533</v>
+      </c>
+      <c r="G73" t="s">
+        <v>46</v>
+      </c>
+      <c r="H73" t="s">
+        <v>47</v>
+      </c>
+      <c r="I73" t="s">
+        <v>534</v>
+      </c>
+      <c r="J73" t="s">
+        <v>535</v>
+      </c>
+      <c r="K73" t="s">
+        <v>536</v>
+      </c>
+      <c r="L73" t="s">
+        <v>537</v>
+      </c>
+      <c r="M73" t="n">
+        <v>2</v>
+      </c>
+      <c r="N73" t="s">
+        <v>531</v>
+      </c>
+      <c r="O73" t="s">
+        <v>53</v>
+      </c>
+      <c r="P73" t="s"/>
+      <c r="Q73" t="s"/>
+      <c r="R73" t="s"/>
+      <c r="S73" t="s"/>
+      <c r="T73" t="s"/>
+      <c r="U73" t="s"/>
+      <c r="V73" t="n">
+        <v>0</v>
+      </c>
+      <c r="W73" t="s"/>
+      <c r="X73" t="s"/>
+      <c r="Y73" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>36476</v>
+      </c>
+      <c r="B74" t="s"/>
+      <c r="C74" t="s"/>
+      <c r="D74" t="n">
+        <v>73</v>
+      </c>
+      <c r="E74" t="s">
+        <v>44</v>
+      </c>
+      <c r="F74" t="s">
+        <v>538</v>
+      </c>
+      <c r="G74" t="s">
+        <v>46</v>
+      </c>
+      <c r="H74" t="s">
+        <v>47</v>
+      </c>
+      <c r="I74" t="s">
+        <v>539</v>
+      </c>
+      <c r="J74" t="s">
+        <v>540</v>
+      </c>
+      <c r="K74" t="s">
+        <v>541</v>
+      </c>
+      <c r="L74" t="s">
+        <v>542</v>
+      </c>
+      <c r="M74" t="n">
+        <v>5</v>
+      </c>
+      <c r="N74" t="s">
+        <v>543</v>
+      </c>
+      <c r="O74" t="s">
+        <v>61</v>
+      </c>
+      <c r="P74" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q74" t="n">
+        <v>4</v>
+      </c>
+      <c r="R74" t="n">
+        <v>5</v>
+      </c>
+      <c r="S74" t="n">
+        <v>4</v>
+      </c>
+      <c r="T74" t="s"/>
+      <c r="U74" t="n">
+        <v>4</v>
+      </c>
+      <c r="V74" t="n">
+        <v>0</v>
+      </c>
+      <c r="W74" t="s"/>
+      <c r="X74" t="s"/>
+      <c r="Y74" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>36476</v>
+      </c>
+      <c r="B75" t="s"/>
+      <c r="C75" t="s"/>
+      <c r="D75" t="n">
+        <v>74</v>
+      </c>
+      <c r="E75" t="s">
+        <v>44</v>
+      </c>
+      <c r="F75" t="s">
+        <v>544</v>
+      </c>
+      <c r="G75" t="s">
+        <v>46</v>
+      </c>
+      <c r="H75" t="s">
+        <v>47</v>
+      </c>
+      <c r="I75" t="s">
+        <v>545</v>
+      </c>
+      <c r="J75" t="s">
+        <v>546</v>
+      </c>
+      <c r="K75" t="s">
+        <v>547</v>
+      </c>
+      <c r="L75" t="s">
+        <v>548</v>
+      </c>
+      <c r="M75" t="n">
+        <v>5</v>
+      </c>
+      <c r="N75" t="s">
+        <v>549</v>
+      </c>
+      <c r="O75" t="s">
+        <v>75</v>
+      </c>
+      <c r="P75" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q75" t="n">
+        <v>5</v>
+      </c>
+      <c r="R75" t="n">
+        <v>5</v>
+      </c>
+      <c r="S75" t="n">
+        <v>5</v>
+      </c>
+      <c r="T75" t="s"/>
+      <c r="U75" t="n">
+        <v>5</v>
+      </c>
+      <c r="V75" t="n">
+        <v>0</v>
+      </c>
+      <c r="W75" t="s"/>
+      <c r="X75" t="s"/>
+      <c r="Y75" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>36476</v>
+      </c>
+      <c r="B76" t="s"/>
+      <c r="C76" t="s"/>
+      <c r="D76" t="n">
+        <v>75</v>
+      </c>
+      <c r="E76" t="s">
+        <v>44</v>
+      </c>
+      <c r="F76" t="s">
+        <v>551</v>
+      </c>
+      <c r="G76" t="s">
+        <v>46</v>
+      </c>
+      <c r="H76" t="s">
+        <v>47</v>
+      </c>
+      <c r="I76" t="s">
+        <v>552</v>
+      </c>
+      <c r="J76" t="s">
+        <v>553</v>
+      </c>
+      <c r="K76" t="s">
+        <v>554</v>
+      </c>
+      <c r="L76" t="s">
+        <v>555</v>
+      </c>
+      <c r="M76" t="n">
+        <v>5</v>
+      </c>
+      <c r="N76" t="s">
+        <v>543</v>
+      </c>
+      <c r="O76" t="s">
+        <v>53</v>
+      </c>
+      <c r="P76" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q76" t="n">
+        <v>5</v>
+      </c>
+      <c r="R76" t="n">
+        <v>5</v>
+      </c>
+      <c r="S76" t="n">
+        <v>5</v>
+      </c>
+      <c r="T76" t="s"/>
+      <c r="U76" t="n">
+        <v>5</v>
+      </c>
+      <c r="V76" t="n">
+        <v>0</v>
+      </c>
+      <c r="W76" t="s"/>
+      <c r="X76" t="s"/>
+      <c r="Y76" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>36476</v>
+      </c>
+      <c r="B77" t="s"/>
+      <c r="C77" t="s"/>
+      <c r="D77" t="n">
+        <v>76</v>
+      </c>
+      <c r="E77" t="s">
+        <v>44</v>
+      </c>
+      <c r="F77" t="s">
+        <v>556</v>
+      </c>
+      <c r="G77" t="s">
+        <v>46</v>
+      </c>
+      <c r="H77" t="s">
+        <v>47</v>
+      </c>
+      <c r="I77" t="s">
+        <v>557</v>
+      </c>
+      <c r="J77" t="s">
+        <v>558</v>
+      </c>
+      <c r="K77" t="s">
+        <v>559</v>
+      </c>
+      <c r="L77" t="s">
+        <v>560</v>
+      </c>
+      <c r="M77" t="n">
+        <v>5</v>
+      </c>
+      <c r="N77" t="s">
+        <v>561</v>
+      </c>
+      <c r="O77" t="s">
+        <v>61</v>
+      </c>
+      <c r="P77" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q77" t="n">
+        <v>5</v>
+      </c>
+      <c r="R77" t="n">
+        <v>5</v>
+      </c>
+      <c r="S77" t="n">
+        <v>5</v>
+      </c>
+      <c r="T77" t="s"/>
+      <c r="U77" t="n">
+        <v>5</v>
+      </c>
+      <c r="V77" t="n">
+        <v>0</v>
+      </c>
+      <c r="W77" t="s"/>
+      <c r="X77" t="s"/>
+      <c r="Y77" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>36476</v>
+      </c>
+      <c r="B78" t="s"/>
+      <c r="C78" t="s"/>
+      <c r="D78" t="n">
+        <v>77</v>
+      </c>
+      <c r="E78" t="s">
+        <v>44</v>
+      </c>
+      <c r="F78" t="s">
+        <v>563</v>
+      </c>
+      <c r="G78" t="s">
+        <v>46</v>
+      </c>
+      <c r="H78" t="s">
+        <v>47</v>
+      </c>
+      <c r="I78" t="s">
+        <v>564</v>
+      </c>
+      <c r="J78" t="s">
+        <v>565</v>
+      </c>
+      <c r="K78" t="s">
+        <v>566</v>
+      </c>
+      <c r="L78" t="s">
+        <v>567</v>
+      </c>
+      <c r="M78" t="n">
+        <v>4</v>
+      </c>
+      <c r="N78" t="s"/>
+      <c r="O78" t="s"/>
+      <c r="P78" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q78" t="n">
+        <v>4</v>
+      </c>
+      <c r="R78" t="n">
+        <v>5</v>
+      </c>
+      <c r="S78" t="n">
+        <v>4</v>
+      </c>
+      <c r="T78" t="s"/>
+      <c r="U78" t="n">
+        <v>5</v>
+      </c>
+      <c r="V78" t="n">
+        <v>0</v>
+      </c>
+      <c r="W78" t="s"/>
+      <c r="X78" t="s"/>
+      <c r="Y78" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>36476</v>
+      </c>
+      <c r="B79" t="s"/>
+      <c r="C79" t="s"/>
+      <c r="D79" t="n">
+        <v>78</v>
+      </c>
+      <c r="E79" t="s">
+        <v>44</v>
+      </c>
+      <c r="F79" t="s">
+        <v>569</v>
+      </c>
+      <c r="G79" t="s">
+        <v>46</v>
+      </c>
+      <c r="H79" t="s">
+        <v>47</v>
+      </c>
+      <c r="I79" t="s">
+        <v>570</v>
+      </c>
+      <c r="J79" t="s">
+        <v>565</v>
+      </c>
+      <c r="K79" t="s">
+        <v>571</v>
+      </c>
+      <c r="L79" t="s">
+        <v>572</v>
+      </c>
+      <c r="M79" t="n">
+        <v>4</v>
+      </c>
+      <c r="N79" t="s"/>
+      <c r="O79" t="s"/>
+      <c r="P79" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q79" t="n">
+        <v>5</v>
+      </c>
+      <c r="R79" t="n">
+        <v>5</v>
+      </c>
+      <c r="S79" t="n">
+        <v>4</v>
+      </c>
+      <c r="T79" t="s"/>
+      <c r="U79" t="n">
+        <v>5</v>
+      </c>
+      <c r="V79" t="n">
+        <v>0</v>
+      </c>
+      <c r="W79" t="s"/>
+      <c r="X79" t="s"/>
+      <c r="Y79" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>36476</v>
+      </c>
+      <c r="B80" t="s"/>
+      <c r="C80" t="s"/>
+      <c r="D80" t="n">
+        <v>79</v>
+      </c>
+      <c r="E80" t="s">
+        <v>44</v>
+      </c>
+      <c r="F80" t="s">
+        <v>573</v>
+      </c>
+      <c r="G80" t="s">
+        <v>46</v>
+      </c>
+      <c r="H80" t="s">
+        <v>47</v>
+      </c>
+      <c r="I80" t="s">
+        <v>574</v>
+      </c>
+      <c r="J80" t="s">
+        <v>575</v>
+      </c>
+      <c r="K80" t="s">
+        <v>576</v>
+      </c>
+      <c r="L80" t="s">
+        <v>577</v>
+      </c>
+      <c r="M80" t="n">
+        <v>4</v>
+      </c>
+      <c r="N80" t="s">
+        <v>578</v>
+      </c>
+      <c r="O80" t="s">
+        <v>75</v>
+      </c>
+      <c r="P80" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q80" t="n">
+        <v>4</v>
+      </c>
+      <c r="R80" t="n">
+        <v>5</v>
+      </c>
+      <c r="S80" t="n">
+        <v>4</v>
+      </c>
+      <c r="T80" t="s"/>
+      <c r="U80" t="n">
+        <v>5</v>
+      </c>
+      <c r="V80" t="n">
+        <v>0</v>
+      </c>
+      <c r="W80" t="s">
+        <v>579</v>
+      </c>
+      <c r="X80" t="s">
+        <v>580</v>
+      </c>
+      <c r="Y80" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>36476</v>
+      </c>
+      <c r="B81" t="s"/>
+      <c r="C81" t="s"/>
+      <c r="D81" t="n">
+        <v>80</v>
+      </c>
+      <c r="E81" t="s">
+        <v>44</v>
+      </c>
+      <c r="F81" t="s">
+        <v>582</v>
+      </c>
+      <c r="G81" t="s">
+        <v>46</v>
+      </c>
+      <c r="H81" t="s">
+        <v>47</v>
+      </c>
+      <c r="I81" t="s">
+        <v>583</v>
+      </c>
+      <c r="J81" t="s">
+        <v>584</v>
+      </c>
+      <c r="K81" t="s">
+        <v>585</v>
+      </c>
+      <c r="L81" t="s">
+        <v>586</v>
+      </c>
+      <c r="M81" t="n">
+        <v>3</v>
+      </c>
+      <c r="N81" t="s">
+        <v>578</v>
+      </c>
+      <c r="O81" t="s">
+        <v>75</v>
+      </c>
+      <c r="P81" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q81" t="n">
+        <v>2</v>
+      </c>
+      <c r="R81" t="n">
+        <v>4</v>
+      </c>
+      <c r="S81" t="n">
+        <v>1</v>
+      </c>
+      <c r="T81" t="s"/>
+      <c r="U81" t="n">
+        <v>3</v>
+      </c>
+      <c r="V81" t="n">
+        <v>0</v>
+      </c>
+      <c r="W81" t="s">
+        <v>587</v>
+      </c>
+      <c r="X81" t="s">
+        <v>588</v>
+      </c>
+      <c r="Y81" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>36476</v>
+      </c>
+      <c r="B82" t="s"/>
+      <c r="C82" t="s"/>
+      <c r="D82" t="n">
+        <v>81</v>
+      </c>
+      <c r="E82" t="s">
+        <v>44</v>
+      </c>
+      <c r="F82" t="s">
+        <v>590</v>
+      </c>
+      <c r="G82" t="s">
+        <v>46</v>
+      </c>
+      <c r="H82" t="s">
+        <v>47</v>
+      </c>
+      <c r="I82" t="s">
+        <v>591</v>
+      </c>
+      <c r="J82" t="s">
+        <v>592</v>
+      </c>
+      <c r="K82" t="s">
+        <v>593</v>
+      </c>
+      <c r="L82" t="s">
+        <v>594</v>
+      </c>
+      <c r="M82" t="n">
+        <v>5</v>
+      </c>
+      <c r="N82" t="s">
+        <v>578</v>
+      </c>
+      <c r="O82" t="s">
+        <v>75</v>
+      </c>
+      <c r="P82" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q82" t="n">
+        <v>5</v>
+      </c>
+      <c r="R82" t="n">
+        <v>5</v>
+      </c>
+      <c r="S82" t="n">
+        <v>5</v>
+      </c>
+      <c r="T82" t="s"/>
+      <c r="U82" t="n">
+        <v>5</v>
+      </c>
+      <c r="V82" t="n">
+        <v>0</v>
+      </c>
+      <c r="W82" t="s">
+        <v>587</v>
+      </c>
+      <c r="X82" t="s">
+        <v>588</v>
+      </c>
+      <c r="Y82" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>36476</v>
+      </c>
+      <c r="B83" t="s"/>
+      <c r="C83" t="s"/>
+      <c r="D83" t="n">
+        <v>82</v>
+      </c>
+      <c r="E83" t="s">
+        <v>44</v>
+      </c>
+      <c r="F83" t="s">
+        <v>596</v>
+      </c>
+      <c r="G83" t="s">
+        <v>46</v>
+      </c>
+      <c r="H83" t="s">
+        <v>47</v>
+      </c>
+      <c r="I83" t="s">
+        <v>597</v>
+      </c>
+      <c r="J83" t="s">
+        <v>598</v>
+      </c>
+      <c r="K83" t="s">
+        <v>599</v>
+      </c>
+      <c r="L83" t="s">
+        <v>600</v>
+      </c>
+      <c r="M83" t="n">
+        <v>3</v>
+      </c>
+      <c r="N83" t="s">
+        <v>601</v>
+      </c>
+      <c r="O83" t="s">
+        <v>75</v>
+      </c>
+      <c r="P83" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q83" t="n">
+        <v>3</v>
+      </c>
+      <c r="R83" t="n">
+        <v>4</v>
+      </c>
+      <c r="S83" t="n">
+        <v>3</v>
+      </c>
+      <c r="T83" t="s"/>
+      <c r="U83" t="n">
+        <v>3</v>
+      </c>
+      <c r="V83" t="n">
+        <v>0</v>
+      </c>
+      <c r="W83" t="s"/>
+      <c r="X83" t="s"/>
+      <c r="Y83" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>36476</v>
+      </c>
+      <c r="B84" t="s"/>
+      <c r="C84" t="s"/>
+      <c r="D84" t="n">
+        <v>83</v>
+      </c>
+      <c r="E84" t="s">
+        <v>44</v>
+      </c>
+      <c r="F84" t="s">
+        <v>603</v>
+      </c>
+      <c r="G84" t="s">
+        <v>46</v>
+      </c>
+      <c r="H84" t="s">
+        <v>47</v>
+      </c>
+      <c r="I84" t="s">
+        <v>604</v>
+      </c>
+      <c r="J84" t="s">
+        <v>605</v>
+      </c>
+      <c r="K84" t="s">
+        <v>606</v>
+      </c>
+      <c r="L84" t="s">
+        <v>607</v>
+      </c>
+      <c r="M84" t="n">
+        <v>5</v>
+      </c>
+      <c r="N84" t="s">
+        <v>549</v>
+      </c>
+      <c r="O84" t="s">
+        <v>75</v>
+      </c>
+      <c r="P84" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q84" t="n">
+        <v>5</v>
+      </c>
+      <c r="R84" t="n">
+        <v>5</v>
+      </c>
+      <c r="S84" t="n">
+        <v>5</v>
+      </c>
+      <c r="T84" t="s"/>
+      <c r="U84" t="n">
+        <v>5</v>
+      </c>
+      <c r="V84" t="n">
+        <v>0</v>
+      </c>
+      <c r="W84" t="s"/>
+      <c r="X84" t="s"/>
+      <c r="Y84" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>36476</v>
+      </c>
+      <c r="B85" t="s"/>
+      <c r="C85" t="s"/>
+      <c r="D85" t="n">
+        <v>84</v>
+      </c>
+      <c r="E85" t="s">
+        <v>44</v>
+      </c>
+      <c r="F85" t="s">
+        <v>608</v>
+      </c>
+      <c r="G85" t="s">
+        <v>46</v>
+      </c>
+      <c r="H85" t="s">
+        <v>47</v>
+      </c>
+      <c r="I85" t="s">
+        <v>609</v>
+      </c>
+      <c r="J85" t="s">
+        <v>610</v>
+      </c>
+      <c r="K85" t="s">
+        <v>611</v>
+      </c>
+      <c r="L85" t="s">
+        <v>612</v>
+      </c>
+      <c r="M85" t="n">
+        <v>4</v>
+      </c>
+      <c r="N85" t="s">
+        <v>601</v>
+      </c>
+      <c r="O85" t="s">
+        <v>61</v>
+      </c>
+      <c r="P85" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q85" t="n">
+        <v>4</v>
+      </c>
+      <c r="R85" t="n">
+        <v>3</v>
+      </c>
+      <c r="S85" t="n">
+        <v>5</v>
+      </c>
+      <c r="T85" t="s"/>
+      <c r="U85" t="n">
+        <v>5</v>
+      </c>
+      <c r="V85" t="n">
+        <v>0</v>
+      </c>
+      <c r="W85" t="s"/>
+      <c r="X85" t="s"/>
+      <c r="Y85" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>36476</v>
+      </c>
+      <c r="B86" t="s"/>
+      <c r="C86" t="s"/>
+      <c r="D86" t="n">
+        <v>85</v>
+      </c>
+      <c r="E86" t="s">
+        <v>44</v>
+      </c>
+      <c r="F86" t="s">
+        <v>614</v>
+      </c>
+      <c r="G86" t="s">
+        <v>46</v>
+      </c>
+      <c r="H86" t="s">
+        <v>47</v>
+      </c>
+      <c r="I86" t="s">
+        <v>615</v>
+      </c>
+      <c r="J86" t="s">
+        <v>616</v>
+      </c>
+      <c r="K86" t="s">
+        <v>617</v>
+      </c>
+      <c r="L86" t="s">
+        <v>618</v>
+      </c>
+      <c r="M86" t="n">
+        <v>4</v>
+      </c>
+      <c r="N86" t="s"/>
+      <c r="O86" t="s"/>
+      <c r="P86" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q86" t="n">
+        <v>5</v>
+      </c>
+      <c r="R86" t="n">
+        <v>4</v>
+      </c>
+      <c r="S86" t="n">
+        <v>5</v>
+      </c>
+      <c r="T86" t="s"/>
+      <c r="U86" t="n">
+        <v>5</v>
+      </c>
+      <c r="V86" t="n">
+        <v>0</v>
+      </c>
+      <c r="W86" t="s"/>
+      <c r="X86" t="s"/>
+      <c r="Y86" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>36476</v>
+      </c>
+      <c r="B87" t="s"/>
+      <c r="C87" t="s"/>
+      <c r="D87" t="n">
+        <v>86</v>
+      </c>
+      <c r="E87" t="s">
+        <v>44</v>
+      </c>
+      <c r="F87" t="s">
+        <v>619</v>
+      </c>
+      <c r="G87" t="s">
+        <v>46</v>
+      </c>
+      <c r="H87" t="s">
+        <v>47</v>
+      </c>
+      <c r="I87" t="s">
+        <v>620</v>
+      </c>
+      <c r="J87" t="s">
+        <v>621</v>
+      </c>
+      <c r="K87" t="s">
+        <v>622</v>
+      </c>
+      <c r="L87" t="s">
+        <v>623</v>
+      </c>
+      <c r="M87" t="n">
+        <v>4</v>
+      </c>
+      <c r="N87" t="s"/>
+      <c r="O87" t="s"/>
+      <c r="P87" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q87" t="n">
+        <v>4</v>
+      </c>
+      <c r="R87" t="n">
+        <v>5</v>
+      </c>
+      <c r="S87" t="n">
+        <v>4</v>
+      </c>
+      <c r="T87" t="s"/>
+      <c r="U87" t="n">
+        <v>5</v>
+      </c>
+      <c r="V87" t="n">
+        <v>0</v>
+      </c>
+      <c r="W87" t="s"/>
+      <c r="X87" t="s"/>
+      <c r="Y87" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>36476</v>
+      </c>
+      <c r="B88" t="s"/>
+      <c r="C88" t="s"/>
+      <c r="D88" t="n">
+        <v>87</v>
+      </c>
+      <c r="E88" t="s">
+        <v>44</v>
+      </c>
+      <c r="F88" t="s">
+        <v>624</v>
+      </c>
+      <c r="G88" t="s">
+        <v>46</v>
+      </c>
+      <c r="H88" t="s">
+        <v>47</v>
+      </c>
+      <c r="I88" t="s">
+        <v>625</v>
+      </c>
+      <c r="J88" t="s">
+        <v>626</v>
+      </c>
+      <c r="K88" t="s">
+        <v>627</v>
+      </c>
+      <c r="L88" t="s">
+        <v>628</v>
+      </c>
+      <c r="M88" t="n">
+        <v>4</v>
+      </c>
+      <c r="N88" t="s">
+        <v>549</v>
+      </c>
+      <c r="O88" t="s">
+        <v>53</v>
+      </c>
+      <c r="P88" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q88" t="n">
+        <v>4</v>
+      </c>
+      <c r="R88" t="n">
+        <v>4</v>
+      </c>
+      <c r="S88" t="n">
+        <v>4</v>
+      </c>
+      <c r="T88" t="s"/>
+      <c r="U88" t="n">
+        <v>4</v>
+      </c>
+      <c r="V88" t="n">
+        <v>0</v>
+      </c>
+      <c r="W88" t="s"/>
+      <c r="X88" t="s"/>
+      <c r="Y88" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>36476</v>
+      </c>
+      <c r="B89" t="s"/>
+      <c r="C89" t="s"/>
+      <c r="D89" t="n">
+        <v>88</v>
+      </c>
+      <c r="E89" t="s">
+        <v>44</v>
+      </c>
+      <c r="F89" t="s">
+        <v>629</v>
+      </c>
+      <c r="G89" t="s">
+        <v>46</v>
+      </c>
+      <c r="H89" t="s">
+        <v>47</v>
+      </c>
+      <c r="I89" t="s">
+        <v>630</v>
+      </c>
+      <c r="J89" t="s">
+        <v>631</v>
+      </c>
+      <c r="K89" t="s">
+        <v>632</v>
+      </c>
+      <c r="L89" t="s">
+        <v>633</v>
+      </c>
+      <c r="M89" t="n">
+        <v>5</v>
+      </c>
+      <c r="N89" t="s">
+        <v>549</v>
+      </c>
+      <c r="O89" t="s">
+        <v>162</v>
+      </c>
+      <c r="P89" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q89" t="n">
+        <v>5</v>
+      </c>
+      <c r="R89" t="n">
+        <v>5</v>
+      </c>
+      <c r="S89" t="n">
+        <v>5</v>
+      </c>
+      <c r="T89" t="s"/>
+      <c r="U89" t="n">
+        <v>5</v>
+      </c>
+      <c r="V89" t="n">
+        <v>0</v>
+      </c>
+      <c r="W89" t="s"/>
+      <c r="X89" t="s"/>
+      <c r="Y89" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>36476</v>
+      </c>
+      <c r="B90" t="s"/>
+      <c r="C90" t="s"/>
+      <c r="D90" t="n">
+        <v>89</v>
+      </c>
+      <c r="E90" t="s">
+        <v>44</v>
+      </c>
+      <c r="F90" t="s">
+        <v>634</v>
+      </c>
+      <c r="G90" t="s">
+        <v>46</v>
+      </c>
+      <c r="H90" t="s">
+        <v>47</v>
+      </c>
+      <c r="I90" t="s">
+        <v>635</v>
+      </c>
+      <c r="J90" t="s">
+        <v>636</v>
+      </c>
+      <c r="K90" t="s">
+        <v>637</v>
+      </c>
+      <c r="L90" t="s">
+        <v>638</v>
+      </c>
+      <c r="M90" t="n">
+        <v>3</v>
+      </c>
+      <c r="N90" t="s">
+        <v>639</v>
+      </c>
+      <c r="O90" t="s">
+        <v>75</v>
+      </c>
+      <c r="P90" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q90" t="n">
+        <v>3</v>
+      </c>
+      <c r="R90" t="n">
+        <v>4</v>
+      </c>
+      <c r="S90" t="n">
+        <v>3</v>
+      </c>
+      <c r="T90" t="s"/>
+      <c r="U90" t="n">
+        <v>4</v>
+      </c>
+      <c r="V90" t="n">
+        <v>0</v>
+      </c>
+      <c r="W90" t="s"/>
+      <c r="X90" t="s"/>
+      <c r="Y90" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>36476</v>
+      </c>
+      <c r="B91" t="s"/>
+      <c r="C91" t="s"/>
+      <c r="D91" t="n">
+        <v>90</v>
+      </c>
+      <c r="E91" t="s">
+        <v>44</v>
+      </c>
+      <c r="F91" t="s">
+        <v>640</v>
+      </c>
+      <c r="G91" t="s">
+        <v>46</v>
+      </c>
+      <c r="H91" t="s">
+        <v>47</v>
+      </c>
+      <c r="I91" t="s">
+        <v>641</v>
+      </c>
+      <c r="J91" t="s">
+        <v>642</v>
+      </c>
+      <c r="K91" t="s">
+        <v>643</v>
+      </c>
+      <c r="L91" t="s">
+        <v>644</v>
+      </c>
+      <c r="M91" t="n">
+        <v>5</v>
+      </c>
+      <c r="N91" t="s"/>
+      <c r="O91" t="s"/>
+      <c r="P91" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q91" t="n">
+        <v>5</v>
+      </c>
+      <c r="R91" t="n">
+        <v>5</v>
+      </c>
+      <c r="S91" t="n">
+        <v>5</v>
+      </c>
+      <c r="T91" t="s"/>
+      <c r="U91" t="n">
+        <v>5</v>
+      </c>
+      <c r="V91" t="n">
+        <v>0</v>
+      </c>
+      <c r="W91" t="s"/>
+      <c r="X91" t="s"/>
+      <c r="Y91" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>36476</v>
+      </c>
+      <c r="B92" t="s"/>
+      <c r="C92" t="s"/>
+      <c r="D92" t="n">
+        <v>91</v>
+      </c>
+      <c r="E92" t="s">
+        <v>44</v>
+      </c>
+      <c r="F92" t="s">
+        <v>645</v>
+      </c>
+      <c r="G92" t="s">
+        <v>46</v>
+      </c>
+      <c r="H92" t="s">
+        <v>47</v>
+      </c>
+      <c r="I92" t="s">
+        <v>646</v>
+      </c>
+      <c r="J92" t="s">
+        <v>647</v>
+      </c>
+      <c r="K92" t="s">
+        <v>648</v>
+      </c>
+      <c r="L92" t="s">
+        <v>649</v>
+      </c>
+      <c r="M92" t="n">
+        <v>2</v>
+      </c>
+      <c r="N92" t="s">
+        <v>650</v>
+      </c>
+      <c r="O92" t="s">
+        <v>53</v>
+      </c>
+      <c r="P92" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q92" t="n">
+        <v>2</v>
+      </c>
+      <c r="R92" t="n">
+        <v>4</v>
+      </c>
+      <c r="S92" t="n">
+        <v>3</v>
+      </c>
+      <c r="T92" t="s"/>
+      <c r="U92" t="n">
+        <v>2</v>
+      </c>
+      <c r="V92" t="n">
+        <v>0</v>
+      </c>
+      <c r="W92" t="s">
+        <v>651</v>
+      </c>
+      <c r="X92" t="s">
+        <v>652</v>
+      </c>
+      <c r="Y92" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="n">
+        <v>36476</v>
+      </c>
+      <c r="B93" t="s"/>
+      <c r="C93" t="s"/>
+      <c r="D93" t="n">
+        <v>92</v>
+      </c>
+      <c r="E93" t="s">
+        <v>44</v>
+      </c>
+      <c r="F93" t="s">
+        <v>654</v>
+      </c>
+      <c r="G93" t="s">
+        <v>46</v>
+      </c>
+      <c r="H93" t="s">
+        <v>47</v>
+      </c>
+      <c r="I93" t="s">
+        <v>655</v>
+      </c>
+      <c r="J93" t="s">
+        <v>656</v>
+      </c>
+      <c r="K93" t="s">
+        <v>657</v>
+      </c>
+      <c r="L93" t="s">
+        <v>658</v>
+      </c>
+      <c r="M93" t="n">
+        <v>5</v>
+      </c>
+      <c r="N93" t="s">
+        <v>650</v>
+      </c>
+      <c r="O93" t="s">
+        <v>75</v>
+      </c>
+      <c r="P93" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q93" t="n">
+        <v>5</v>
+      </c>
+      <c r="R93" t="n">
+        <v>5</v>
+      </c>
+      <c r="S93" t="n">
+        <v>5</v>
+      </c>
+      <c r="T93" t="s"/>
+      <c r="U93" t="n">
+        <v>5</v>
+      </c>
+      <c r="V93" t="n">
+        <v>0</v>
+      </c>
+      <c r="W93" t="s"/>
+      <c r="X93" t="s"/>
+      <c r="Y93" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="n">
+        <v>36476</v>
+      </c>
+      <c r="B94" t="s"/>
+      <c r="C94" t="s"/>
+      <c r="D94" t="n">
+        <v>93</v>
+      </c>
+      <c r="E94" t="s">
+        <v>44</v>
+      </c>
+      <c r="F94" t="s">
+        <v>659</v>
+      </c>
+      <c r="G94" t="s">
+        <v>46</v>
+      </c>
+      <c r="H94" t="s">
+        <v>47</v>
+      </c>
+      <c r="I94" t="s">
+        <v>660</v>
+      </c>
+      <c r="J94" t="s">
+        <v>656</v>
+      </c>
+      <c r="K94" t="s">
+        <v>661</v>
+      </c>
+      <c r="L94" t="s">
+        <v>662</v>
+      </c>
+      <c r="M94" t="n">
+        <v>5</v>
+      </c>
+      <c r="N94" t="s"/>
+      <c r="O94" t="s"/>
+      <c r="P94" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q94" t="n">
+        <v>4</v>
+      </c>
+      <c r="R94" t="n">
+        <v>4</v>
+      </c>
+      <c r="S94" t="n">
+        <v>5</v>
+      </c>
+      <c r="T94" t="s"/>
+      <c r="U94" t="n">
+        <v>5</v>
+      </c>
+      <c r="V94" t="n">
+        <v>0</v>
+      </c>
+      <c r="W94" t="s"/>
+      <c r="X94" t="s"/>
+      <c r="Y94" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="n">
+        <v>36476</v>
+      </c>
+      <c r="B95" t="s"/>
+      <c r="C95" t="s"/>
+      <c r="D95" t="n">
+        <v>94</v>
+      </c>
+      <c r="E95" t="s">
+        <v>44</v>
+      </c>
+      <c r="F95" t="s">
+        <v>663</v>
+      </c>
+      <c r="G95" t="s">
+        <v>46</v>
+      </c>
+      <c r="H95" t="s">
+        <v>47</v>
+      </c>
+      <c r="I95" t="s">
+        <v>664</v>
+      </c>
+      <c r="J95" t="s">
+        <v>665</v>
+      </c>
+      <c r="K95" t="s">
+        <v>666</v>
+      </c>
+      <c r="L95" t="s">
+        <v>667</v>
+      </c>
+      <c r="M95" t="n">
+        <v>1</v>
+      </c>
+      <c r="N95" t="s">
+        <v>668</v>
+      </c>
+      <c r="O95" t="s">
+        <v>53</v>
+      </c>
+      <c r="P95" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q95" t="s"/>
+      <c r="R95" t="s"/>
+      <c r="S95" t="n">
+        <v>1</v>
+      </c>
+      <c r="T95" t="s"/>
+      <c r="U95" t="n">
+        <v>3</v>
+      </c>
+      <c r="V95" t="n">
+        <v>0</v>
+      </c>
+      <c r="W95" t="s"/>
+      <c r="X95" t="s"/>
+      <c r="Y95" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="n">
+        <v>36476</v>
+      </c>
+      <c r="B96" t="s"/>
+      <c r="C96" t="s"/>
+      <c r="D96" t="n">
+        <v>95</v>
+      </c>
+      <c r="E96" t="s">
+        <v>44</v>
+      </c>
+      <c r="F96" t="s">
+        <v>669</v>
+      </c>
+      <c r="G96" t="s">
+        <v>46</v>
+      </c>
+      <c r="H96" t="s">
+        <v>47</v>
+      </c>
+      <c r="I96" t="s">
+        <v>670</v>
+      </c>
+      <c r="J96" t="s">
+        <v>665</v>
+      </c>
+      <c r="K96" t="s">
+        <v>671</v>
+      </c>
+      <c r="L96" t="s">
+        <v>672</v>
+      </c>
+      <c r="M96" t="n">
+        <v>5</v>
+      </c>
+      <c r="N96" t="s">
+        <v>673</v>
+      </c>
+      <c r="O96" t="s">
+        <v>53</v>
+      </c>
+      <c r="P96" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q96" t="s"/>
+      <c r="R96" t="s"/>
+      <c r="S96" t="n">
+        <v>5</v>
+      </c>
+      <c r="T96" t="s"/>
+      <c r="U96" t="n">
+        <v>5</v>
+      </c>
+      <c r="V96" t="n">
+        <v>0</v>
+      </c>
+      <c r="W96" t="s"/>
+      <c r="X96" t="s"/>
+      <c r="Y96" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="n">
+        <v>36476</v>
+      </c>
+      <c r="B97" t="s"/>
+      <c r="C97" t="s"/>
+      <c r="D97" t="n">
+        <v>96</v>
+      </c>
+      <c r="E97" t="s">
+        <v>44</v>
+      </c>
+      <c r="F97" t="s">
+        <v>674</v>
+      </c>
+      <c r="G97" t="s">
+        <v>46</v>
+      </c>
+      <c r="H97" t="s">
+        <v>47</v>
+      </c>
+      <c r="I97" t="s">
+        <v>675</v>
+      </c>
+      <c r="J97" t="s">
+        <v>665</v>
+      </c>
+      <c r="K97" t="s">
+        <v>676</v>
+      </c>
+      <c r="L97" t="s">
+        <v>677</v>
+      </c>
+      <c r="M97" t="n">
+        <v>5</v>
+      </c>
+      <c r="N97" t="s">
+        <v>678</v>
+      </c>
+      <c r="O97" t="s">
+        <v>53</v>
+      </c>
+      <c r="P97" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q97" t="s"/>
+      <c r="R97" t="s"/>
+      <c r="S97" t="n">
+        <v>4</v>
+      </c>
+      <c r="T97" t="s"/>
+      <c r="U97" t="n">
+        <v>5</v>
+      </c>
+      <c r="V97" t="n">
+        <v>0</v>
+      </c>
+      <c r="W97" t="s"/>
+      <c r="X97" t="s"/>
+      <c r="Y97" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="n">
+        <v>36476</v>
+      </c>
+      <c r="B98" t="s"/>
+      <c r="C98" t="s"/>
+      <c r="D98" t="n">
+        <v>97</v>
+      </c>
+      <c r="E98" t="s">
+        <v>44</v>
+      </c>
+      <c r="F98" t="s">
+        <v>679</v>
+      </c>
+      <c r="G98" t="s">
+        <v>46</v>
+      </c>
+      <c r="H98" t="s">
+        <v>47</v>
+      </c>
+      <c r="I98" t="s">
+        <v>680</v>
+      </c>
+      <c r="J98" t="s">
+        <v>681</v>
+      </c>
+      <c r="K98" t="s">
+        <v>682</v>
+      </c>
+      <c r="L98" t="s">
+        <v>683</v>
+      </c>
+      <c r="M98" t="n">
+        <v>5</v>
+      </c>
+      <c r="N98" t="s">
+        <v>684</v>
+      </c>
+      <c r="O98" t="s">
+        <v>75</v>
+      </c>
+      <c r="P98" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q98" t="s"/>
+      <c r="R98" t="s"/>
+      <c r="S98" t="n">
+        <v>5</v>
+      </c>
+      <c r="T98" t="s"/>
+      <c r="U98" t="n">
+        <v>5</v>
+      </c>
+      <c r="V98" t="n">
+        <v>0</v>
+      </c>
+      <c r="W98" t="s"/>
+      <c r="X98" t="s"/>
+      <c r="Y98" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="n">
+        <v>36476</v>
+      </c>
+      <c r="B99" t="s"/>
+      <c r="C99" t="s"/>
+      <c r="D99" t="n">
+        <v>98</v>
+      </c>
+      <c r="E99" t="s">
+        <v>44</v>
+      </c>
+      <c r="F99" t="s">
+        <v>686</v>
+      </c>
+      <c r="G99" t="s">
+        <v>46</v>
+      </c>
+      <c r="H99" t="s">
+        <v>47</v>
+      </c>
+      <c r="I99" t="s">
+        <v>687</v>
+      </c>
+      <c r="J99" t="s">
+        <v>688</v>
+      </c>
+      <c r="K99" t="s">
+        <v>689</v>
+      </c>
+      <c r="L99" t="s">
+        <v>690</v>
+      </c>
+      <c r="M99" t="n">
+        <v>5</v>
+      </c>
+      <c r="N99" t="s">
+        <v>673</v>
+      </c>
+      <c r="O99" t="s">
+        <v>75</v>
+      </c>
+      <c r="P99" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q99" t="s"/>
+      <c r="R99" t="s"/>
+      <c r="S99" t="n">
+        <v>5</v>
+      </c>
+      <c r="T99" t="s"/>
+      <c r="U99" t="n">
+        <v>5</v>
+      </c>
+      <c r="V99" t="n">
+        <v>0</v>
+      </c>
+      <c r="W99" t="s"/>
+      <c r="X99" t="s"/>
+      <c r="Y99" t="s">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="n">
+        <v>36476</v>
+      </c>
+      <c r="B100" t="s"/>
+      <c r="C100" t="s"/>
+      <c r="D100" t="n">
+        <v>99</v>
+      </c>
+      <c r="E100" t="s">
+        <v>44</v>
+      </c>
+      <c r="F100" t="s">
+        <v>691</v>
+      </c>
+      <c r="G100" t="s">
+        <v>46</v>
+      </c>
+      <c r="H100" t="s">
+        <v>47</v>
+      </c>
+      <c r="I100" t="s">
+        <v>692</v>
+      </c>
+      <c r="J100" t="s">
+        <v>693</v>
+      </c>
+      <c r="K100" t="s">
+        <v>694</v>
+      </c>
+      <c r="L100" t="s">
+        <v>695</v>
+      </c>
+      <c r="M100" t="n">
+        <v>5</v>
+      </c>
+      <c r="N100" t="s">
+        <v>696</v>
+      </c>
+      <c r="O100" t="s">
+        <v>53</v>
+      </c>
+      <c r="P100" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q100" t="n">
+        <v>5</v>
+      </c>
+      <c r="R100" t="n">
+        <v>5</v>
+      </c>
+      <c r="S100" t="n">
+        <v>5</v>
+      </c>
+      <c r="T100" t="s"/>
+      <c r="U100" t="n">
+        <v>5</v>
+      </c>
+      <c r="V100" t="n">
+        <v>0</v>
+      </c>
+      <c r="W100" t="s"/>
+      <c r="X100" t="s"/>
+      <c r="Y100" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="n">
+        <v>36476</v>
+      </c>
+      <c r="B101" t="s"/>
+      <c r="C101" t="s"/>
+      <c r="D101" t="n">
+        <v>100</v>
+      </c>
+      <c r="E101" t="s">
+        <v>44</v>
+      </c>
+      <c r="F101" t="s">
+        <v>697</v>
+      </c>
+      <c r="G101" t="s">
+        <v>46</v>
+      </c>
+      <c r="H101" t="s">
+        <v>47</v>
+      </c>
+      <c r="I101" t="s">
+        <v>698</v>
+      </c>
+      <c r="J101" t="s">
+        <v>699</v>
+      </c>
+      <c r="K101" t="s">
+        <v>700</v>
+      </c>
+      <c r="L101" t="s">
+        <v>701</v>
+      </c>
+      <c r="M101" t="n">
+        <v>3</v>
+      </c>
+      <c r="N101" t="s">
+        <v>702</v>
+      </c>
+      <c r="O101" t="s">
+        <v>75</v>
+      </c>
+      <c r="P101" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q101" t="n">
+        <v>3</v>
+      </c>
+      <c r="R101" t="n">
+        <v>4</v>
+      </c>
+      <c r="S101" t="n">
+        <v>3</v>
+      </c>
+      <c r="T101" t="s"/>
+      <c r="U101" t="n">
+        <v>3</v>
+      </c>
+      <c r="V101" t="n">
+        <v>0</v>
+      </c>
+      <c r="W101" t="s"/>
+      <c r="X101" t="s"/>
+      <c r="Y101" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="n">
+        <v>36476</v>
+      </c>
+      <c r="B102" t="s"/>
+      <c r="C102" t="s"/>
+      <c r="D102" t="n">
+        <v>101</v>
+      </c>
+      <c r="E102" t="s">
+        <v>44</v>
+      </c>
+      <c r="F102" t="s">
+        <v>704</v>
+      </c>
+      <c r="G102" t="s">
+        <v>46</v>
+      </c>
+      <c r="H102" t="s">
+        <v>47</v>
+      </c>
+      <c r="I102" t="s">
+        <v>705</v>
+      </c>
+      <c r="J102" t="s">
+        <v>706</v>
+      </c>
+      <c r="K102" t="s">
+        <v>707</v>
+      </c>
+      <c r="L102" t="s">
+        <v>708</v>
+      </c>
+      <c r="M102" t="n">
+        <v>5</v>
+      </c>
+      <c r="N102" t="s">
+        <v>709</v>
+      </c>
+      <c r="O102" t="s">
+        <v>75</v>
+      </c>
+      <c r="P102" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q102" t="n">
+        <v>4</v>
+      </c>
+      <c r="R102" t="n">
+        <v>5</v>
+      </c>
+      <c r="S102" t="n">
+        <v>3</v>
+      </c>
+      <c r="T102" t="s"/>
+      <c r="U102" t="n">
+        <v>4</v>
+      </c>
+      <c r="V102" t="n">
+        <v>0</v>
+      </c>
+      <c r="W102" t="s"/>
+      <c r="X102" t="s"/>
+      <c r="Y102" t="s">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="n">
+        <v>36476</v>
+      </c>
+      <c r="B103" t="s"/>
+      <c r="C103" t="s"/>
+      <c r="D103" t="n">
+        <v>102</v>
+      </c>
+      <c r="E103" t="s">
+        <v>44</v>
+      </c>
+      <c r="F103" t="s">
+        <v>711</v>
+      </c>
+      <c r="G103" t="s">
+        <v>46</v>
+      </c>
+      <c r="H103" t="s">
+        <v>47</v>
+      </c>
+      <c r="I103" t="s">
+        <v>712</v>
+      </c>
+      <c r="J103" t="s">
+        <v>713</v>
+      </c>
+      <c r="K103" t="s">
+        <v>714</v>
+      </c>
+      <c r="L103" t="s">
+        <v>715</v>
+      </c>
+      <c r="M103" t="n">
+        <v>5</v>
+      </c>
+      <c r="N103" t="s">
+        <v>716</v>
+      </c>
+      <c r="O103" t="s">
+        <v>53</v>
+      </c>
+      <c r="P103" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q103" t="n">
+        <v>5</v>
+      </c>
+      <c r="R103" t="n">
+        <v>5</v>
+      </c>
+      <c r="S103" t="n">
+        <v>5</v>
+      </c>
+      <c r="T103" t="s"/>
+      <c r="U103" t="n">
+        <v>5</v>
+      </c>
+      <c r="V103" t="n">
+        <v>0</v>
+      </c>
+      <c r="W103" t="s"/>
+      <c r="X103" t="s"/>
+      <c r="Y103" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="n">
+        <v>36476</v>
+      </c>
+      <c r="B104" t="s"/>
+      <c r="C104" t="s"/>
+      <c r="D104" t="n">
+        <v>103</v>
+      </c>
+      <c r="E104" t="s">
+        <v>44</v>
+      </c>
+      <c r="F104" t="s">
+        <v>717</v>
+      </c>
+      <c r="G104" t="s">
+        <v>46</v>
+      </c>
+      <c r="H104" t="s">
+        <v>47</v>
+      </c>
+      <c r="I104" t="s">
+        <v>718</v>
+      </c>
+      <c r="J104" t="s">
+        <v>719</v>
+      </c>
+      <c r="K104" t="s">
+        <v>720</v>
+      </c>
+      <c r="L104" t="s">
+        <v>721</v>
+      </c>
+      <c r="M104" t="n">
+        <v>5</v>
+      </c>
+      <c r="N104" t="s"/>
+      <c r="O104" t="s"/>
+      <c r="P104" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q104" t="n">
+        <v>5</v>
+      </c>
+      <c r="R104" t="n">
+        <v>5</v>
+      </c>
+      <c r="S104" t="n">
+        <v>5</v>
+      </c>
+      <c r="T104" t="s"/>
+      <c r="U104" t="n">
+        <v>5</v>
+      </c>
+      <c r="V104" t="n">
+        <v>0</v>
+      </c>
+      <c r="W104" t="s"/>
+      <c r="X104" t="s"/>
+      <c r="Y104" t="s">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="n">
+        <v>36476</v>
+      </c>
+      <c r="B105" t="s"/>
+      <c r="C105" t="s"/>
+      <c r="D105" t="n">
+        <v>104</v>
+      </c>
+      <c r="E105" t="s">
+        <v>44</v>
+      </c>
+      <c r="F105" t="s">
+        <v>722</v>
+      </c>
+      <c r="G105" t="s">
+        <v>46</v>
+      </c>
+      <c r="H105" t="s">
+        <v>47</v>
+      </c>
+      <c r="I105" t="s">
+        <v>723</v>
+      </c>
+      <c r="J105" t="s">
+        <v>724</v>
+      </c>
+      <c r="K105" t="s">
+        <v>725</v>
+      </c>
+      <c r="L105" t="s">
+        <v>726</v>
+      </c>
+      <c r="M105" t="n">
+        <v>4</v>
+      </c>
+      <c r="N105" t="s">
+        <v>727</v>
+      </c>
+      <c r="O105" t="s">
+        <v>61</v>
+      </c>
+      <c r="P105" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q105" t="n">
+        <v>4</v>
+      </c>
+      <c r="R105" t="n">
+        <v>5</v>
+      </c>
+      <c r="S105" t="n">
+        <v>4</v>
+      </c>
+      <c r="T105" t="s"/>
+      <c r="U105" t="n">
+        <v>3</v>
+      </c>
+      <c r="V105" t="n">
+        <v>0</v>
+      </c>
+      <c r="W105" t="s"/>
+      <c r="X105" t="s"/>
+      <c r="Y105" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="n">
+        <v>36476</v>
+      </c>
+      <c r="B106" t="s"/>
+      <c r="C106" t="s"/>
+      <c r="D106" t="n">
+        <v>105</v>
+      </c>
+      <c r="E106" t="s">
+        <v>44</v>
+      </c>
+      <c r="F106" t="s">
+        <v>729</v>
+      </c>
+      <c r="G106" t="s">
+        <v>46</v>
+      </c>
+      <c r="H106" t="s">
+        <v>47</v>
+      </c>
+      <c r="I106" t="s">
+        <v>730</v>
+      </c>
+      <c r="J106" t="s">
+        <v>731</v>
+      </c>
+      <c r="K106" t="s">
+        <v>732</v>
+      </c>
+      <c r="L106" t="s">
+        <v>733</v>
+      </c>
+      <c r="M106" t="n">
+        <v>5</v>
+      </c>
+      <c r="N106" t="s">
+        <v>734</v>
+      </c>
+      <c r="O106" t="s">
+        <v>61</v>
+      </c>
+      <c r="P106" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q106" t="n">
+        <v>5</v>
+      </c>
+      <c r="R106" t="n">
+        <v>5</v>
+      </c>
+      <c r="S106" t="n">
+        <v>5</v>
+      </c>
+      <c r="T106" t="s"/>
+      <c r="U106" t="n">
+        <v>5</v>
+      </c>
+      <c r="V106" t="n">
+        <v>0</v>
+      </c>
+      <c r="W106" t="s"/>
+      <c r="X106" t="s"/>
+      <c r="Y106" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="n">
+        <v>36476</v>
+      </c>
+      <c r="B107" t="s"/>
+      <c r="C107" t="s"/>
+      <c r="D107" t="n">
+        <v>106</v>
+      </c>
+      <c r="E107" t="s">
+        <v>44</v>
+      </c>
+      <c r="F107" t="s">
+        <v>736</v>
+      </c>
+      <c r="G107" t="s">
+        <v>46</v>
+      </c>
+      <c r="H107" t="s">
+        <v>47</v>
+      </c>
+      <c r="I107" t="s">
+        <v>737</v>
+      </c>
+      <c r="J107" t="s">
+        <v>738</v>
+      </c>
+      <c r="K107" t="s">
+        <v>739</v>
+      </c>
+      <c r="L107" t="s">
+        <v>740</v>
+      </c>
+      <c r="M107" t="n">
+        <v>1</v>
+      </c>
+      <c r="N107" t="s">
+        <v>741</v>
+      </c>
+      <c r="O107" t="s">
+        <v>61</v>
+      </c>
+      <c r="P107" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q107" t="n">
+        <v>1</v>
+      </c>
+      <c r="R107" t="n">
+        <v>5</v>
+      </c>
+      <c r="S107" t="n">
+        <v>1</v>
+      </c>
+      <c r="T107" t="s"/>
+      <c r="U107" t="n">
+        <v>1</v>
+      </c>
+      <c r="V107" t="n">
+        <v>0</v>
+      </c>
+      <c r="W107" t="s"/>
+      <c r="X107" t="s"/>
+      <c r="Y107" t="s">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="n">
+        <v>36476</v>
+      </c>
+      <c r="B108" t="s"/>
+      <c r="C108" t="s"/>
+      <c r="D108" t="n">
+        <v>107</v>
+      </c>
+      <c r="E108" t="s">
+        <v>44</v>
+      </c>
+      <c r="F108" t="s">
+        <v>743</v>
+      </c>
+      <c r="G108" t="s">
+        <v>46</v>
+      </c>
+      <c r="H108" t="s">
+        <v>47</v>
+      </c>
+      <c r="I108" t="s">
+        <v>744</v>
+      </c>
+      <c r="J108" t="s">
+        <v>745</v>
+      </c>
+      <c r="K108" t="s">
+        <v>746</v>
+      </c>
+      <c r="L108" t="s">
+        <v>747</v>
+      </c>
+      <c r="M108" t="n">
+        <v>1</v>
+      </c>
+      <c r="N108" t="s">
+        <v>748</v>
+      </c>
+      <c r="O108" t="s">
+        <v>75</v>
+      </c>
+      <c r="P108" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q108" t="n">
+        <v>1</v>
+      </c>
+      <c r="R108" t="n">
+        <v>3</v>
+      </c>
+      <c r="S108" t="n">
+        <v>1</v>
+      </c>
+      <c r="T108" t="s"/>
+      <c r="U108" t="n">
+        <v>3</v>
+      </c>
+      <c r="V108" t="n">
+        <v>0</v>
+      </c>
+      <c r="W108" t="s"/>
+      <c r="X108" t="s"/>
+      <c r="Y108" t="s">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="n">
+        <v>36476</v>
+      </c>
+      <c r="B109" t="s"/>
+      <c r="C109" t="s"/>
+      <c r="D109" t="n">
+        <v>108</v>
+      </c>
+      <c r="E109" t="s">
+        <v>44</v>
+      </c>
+      <c r="F109" t="s">
+        <v>750</v>
+      </c>
+      <c r="G109" t="s">
+        <v>46</v>
+      </c>
+      <c r="H109" t="s">
+        <v>47</v>
+      </c>
+      <c r="I109" t="s">
+        <v>751</v>
+      </c>
+      <c r="J109" t="s">
+        <v>752</v>
+      </c>
+      <c r="K109" t="s">
+        <v>753</v>
+      </c>
+      <c r="L109" t="s">
+        <v>754</v>
+      </c>
+      <c r="M109" t="n">
+        <v>4</v>
+      </c>
+      <c r="N109" t="s">
+        <v>748</v>
+      </c>
+      <c r="O109" t="s">
+        <v>75</v>
+      </c>
+      <c r="P109" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q109" t="n">
+        <v>4</v>
+      </c>
+      <c r="R109" t="n">
+        <v>3</v>
+      </c>
+      <c r="S109" t="n">
+        <v>4</v>
+      </c>
+      <c r="T109" t="s"/>
+      <c r="U109" t="n">
+        <v>4</v>
+      </c>
+      <c r="V109" t="n">
+        <v>0</v>
+      </c>
+      <c r="W109" t="s"/>
+      <c r="X109" t="s"/>
+      <c r="Y109" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="n">
+        <v>36476</v>
+      </c>
+      <c r="B110" t="s"/>
+      <c r="C110" t="s"/>
+      <c r="D110" t="n">
+        <v>109</v>
+      </c>
+      <c r="E110" t="s">
+        <v>44</v>
+      </c>
+      <c r="F110" t="s">
+        <v>755</v>
+      </c>
+      <c r="G110" t="s">
+        <v>46</v>
+      </c>
+      <c r="H110" t="s">
+        <v>47</v>
+      </c>
+      <c r="I110" t="s">
+        <v>756</v>
+      </c>
+      <c r="J110" t="s">
+        <v>757</v>
+      </c>
+      <c r="K110" t="s">
+        <v>758</v>
+      </c>
+      <c r="L110" t="s">
+        <v>759</v>
+      </c>
+      <c r="M110" t="n">
+        <v>5</v>
+      </c>
+      <c r="N110" t="s">
+        <v>760</v>
+      </c>
+      <c r="O110" t="s">
+        <v>75</v>
+      </c>
+      <c r="P110" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q110" t="n">
+        <v>5</v>
+      </c>
+      <c r="R110" t="n">
+        <v>5</v>
+      </c>
+      <c r="S110" t="n">
+        <v>4</v>
+      </c>
+      <c r="T110" t="s"/>
+      <c r="U110" t="n">
+        <v>5</v>
+      </c>
+      <c r="V110" t="n">
+        <v>0</v>
+      </c>
+      <c r="W110" t="s"/>
+      <c r="X110" t="s"/>
+      <c r="Y110" t="s">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="n">
+        <v>36476</v>
+      </c>
+      <c r="B111" t="s"/>
+      <c r="C111" t="s"/>
+      <c r="D111" t="n">
+        <v>110</v>
+      </c>
+      <c r="E111" t="s">
+        <v>44</v>
+      </c>
+      <c r="F111" t="s">
+        <v>761</v>
+      </c>
+      <c r="G111" t="s">
+        <v>46</v>
+      </c>
+      <c r="H111" t="s">
+        <v>47</v>
+      </c>
+      <c r="I111" t="s">
+        <v>762</v>
+      </c>
+      <c r="J111" t="s">
+        <v>763</v>
+      </c>
+      <c r="K111" t="s">
+        <v>764</v>
+      </c>
+      <c r="L111" t="s">
+        <v>765</v>
+      </c>
+      <c r="M111" t="n">
+        <v>2</v>
+      </c>
+      <c r="N111" t="s">
+        <v>766</v>
+      </c>
+      <c r="O111" t="s">
+        <v>61</v>
+      </c>
+      <c r="P111" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q111" t="n">
+        <v>3</v>
+      </c>
+      <c r="R111" t="n">
+        <v>3</v>
+      </c>
+      <c r="S111" t="n">
+        <v>4</v>
+      </c>
+      <c r="T111" t="s"/>
+      <c r="U111" t="n">
+        <v>1</v>
+      </c>
+      <c r="V111" t="n">
+        <v>0</v>
+      </c>
+      <c r="W111" t="s"/>
+      <c r="X111" t="s"/>
+      <c r="Y111" t="s">
+        <v>767</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="n">
+        <v>36476</v>
+      </c>
+      <c r="B112" t="s"/>
+      <c r="C112" t="s"/>
+      <c r="D112" t="n">
+        <v>111</v>
+      </c>
+      <c r="E112" t="s">
+        <v>44</v>
+      </c>
+      <c r="F112" t="s">
+        <v>768</v>
+      </c>
+      <c r="G112" t="s">
+        <v>46</v>
+      </c>
+      <c r="H112" t="s">
+        <v>47</v>
+      </c>
+      <c r="I112" t="s">
+        <v>769</v>
+      </c>
+      <c r="J112" t="s">
+        <v>770</v>
+      </c>
+      <c r="K112" t="s">
+        <v>771</v>
+      </c>
+      <c r="L112" t="s">
+        <v>772</v>
+      </c>
+      <c r="M112" t="n">
+        <v>5</v>
+      </c>
+      <c r="N112" t="s">
+        <v>773</v>
+      </c>
+      <c r="O112" t="s">
+        <v>75</v>
+      </c>
+      <c r="P112" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q112" t="n">
+        <v>5</v>
+      </c>
+      <c r="R112" t="n">
+        <v>5</v>
+      </c>
+      <c r="S112" t="n">
+        <v>5</v>
+      </c>
+      <c r="T112" t="s"/>
+      <c r="U112" t="n">
+        <v>5</v>
+      </c>
+      <c r="V112" t="n">
+        <v>0</v>
+      </c>
+      <c r="W112" t="s"/>
+      <c r="X112" t="s"/>
+      <c r="Y112" t="s">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="n">
+        <v>36476</v>
+      </c>
+      <c r="B113" t="s"/>
+      <c r="C113" t="s"/>
+      <c r="D113" t="n">
+        <v>112</v>
+      </c>
+      <c r="E113" t="s">
+        <v>44</v>
+      </c>
+      <c r="F113" t="s">
+        <v>775</v>
+      </c>
+      <c r="G113" t="s">
+        <v>46</v>
+      </c>
+      <c r="H113" t="s">
+        <v>47</v>
+      </c>
+      <c r="I113" t="s">
+        <v>776</v>
+      </c>
+      <c r="J113" t="s">
+        <v>777</v>
+      </c>
+      <c r="K113" t="s">
+        <v>778</v>
+      </c>
+      <c r="L113" t="s">
+        <v>779</v>
+      </c>
+      <c r="M113" t="n">
+        <v>1</v>
+      </c>
+      <c r="N113" t="s">
+        <v>780</v>
+      </c>
+      <c r="O113" t="s">
+        <v>75</v>
+      </c>
+      <c r="P113" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q113" t="n">
+        <v>1</v>
+      </c>
+      <c r="R113" t="n">
+        <v>1</v>
+      </c>
+      <c r="S113" t="n">
+        <v>1</v>
+      </c>
+      <c r="T113" t="s"/>
+      <c r="U113" t="n">
+        <v>1</v>
+      </c>
+      <c r="V113" t="n">
+        <v>0</v>
+      </c>
+      <c r="W113" t="s"/>
+      <c r="X113" t="s"/>
+      <c r="Y113" t="s">
+        <v>781</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="n">
+        <v>36476</v>
+      </c>
+      <c r="B114" t="s"/>
+      <c r="C114" t="s"/>
+      <c r="D114" t="n">
+        <v>113</v>
+      </c>
+      <c r="E114" t="s">
+        <v>44</v>
+      </c>
+      <c r="F114" t="s">
+        <v>782</v>
+      </c>
+      <c r="G114" t="s">
+        <v>46</v>
+      </c>
+      <c r="H114" t="s">
+        <v>47</v>
+      </c>
+      <c r="I114" t="s">
+        <v>783</v>
+      </c>
+      <c r="J114" t="s">
+        <v>784</v>
+      </c>
+      <c r="K114" t="s">
+        <v>785</v>
+      </c>
+      <c r="L114" t="s">
+        <v>786</v>
+      </c>
+      <c r="M114" t="n">
+        <v>1</v>
+      </c>
+      <c r="N114" t="s">
+        <v>787</v>
+      </c>
+      <c r="O114" t="s">
+        <v>53</v>
+      </c>
+      <c r="P114" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q114" t="n">
+        <v>1</v>
+      </c>
+      <c r="R114" t="n">
+        <v>5</v>
+      </c>
+      <c r="S114" t="n">
+        <v>1</v>
+      </c>
+      <c r="T114" t="s"/>
+      <c r="U114" t="n">
+        <v>1</v>
+      </c>
+      <c r="V114" t="n">
+        <v>0</v>
+      </c>
+      <c r="W114" t="s"/>
+      <c r="X114" t="s"/>
+      <c r="Y114" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="n">
+        <v>36476</v>
+      </c>
+      <c r="B115" t="s"/>
+      <c r="C115" t="s"/>
+      <c r="D115" t="n">
+        <v>114</v>
+      </c>
+      <c r="E115" t="s">
+        <v>44</v>
+      </c>
+      <c r="F115" t="s">
+        <v>789</v>
+      </c>
+      <c r="G115" t="s">
+        <v>46</v>
+      </c>
+      <c r="H115" t="s">
+        <v>47</v>
+      </c>
+      <c r="I115" t="s">
+        <v>790</v>
+      </c>
+      <c r="J115" t="s">
+        <v>791</v>
+      </c>
+      <c r="K115" t="s">
+        <v>792</v>
+      </c>
+      <c r="L115" t="s">
+        <v>793</v>
+      </c>
+      <c r="M115" t="n">
+        <v>2</v>
+      </c>
+      <c r="N115" t="s"/>
+      <c r="O115" t="s"/>
+      <c r="P115" t="s"/>
+      <c r="Q115" t="s"/>
+      <c r="R115" t="s"/>
+      <c r="S115" t="s"/>
+      <c r="T115" t="s"/>
+      <c r="U115" t="s"/>
+      <c r="V115" t="n">
+        <v>0</v>
+      </c>
+      <c r="W115" t="s"/>
+      <c r="X115" t="s"/>
+      <c r="Y115" t="s">
+        <v>793</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="n">
+        <v>36476</v>
+      </c>
+      <c r="B116" t="s"/>
+      <c r="C116" t="s"/>
+      <c r="D116" t="n">
+        <v>115</v>
+      </c>
+      <c r="E116" t="s">
+        <v>44</v>
+      </c>
+      <c r="F116" t="s">
+        <v>794</v>
+      </c>
+      <c r="G116" t="s">
+        <v>46</v>
+      </c>
+      <c r="H116" t="s">
+        <v>47</v>
+      </c>
+      <c r="I116" t="s">
+        <v>795</v>
+      </c>
+      <c r="J116" t="s">
+        <v>796</v>
+      </c>
+      <c r="K116" t="s">
+        <v>797</v>
+      </c>
+      <c r="L116" t="s">
+        <v>798</v>
+      </c>
+      <c r="M116" t="n">
+        <v>5</v>
+      </c>
+      <c r="N116" t="s">
+        <v>799</v>
+      </c>
+      <c r="O116" t="s">
+        <v>53</v>
+      </c>
+      <c r="P116" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q116" t="n">
+        <v>5</v>
+      </c>
+      <c r="R116" t="s"/>
+      <c r="S116" t="n">
+        <v>5</v>
+      </c>
+      <c r="T116" t="s"/>
+      <c r="U116" t="n">
+        <v>5</v>
+      </c>
+      <c r="V116" t="n">
+        <v>0</v>
+      </c>
+      <c r="W116" t="s"/>
+      <c r="X116" t="s"/>
+      <c r="Y116" t="s">
+        <v>798</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="n">
+        <v>36476</v>
+      </c>
+      <c r="B117" t="s"/>
+      <c r="C117" t="s"/>
+      <c r="D117" t="n">
+        <v>116</v>
+      </c>
+      <c r="E117" t="s">
+        <v>44</v>
+      </c>
+      <c r="F117" t="s">
+        <v>800</v>
+      </c>
+      <c r="G117" t="s">
+        <v>46</v>
+      </c>
+      <c r="H117" t="s">
+        <v>47</v>
+      </c>
+      <c r="I117" t="s">
+        <v>801</v>
+      </c>
+      <c r="J117" t="s">
+        <v>802</v>
+      </c>
+      <c r="K117" t="s">
+        <v>803</v>
+      </c>
+      <c r="L117" t="s">
+        <v>804</v>
+      </c>
+      <c r="M117" t="n">
+        <v>2</v>
+      </c>
+      <c r="N117" t="s"/>
+      <c r="O117" t="s"/>
+      <c r="P117" t="s"/>
+      <c r="Q117" t="s"/>
+      <c r="R117" t="s"/>
+      <c r="S117" t="s"/>
+      <c r="T117" t="s"/>
+      <c r="U117" t="s"/>
+      <c r="V117" t="n">
+        <v>0</v>
+      </c>
+      <c r="W117" t="s"/>
+      <c r="X117" t="s"/>
+      <c r="Y117" t="s">
+        <v>805</v>
+      </c>
+    </row>
   </sheetData>
 </worksheet>
 </file>
--- a/data/hotels_by_city/Dallas/Dallas_shard_632.xlsx
+++ b/data/hotels_by_city/Dallas/Dallas_shard_632.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="806">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="919">
   <si>
     <t>STR#</t>
   </si>
@@ -150,6 +150,9 @@
     <t>response_text</t>
   </si>
   <si>
+    <t>RunHardTravel</t>
+  </si>
+  <si>
     <t>06/16/2018</t>
   </si>
   <si>
@@ -183,6 +186,9 @@
     <t>I stayed 3 nights, checking in on Monday and Checking out on ThursdayRoom 123B - Check In - Fairly quick, very little conversation or greeting.A - Room - Excellent size and cleanB+ - Bed - Some age to the mattress, but it wasn't terrible.  Good pillowsA - Shower - Plenty of hot water and pressureA - Restaurants - Lots of choices within walking distance and plenty more within a mile of drivingB - Running - Oversized sidewalk that you can take into a small development.  Has lights for running in the dark.D - Customer Service - Small requests were not addressed.  There were only 2 hangers in the closet.  I requested more my first night, second night and then realized I wasn't getting any hangers.  No TV channel guide and it may sound small, but there was only one trash can in the room.  I felt like I was inconveniencing the staff.There was nothing horribly wrong with this hotel, they just didn't seem happy to have you staying with them.  If you are only there for one night, you will have no issue.  Suggestion - move the smoking away from the front door.  The lobby smells like smoke, you can't walk in or out the front without walking through smoke.Grade B (this would be an A, if not for the service)More</t>
   </si>
   <si>
+    <t>ghanshyamn2017</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d109570-r574272082-Quality_Suites_North_Galleria-Addison_Texas.html</t>
   </si>
   <si>
@@ -204,6 +210,9 @@
     <t xml:space="preserve"> traveled as a couple</t>
   </si>
   <si>
+    <t>greatworldtravels</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d109570-r574191677-Quality_Suites_North_Galleria-Addison_Texas.html</t>
   </si>
   <si>
@@ -225,6 +234,9 @@
     <t>After having arrived much earlier than expected from an exhaustive overnight flight, without a rental car, and in critical need of a phone card and assistance to help relocate my luggage from storage, Shakil (who is the owner) immediately jumped in and offered to drive me on my important errands, even prior to checking in! For that personal "can do" attitude alone, I happily rate this hotel 5 stars.  I stayed here for nearly one month.This is a pet friendly hotel, and although I did not have a pet, it was comforting to see how many guests enjoyed having their pets with their families.  The is also an indoor pool, and it was nice to see it was an added bonus.At the front desk, Darius deserves a special shout out too! His professionalism, kindness, and can-do attitude made my stay so much more enjoyable!As far as the hotel itself, it is not new, and a bit worn, but it was just fine for me to call home for nearly one month.I would definitely stay here again.More</t>
   </si>
   <si>
+    <t>Lori R</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d109570-r563742113-Quality_Suites_North_Galleria-Addison_Texas.html</t>
   </si>
   <si>
@@ -246,6 +258,9 @@
     <t xml:space="preserve"> traveled with family</t>
   </si>
   <si>
+    <t>rboykins71</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d109570-r561120666-Quality_Suites_North_Galleria-Addison_Texas.html</t>
   </si>
   <si>
@@ -261,6 +276,9 @@
     <t>This place is hard to find.  The Customer Service is terrible.  The check in clerk was sitting the entire time.  The lobby was full of DUST.  There are not enough plugs for a business traveler.  The TV channels are a mystery.  The hotel is noisy and outdated.  The security is not that well.  The doors are always propped open.</t>
   </si>
   <si>
+    <t>724blairsville</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d109570-r561096799-Quality_Suites_North_Galleria-Addison_Texas.html</t>
   </si>
   <si>
@@ -276,6 +294,9 @@
     <t>When I checked in late on 2/11/18, I was met with a disturbing young man behind the desk.  He had on a hoodie (with the hood up), a torn denim jacket and a lanyard around his neck that said "Shut the f___ up".  I was shocked!  He handed me a piece of paper that had been drawn on by a child and told me to put my tag # on it.  By the time I got my things in my room, I was very scared.  I will never stay here again and don't recommend that you do!  My window in my room was open when I got there (it was 30 degrees outside).  No blowdryer, the toilet needing fixing and the light above the sink in the bathroom didn't work.More</t>
   </si>
   <si>
+    <t>SYARBROUGH</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d109570-r533761028-Quality_Suites_North_Galleria-Addison_Texas.html</t>
   </si>
   <si>
@@ -292,6 +313,9 @@
   </si>
   <si>
     <t>October 2017</t>
+  </si>
+  <si>
+    <t>Wei1208</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d109570-r525481542-Quality_Suites_North_Galleria-Addison_Texas.html</t>
@@ -323,6 +347,9 @@
 The included breakfast buffet is the single feature that has us always coming back. With two waffle machines, we never had a wait, with accompanying syrup, fresh butter, cream cheese and various jams and jellies. A bread tray offers bagels and assorted danishes and muffins. There is a tray of instant oatmeal in various flavors. A cereal dispenser has varieties of raisin bran and Cheerios, and a choice of whole or 2% milk. Orange and apple juice, baskets of fresh apples and bananas, and a cold cabinet with high-quality flavored individual yogurts are also offered....We have stayed at this attractive, well-maintained and friendly hotel several times over the past year.The suites are very spacious and well-furnished. The bedroom area and the sitting area each have their own large flat-screen TVs, with a very good selection of TV channels. Each area can be closed off for privacy. The entire suite is fully carpeted, clean and stain-free. We really like the new and white towels.We like the bright sitting area in the lobby, the brand-new apple computer, linked to a super efficient printer. The front desk staff are extremely helpful.The 24 hour coffee in the lobby is always fresh. There is also an unusual selection of very high-quality imported English black and Japanese green Matcha teas. On our constant world-wide travels, it is rare to see this attention to free beverage quality in hotels of any price range.The included breakfast buffet is the single feature that has us always coming back. With two waffle machines, we never had a wait, with accompanying syrup, fresh butter, cream cheese and various jams and jellies. A bread tray offers bagels and assorted danishes and muffins. There is a tray of instant oatmeal in various flavors. A cereal dispenser has varieties of raisin bran and Cheerios, and a choice of whole or 2% milk. Orange and apple juice, baskets of fresh apples and bananas, and a cold cabinet with high-quality flavored individual yogurts are also offered.The breakfast highlight is the hot dish that is replenished every ten minutes with scrambled eggs and tasty breakfast sausages. The homemade southern-style hot biscuits and gravy are made in small quantities and constantly refilled. The staff of three smiling ladies works hard to keep the food and coffee coming out of the nearby kitchen fresh and hot.We like the gym very much, equipped with modern machines perfect for a full workout.But what is missing for us is a small outdoor seating and recreational area for the many pleasant days that also can appear. We are told the hotel is looking into providing this.Finally, we would like to mention the very high level of customer care. The owner, Shakil, who recently acquired the property, is fine-tuning the operations and making upgrades where necessary. He has never failed to respond in minutes to any of our requests, from replacing a coffee maker to giving us a lift to a nearby facility. He is initiating a limited shuttle service to accommodate visitors like us who come without our own cars. He is training his staff in his own image of service, and that is why we will keep returning to this hotel when we need to be in the Dallas area.More</t>
   </si>
   <si>
+    <t>Scott S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d109570-r522448219-Quality_Suites_North_Galleria-Addison_Texas.html</t>
   </si>
   <si>
@@ -336,6 +363,9 @@
   </si>
   <si>
     <t xml:space="preserve">We stayed here before and had a nice but dated room. This visit they gave us a accessible room and it was dirty and the bed was so worn it needed to be replaced. We were moved to the second floor with no issue and the bed was better. This hotel has gone down hill. The pool water was green and lacking chlorine. I wouldn't go in. The entire hotel is in deperate need of repairs. The main floor smells like dogs.  It's a shame because it has so much potential.  </t>
+  </si>
+  <si>
+    <t>sandra n</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d109570-r471757824-Quality_Suites_North_Galleria-Addison_Texas.html</t>
@@ -383,6 +413,9 @@
 The room is spacious. The housekeeping staff do try their best to clean the room on time  though sometimes there might be too many people checking out at the same time and too many people checking in very early. But whenever i asked them if they could do...The location is great as it is right in the middle of Belt Line, where you can walk to various parks, restaurants, and supermarkets such as whole food, kroger and walmart. The staff at the hotel are polite, helpful and always make their best to accommodate requests and needs. Whenever i need a shuttle even though it is not within the shuttle hours, as long as I asked them in advance , they would always make sure the shuttle would be there. The front desks are super friendly as they always help me with whatever I need for the room, greeted me with big smiles when they see me in and out. The breakfast is a big plus with three kinds of fresh fruits, plain bagels, white and brown bread, various fruity danishes, muffins, mini donuts, and cookies, freshly scrambled eggs , sausages or bacons, biscuits with gravy,. self-serving waffles.... Although sometimes it can be very crowed during breakfast hours, and the food does run out quickly no matter how fast the breakfast ladies tried to keep up with the pace, they always try to replenish the food as soon as possible. The room is spacious. The housekeeping staff do try their best to clean the room on time  though sometimes there might be too many people checking out at the same time and too many people checking in very early. But whenever i asked them if they could do a little bit more in terms of cleaning, they always did it and made my room clean.I have to for my almost three-month stay, I notice things needed to be improved or done. However, as long as I pointed out or asked, and if the staff can change or improve certain things, they would always make the efforts. I am glad i stayed in this hotel and made friends with the staff.. Definitely I would come back and stay again!More</t>
   </si>
   <si>
+    <t>Quinton P</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d109570-r462537762-Quality_Suites_North_Galleria-Addison_Texas.html</t>
   </si>
   <si>
@@ -396,6 +429,9 @@
   </si>
   <si>
     <t>Hello. My name is Quinton. I have been staying at this hotel for many years now. I really appreciate the customer service and friendly environment. The management is Great!! Mrs. Cala is the best!! She will make sure with the best of her ability to provide you and your family what you are asking for.. You don't see too many managers work around the clock like she does. Her her assistant Ms. Erica is a hard worker as well. I recommend this hotel to all that's traveling. Thanks Cala and Staff for all that you do!!</t>
+  </si>
+  <si>
+    <t>godsbooboo</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d109570-r443415485-Quality_Suites_North_Galleria-Addison_Texas.html</t>
@@ -425,6 +461,9 @@
 Housekeeping is less than adequate.  When we checked into our room the first night we saw crumbs on the floor by the bed, a crumpled up piece of paper by the trash can near the bed, and a dead yellow jacket on the floor below the window by the bed.  There was a 3-gallon trash can by the refrigerator area in our suite and one in the bathroom.  We had pizza and newspapers that did not fit inside those tiny trash cans, so we placed them on the floor in front of the trash can by the refrigerator.  Housekeeping did not pick up either the pizza box or the newspaper.  The next day we stacked both on top of the little trash can by the refrigerator and then both were picked up by housekeeping....This hotel is interesting.  Its address is on Belt LIne Road in Addison, but it is actually right on Arapaho Road in Addison.  Nonetheless, it is a superb location:  close to the North Dallas Tollway and other main arteries of Dallas.Our room was very quiet.  That was the positive. The first day/morning there I killed over 10 yellow jackets in our room.  We bought bug spray at that point and kept it in our room the duration of our four night stay.  We could see the yellow jackets in the tree outside our window.  We did bring it to the attention of the hotel staff.Housekeeping is less than adequate.  When we checked into our room the first night we saw crumbs on the floor by the bed, a crumpled up piece of paper by the trash can near the bed, and a dead yellow jacket on the floor below the window by the bed.  There was a 3-gallon trash can by the refrigerator area in our suite and one in the bathroom.  We had pizza and newspapers that did not fit inside those tiny trash cans, so we placed them on the floor in front of the trash can by the refrigerator.  Housekeeping did not pick up either the pizza box or the newspaper.  The next day we stacked both on top of the little trash can by the refrigerator and then both were picked up by housekeeping.Our rate for the room was low and we paid for what we received.  However, we will not stay in this hotel in the future when visiting family.More</t>
   </si>
   <si>
+    <t>BDavidsonTexas</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d109570-r440672991-Quality_Suites_North_Galleria-Addison_Texas.html</t>
   </si>
   <si>
@@ -440,6 +479,9 @@
     <t xml:space="preserve">While a decent location (very close to good restaurants), the hotel is run down and shabby.  There were marks on the room walls, there were shelves missing (with the screws still visible), the carpet was visibly worn, and the couch in the room was on its last legs.  The elevator was noticeably deteriorating.  On the positive side, the hotel allowed for pets... </t>
   </si>
   <si>
+    <t>HotelCriti</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d109570-r437583172-Quality_Suites_North_Galleria-Addison_Texas.html</t>
   </si>
   <si>
@@ -453,6 +495,9 @@
   </si>
   <si>
     <t>Stayed here a few years ago when it was Comfort Suites and it was pretty nice.Now it's changed into a Quality Suites (same family of Choice Hotels) and it's not the same. Stayed here November 2016.Pros: close to Dallas, reasonable rates, staff was nice CONS: DIRTY! Had on whites socks that I wore around room. They were black on the bottom like I had been outside just from the trim. Curtains were dirty. Rooms are just not cleaned and kept up like they should be. Beds are not very comfortable. Will go elsewhere next time.</t>
+  </si>
+  <si>
+    <t>kellybee7</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d109570-r408490926-Quality_Suites_North_Galleria-Addison_Texas.html</t>
@@ -482,6 +527,9 @@
 All in all, hotel is functional and comfortable enough but has a run-down feel. Has a lot of potential to be better if the rooms get updated, especially the sofa bed and sofa chair. The walls will look much better/updated if they use flat/matte paint instead of glossy (will hide flaws better), and if the white bulbs are replaced...Used my hotel points to stay 5 nights. We helped my daughter move in to her college dorm. Hotel address is confusing because it is not on Belt Line Rd but in Arapaho Rd. A lot of shops and restaurants nearby. We were able to do our college-list shopping at nearby Target, Kroger, Office Depot and Ikea. The building exterior, parking, lobby and breakfast area are quite nice. Only 1 elevator, but fast enough. Elevator interior badly needs updating. There's an indoor pool (we didn't use). Breakfast and wifi are great. The staff are all courteous and accommodating.We had a king suite with a French door dividing the bedroom from living area, which was nice. The door hinges are creaky though, loud enough to wake up light sleepers at night. Sofa bed &amp; sofa chair were quite wornout, saggy, with a musty smell. You can feel the springs of the sofa bed mattress when you lay down on it. Bathroom was quite comfortable. The kitchenette is great, fridge, microwave and coffeemaker. Hotel provided free coffee in the lobby 24 hours.All in all, hotel is functional and comfortable enough but has a run-down feel. Has a lot of potential to be better if the rooms get updated, especially the sofa bed and sofa chair. The walls will look much better/updated if they use flat/matte paint instead of glossy (will hide flaws better), and if the white bulbs are replaced with yellowish LED lighting.More</t>
   </si>
   <si>
+    <t>87CUBuff</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d109570-r408278195-Quality_Suites_North_Galleria-Addison_Texas.html</t>
   </si>
   <si>
@@ -497,6 +545,9 @@
     <t>Overall a nice hotel back off the road, so quiet.  Although it's near the local airport, we had no issues with the sounds of planes landing or taking off. The breakfast bar was very good. The only two issues were that there was a big cockroach in our room and there looked to be A patch of black mold under the bathroom sink above the trashcan. I informed the guy at the front desk upon checkout. He seemed somewhat ambivalent, but hopefully he reported it to his management so that those issues could be rectified.  This won't prevent us from coming back, but hopefully they will have addressed these issues throughout the hotel.More</t>
   </si>
   <si>
+    <t>Jorge C</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d109570-r400546617-Quality_Suites_North_Galleria-Addison_Texas.html</t>
   </si>
   <si>
@@ -512,6 +563,9 @@
     <t>Once again I find myself in Dallas Texas and once again I enjoyed staying at this location.  The people were very nice. The General Manager even though she hasn't seen me in a while, recongized me and said hello to me by name.  The place has a home feeling to it.  Once again this is my favorite hotel to stay in and of course I will e back again and again.</t>
   </si>
   <si>
+    <t>fwcsportnut</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d109570-r389784842-Quality_Suites_North_Galleria-Addison_Texas.html</t>
   </si>
   <si>
@@ -533,6 +587,9 @@
     <t xml:space="preserve"> traveled with friends</t>
   </si>
   <si>
+    <t>Anita767</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d109570-r368457000-Quality_Suites_North_Galleria-Addison_Texas.html</t>
   </si>
   <si>
@@ -551,6 +608,9 @@
     <t>April 2016</t>
   </si>
   <si>
+    <t>Ansari009</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d109570-r366037073-Quality_Suites_North_Galleria-Addison_Texas.html</t>
   </si>
   <si>
@@ -566,6 +626,9 @@
     <t>It was amazing, the room I booked was a king suite with Jacuzzi. Me and my wife loved it, a lovely relaxing stay at this hotel. The size of hot tub is perfect, I haven't seen a larger hot tub than this in any other Comfort Suites so far. We loved this property and would recommend to other guests.</t>
   </si>
   <si>
+    <t>Sue S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d109570-r355064879-Quality_Suites_North_Galleria-Addison_Texas.html</t>
   </si>
   <si>
@@ -593,6 +656,9 @@
     <t>Wanted to book at the Hilton close by but it was full.   Comfort Suites was the ONLY hotel available - Note to self, when it's the ONLY accommodation in the area available be forewarned.  Should have listened to my gut.This is an old property recently refurbished.  Nice try but no cigar.   In general it was a sloppy job - one example -- a lot of areas painted over without sanding - which in my view, set the tone for the rest of the work done.   Several large stains on the hallway carpet leading to our room did not make a good impression either.  Room was just OK.   The breakfast was a notch above toast and cereal.  Although the hotel is close to DART (Dallas Rapid Transit) and a small airport, the hotel was quiet.Staff were friendly enough but not especially helpful.  Fire alarm went off during the night which caused firemen to roam hallway checking out source for alarm.  Thankfully, no fire but left concerns over "glitch" in system.  "We don't know what happened" the front desk personnel said to my husband when he went downstairs and asked.  No communication to guests that fire alarm was a false alarm - didn't make me feel very safe.  I would not rebook.More</t>
   </si>
   <si>
+    <t>Cookymomster</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d109570-r353797004-Quality_Suites_North_Galleria-Addison_Texas.html</t>
   </si>
   <si>
@@ -620,6 +686,9 @@
     <t>I've stayed at many nice comfort suites, but I was not too impressed with this one.  Our room had an  Overwhelming musky smell.  From 4am on I could hear from what sounded like an elephant trampling on the floor above me.  I could hear toilets flushing and a baby crying in room next to me.  Walls very thin.  I don't recommend this Comfort Suites.  I won't be back!More</t>
   </si>
   <si>
+    <t>Scot028</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d109570-r349901671-Quality_Suites_North_Galleria-Addison_Texas.html</t>
   </si>
   <si>
@@ -647,6 +716,9 @@
     <t>It is hard to believe that the hotel I saw is the same as the one that goes with these other favorable reviews.  I booked this hotel on Choice Privileges points, having reviewed all of the Choice Hotel properties in the Love Field vicinity.  The photos &amp; reviews created a certain expectation that fell far short.  We checked in &amp; out of the hotel in about a 5 minute span, finding our room with damaged furnishings, stained bedding &amp; just an overall uncleanness.  I raised the rating up to poor due to the front desk personnel being cooperative on assisting me in getting our Choice Privileges points reimbursed to our account.More</t>
   </si>
   <si>
+    <t>sgalper</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d109570-r334006701-Quality_Suites_North_Galleria-Addison_Texas.html</t>
   </si>
   <si>
@@ -674,6 +746,9 @@
     <t>The room was nice, the breakfast was fair, the $20.00 per night pet fee was excessive compared to other hotels.  We would consider staying here again if we needed to be in the area, but not to the exclusion of other properties.More</t>
   </si>
   <si>
+    <t>TrustDom1013</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d109570-r326000761-Quality_Suites_North_Galleria-Addison_Texas.html</t>
   </si>
   <si>
@@ -701,6 +776,9 @@
     <t>Great customer service from Alexis at front desk! Room was big and comfortable . aC only bedroom, ceiling fan in living area. Kitchenette, two tvs and bathroom just ok. Complimentary hot breakfast is perfect just enough, scrambled eggs, sausage, biscuits &amp; gravy plus Texas shaped waffles! Didn't get into pool used the fitness center very old equipment but treadmill fine. Eateries in area &amp; shopping about 10-15 mins away! Galleria is huge! Great stay! Would returnMore</t>
   </si>
   <si>
+    <t>orcasgal</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d109570-r323038150-Quality_Suites_North_Galleria-Addison_Texas.html</t>
   </si>
   <si>
@@ -722,6 +800,9 @@
     <t>This is a very nice hotel. The room was a suite with doors between the bedroom and the living room - kitchen combination. The windows open to a field, so fresh air was flowing freely. The bed was comfortable and the couch nicely upholstered for watching TV. The bathroom was large.  The staff was welcoming. Chamberlain Fish Market Grill was a short stroll back up the driveway. Yum.The breakfast waffle is in the shape of the state of Texas, which I imagined would make it drier, but it came out beautifully. They do not have hot chocolate, but have the more expensive coffee - a strange economy, to my way of thinking. They have Activa Yogurt which was great. No bananas were available. Hot cereal was handy and juices.More</t>
   </si>
   <si>
+    <t>deborahd992</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d109570-r320447574-Quality_Suites_North_Galleria-Addison_Texas.html</t>
   </si>
   <si>
@@ -746,6 +827,9 @@
     <t>My husband &amp; I acquired an upper respiratory infection after our week stay in this hotel.  The black mold or mildew up in the bathroom ceiling over the shower was never cleaned, even after I informed the hotel staff of this issue.   Or maybe the filthy condition of the air-conditioning unit itself ?After I asked front desk employees to have housekeeping mop the elevator's  stickyfloor, and at least rinse off the waiting bench outside that was also dirty &amp; sticky, along with someone from maint. to look at the moldly ceiling in the bathroom, we were "locked" out of our room that night.   We did not have any problems getting in and out of our room for 3 days, until I asked for some of the filth to be cleaned.   Boring, same food offered all week in breakfast bar, along with another filthy floor just outside the eating area - linoleum hallway.    Unfriendly front desk staff.     I booked through Hotels.com and was told upon check-out that I wouldn't get any of the reward points for staying in this chain of hotels due to booking online.More</t>
   </si>
   <si>
+    <t>John J</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d109570-r317710558-Quality_Suites_North_Galleria-Addison_Texas.html</t>
   </si>
   <si>
@@ -770,6 +854,9 @@
     <t>The hotel was a little hard to find and see from Beltline. They are back behind some other buildings.Once we arrived everything was good. The staff was friendly and helpful.Room was clean and comfortable.The breakfast was great and had lots of options. There are plenty of restaurants within walking distance.Had an indoor pool but we did not use it.More</t>
   </si>
   <si>
+    <t>Greg P</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d109570-r316696231-Quality_Suites_North_Galleria-Addison_Texas.html</t>
   </si>
   <si>
@@ -788,6 +875,9 @@
     <t>Staff was very friendly.  I did not take advantage of the morning breakfast but the dining area looked much better than most hotels in this price range.  Free WiFi, large room with sitting room, two LCD TV's.  AC did not cool the room too well, had the temp set at 66 all night and it never got close to that although it wasn't uncomfortable.  Lots of restaurant opportunities within walking distance of the hotel.  Would stay here again.More</t>
   </si>
   <si>
+    <t>Alexis U</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d109570-r308990383-Quality_Suites_North_Galleria-Addison_Texas.html</t>
   </si>
   <si>
@@ -815,6 +905,9 @@
     <t>The hotel is in a good area around a lot of food places which are walking distance, rooms are very very comfortable, staff were very pleasant took very good care of me, breakfast also wonderful! I would def stay againMore</t>
   </si>
   <si>
+    <t>Lee_zell</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d109570-r304368613-Quality_Suites_North_Galleria-Addison_Texas.html</t>
   </si>
   <si>
@@ -830,6 +923,9 @@
     <t xml:space="preserve">The room was great and bed was toooooo comfortable. The room had recently been upgraded but you can tell who ever did it has rushing and did a half decent job. The front desk staff was awesome and speedy. I would stay here over again. </t>
   </si>
   <si>
+    <t>B B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d109570-r302304986-Quality_Suites_North_Galleria-Addison_Texas.html</t>
   </si>
   <si>
@@ -845,6 +941,9 @@
     <t>I was pleasantly surprised by the accommodations and its location. It was easy to access the metro Dallas area from the motel and its rates were reasonable. The staff was excellent and one young man by the name of Fernando stands out in my mind. Would definitely stay here again and highly recommend it.</t>
   </si>
   <si>
+    <t>blideas</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d109570-r293925503-Quality_Suites_North_Galleria-Addison_Texas.html</t>
   </si>
   <si>
@@ -872,6 +971,9 @@
     <t>Hotel is difficult to findas it cannot be seenfrom the street. A quick call to the hotel and we received excellent directions. Excellent service, very nice and spacious suite with dining and sitting areas, convenient to restaurants. Made our visit with family enjoyable!More</t>
   </si>
   <si>
+    <t>jboutte</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d109570-r293060728-Quality_Suites_North_Galleria-Addison_Texas.html</t>
   </si>
   <si>
@@ -887,6 +989,9 @@
     <t>I had the opportunity to stay at the Comfort Suites, Addison, TX last week. What an awesome staff...Very Friendly and Accommodating! Everyone that I encountered was eager to assist with anything in-house or outside suggestions for lunch, dinner, etc. My room was spacious and equipped with everything that I needed. If my travels bring me back into their area once again, its my place to stay! Keep up the Great Job guys. Sincerely. Jacques</t>
   </si>
   <si>
+    <t>David W</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d109570-r286600654-Quality_Suites_North_Galleria-Addison_Texas.html</t>
   </si>
   <si>
@@ -905,6 +1010,9 @@
     <t>June 2015</t>
   </si>
   <si>
+    <t>Cyberworld Toronto</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d109570-r267571874-Quality_Suites_North_Galleria-Addison_Texas.html</t>
   </si>
   <si>
@@ -926,6 +1034,9 @@
     <t>My check-in experience was atrocious. I checked-in at about 10pm on 4/20/15. The entire experience was scripted with no care whatsoever. When I got to my room, the air conditioner didn't work. I called down and the attendant (female) said that it was highly unusual and that I should press the on and off switch. I explained that the air conditioner had a F1 error message so it wasn't going to happen any time soon. I also asked to be moved in terms of floors, plus (as a Platinum member) I was put across the hallway from a room with literally 10 school kids with their door wide open.When I got my new key at the front desk, all I received was the key on the counter...no apologizes and no care. I later received a call in my room asking if the air conditioner worked. I only assume that I received the call because I specifically looked at the name of the employee's badge at the front desk.Security is also a joke. He's sitting in the dark reading his IPad and not looking at who is going in and out at all.With so many Choice properties to choose from in Dallas, I would never recommend this property.More</t>
   </si>
   <si>
+    <t>Fawn S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d109570-r262571769-Quality_Suites_North_Galleria-Addison_Texas.html</t>
   </si>
   <si>
@@ -947,6 +1058,9 @@
     <t>We spent five nights at this hotel.  There are some minor details that should be attended to, such as tub drains missing, and painting details like under the bathroom counters.  (we were provided a new rubber stopper during our stay) Overall, though, the service is excellent.  Smiles abound with the staff, the rooms were very clean, the breakfast was great, coffee always fresh and hot.  The pool and exercise room, while small, were awesome.  The area is quite nice and it's an easy walk to the local transit center for city busses, or just walk across the street for local routes.  There is a small airport close, however, from our room, we never heard any planes.  We were very pleased with our stay.  Be sure to ask about local restaurants that deliver, and the daytime shuttle service for shopping and incidentals.More</t>
   </si>
   <si>
+    <t>Danielle W</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d109570-r260595353-Quality_Suites_North_Galleria-Addison_Texas.html</t>
   </si>
   <si>
@@ -962,6 +1076,9 @@
     <t xml:space="preserve">Our one bedroom suite was pretty spacious and was just what our family needed for our stay. The staff was very friendly and helpful. The housekeeping staff was so nice and thorough. Breakfast was hot and pretty decent. Welcome through Dallas fairly often and will be sure to stay here again on future trips! </t>
   </si>
   <si>
+    <t>Christi S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d109570-r255707514-Quality_Suites_North_Galleria-Addison_Texas.html</t>
   </si>
   <si>
@@ -986,6 +1103,9 @@
     <t>We have stayed in this hotel in the past thought it was a great place. This time the room was nice but beds are broke down, sofa bed usable.  Mold in shower and sinks room has a musty smell. Staff is very friendly and breakfast is really good.  Not sure if we will stay here again or not.  More</t>
   </si>
   <si>
+    <t>Jubilado J</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d109570-r247029119-Quality_Suites_North_Galleria-Addison_Texas.html</t>
   </si>
   <si>
@@ -1005,6 +1125,9 @@
   </si>
   <si>
     <t>Stayed on 31 Dec 2014, This place is by far the Worst Hotel I've ever been at !! Starting with a door that would not lock correctly, Bed mattress worn out (springs popping) pillows not fluffy. A distinct odor in the room like dog odor and febreeze mixed together. Slow internet (1mb), And if you are sensitive to sounds at night bring your double hearing protection ! You will here every foot step and every door slamming not to mention the domestic disputes in the hallway. When I told the night manager she called me a liar in reference to the room odor. DO NOT waste your money or time at this establishment They should change the name to discomfort Inn !! • • •More</t>
+  </si>
+  <si>
+    <t>Jake W</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d109570-r240282625-Quality_Suites_North_Galleria-Addison_Texas.html</t>
@@ -1040,6 +1163,9 @@
 When booking the room, weeks in advance, I had requested top (3rd) floor away from the elevator or stairs.  They gave me a room on the 2nd floor right next to the stairs.  Needless to say, I wasn't...The summary is this hotel is in a great location and it's a great price.  It lacks quality and basic attention to detail.Hotel has a ton of pros / positives going for it.  With some work, this hotel could be a 4 or even a 5.Great price. Period.Great location, close to tons of restaurants and right off major highway.I'm a huge fan of a full hot breakfast and it's one of the things I look for in a hotel so I can start my day off right.  There were a lot of choices, including biscuits &amp; sausage gravy, scrambled eggs, bacon or sausage, waffles, bagels, toast, oatmeal, cereal, fresh fruit, juice, coffee, etc.  Even with all the choices, the breakfast was just okay.  It lacked quality.The room was okay, living room furniture was old/dated and the couch was well used.  Upon arrival, for some reason, the room was set to 60F on the 'cool' setting.  The light when you first entered the room didn't work. The ironing board was bare metal and didn't have any cover/pad on it.  The TV in the living room wasn't hooked up to cable/dish/sat.   Lastly, there was some mold in the shower.When booking the room, weeks in advance, I had requested top (3rd) floor away from the elevator or stairs.  They gave me a room on the 2nd floor right next to the stairs.  Needless to say, I wasn't happy.They were doing some renovations on the 2nd floor hallway, which is fine.  I still think the areas should have been kept cleaner than they were.  When I do renovations at my house, it's not that hard to clean the work area at the end of the day.Not sure what was going on with trash pickup, etc.  They was a bag of trash in the hallway on the first floor that sat there for a minimum of two days.  I walked past it four times a day.More</t>
   </si>
   <si>
+    <t>John H</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d109570-r222671989-Quality_Suites_North_Galleria-Addison_Texas.html</t>
   </si>
   <si>
@@ -1067,6 +1193,9 @@
     <t>Our 10 day extended stay through the week of 4th of July was Outstanding. We enjoyed the perfect view of Addison's KaBOOM Town. Our Suite, the Hotel Staff and Room Service, Great Breakfasts, Indoor pool...PERFECT!!More</t>
   </si>
   <si>
+    <t>honestrealreviews</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d109570-r220982790-Quality_Suites_North_Galleria-Addison_Texas.html</t>
   </si>
   <si>
@@ -1088,6 +1217,9 @@
     <t>Modern and clean property. The Choice Hotels breakfast is usually average, but this property had better choices and makes a great presentation. I highly recommend a stay at this Comfort Suites property. Close to shopping and restaurants.More</t>
   </si>
   <si>
+    <t>clandauer</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d109570-r220675996-Quality_Suites_North_Galleria-Addison_Texas.html</t>
   </si>
   <si>
@@ -1106,6 +1238,9 @@
     <t>Like any good stay in a hotel, most everything worked as needed. Nice staff and okay breakfast (more fresh fruit please and larger coffee cups...), a very comfortable bed at a great price. Liked the suite and used both microwave &amp; fridge. I am planning to return in the next few weeks.More</t>
   </si>
   <si>
+    <t>SanM2226</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d109570-r216284908-Quality_Suites_North_Galleria-Addison_Texas.html</t>
   </si>
   <si>
@@ -1130,6 +1265,9 @@
     <t>Other than having trouble looking for the hotel, this was very nice. The staff was great and friendly. And the room was spacious and the bed very comfortable. The location is great had bunch of restuarnts to choose from and walking distance too.More</t>
   </si>
   <si>
+    <t>Stephanie E</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d109570-r213395026-Quality_Suites_North_Galleria-Addison_Texas.html</t>
   </si>
   <si>
@@ -1154,6 +1292,9 @@
     <t>Stayed this weekend with my family. The walls had dents and scratches. The floors felt wet and moldy, I had to wear socks my entire stay to feel comfortable, of course my socks were black after walking around. The bathroom floor had black  hair, dirt smudges under sink, the lining of the tub was molded and the shower had molded spots. There were no sheets available for the sofa sleeper. The only good thing about the hotel was the location, it was very nice. The toilet was leaking constantly creating the bathroom floor being wet. The breakfast was not as the website said, no cereal or waffles, there was very little variety and ran out of everything to drink and was all watered down including the coffee. The  ice maker was broken and leaked all over the hallway and no carts for luggage. The girl up front was never helpful and just kept saying.she didn't know she just got here. This was by far the worst hotel experience I have ever had and will not return.More</t>
   </si>
   <si>
+    <t>cousintim</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d109570-r211906194-Quality_Suites_North_Galleria-Addison_Texas.html</t>
   </si>
   <si>
@@ -1175,6 +1316,9 @@
     <t>Highly recommended if you are looking for a dependable night’s stay at a good value.  The property has been recently refreshed.  Very clean rooms with plenty of towels.  Great location.  Several restaurants on Addison’s main drag are walkable from the hotel.  The hotel address is on Belt Line Rd. but its “rear” entrance on Arapaho is easier to navigate.The manager is both personable and available.  The staff could not be more friendly or helpful.  I felt genuinely welcome when I checked in.  Very reasonably priced for the area.  Both the mattress and bedding were very comfortable.  Good water pressure.  Free breakfast was the standard offering but offered plentiful choices.Plenty of free parking.  Wi-Fi is strong and free.  The pool and Jacuzzi looked inviting.  Two complimentary newspapers are offered in the lobby.More</t>
   </si>
   <si>
+    <t>Anthony A</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d109570-r202866413-Quality_Suites_North_Galleria-Addison_Texas.html</t>
   </si>
   <si>
@@ -1196,6 +1340,9 @@
     <t>Comfort Suites North/Galleria was a wonderful surprise for a friend and I during an Easter weekend vacation. The parking lot is roomy, with easy access to main roads. Friendly and helpful staff, which made check-in and -out a breeze. We were at the end of the hall in one of the fancier suites, with a large jacuzzi, and we never heard a bit of noise for three nights, even though the hotel was packed. Our room was large and very comfortable, and the bed was one of the best I've experienced in a hotel in some time. A hot buffet breakfast is available every day, with enough variety to satisfy most folks. One strong positive is the hotel's location - restaurants, retail stores, and other facilities abound, leaving the guests with lots of choices nearby. On the downside, as with a number of hotels in the area, there is no sign on the main road saying 'turn here for hotel.' If we hadn't searched for directions in advance, I'm not sure if we would have easily found it (hint - it's behind the Fish Market Restaurant)! We'll definitely stay there again on our next visit to the DFW area.More</t>
   </si>
   <si>
+    <t>Hollie P</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d109570-r201309414-Quality_Suites_North_Galleria-Addison_Texas.html</t>
   </si>
   <si>
@@ -1211,6 +1358,9 @@
     <t>I have taken a group of 100+ teenagers to a conference in Dallas every year for the past 7 years. This was my first year staying at Comfort Suites North/Galleria. I have never been so impressed with service at a hotel. Cala and her entire staff were incredibly easy to work with and gracious! Most hotels tend to dread a group of teenagers this size; however, everyone we encountered went above and beyond to let us know we were welcome there. I know where I'll be booking every year!!</t>
   </si>
   <si>
+    <t>Lynda W</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d109570-r200291876-Quality_Suites_North_Galleria-Addison_Texas.html</t>
   </si>
   <si>
@@ -1238,6 +1388,9 @@
     <t>I made it into Addison Texas early March 2014 totally exhausted and the Manager Kala was so friendly and the staff you all made a lasting impression on me just the smiles and helpfulness, Thank YouLindaMore</t>
   </si>
   <si>
+    <t>Juliette N</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d109570-r188051702-Quality_Suites_North_Galleria-Addison_Texas.html</t>
   </si>
   <si>
@@ -1259,6 +1412,9 @@
     <t>I stayed here for 3 nights &amp; had a wonderful time. It was a very comfortable &amp; had a homey feel.Once I got home I realized that I had lost a bracelet.I called &amp; spoke w/ Kayla Montano when I explained to her the meaning of the bracelet she said she would search the rooms we stayed in and call me back. They could not find it anywhere but she did't stop there she walked the same path we took to Chamberlain's restaurant and also checked w/ the Mgr there to see if anyone had found.I was really touched by the time she spent to try to help me find my bracelet &amp; will always rememberher kindness and willigness to help.We will definitely stay here again.JulietteMore</t>
   </si>
   <si>
+    <t>Courtney R</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d109570-r186580538-Quality_Suites_North_Galleria-Addison_Texas.html</t>
   </si>
   <si>
@@ -1286,6 +1442,9 @@
     <t>This is a great hotel in a great location!  Somewhat difficult to find the first time as it is behind Macaroni Grill (can also be accessed off Arapaho).  Walking distance to great restaurants and very close to many shopping areas!  It's great for our family with a child and dogs!  Big area to walk the dogs, indoor pool, hot breakfast, and more room in the suites (incl a fridge/micro)!  The manager of this hotel is outstanding and goes above and beyond to really care about her hotel and guests.  I definitely recommend staying here!More</t>
   </si>
   <si>
+    <t>lwh33</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d109570-r186027517-Quality_Suites_North_Galleria-Addison_Texas.html</t>
   </si>
   <si>
@@ -1304,6 +1463,9 @@
     <t>January 2013</t>
   </si>
   <si>
+    <t>Kathy B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d109570-r182573557-Quality_Suites_North_Galleria-Addison_Texas.html</t>
   </si>
   <si>
@@ -1322,6 +1484,9 @@
     <t>October 2013</t>
   </si>
   <si>
+    <t>lyndon d</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d109570-r180238749-Quality_Suites_North_Galleria-Addison_Texas.html</t>
   </si>
   <si>
@@ -1340,6 +1505,9 @@
     <t>Since 2003 my folk dance troupe have been staying at this hotel every year.  More than 75 of us travel to Dallas to perform at the State Fair.  I had bought pizza and sodas for the whole group and the place provided me with utensils, cups and place.  The hotel has a new mini store that really came in handy for that midnight snacks.  The place have gone thru new renovation and looks good.  The things I like about place the comfortabal beds, the layout of the room and the close proximaty of the restaurants, stores and mostly galeria mall.  I would like to thank the general manager (cala montana) for providing with good customer service and the friendliness of the staff.More</t>
   </si>
   <si>
+    <t>March10</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d109570-r179259061-Quality_Suites_North_Galleria-Addison_Texas.html</t>
   </si>
   <si>
@@ -1361,6 +1529,9 @@
     <t>This isolated hotel is really a great value, for the area it's in being close to shopping, dining, etc... Like others have mentioned, you can get to the hotel off Belt Line, but the main access is of Arapaho, one street north, so if looking for it, go there first, and it's hard to miss. The good: Check in was fast, and thorough, despite my arriving at the same time three other guests did. The lone agent at the desk got the line cleared quickly and we all knew the pool are, the breakfast hours, and that there was just one entrance to the hotel, etc..The room was typical Comfort Suites, spacious, with nice amenities, though a bit of aging can be seen. Parking was plentiful.BAD:-The room had a smell of burnt popcorn covered by air freshner. as the best way to describe it.-Upon inspection of the shower, several long hairs were in the tub. The room and shower were otherwise clean, and I'm not phobic about this things so I let it go. -The showerhead was worn and grimy. -Breakfast. My timing may have just been bad but when I went all the hot items were gone, save one biscuit. No eggs, no sides, etc. SO I settled for some muffins and was on my way. Fix a few things and this place is definitely worth staying at.More</t>
   </si>
   <si>
+    <t>BonBon0322</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d109570-r178074210-Quality_Suites_North_Galleria-Addison_Texas.html</t>
   </si>
   <si>
@@ -1379,6 +1550,9 @@
     <t>I stayed in this hotel for 5 nights and it was quite pleasant. The lobby and entrance tile floor just got done. The rooms are remodeled and the beds/mattresses are brand new. The furniture is simple, nice and stylish. First I got a handicap room with a king size bed, which I was ok with even though I don't have any disabilities. 3 days later a big group of kids came to stay at the hotel and front desk decided to put them right next door so i asked for a room move. They moved me without any problem. I liked my new room even better.  Although I was bothered by two things. 1., the pool is indoor which is a big turn off specially if you travel in the summer or when the weather is warm., 2., the A/C unit right by the bed -underneath the window - and it kept blowing the freezing cold air to my blanket and it made me feel uncomfortable. I had to lower the air, but then I was warm at night. The breakfast was good, staff is nice and friendly, location is excellent if you wanna be in the middle of 100's of dining options. The Galleria mall isn't far away either. Walmart is 5 minutes drive. Overall I had a good experience and I would recommend this place but not for families with kids.More</t>
   </si>
   <si>
+    <t>jm19862013</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d109570-r177464452-Quality_Suites_North_Galleria-Addison_Texas.html</t>
   </si>
   <si>
@@ -1403,6 +1577,9 @@
     <t>I recently stay here is one of the best hotel I have ever stayed in the staff was fabulous!!! My room was very  nice and clean and breakfast was delicious. They also have a shuttle and there were able to take me to the office near by I didn't have to take a taxi that was A+.I will definitely be back on my next trip to Addison Texas.More</t>
   </si>
   <si>
+    <t>Azariah56</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d109570-r176925005-Quality_Suites_North_Galleria-Addison_Texas.html</t>
   </si>
   <si>
@@ -1427,6 +1604,9 @@
     <t>We arrived for an overnight stay on September 4th. The lobby entryway looked like a bomb had gone off. They had torn up all the tile in the entry lobby. I was unable to even get to the desk to check-in.There was so much dust in the air that the fire alarms were going off and the elevators would not work.  I had to ask the front desk clerk to let me in the office door so I could hear what she was saying so I could check in.  The staff was doing as much as they could to overcome incredible negatives and keep the hotel running. The fire alarms kept sounding periodically.  Thankfully they eventually quit creating dust in the lobby which was setting them off.  I was hoping that this would not continue through the night so we could sleep.   We were placed on the third floor. The office staff had to prop open a side door so we could access the stairwell. There were old air conditioning units and debris randomly laying in the stairwells. It was difficult to drag our luggage up three floors because the elevator was not working.  After this trying beginning, we took a break and went to Macaroni Grille which is directly adjacent to the hotel. The front desk clerk called me on my cell during dinner to apologize for the circumstances under which we arrived.  The staff was courteous and went...We arrived for an overnight stay on September 4th. The lobby entryway looked like a bomb had gone off. They had torn up all the tile in the entry lobby. I was unable to even get to the desk to check-in.There was so much dust in the air that the fire alarms were going off and the elevators would not work.  I had to ask the front desk clerk to let me in the office door so I could hear what she was saying so I could check in.  The staff was doing as much as they could to overcome incredible negatives and keep the hotel running. The fire alarms kept sounding periodically.  Thankfully they eventually quit creating dust in the lobby which was setting them off.  I was hoping that this would not continue through the night so we could sleep.   We were placed on the third floor. The office staff had to prop open a side door so we could access the stairwell. There were old air conditioning units and debris randomly laying in the stairwells. It was difficult to drag our luggage up three floors because the elevator was not working.  After this trying beginning, we took a break and went to Macaroni Grille which is directly adjacent to the hotel. The front desk clerk called me on my cell during dinner to apologize for the circumstances under which we arrived.  The staff was courteous and went above and beyond trying be as helpful as they could. Pretty much this hotel was in great need of a renovation, but the management should have been more selective about exposing customers to this demolition mayhem.  On a positive note, the breakfast area was shielded from the dust and destruction.   Breakfast was very good.  I am sure that this property will be a good choice once the renovation is complete.More</t>
   </si>
   <si>
+    <t>Louder72</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d109570-r170947197-Quality_Suites_North_Galleria-Addison_Texas.html</t>
   </si>
   <si>
@@ -1445,6 +1625,9 @@
     <t>June 2013</t>
   </si>
   <si>
+    <t>Teachergirlmw</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d109570-r170870508-Quality_Suites_North_Galleria-Addison_Texas.html</t>
   </si>
   <si>
@@ -1463,6 +1646,9 @@
     <t>After driving around and around trying to actually find the property (the address says Beltline, but the property is actually a street over - more like the address should be Arapaho - and there are NO signs on Beltline pointing to the hotel), we checked in.  The AC was off in the room, so it was hot, but we were leaving for dinner right away anyway.  Turned on the AC and when we got back there was no change in the room.  Went to front desk and room was changed no problem.  Bathroom exhaust fan didn't work in either room, but that wasn't a HUGE problem.  The hotel is very nice inside, clean and updated.  The pool water was more than a little cloudy the night we swam.  Breakfast was standard Comfort line fare.  Like most Comfort/Choice Hotels, I found the mattresses to be a little too soft.More</t>
   </si>
   <si>
+    <t>edandsarahmae02</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d109570-r167287208-Quality_Suites_North_Galleria-Addison_Texas.html</t>
   </si>
   <si>
@@ -1487,6 +1673,9 @@
     <t>In the heart of a great dining area in Addison Texas, this Comfort Suites was suprisingly affordable and very well kept.Martha at the front desk was enthusiastic and professional and friendly as we checked in and throughout our stay.The jacuzzi-suites are wondeful; spacious and the a.c. works great!Morning breakfast was great both days and we totally enjoyed our stay.More</t>
   </si>
   <si>
+    <t>KristenMA</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d109570-r162983768-Quality_Suites_North_Galleria-Addison_Texas.html</t>
   </si>
   <si>
@@ -1514,6 +1703,9 @@
     <t>I recently stayed at the Comfort Suites in Addison, TX for business and had a very positive experience.  All staff members were extremely pleasant and helpful.  The room and entire hotel was very clean and well maintained.  Breakfast was diverse and the hot items changed slightly each day.  The hotel is in a great, safe area and close to many stores and restaurants.  I would definitely recommend this property and if I have lodging needs in north Dallas again, I will stay at the Comfort Suites North/Galleria!More</t>
   </si>
   <si>
+    <t>Lori W</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d109570-r160985314-Quality_Suites_North_Galleria-Addison_Texas.html</t>
   </si>
   <si>
@@ -1535,6 +1727,9 @@
     <t>We had the pleasure of staying a night at the Comfort Suites in Addison Texas.  The room was clean and very spacious.  We went to see an old family friend and the beautiful comfortable room was icing on the cake.  It was in a nice part of town, very quite and peaceful. We were assisted by a nice young lady named Martha.  She was friendly and personable, yet very professional.  Thanks Martha for helping us have a great trip.More</t>
   </si>
   <si>
+    <t>FredrickTX976</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d109570-r160550318-Quality_Suites_North_Galleria-Addison_Texas.html</t>
   </si>
   <si>
@@ -1556,6 +1751,9 @@
     <t>From the moment I checked into this hotel I was greeted with a warm pleasant smile with Stephanie the Night Auditor.  She had my registration cards printed and ready for me to sign because I was a late arrival.  Stephanie has a very contagious personality and that is simply hard to find these days.  Despite having a soccer team in house, I was still able to get a good nights rest.  My room was wonderful.  Housekeeping staff were great!  David the morning person was dealing with a lot of issues when I had gone down to the desk, but he was great!!  He has a great attitude and personality as well.  I am using this property for a group event in August and now I am glad that I chose this location. Cala, if you don't have to change anything, don't!  You have a great staff, and you guys ROCK!!  Thank you for such a wonderful weekend and I look forward to seeing you in August.More</t>
   </si>
   <si>
+    <t>dfwhawkpaul10</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d109570-r158378235-Quality_Suites_North_Galleria-Addison_Texas.html</t>
   </si>
   <si>
@@ -1571,6 +1769,9 @@
     <t>I had really kind and friendly customer service from the front desk, by a girl named Martha, she was really nice, and over the top helpful. She signed me in as a  member, with my permission of course, and sense i became a member with them my checkout time was at 2pm which was perfect because i love to sleep late, and the cleaning ladies did a awesome job, especially with breakfast, and when i would call the front desk sometimes Martha the worker at the front desk would answer the phone so fast, it would not even ring,(excellent)!</t>
   </si>
   <si>
+    <t>Mario0602</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d109570-r157801315-Quality_Suites_North_Galleria-Addison_Texas.html</t>
   </si>
   <si>
@@ -1619,6 +1820,9 @@
     <t>We stay here frequently when in town to go to Bayler medical, catch a Rangers game or just have fun. The staff is always nice and rooms are clean and the price is just right. We stay here several times each year and have never had a bad stay.More</t>
   </si>
   <si>
+    <t>WoodrowTX</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d109570-r150590180-Quality_Suites_North_Galleria-Addison_Texas.html</t>
   </si>
   <si>
@@ -1634,6 +1838,9 @@
     <t>I just want to say the staff and facilities are very nice. Centrally located in North Dallas by Addison Airport and too many restaurants. My fav for North Dallas. I have stayed twice now and am going back in a few weeks. Breakfast was perfect and many choices on their buffet.</t>
   </si>
   <si>
+    <t>MissouriBusyMomOfTwo</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d109570-r148728911-Quality_Suites_North_Galleria-Addison_Texas.html</t>
   </si>
   <si>
@@ -1655,6 +1862,9 @@
     <t>We had an appointment at Medical City in Dallas, and knew we would be coming in on one day and leaving the next.  So we didnt want to spend a whole lot of money on a hotel room, and then just turn around and come home.  We were pleasantly surprised with this hotel, and we will probably stay again if in the area.  Our base rate was only $69 for a suite, with a sofa, microwave, 2nd sink (wet bar) and refrigerator.  That's quite a bit!  Clean room, smelled nice, no issues with towels (very clean!  not musty!) -- and Im a picky traveler.  This met my picky test.  Sure the rooms are a little worn, but at this price point, again we were pleasantly surprised.  Beds were comfy, I actually was able to sleep.  No unusual noises that I could tell (light sleeper, forgot ear plugs).  I saw a few worn areas in the carpet, but it was clean.  Bathroom was nice, oh... and forgot, granite counters in both the bathroom and the little wet bar area.  We spent some time in the indoor pool while there -- as long as there is water -- my kids are happy.  So we splashed for a while and came back to the room.  Breakfast was fine... eggs, sausage, biscuits and gravy, pastries, yogurt, fruit.  Waffle iron was out of service, but everything else was good.  We had zero issues!  easy check...We had an appointment at Medical City in Dallas, and knew we would be coming in on one day and leaving the next.  So we didnt want to spend a whole lot of money on a hotel room, and then just turn around and come home.  We were pleasantly surprised with this hotel, and we will probably stay again if in the area.  Our base rate was only $69 for a suite, with a sofa, microwave, 2nd sink (wet bar) and refrigerator.  That's quite a bit!  Clean room, smelled nice, no issues with towels (very clean!  not musty!) -- and Im a picky traveler.  This met my picky test.  Sure the rooms are a little worn, but at this price point, again we were pleasantly surprised.  Beds were comfy, I actually was able to sleep.  No unusual noises that I could tell (light sleeper, forgot ear plugs).  I saw a few worn areas in the carpet, but it was clean.  Bathroom was nice, oh... and forgot, granite counters in both the bathroom and the little wet bar area.  We spent some time in the indoor pool while there -- as long as there is water -- my kids are happy.  So we splashed for a while and came back to the room.  Breakfast was fine... eggs, sausage, biscuits and gravy, pastries, yogurt, fruit.  Waffle iron was out of service, but everything else was good.  We had zero issues!  easy check in, check out... and we were back on the road.  I am also glad I paid attention to another person's review -- in that there is NO sign on the main road coming in.  (off Belt Line)  If I recall, the other posting said the hotel was behind Macaroni Grill.  And yes, it was.  So Im glad I noted that, or we would have driven right past.  Its tucked in behind, and in a nice neighborhood.  Kind of an odd location, but if you know ahead of time where it is, its easy to find.More</t>
   </si>
   <si>
+    <t>Insight1258</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d109570-r148322836-Quality_Suites_North_Galleria-Addison_Texas.html</t>
   </si>
   <si>
@@ -1670,6 +1880,9 @@
     <t>Entry smelled of sewer and floors were not clean.  One elevator for the whole place.  Room was worn but was large.  Bare electrical exposed on bedroom ceiling.  Nice touch with Kleenex stuffed in a hole in the wall.  Pet friendly and nice location</t>
   </si>
   <si>
+    <t>James C</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d109570-r144806016-Quality_Suites_North_Galleria-Addison_Texas.html</t>
   </si>
   <si>
@@ -1688,6 +1901,9 @@
     <t>October 2012</t>
   </si>
   <si>
+    <t>Mary E</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d109570-r144098890-Quality_Suites_North_Galleria-Addison_Texas.html</t>
   </si>
   <si>
@@ -1709,6 +1925,9 @@
     <t>I have had the privledge of staying at the Comfort Suites in Addison on several occasions.  The most important time was when I had to have my father brought down after an auto accident.  The staff went above and beyond to make sure that his stay was totally comfortable.  He was spoiled rotten and to this day still brags about how well he was taken care of at the 1st of the year.Since that time, I have stayed at the same hotel for granddaughter's birthday, had several family members stay for various occasions and we all get the same results - simply outstanding, top notch, excellent service.  A veritable "home away from home".  I would highly recommend this place.More</t>
   </si>
   <si>
+    <t>LiggleLiggle</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d109570-r143757750-Quality_Suites_North_Galleria-Addison_Texas.html</t>
   </si>
   <si>
@@ -1724,6 +1943,9 @@
     <t>I absolutely love staying at the Comfort Suites in Addison.  The staff is superb, especially the manager, Cala.  They all go out of their way to make my stay feel like home away from home!  I have stayed weekly with them for over two years now and wouldn't stay anyplace else.  They have the best service including their full breakfast.  The hotel is always being upgraded, most recently with flat screens in every room and new floors in the elevator.  I saw some beautiful tile ready to be laid so I am anxious to come back next week and see what they have done!</t>
   </si>
   <si>
+    <t>Gabrielaanddavi... J</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d109570-r135377397-Quality_Suites_North_Galleria-Addison_Texas.html</t>
   </si>
   <si>
@@ -1745,6 +1967,9 @@
     <t>We chose this hotel chain based on the show "Undercover Boss," and we chose the city based on previous Trip Advisor reviews of this specific hotel. We were extremely happy with the service, the quality of the rooms, the great breakfast (biscuits and gravy, bacon, ham, eggs, waffles, fruit, yogurt, cereal, coffee, milk) and even the very friendly guests! The rooms were very updated, the beds were ultra comfortable, the bathrooms were spotless, and the staff made sure we had everything. The TVs were new and had multiple channels. We even had a living room with an extra TV, refrigerator, microwave and sink, for the price of a regular room! We saw the hotel photos in ChoiceHotels.com, but booked by phone with a very friendly person. We had never been to Addison, TX, and we were very impressed with the whole big town luxuries they offered (restaurants &amp; shopping) and the small town friendliness! The hotel is conveniently placed in the middle of all the attractions. It was also very easy to walk to a variety of restaurants. This Comfort Suites at Addison was only 22 minutes away from the Dallas Museum of Art, the stadium was about 30 minutes away and family entertainment with Go-Kartz was only 14 minutes away. They even had a computer in the business center we could use to find more attractions in the area. We have stayed at 5 star hotels in North America,...We chose this hotel chain based on the show "Undercover Boss," and we chose the city based on previous Trip Advisor reviews of this specific hotel. We were extremely happy with the service, the quality of the rooms, the great breakfast (biscuits and gravy, bacon, ham, eggs, waffles, fruit, yogurt, cereal, coffee, milk) and even the very friendly guests! The rooms were very updated, the beds were ultra comfortable, the bathrooms were spotless, and the staff made sure we had everything. The TVs were new and had multiple channels. We even had a living room with an extra TV, refrigerator, microwave and sink, for the price of a regular room! We saw the hotel photos in ChoiceHotels.com, but booked by phone with a very friendly person. We had never been to Addison, TX, and we were very impressed with the whole big town luxuries they offered (restaurants &amp; shopping) and the small town friendliness! The hotel is conveniently placed in the middle of all the attractions. It was also very easy to walk to a variety of restaurants. This Comfort Suites at Addison was only 22 minutes away from the Dallas Museum of Art, the stadium was about 30 minutes away and family entertainment with Go-Kartz was only 14 minutes away. They even had a computer in the business center we could use to find more attractions in the area. We have stayed at 5 star hotels in North America, and we have never experienced such friendly front desk and maid service. We even had a request on a Sunday night very late, and we had the item delivered the very next morning. You will find this great hotel right behind "Chamberlain's Fish Market Grill" on Beltline Road.More</t>
   </si>
   <si>
+    <t>TXGlobeTrotter</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d109570-r135115382-Quality_Suites_North_Galleria-Addison_Texas.html</t>
   </si>
   <si>
@@ -1763,6 +1988,9 @@
     <t>I'd give the hotel an overall 5 stars but opted for 4 stars due to some minor over sites. I've stayed here at this location on 2 previous occasions and have never had a problem. It is confusing to locate, but a quick phone call to the helpful people at the front desk will get you there. I'm guessing that during the last remodel they were in a hurry. The baseboard tile in the bathroom was completely missing behind the door and was bare concrete. Also, in the bedroom beside the door there was about a 1 inch strip from floor to ceiling that didn't get painted beside the French doors. The room was clean, well stocked and everything was in working order. As usual, the bed was very comfortable. The hotel is close to all the fine dining Addison has to offer along Beltline. The breakfast was great! Ham, eggs, bagels, cereal, yogurt, fruit and all the other breakfast stuff. I love this hotel. By far the best Comfort Suites I've stayed at. Hopefully the management will read my review and investigate the oversights mentioned. Overall, I'd highly recommend this hotel! More</t>
   </si>
   <si>
+    <t>Eddie903</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d109570-r135105588-Quality_Suites_North_Galleria-Addison_Texas.html</t>
   </si>
   <si>
@@ -1775,6 +2003,9 @@
     <t>Spent 3 days here breakfast was delicious rooms were decently clean with minor issues like lamp shade had a small tear and a piece of toilet paper crumpled up under table in bathroom  (used? No clue didn't look but didn't notice till 3rd day very sure it wasn't ours). Ac didn't seem to get as cold as we wish but we had a second floor room so maybe that was part of the problem.  Staff was friendly and really had no issues.</t>
   </si>
   <si>
+    <t>BooRadleyR</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d109570-r133041219-Quality_Suites_North_Galleria-Addison_Texas.html</t>
   </si>
   <si>
@@ -1800,6 +2031,9 @@
   </si>
   <si>
     <t>This property has it's wrinkles to be sure. It's older and the upgrades are coming around slowly but surely. Rooms are very generous in size and everything worked to my satisfaction. Comfortable bed and the shower pressure was good. Breakfast isn't my thing but a very well designed and stocked offering each and every day.More</t>
+  </si>
+  <si>
+    <t>Anthony P</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d109570-r132629834-Quality_Suites_North_Galleria-Addison_Texas.html</t>
@@ -1832,6 +2066,9 @@
 The pool area is very plain,  smells like moldly stale air.  There is no longer a hot tub and green residue all around the perimiter of the pool.  The...I stayed at this hotel for three days and was ready to leave.  The hotel is difficult to find, no signs on Beltline Rd, it sits on the backside of Macaroni Grill.  First Impression was trash laying out front of the doors.  Lobby was nice, staff was pleasant.  The elevator has a horrible smell along with dated and worn out carpet.  There is only one elevator and it is very small.  The hallways are nice.The suite is really just an overisized regular room,  there is a small living area with no tv and a dated couch and scratched up furniture.  We found a black banana behind the curtains, looked like it had been there for days,  also found several pieces of cany under the table.  Its obvious that the cleaning staff need to pay better atttention.  The bathroom is tiny,  the door almost hits the toilet (smallest bathroom ive seen in a hotel)  there were black mold spots all over the bathroom ceiling and peeling paint.  The beds are hard and the pillows are small.  Dont plan on sleeping,   you can hear everything going on in the rooms above you,  i was able to hear every movment from room above us, and we had broght our own fan for noise.  The pool area is very plain,  smells like moldly stale air.  There is no longer a hot tub and green residue all around the perimiter of the pool.  The door to the patio area was broken so you could not go outsideFor what i paid, ive stayed in better,  my advise, go elsewhere.More</t>
   </si>
   <si>
+    <t>cory k</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d109570-r131778845-Quality_Suites_North_Galleria-Addison_Texas.html</t>
   </si>
   <si>
@@ -1850,6 +2087,9 @@
     <t>I stayed at this hotel for 18 days I could not ask anymore from the staff they where GREAT!! It is well kept always cleanded and HUGE ROOMS!! I would reccomend this room to anyone at any time. Management is by far the best!! STAY HERE!!!!!!!More</t>
   </si>
   <si>
+    <t>savin4morefamily</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d109570-r128956037-Quality_Suites_North_Galleria-Addison_Texas.html</t>
   </si>
   <si>
@@ -1871,6 +2111,9 @@
     <t>We stayed here for several nights on a trip. It was your average Comfort Inn.  While we appreciated the fridge and microwave in the room, and the general size of the room was nice, there were many downsides.  The bathroom water is very loud - you can hear the flushing and showers of those above you through the night.  Sounds traveled easily - we likely had a family with kids above us.  They are pretty tight on towels and we had to keep asking for more.  Breakfast was adequate mostly, though we had to ask to have things replenished - they were always running out of coffee and other items. We enjoyed the coffee available in the lobby, also.  Overall it was a decent place to stay in a good area, near lots of restaurants in shops.  However, I don't think we're likely to stay there again as the biggest downside was the beds - very uncomfortable and woke up with back pain each day.More</t>
   </si>
   <si>
+    <t>Sara M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d109570-r126370961-Quality_Suites_North_Galleria-Addison_Texas.html</t>
   </si>
   <si>
@@ -1886,6 +2129,9 @@
     <t>My family and I stayed here for 2 days when we went to my cousin's wedding in Texas. The rooms are very clean and the tv is kind of tiny, but otherwise, I loved the place! The hotel staff was nice, and everyone at the desk were very nice and willing to answer questions that I had. The breakfast was good too! And the wifi was speedy which was definitely a plus. I would stay here again if I ever came back to Arlington!</t>
   </si>
   <si>
+    <t>Seniorcoupleluvtogo</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d109570-r126302911-Quality_Suites_North_Galleria-Addison_Texas.html</t>
   </si>
   <si>
@@ -1904,6 +2150,9 @@
     <t>We were in Dallas for a couple of nights, and since we needed to be in Arlington the second night , I reserved this room because of the great price, and because we stay at Comfort Suites  most of the time when we travel.  We arrived  earlier than anticipated, and were planning to just get directions for going to Fort Worth for the afternoon.  But, the young lady at the desk said if we did not mind having a room without french doors, we could check in right away. This was especially nice, since we could freshen up a bit before heading out.  The room was huge, clean, quiet, and comfortable.  We really liked the decor, and the only thing that was not super was the room was a bit dark, even with all lights on.  We did not need to have much light anyway, so it was very nice.  Breakfast was good, with several choices, and the area was large enough to feel uncrowded.  Would stay here again if in the area.More</t>
   </si>
   <si>
+    <t>Cliftondmack</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d109570-r125009813-Quality_Suites_North_Galleria-Addison_Texas.html</t>
   </si>
   <si>
@@ -1919,6 +2168,9 @@
     <t>I stay at comf suites very regularly (I get discounts) and this was an awesome value. Highly recommend it!</t>
   </si>
   <si>
+    <t>BTR6190</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d109570-r124884472-Quality_Suites_North_Galleria-Addison_Texas.html</t>
   </si>
   <si>
@@ -1934,6 +2186,9 @@
     <t>For what the price of the room was, we couldn't ask for more. The breakfast was great, the room was spacious and the staff we ready to help. The next time we come to Dallas, we plan to stay here. Close to restaurants and grocery stores in case you for get something.</t>
   </si>
   <si>
+    <t>Ron R</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d109570-r124764138-Quality_Suites_North_Galleria-Addison_Texas.html</t>
   </si>
   <si>
@@ -1949,6 +2204,9 @@
     <t>I stay here regularly.  The hotel is clean, and close to many restaurants of all types.  The area is quite, clean and safe.  The hotel is also pet friendly with a full breakfast.</t>
   </si>
   <si>
+    <t>SubEduc8r</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d109570-r123404651-Quality_Suites_North_Galleria-Addison_Texas.html</t>
   </si>
   <si>
@@ -1964,6 +2222,9 @@
     <t>This hotel was indeed the best &amp; most economical location for our retreat (Men of Adodi Southern Regional Retreat) which took place on MLK weekend, 2012. The staff was most helpful in their assistance to make this retreat a good success. The meeting room was sufficient for our needs. Breakfast was great. Kudos to the manager &amp; staff for a job well done.</t>
   </si>
   <si>
+    <t>twinmomLevant_Maine</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d109570-r122332222-Quality_Suites_North_Galleria-Addison_Texas.html</t>
   </si>
   <si>
@@ -1982,6 +2243,9 @@
     <t>December 2011</t>
   </si>
   <si>
+    <t>Caplpc</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d109570-r122199619-Quality_Suites_North_Galleria-Addison_Texas.html</t>
   </si>
   <si>
@@ -1997,6 +2261,9 @@
     <t xml:space="preserve">We have been staying here 2-3 times a year for about 7 years. Great value: Breakfast is above and beyond most Comfort Suites. Staff has always been friendly and helpful, although we miss Lindsey. Hotel has real  suites with French doors which I just love. </t>
   </si>
   <si>
+    <t>S C</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d109570-r119814664-Quality_Suites_North_Galleria-Addison_Texas.html</t>
   </si>
   <si>
@@ -2024,6 +2291,9 @@
     <t>I am rather disappointed for the service received and lack of attentiveness during my recent stay this past weekend. The Front Desk agent that  took my reservation was great, very helpful, she set my family and I up with a great rate; and  her pleasant voice made me excited for my stay. The bed is comfortable and breakfast is above average, but the ceiling fan did not work in the room with the pull out couch. I went down and told the Front Desk that it was not working and I was told that maintenance was gone for the day but that they would inform them of the non working fan and send someone up tomorrow. I understand it was after hours, but a maintenance personnel never came. I was told on Saturday that they did not work weekends. I was offered a box fan from downstairs but did not receive it, I was told I would have to go get it.  Those things I feel are minor, but charging my card after I told the Front Desk twice we were switching to another card  is frustrating. There are many things I can over look in errors, but to reassure me that I was not being charged and then still do so, causing overdraft fees and inconveniences is very disappointing and the lack of attentiveness is disenchanting.   Victoria was very professional and her can do attitude is greatly appreciated in...I am rather disappointed for the service received and lack of attentiveness during my recent stay this past weekend. The Front Desk agent that  took my reservation was great, very helpful, she set my family and I up with a great rate; and  her pleasant voice made me excited for my stay. The bed is comfortable and breakfast is above average, but the ceiling fan did not work in the room with the pull out couch. I went down and told the Front Desk that it was not working and I was told that maintenance was gone for the day but that they would inform them of the non working fan and send someone up tomorrow. I understand it was after hours, but a maintenance personnel never came. I was told on Saturday that they did not work weekends. I was offered a box fan from downstairs but did not receive it, I was told I would have to go get it.  Those things I feel are minor, but charging my card after I told the Front Desk twice we were switching to another card  is frustrating. There are many things I can over look in errors, but to reassure me that I was not being charged and then still do so, causing overdraft fees and inconveniences is very disappointing and the lack of attentiveness is disenchanting.   Victoria was very professional and her can do attitude is greatly appreciated in trying to fix the error. I can only hope that my billing error is resolved promptly.  I will choose to stay elsewhere next time I am in the area.More</t>
   </si>
   <si>
+    <t>nitin_shah01</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d109570-r119269105-Quality_Suites_North_Galleria-Addison_Texas.html</t>
   </si>
   <si>
@@ -2039,6 +2309,9 @@
     <t>Traveling to Addison from Oklahoma for the TX/OU game was a little hit to the pocket book. But staying at the Comfort Suites in Addison sure saved us money. For the price we paid the rooms were very clean and the location had plenty of places to eat at in the area. Oh and the Galleria was only down the street.</t>
   </si>
   <si>
+    <t>Natashameh</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d109570-r119268877-Quality_Suites_North_Galleria-Addison_Texas.html</t>
   </si>
   <si>
@@ -2051,6 +2324,9 @@
     <t>I stayed at the Comfort Suites this past weekend with my family and I must say that it was better than amazing. From the moment we walked through the door the staff was very welcoming and throughout the stay they made sure that all of our needs were met. The breakfast was always well stocked and saved us tons of money from having to go out and feed the family at a local restaurant. I would suggest to anyone traveling to the Addison area this world be the place to stay.</t>
   </si>
   <si>
+    <t>crosscarrier</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d109570-r116172516-Quality_Suites_North_Galleria-Addison_Texas.html</t>
   </si>
   <si>
@@ -2069,6 +2345,9 @@
     <t>July 2011</t>
   </si>
   <si>
+    <t>SKissie</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d109570-r116171883-Quality_Suites_North_Galleria-Addison_Texas.html</t>
   </si>
   <si>
@@ -2084,6 +2363,9 @@
     <t>June 2011</t>
   </si>
   <si>
+    <t>cathy6432</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d109570-r116169869-Quality_Suites_North_Galleria-Addison_Texas.html</t>
   </si>
   <si>
@@ -2097,6 +2379,9 @@
   </si>
   <si>
     <t>August 2011</t>
+  </si>
+  <si>
+    <t>DominusSpecies</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d109570-r115401019-Quality_Suites_North_Galleria-Addison_Texas.html</t>
@@ -2126,6 +2411,9 @@
    Just in case you want to know... Not only are the staff friendly and helpful AND Honest... the room was perfect. My suite had Two TVs. One in the bedroom and one in the adjoining living area. The...Nearing the end of nearly 2 months of travel, I had SO many treasures to pack into my car that I had somehow failed to pack a Hard Rock Cafe/NY coat I had purchased. I didn't notice this fact until I was home (Spokane WA). Argh!! Being such a well known trademarked item, I felt confident whomever came across this loss would surely discreetly help it along to their own closet.   Fearing the worst, I still made a call to the last place I remembered seeing my treasured coat. I found my receipt for the Comfort Suites in Addison, TX and dialed their number. The clerk answered and checked lost-and-found. To my delight, the coat was there!! The cleaning staff had found it and turned it in. I made arrangements with the manager (Cala Montano) to have it shipped to me and a few days later my coat hung in my closet.   The relief was great and the honesty of the staff gave me pause. I suppose I have seen too often the greed and deceit of others; I hadn't expected this outcome and have had to re-evaluate some of my social expectations - well, certainly my expectations of Comfort Suites personnel.   Just in case you want to know... Not only are the staff friendly and helpful AND Honest... the room was perfect. My suite had Two TVs. One in the bedroom and one in the adjoining living area. The mini-kitchen was also a delight. In retrospect, every Comfort Suites Inn I had stayed at had Truly been a Comfort. Should I ever make another journey around the country you KNOW I will be booking my rooms with Comfort Suites!!   PS: To the staff in Addison, TX - I again send my heartfelt Thanks and Best Wishes!!  :)More</t>
   </si>
   <si>
+    <t>Char52_11</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d109570-r112242598-Quality_Suites_North_Galleria-Addison_Texas.html</t>
   </si>
   <si>
@@ -2141,6 +2429,9 @@
     <t>Rooms were spotless! service was consistant! staff was pleaseant and very helpful!This was hands down the best place I have ever stayed. I made all the arrangements for 25 plus family members and since I had never been there ,I was hoping I had made a good choice. Noting but the best from the second we all walked in! My Aunt asked if we were the only folks there as they sure attended to us all !</t>
   </si>
   <si>
+    <t>cmatoska</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d109570-r108489007-Quality_Suites_North_Galleria-Addison_Texas.html</t>
   </si>
   <si>
@@ -2159,6 +2450,9 @@
     <t>April 2011</t>
   </si>
   <si>
+    <t>Louisianaluv2travel</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d109570-r102897283-Quality_Suites_North_Galleria-Addison_Texas.html</t>
   </si>
   <si>
@@ -2180,6 +2474,9 @@
     <t>This hotel is tucked away off Beltline Rd, so my GPS had a difficult time locating it behind other businesses. The hotel location is GREAT if you stay here for shopping purposes (which is why I stayed here for 2 nights). Near lots of neat restaurants and close location to Galleria, Tollway, and I-635. It is located VERY close to the Addison airport though, so you hear the small planes landing until around midnight. It could use some updating, but the staff was very nice and the buffet breakfast was decent. For the price paid, it was worth the stay. The living room was large with a nice comfy couch and kitchenette, and the king bed in a separate room that could be closed off for privacy.More</t>
   </si>
   <si>
+    <t>Br0wnFamily</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d109570-r91743244-Quality_Suites_North_Galleria-Addison_Texas.html</t>
   </si>
   <si>
@@ -2201,6 +2498,9 @@
     <t>The staff were so nice, great amenities, spacious rooms, this hotel saved my budget, this is the place I will plan for my trip to Dallas every time! Beds were great, the kids had their own TVs, breakfast was the best I have had in all the hotels i've stayed at. Tons of variety for the pickiest person, and the indoor pool was clean and not overly cholrinated. Even with the remodeling, there was still order. This was a great location to stay for all of Addison's great places to eat. Easy in and out access! My Mollie (minature sheltie) had plenty of grass to do her business and still had room to run around and get her excercise.  Very pet friendly.More</t>
   </si>
   <si>
+    <t>MikenHope</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d109570-r87535791-Quality_Suites_North_Galleria-Addison_Texas.html</t>
   </si>
   <si>
@@ -2219,6 +2519,9 @@
     <t>November 2010</t>
   </si>
   <si>
+    <t>aroguestatus</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d109570-r84535062-Quality_Suites_North_Galleria-Addison_Texas.html</t>
   </si>
   <si>
@@ -2234,6 +2537,9 @@
     <t>I stayed here for a recent meet up with friends from different parts and therefore I found this hotel. It was a great place, the rooms were HUGE! the service was great and I needed a few things that i forgot at home and the staff jumped right on my requests. It was a little hard to find from belt line but that is about the only "complaint" I had. Great value and great stay. Good amenities alsp</t>
   </si>
   <si>
+    <t>nklnh33</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d109570-r83420939-Quality_Suites_North_Galleria-Addison_Texas.html</t>
   </si>
   <si>
@@ -2255,6 +2561,9 @@
     <t>pretty nice hotel.. great customer service! when I arrived for check in the lady behind the desk asked if I would be using the pull out couch/bed and I said yes (brought 2 friend with us) and she said the one she had us in didnt have a pull out so she upgraded our room to one with a pull out bed, jacuzzi, and doors separating the bedroom and the living room. I paid about 80 for my 120 dollar hotel room. If you are a regular joe like me then this hotel is perfect. If you are snooty and uptight probably not a good choice. No room service and things like that noone waiting on you hand and foot. My only complaint is..my 2 friends needed pillows for the pull out sofa bed and they went to ask the front desk for some and the man said will 1 work? and he was dead serious and they came back with 1 pillow! ended up not being a big deal because we had like 6 on our bed lol but still "will one work???????????????" idiot..all in all I was very satisfied though also a really great area they have just about anything within 5 miles of the hotel!More</t>
   </si>
   <si>
+    <t>troyjones5</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d109570-r66030305-Quality_Suites_North_Galleria-Addison_Texas.html</t>
   </si>
   <si>
@@ -2274,6 +2583,9 @@
   </si>
   <si>
     <t>I stayed at this location for the Taste Of Addison which was an awsome showing of food, music, and alcohol right down the road. It helped that the hotel was about a half a mile away considering I got so hammered that we didn't drive, and we found good parking at the event. We just walked right down the road back to the hotel, which was a nice romantic stroll. The hotel itself does need to be more modernized, but hey what is modern in this day in age. I needed a few things asked to the staff and they were so willing to help, I felt bad but they were on top of their game without hesitation. The beds are awsome, the staffs amazing, the foods pretty bomb, and the location is sweeeet. I would definitely stay here again and will recommend to anyone in the area. The price is awsome for the stay.More</t>
+  </si>
+  <si>
+    <t>jboy2001</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d109570-r39740704-Quality_Suites_North_Galleria-Addison_Texas.html</t>
@@ -2299,6 +2611,9 @@
 As an addendum, I did write to the chairman of Choice Hotels with a copy of my wife's note and a detailed letter from me explaining that we choose this hotel because it was...The room we had had dirty carpets, the light sconces were falling off the walls.  During the night the toilet leaked, apparently the wax seal broke.  My wife had left her make-up/jewelry bag on the floor of the bathroom and found it soaked.  When advised of the situation the desk clerk only offered another room.  We insisted upon a refund which she was not authorized to issue.  My wife left a note for the manager (whom the clerk could not find or contact - believe it or not his phone was disconnected!) with her cell phone number.  She detailed our experience and asked him to call as soon as possible.  No call was forthcoming, ever.  I will also note the "breakfast" was sub par.  It consisted of a few dry cereals, a bagel and maybe a sweet roll.  Poor, it seemed it was an afterthought, something to do to put in the advertising.  We did check out by 8am went to the Best Western just 2 blocks away and got wonderful service, they allowed us to have thier hot breakfast and they were able to let us in a room that early.  The price was the same. I have since used this Best Western many times.As an addendum, I did write to the chairman of Choice Hotels with a copy of my wife's note and a detailed letter from me explaining that we choose this hotel because it was a) close to my daughter, b) it was a national chain, c) most of the Choice hotels we have stayed at were fine.  I will also note the manager never responded to us, except to send us a refund with a curt note.  The chairman had an assistant write us, and unbelievably the assistant said that since each hotel is owned by a franchisee they had no control over their policies!  I will avoid using any Choice Hotel property.  The customer seems to be wrong at this facility.More</t>
   </si>
   <si>
+    <t>NicoleKHewitt</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d109570-r36636007-Quality_Suites_North_Galleria-Addison_Texas.html</t>
   </si>
   <si>
@@ -2320,6 +2635,9 @@
     <t>I stayed in this motel while my daughter competed in a National basketball tournament.  I was so disappointed in the motel from the time I got on the elevator and even more so when I opened the door to the room.  The elevator is extremely outdated and probably in need of repair. The stains in the carpet started in the elevator and were also in the hallways.  The room smelled like mold that was trying to be covered up by bleach. The hallways were hot and the chairrails in the hallways looked like a child painted them.  The only high point of the stay was the breakfast.  I was booked for two nights, but decided that 1 night was way too much.More</t>
   </si>
   <si>
+    <t>havegpswilltravel</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d109570-r35616310-Quality_Suites_North_Galleria-Addison_Texas.html</t>
   </si>
   <si>
@@ -2335,6 +2653,9 @@
     <t>We stayed with our family and grand[parents after a day of shopping the Galleria. The room was large and comfortable and the only disappointment was that the jacuzzi by the pool was down, the desk clerk told us that a large group had been there recently and broke it. The breakfast was excellent and a staff member came around with refills for our coffee and orange juice which I have never had done for me at a continental breakfast at a hotel. It was a pleasant surprise. We would stay here again if we came to the area.</t>
   </si>
   <si>
+    <t>Knorr1</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d109570-r24528690-Quality_Suites_North_Galleria-Addison_Texas.html</t>
   </si>
   <si>
@@ -2353,6 +2674,9 @@
     <t>February 2009</t>
   </si>
   <si>
+    <t>madchemist20</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d109570-r23710315-Quality_Suites_North_Galleria-Addison_Texas.html</t>
   </si>
   <si>
@@ -2374,6 +2698,9 @@
     <t>I was optimistic about my stay this last weekend. The hotel was a recommendation from a colleague, so I booked a weekend there for my husband and I. The room was okay (about what you'd expect for a hotel of this class), but on the first day, our room was cleaned and we weren't left any towels. Not an earth shattering occurrence, but  when I'm giving an establishment my money, I expect proper service. Additionally, the light cover outside the door fell on my head the second night and it took a whole day for someone to get the broken piece from outside the room. The front desk is dismissive, and the breakfast area is ridiculously crowded in the morning, with no room to move. Overall, I wasn't surprised by any of these circumstances, but I definitely won't give this hotel any more of my business.More</t>
   </si>
   <si>
+    <t>bluengold2007</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d109570-r19543429-Quality_Suites_North_Galleria-Addison_Texas.html</t>
   </si>
   <si>
@@ -2395,6 +2722,9 @@
     <t>I was impressed by the hospitality, the accomadations and the price. I have stayed at this property before, and I was planning another stay in this area, but decided to view some reviews first to see if the quality has changed. The reviews are not very accurate when describing the hotel nor the service. When I called the property to confirm information on their National website, the front desk agent was glad to see that I was a returning guest and was willing to help me find a room tailored to my needs. That was key in my decision to select this hotel. I was impressed by her willingness to assist, she was super friendly and accomadating. Once arriving at the hotel I was greeted by another front desk agent who was also very friendly. Check in time took less then 60 seconds I swear it was awesome. My suite was huge, I had a king size corner jacuzzi suite and I was blown away at the value.If this was a 4 star hotel I would easily pay 3 times as much. The furnishings matched and were in good shape. I had a slight housekeeping problem so I called the front desk, I was greeted by name (I thought only upscale hotels did this) and she said she would get someone down to correct. Once again they were on the ball, less than 60 seconds later housekeeping was at my...I was impressed by the hospitality, the accomadations and the price. I have stayed at this property before, and I was planning another stay in this area, but decided to view some reviews first to see if the quality has changed. The reviews are not very accurate when describing the hotel nor the service. When I called the property to confirm information on their National website, the front desk agent was glad to see that I was a returning guest and was willing to help me find a room tailored to my needs. That was key in my decision to select this hotel. I was impressed by her willingness to assist, she was super friendly and accomadating. Once arriving at the hotel I was greeted by another front desk agent who was also very friendly. Check in time took less then 60 seconds I swear it was awesome. My suite was huge, I had a king size corner jacuzzi suite and I was blown away at the value.If this was a 4 star hotel I would easily pay 3 times as much. The furnishings matched and were in good shape. I had a slight housekeeping problem so I called the front desk, I was greeted by name (I thought only upscale hotels did this) and she said she would get someone down to correct. Once again they were on the ball, less than 60 seconds later housekeeping was at my door and corrected my issue.  Then within 10 min the front desk called to make sure the issue was resolved to my satisfaction. (I thought only upscale hotels did this too) The bed has been mentioned in reviews below as being hard, not comfortable, covers too short etc. Well they must read reviews because my bed is perfect, it is comfortable, with a pillowtop, more than enough pillows, and nice linens, not just the cheesy flowery bedspreads. The free breakfast had great variety. I will definitely stay here again. I feel safe in this area. It would be difficult to locate for someone new to this area but CS has put up a huge sign with an arrow directing guests to their property, so they do listen to feedback and I think that is awesome.More</t>
   </si>
   <si>
+    <t>rbornes</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d109570-r14574295-Quality_Suites_North_Galleria-Addison_Texas.html</t>
   </si>
   <si>
@@ -2416,6 +2746,9 @@
     <t>I live in the Addison area and needed a hotel stay for 1 week. I chose this hotel because it was at a convenient location. The first night there, my son slept on the sofa bed where he fell through the springs mattress because it was poorly in need of replacement. I called roomservice the next morning and they replaced it. Three days later, I left at 10:15 am going to work, I returned at 7:45 pm that night and my room door was open. It looked as though the maids had come in and left the security latch flipped so the door would not close. I walked in and my laptop had been stolen. I called front desk and she told me that the maids had cleaned my room around 5 something but closed the door behind them..ANYWAY, I went downstairs and talked to her. I gave her my cell number and name and asked her to have a manager call me because I had to leave. 2 hours later when I returned receiving no phone call, I asked her why she never called or anything. THEN, out of nowhere, AN OLDER  CAUCASIAN gentleman rudely and loudly commented , "WHAT DO YOU WANT US TO DO, DO YOU WANT ME TO COME OUT OF MY POCKET AND PAY FOR YOUR LAPTOP. WE ARE NOT RESPONSIBLE FOR YOUR PERSONAL ITEMS. OUR MAIDS LOCKED THE DOOR BEHIND THEM WHEN THEY LEFT...I live in the Addison area and needed a hotel stay for 1 week. I chose this hotel because it was at a convenient location. The first night there, my son slept on the sofa bed where he fell through the springs mattress because it was poorly in need of replacement. I called roomservice the next morning and they replaced it. Three days later, I left at 10:15 am going to work, I returned at 7:45 pm that night and my room door was open. It looked as though the maids had come in and left the security latch flipped so the door would not close. I walked in and my laptop had been stolen. I called front desk and she told me that the maids had cleaned my room around 5 something but closed the door behind them..ANYWAY, I went downstairs and talked to her. I gave her my cell number and name and asked her to have a manager call me because I had to leave. 2 hours later when I returned receiving no phone call, I asked her why she never called or anything. THEN, out of nowhere, AN OLDER  CAUCASIAN gentleman rudely and loudly commented , "WHAT DO YOU WANT US TO DO, DO YOU WANT ME TO COME OUT OF MY POCKET AND PAY FOR YOUR LAPTOP. WE ARE NOT RESPONSIBLE FOR YOUR PERSONAL ITEMS. OUR MAIDS LOCKED THE DOOR BEHIND THEM WHEN THEY LEFT YOUR ROOM". He was very dispectful and rude. After an hour had passed and police report being filed, my Fiance' came and asked me what happened and we went back down stairs. The guy at the front desk spoke to us using Racial slurs and would not call the manager or anything.. ...I would advise everyone wanting to stay here to find somewhere else to stay. The price may be cheap, but you get what you pay for. The district manager  was no help to the us. I called the hotel the day after this happened and spoke to another desk clerk. She advised me that they manually input the time in and out of the keycard use to the rooms..With this being said, They manually inputed the times that I told them to make it look legit AND I KNOW THIS FOR A FACT BECAUSE  SOME ENTRIES TO MY ROOM WERE NOT DOCUMENTED...THEY USED THE TIMES THAT I GAVE THEM AND WHAT THE MAIDS LOGGED ON THEIR SHHETS....I'm pretty sure the rude workers still work there . Also, I will not have my laptop replaced by this hotel because by they did not have insurance coverage....WHAT A SURPRISE..  Oh, the district manager says they provide safe deposit boxes for jewelry only...GOOD LUCK WITH YOUR PERSONAL ITEMS THAT AREN'T JEWELRY....More</t>
   </si>
   <si>
+    <t>rbaron721</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d109570-r8829676-Quality_Suites_North_Galleria-Addison_Texas.html</t>
   </si>
   <si>
@@ -2437,6 +2770,9 @@
     <t>The place is in serious need of a renovation.  Everything is rundown.  I didn't want to move an inch in the bed I slept in because the matress cover didnt cover the whole bed.  There are many stains in my room and all over the halls of the hotel.  The best part about my stay was that the internet was fast.  I feared for my safety because when I lost my car donce, the girl up front didn't ask to see an I.D. or anything before handing me a new one.  The bath towels had stains on them.  There were tears in the carpet and even a hole in the wall behind the door.  I did like how the t.v. had many channels.  I could hear people running and walking on the floor above me every night of my stay until 3 in the morning.  The rooms are large, which is a plus but that doesn't make up for how gross this place is.  Does this place have a manager?  Has he or she ever seen the inside of the rooms?  Is this place on such a tight budget that the owners can not replace the carpet or fix the holes in the walls?  Bad hotel- no good.  You would be better off almost anywhere else in Dallas.More</t>
   </si>
   <si>
+    <t>A TripAdvisor Member</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d109570-r4707111-Quality_Suites_North_Galleria-Addison_Texas.html</t>
   </si>
   <si>
@@ -2468,6 +2804,9 @@
   </si>
   <si>
     <t>November 2004</t>
+  </si>
+  <si>
+    <t>LynnB_Huntsville_AL</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d109570-r3117135-Quality_Suites_North_Galleria-Addison_Texas.html</t>
@@ -2990,43 +3329,47 @@
       <c r="A2" t="n">
         <v>36476</v>
       </c>
-      <c r="B2" t="s"/>
-      <c r="C2" t="s"/>
+      <c r="B2" t="n">
+        <v>174324</v>
+      </c>
+      <c r="C2" t="s">
+        <v>44</v>
+      </c>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="L2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="M2" t="n">
         <v>3</v>
       </c>
       <c r="N2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P2" t="n">
         <v>3</v>
@@ -3046,50 +3389,54 @@
       <c r="W2" t="s"/>
       <c r="X2" t="s"/>
       <c r="Y2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>36476</v>
       </c>
-      <c r="B3" t="s"/>
-      <c r="C3" t="s"/>
+      <c r="B3" t="n">
+        <v>174325</v>
+      </c>
+      <c r="C3" t="s">
+        <v>56</v>
+      </c>
       <c r="D3" t="n">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F3" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="G3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I3" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="J3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="K3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="L3" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="M3" t="n">
         <v>5</v>
       </c>
       <c r="N3" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="O3" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="P3" t="s"/>
       <c r="Q3" t="s"/>
@@ -3103,50 +3450,54 @@
       <c r="W3" t="s"/>
       <c r="X3" t="s"/>
       <c r="Y3" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>36476</v>
       </c>
-      <c r="B4" t="s"/>
-      <c r="C4" t="s"/>
+      <c r="B4" t="n">
+        <v>174326</v>
+      </c>
+      <c r="C4" t="s">
+        <v>64</v>
+      </c>
       <c r="D4" t="n">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F4" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="G4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I4" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="J4" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="K4" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="L4" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="M4" t="n">
         <v>5</v>
       </c>
       <c r="N4" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="O4" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="P4" t="s"/>
       <c r="Q4" t="s"/>
@@ -3160,50 +3511,54 @@
       <c r="W4" t="s"/>
       <c r="X4" t="s"/>
       <c r="Y4" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>36476</v>
       </c>
-      <c r="B5" t="s"/>
-      <c r="C5" t="s"/>
+      <c r="B5" t="n">
+        <v>3334</v>
+      </c>
+      <c r="C5" t="s">
+        <v>72</v>
+      </c>
       <c r="D5" t="n">
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F5" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="G5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I5" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="J5" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="K5" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="L5" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="M5" t="n">
         <v>1</v>
       </c>
       <c r="N5" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="O5" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="P5" t="n">
         <v>1</v>
@@ -3223,50 +3578,54 @@
       <c r="W5" t="s"/>
       <c r="X5" t="s"/>
       <c r="Y5" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>36476</v>
       </c>
-      <c r="B6" t="s"/>
-      <c r="C6" t="s"/>
+      <c r="B6" t="n">
+        <v>99352</v>
+      </c>
+      <c r="C6" t="s">
+        <v>80</v>
+      </c>
       <c r="D6" t="n">
         <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F6" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="G6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I6" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="J6" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="K6" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="L6" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="M6" t="n">
         <v>1</v>
       </c>
       <c r="N6" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="O6" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P6" t="s"/>
       <c r="Q6" t="s"/>
@@ -3284,50 +3643,54 @@
       <c r="W6" t="s"/>
       <c r="X6" t="s"/>
       <c r="Y6" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>36476</v>
       </c>
-      <c r="B7" t="s"/>
-      <c r="C7" t="s"/>
+      <c r="B7" t="n">
+        <v>174327</v>
+      </c>
+      <c r="C7" t="s">
+        <v>86</v>
+      </c>
       <c r="D7" t="n">
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F7" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="G7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I7" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="J7" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="K7" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="L7" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="M7" t="n">
         <v>1</v>
       </c>
       <c r="N7" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="O7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P7" t="n">
         <v>1</v>
@@ -3347,50 +3710,54 @@
       <c r="W7" t="s"/>
       <c r="X7" t="s"/>
       <c r="Y7" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
         <v>36476</v>
       </c>
-      <c r="B8" t="s"/>
-      <c r="C8" t="s"/>
+      <c r="B8" t="n">
+        <v>174328</v>
+      </c>
+      <c r="C8" t="s">
+        <v>92</v>
+      </c>
       <c r="D8" t="n">
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F8" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="G8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I8" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="J8" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="K8" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="L8" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="M8" t="n">
         <v>2</v>
       </c>
       <c r="N8" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="O8" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P8" t="s"/>
       <c r="Q8" t="s"/>
@@ -3408,50 +3775,54 @@
       <c r="W8" t="s"/>
       <c r="X8" t="s"/>
       <c r="Y8" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>36476</v>
       </c>
-      <c r="B9" t="s"/>
-      <c r="C9" t="s"/>
+      <c r="B9" t="n">
+        <v>174329</v>
+      </c>
+      <c r="C9" t="s">
+        <v>99</v>
+      </c>
       <c r="D9" t="n">
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F9" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="G9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I9" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="J9" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="K9" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="L9" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="M9" t="n">
         <v>5</v>
       </c>
       <c r="N9" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="O9" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P9" t="s"/>
       <c r="Q9" t="s"/>
@@ -3471,50 +3842,54 @@
       <c r="W9" t="s"/>
       <c r="X9" t="s"/>
       <c r="Y9" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
         <v>36476</v>
       </c>
-      <c r="B10" t="s"/>
-      <c r="C10" t="s"/>
+      <c r="B10" t="n">
+        <v>6881</v>
+      </c>
+      <c r="C10" t="s">
+        <v>107</v>
+      </c>
       <c r="D10" t="n">
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F10" t="s">
-        <v>99</v>
+        <v>108</v>
       </c>
       <c r="G10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H10" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I10" t="s">
-        <v>100</v>
+        <v>109</v>
       </c>
       <c r="J10" t="s">
-        <v>101</v>
+        <v>110</v>
       </c>
       <c r="K10" t="s">
-        <v>102</v>
+        <v>111</v>
       </c>
       <c r="L10" t="s">
-        <v>103</v>
+        <v>112</v>
       </c>
       <c r="M10" t="n">
         <v>2</v>
       </c>
       <c r="N10" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="O10" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="P10" t="s"/>
       <c r="Q10" t="s"/>
@@ -3528,50 +3903,54 @@
       <c r="W10" t="s"/>
       <c r="X10" t="s"/>
       <c r="Y10" t="s">
-        <v>103</v>
+        <v>112</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
         <v>36476</v>
       </c>
-      <c r="B11" t="s"/>
-      <c r="C11" t="s"/>
+      <c r="B11" t="n">
+        <v>174330</v>
+      </c>
+      <c r="C11" t="s">
+        <v>113</v>
+      </c>
       <c r="D11" t="n">
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F11" t="s">
-        <v>104</v>
+        <v>114</v>
       </c>
       <c r="G11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H11" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I11" t="s">
-        <v>105</v>
+        <v>115</v>
       </c>
       <c r="J11" t="s">
-        <v>106</v>
+        <v>116</v>
       </c>
       <c r="K11" t="s">
-        <v>107</v>
+        <v>117</v>
       </c>
       <c r="L11" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="M11" t="n">
         <v>4</v>
       </c>
       <c r="N11" t="s">
-        <v>109</v>
+        <v>119</v>
       </c>
       <c r="O11" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="P11" t="n">
         <v>4</v>
@@ -3589,50 +3968,54 @@
       <c r="W11" t="s"/>
       <c r="X11" t="s"/>
       <c r="Y11" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
         <v>36476</v>
       </c>
-      <c r="B12" t="s"/>
-      <c r="C12" t="s"/>
+      <c r="B12" t="n">
+        <v>174328</v>
+      </c>
+      <c r="C12" t="s">
+        <v>99</v>
+      </c>
       <c r="D12" t="n">
         <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F12" t="s">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="G12" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H12" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I12" t="s">
-        <v>111</v>
+        <v>121</v>
       </c>
       <c r="J12" t="s">
-        <v>112</v>
+        <v>122</v>
       </c>
       <c r="K12" t="s">
-        <v>113</v>
+        <v>123</v>
       </c>
       <c r="L12" t="s">
-        <v>114</v>
+        <v>124</v>
       </c>
       <c r="M12" t="n">
         <v>5</v>
       </c>
       <c r="N12" t="s">
-        <v>115</v>
+        <v>125</v>
       </c>
       <c r="O12" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P12" t="n">
         <v>5</v>
@@ -3652,50 +4035,54 @@
       <c r="W12" t="s"/>
       <c r="X12" t="s"/>
       <c r="Y12" t="s">
-        <v>116</v>
+        <v>126</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
         <v>36476</v>
       </c>
-      <c r="B13" t="s"/>
-      <c r="C13" t="s"/>
+      <c r="B13" t="n">
+        <v>174331</v>
+      </c>
+      <c r="C13" t="s">
+        <v>127</v>
+      </c>
       <c r="D13" t="n">
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F13" t="s">
-        <v>117</v>
+        <v>128</v>
       </c>
       <c r="G13" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H13" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I13" t="s">
-        <v>118</v>
+        <v>129</v>
       </c>
       <c r="J13" t="s">
-        <v>119</v>
+        <v>130</v>
       </c>
       <c r="K13" t="s">
-        <v>120</v>
+        <v>131</v>
       </c>
       <c r="L13" t="s">
-        <v>121</v>
+        <v>132</v>
       </c>
       <c r="M13" t="n">
         <v>5</v>
       </c>
       <c r="N13" t="s">
-        <v>115</v>
+        <v>125</v>
       </c>
       <c r="O13" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P13" t="s"/>
       <c r="Q13" t="n">
@@ -3713,50 +4100,54 @@
       <c r="W13" t="s"/>
       <c r="X13" t="s"/>
       <c r="Y13" t="s">
-        <v>121</v>
+        <v>132</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
         <v>36476</v>
       </c>
-      <c r="B14" t="s"/>
-      <c r="C14" t="s"/>
+      <c r="B14" t="n">
+        <v>146860</v>
+      </c>
+      <c r="C14" t="s">
+        <v>133</v>
+      </c>
       <c r="D14" t="n">
         <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F14" t="s">
-        <v>122</v>
+        <v>134</v>
       </c>
       <c r="G14" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H14" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I14" t="s">
-        <v>123</v>
+        <v>135</v>
       </c>
       <c r="J14" t="s">
-        <v>124</v>
+        <v>136</v>
       </c>
       <c r="K14" t="s">
-        <v>125</v>
+        <v>137</v>
       </c>
       <c r="L14" t="s">
-        <v>126</v>
+        <v>138</v>
       </c>
       <c r="M14" t="n">
         <v>3</v>
       </c>
       <c r="N14" t="s">
-        <v>127</v>
+        <v>139</v>
       </c>
       <c r="O14" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="P14" t="s"/>
       <c r="Q14" t="n">
@@ -3774,41 +4165,45 @@
       <c r="W14" t="s"/>
       <c r="X14" t="s"/>
       <c r="Y14" t="s">
-        <v>128</v>
+        <v>140</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
         <v>36476</v>
       </c>
-      <c r="B15" t="s"/>
-      <c r="C15" t="s"/>
+      <c r="B15" t="n">
+        <v>174332</v>
+      </c>
+      <c r="C15" t="s">
+        <v>141</v>
+      </c>
       <c r="D15" t="n">
         <v>14</v>
       </c>
       <c r="E15" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F15" t="s">
-        <v>129</v>
+        <v>142</v>
       </c>
       <c r="G15" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H15" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I15" t="s">
-        <v>130</v>
+        <v>143</v>
       </c>
       <c r="J15" t="s">
-        <v>131</v>
+        <v>144</v>
       </c>
       <c r="K15" t="s">
-        <v>132</v>
+        <v>145</v>
       </c>
       <c r="L15" t="s">
-        <v>133</v>
+        <v>146</v>
       </c>
       <c r="M15" t="n">
         <v>2</v>
@@ -3827,41 +4222,45 @@
       <c r="W15" t="s"/>
       <c r="X15" t="s"/>
       <c r="Y15" t="s">
-        <v>133</v>
+        <v>146</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
         <v>36476</v>
       </c>
-      <c r="B16" t="s"/>
-      <c r="C16" t="s"/>
+      <c r="B16" t="n">
+        <v>116178</v>
+      </c>
+      <c r="C16" t="s">
+        <v>147</v>
+      </c>
       <c r="D16" t="n">
         <v>15</v>
       </c>
       <c r="E16" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F16" t="s">
-        <v>134</v>
+        <v>148</v>
       </c>
       <c r="G16" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H16" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I16" t="s">
-        <v>135</v>
+        <v>149</v>
       </c>
       <c r="J16" t="s">
-        <v>136</v>
+        <v>150</v>
       </c>
       <c r="K16" t="s">
-        <v>137</v>
+        <v>151</v>
       </c>
       <c r="L16" t="s">
-        <v>138</v>
+        <v>152</v>
       </c>
       <c r="M16" t="n">
         <v>1</v>
@@ -3880,50 +4279,54 @@
       <c r="W16" t="s"/>
       <c r="X16" t="s"/>
       <c r="Y16" t="s">
-        <v>138</v>
+        <v>152</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
         <v>36476</v>
       </c>
-      <c r="B17" t="s"/>
-      <c r="C17" t="s"/>
+      <c r="B17" t="n">
+        <v>174333</v>
+      </c>
+      <c r="C17" t="s">
+        <v>153</v>
+      </c>
       <c r="D17" t="n">
         <v>16</v>
       </c>
       <c r="E17" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F17" t="s">
-        <v>139</v>
+        <v>154</v>
       </c>
       <c r="G17" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H17" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I17" t="s">
-        <v>140</v>
+        <v>155</v>
       </c>
       <c r="J17" t="s">
-        <v>141</v>
+        <v>156</v>
       </c>
       <c r="K17" t="s">
-        <v>142</v>
+        <v>157</v>
       </c>
       <c r="L17" t="s">
-        <v>143</v>
+        <v>158</v>
       </c>
       <c r="M17" t="n">
         <v>3</v>
       </c>
       <c r="N17" t="s">
-        <v>144</v>
+        <v>159</v>
       </c>
       <c r="O17" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="P17" t="n">
         <v>3</v>
@@ -3943,50 +4346,54 @@
       <c r="W17" t="s"/>
       <c r="X17" t="s"/>
       <c r="Y17" t="s">
-        <v>145</v>
+        <v>160</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
         <v>36476</v>
       </c>
-      <c r="B18" t="s"/>
-      <c r="C18" t="s"/>
+      <c r="B18" t="n">
+        <v>174334</v>
+      </c>
+      <c r="C18" t="s">
+        <v>161</v>
+      </c>
       <c r="D18" t="n">
         <v>17</v>
       </c>
       <c r="E18" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F18" t="s">
-        <v>146</v>
+        <v>162</v>
       </c>
       <c r="G18" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H18" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I18" t="s">
-        <v>147</v>
+        <v>163</v>
       </c>
       <c r="J18" t="s">
-        <v>141</v>
+        <v>156</v>
       </c>
       <c r="K18" t="s">
-        <v>148</v>
+        <v>164</v>
       </c>
       <c r="L18" t="s">
-        <v>149</v>
+        <v>165</v>
       </c>
       <c r="M18" t="n">
         <v>3</v>
       </c>
       <c r="N18" t="s">
-        <v>144</v>
+        <v>159</v>
       </c>
       <c r="O18" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="P18" t="s"/>
       <c r="Q18" t="s"/>
@@ -4000,50 +4407,54 @@
       <c r="W18" t="s"/>
       <c r="X18" t="s"/>
       <c r="Y18" t="s">
-        <v>150</v>
+        <v>166</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
         <v>36476</v>
       </c>
-      <c r="B19" t="s"/>
-      <c r="C19" t="s"/>
+      <c r="B19" t="n">
+        <v>38101</v>
+      </c>
+      <c r="C19" t="s">
+        <v>167</v>
+      </c>
       <c r="D19" t="n">
         <v>18</v>
       </c>
       <c r="E19" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F19" t="s">
-        <v>151</v>
+        <v>168</v>
       </c>
       <c r="G19" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H19" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I19" t="s">
-        <v>152</v>
+        <v>169</v>
       </c>
       <c r="J19" t="s">
-        <v>153</v>
+        <v>170</v>
       </c>
       <c r="K19" t="s">
-        <v>154</v>
+        <v>171</v>
       </c>
       <c r="L19" t="s">
-        <v>155</v>
+        <v>172</v>
       </c>
       <c r="M19" t="n">
         <v>5</v>
       </c>
       <c r="N19" t="s">
-        <v>144</v>
+        <v>159</v>
       </c>
       <c r="O19" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="P19" t="s"/>
       <c r="Q19" t="s"/>
@@ -4057,50 +4468,54 @@
       <c r="W19" t="s"/>
       <c r="X19" t="s"/>
       <c r="Y19" t="s">
-        <v>155</v>
+        <v>172</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
         <v>36476</v>
       </c>
-      <c r="B20" t="s"/>
-      <c r="C20" t="s"/>
+      <c r="B20" t="n">
+        <v>174335</v>
+      </c>
+      <c r="C20" t="s">
+        <v>173</v>
+      </c>
       <c r="D20" t="n">
         <v>19</v>
       </c>
       <c r="E20" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F20" t="s">
-        <v>156</v>
+        <v>174</v>
       </c>
       <c r="G20" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H20" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I20" t="s">
-        <v>157</v>
+        <v>175</v>
       </c>
       <c r="J20" t="s">
-        <v>158</v>
+        <v>176</v>
       </c>
       <c r="K20" t="s">
-        <v>159</v>
+        <v>177</v>
       </c>
       <c r="L20" t="s">
-        <v>160</v>
+        <v>178</v>
       </c>
       <c r="M20" t="n">
         <v>5</v>
       </c>
       <c r="N20" t="s">
-        <v>161</v>
+        <v>179</v>
       </c>
       <c r="O20" t="s">
-        <v>162</v>
+        <v>180</v>
       </c>
       <c r="P20" t="s"/>
       <c r="Q20" t="n">
@@ -4118,50 +4533,54 @@
       <c r="W20" t="s"/>
       <c r="X20" t="s"/>
       <c r="Y20" t="s">
-        <v>160</v>
+        <v>178</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
         <v>36476</v>
       </c>
-      <c r="B21" t="s"/>
-      <c r="C21" t="s"/>
+      <c r="B21" t="n">
+        <v>174336</v>
+      </c>
+      <c r="C21" t="s">
+        <v>181</v>
+      </c>
       <c r="D21" t="n">
         <v>20</v>
       </c>
       <c r="E21" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F21" t="s">
-        <v>163</v>
+        <v>182</v>
       </c>
       <c r="G21" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H21" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I21" t="s">
-        <v>164</v>
+        <v>183</v>
       </c>
       <c r="J21" t="s">
-        <v>165</v>
+        <v>184</v>
       </c>
       <c r="K21" t="s">
-        <v>166</v>
+        <v>185</v>
       </c>
       <c r="L21" t="s">
-        <v>167</v>
+        <v>186</v>
       </c>
       <c r="M21" t="n">
         <v>5</v>
       </c>
       <c r="N21" t="s">
-        <v>168</v>
+        <v>187</v>
       </c>
       <c r="O21" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P21" t="s"/>
       <c r="Q21" t="s"/>
@@ -4179,50 +4598,54 @@
       <c r="W21" t="s"/>
       <c r="X21" t="s"/>
       <c r="Y21" t="s">
-        <v>167</v>
+        <v>186</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
         <v>36476</v>
       </c>
-      <c r="B22" t="s"/>
-      <c r="C22" t="s"/>
+      <c r="B22" t="n">
+        <v>174337</v>
+      </c>
+      <c r="C22" t="s">
+        <v>188</v>
+      </c>
       <c r="D22" t="n">
         <v>21</v>
       </c>
       <c r="E22" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F22" t="s">
-        <v>169</v>
+        <v>189</v>
       </c>
       <c r="G22" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H22" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I22" t="s">
-        <v>170</v>
+        <v>190</v>
       </c>
       <c r="J22" t="s">
-        <v>171</v>
+        <v>191</v>
       </c>
       <c r="K22" t="s">
-        <v>172</v>
+        <v>192</v>
       </c>
       <c r="L22" t="s">
-        <v>173</v>
+        <v>193</v>
       </c>
       <c r="M22" t="n">
         <v>4</v>
       </c>
       <c r="N22" t="s">
-        <v>168</v>
+        <v>187</v>
       </c>
       <c r="O22" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="P22" t="n">
         <v>5</v>
@@ -4242,50 +4665,54 @@
       <c r="W22" t="s"/>
       <c r="X22" t="s"/>
       <c r="Y22" t="s">
-        <v>173</v>
+        <v>193</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
         <v>36476</v>
       </c>
-      <c r="B23" t="s"/>
-      <c r="C23" t="s"/>
+      <c r="B23" t="n">
+        <v>21261</v>
+      </c>
+      <c r="C23" t="s">
+        <v>194</v>
+      </c>
       <c r="D23" t="n">
         <v>22</v>
       </c>
       <c r="E23" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F23" t="s">
-        <v>174</v>
+        <v>195</v>
       </c>
       <c r="G23" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H23" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I23" t="s">
-        <v>175</v>
+        <v>196</v>
       </c>
       <c r="J23" t="s">
-        <v>176</v>
+        <v>197</v>
       </c>
       <c r="K23" t="s">
-        <v>177</v>
+        <v>198</v>
       </c>
       <c r="L23" t="s">
-        <v>178</v>
+        <v>199</v>
       </c>
       <c r="M23" t="n">
         <v>2</v>
       </c>
       <c r="N23" t="s">
-        <v>179</v>
+        <v>200</v>
       </c>
       <c r="O23" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P23" t="s"/>
       <c r="Q23" t="s"/>
@@ -4301,56 +4728,60 @@
         <v>0</v>
       </c>
       <c r="W23" t="s">
-        <v>180</v>
+        <v>201</v>
       </c>
       <c r="X23" t="s">
-        <v>181</v>
+        <v>202</v>
       </c>
       <c r="Y23" t="s">
-        <v>182</v>
+        <v>203</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
         <v>36476</v>
       </c>
-      <c r="B24" t="s"/>
-      <c r="C24" t="s"/>
+      <c r="B24" t="n">
+        <v>174338</v>
+      </c>
+      <c r="C24" t="s">
+        <v>204</v>
+      </c>
       <c r="D24" t="n">
         <v>23</v>
       </c>
       <c r="E24" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F24" t="s">
-        <v>183</v>
+        <v>205</v>
       </c>
       <c r="G24" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H24" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I24" t="s">
-        <v>184</v>
+        <v>206</v>
       </c>
       <c r="J24" t="s">
-        <v>185</v>
+        <v>207</v>
       </c>
       <c r="K24" t="s">
-        <v>186</v>
+        <v>208</v>
       </c>
       <c r="L24" t="s">
-        <v>187</v>
+        <v>209</v>
       </c>
       <c r="M24" t="n">
         <v>2</v>
       </c>
       <c r="N24" t="s">
-        <v>188</v>
+        <v>210</v>
       </c>
       <c r="O24" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="P24" t="s"/>
       <c r="Q24" t="s"/>
@@ -4362,56 +4793,60 @@
         <v>0</v>
       </c>
       <c r="W24" t="s">
-        <v>189</v>
+        <v>211</v>
       </c>
       <c r="X24" t="s">
-        <v>190</v>
+        <v>212</v>
       </c>
       <c r="Y24" t="s">
-        <v>191</v>
+        <v>213</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
         <v>36476</v>
       </c>
-      <c r="B25" t="s"/>
-      <c r="C25" t="s"/>
+      <c r="B25" t="n">
+        <v>174339</v>
+      </c>
+      <c r="C25" t="s">
+        <v>214</v>
+      </c>
       <c r="D25" t="n">
         <v>24</v>
       </c>
       <c r="E25" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F25" t="s">
-        <v>192</v>
+        <v>215</v>
       </c>
       <c r="G25" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H25" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I25" t="s">
-        <v>193</v>
+        <v>216</v>
       </c>
       <c r="J25" t="s">
-        <v>194</v>
+        <v>217</v>
       </c>
       <c r="K25" t="s">
-        <v>195</v>
+        <v>218</v>
       </c>
       <c r="L25" t="s">
-        <v>196</v>
+        <v>219</v>
       </c>
       <c r="M25" t="n">
         <v>2</v>
       </c>
       <c r="N25" t="s">
-        <v>197</v>
+        <v>220</v>
       </c>
       <c r="O25" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="P25" t="s"/>
       <c r="Q25" t="s"/>
@@ -4429,56 +4864,60 @@
         <v>0</v>
       </c>
       <c r="W25" t="s">
-        <v>198</v>
+        <v>221</v>
       </c>
       <c r="X25" t="s">
-        <v>199</v>
+        <v>222</v>
       </c>
       <c r="Y25" t="s">
-        <v>200</v>
+        <v>223</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
         <v>36476</v>
       </c>
-      <c r="B26" t="s"/>
-      <c r="C26" t="s"/>
+      <c r="B26" t="n">
+        <v>174340</v>
+      </c>
+      <c r="C26" t="s">
+        <v>224</v>
+      </c>
       <c r="D26" t="n">
         <v>25</v>
       </c>
       <c r="E26" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F26" t="s">
-        <v>201</v>
+        <v>225</v>
       </c>
       <c r="G26" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H26" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I26" t="s">
-        <v>202</v>
+        <v>226</v>
       </c>
       <c r="J26" t="s">
-        <v>203</v>
+        <v>227</v>
       </c>
       <c r="K26" t="s">
-        <v>204</v>
+        <v>228</v>
       </c>
       <c r="L26" t="s">
-        <v>205</v>
+        <v>229</v>
       </c>
       <c r="M26" t="n">
         <v>3</v>
       </c>
       <c r="N26" t="s">
-        <v>206</v>
+        <v>230</v>
       </c>
       <c r="O26" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="P26" t="s"/>
       <c r="Q26" t="s"/>
@@ -4496,56 +4935,60 @@
         <v>0</v>
       </c>
       <c r="W26" t="s">
-        <v>207</v>
+        <v>231</v>
       </c>
       <c r="X26" t="s">
-        <v>208</v>
+        <v>232</v>
       </c>
       <c r="Y26" t="s">
-        <v>209</v>
+        <v>233</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
         <v>36476</v>
       </c>
-      <c r="B27" t="s"/>
-      <c r="C27" t="s"/>
+      <c r="B27" t="n">
+        <v>174341</v>
+      </c>
+      <c r="C27" t="s">
+        <v>234</v>
+      </c>
       <c r="D27" t="n">
         <v>26</v>
       </c>
       <c r="E27" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F27" t="s">
-        <v>210</v>
+        <v>235</v>
       </c>
       <c r="G27" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H27" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I27" t="s">
-        <v>211</v>
+        <v>236</v>
       </c>
       <c r="J27" t="s">
-        <v>212</v>
+        <v>237</v>
       </c>
       <c r="K27" t="s">
-        <v>213</v>
+        <v>238</v>
       </c>
       <c r="L27" t="s">
-        <v>214</v>
+        <v>239</v>
       </c>
       <c r="M27" t="n">
         <v>5</v>
       </c>
       <c r="N27" t="s">
-        <v>215</v>
+        <v>240</v>
       </c>
       <c r="O27" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="P27" t="s"/>
       <c r="Q27" t="s"/>
@@ -4557,56 +5000,60 @@
         <v>0</v>
       </c>
       <c r="W27" t="s">
-        <v>216</v>
+        <v>241</v>
       </c>
       <c r="X27" t="s">
-        <v>217</v>
+        <v>242</v>
       </c>
       <c r="Y27" t="s">
-        <v>218</v>
+        <v>243</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
         <v>36476</v>
       </c>
-      <c r="B28" t="s"/>
-      <c r="C28" t="s"/>
+      <c r="B28" t="n">
+        <v>174342</v>
+      </c>
+      <c r="C28" t="s">
+        <v>244</v>
+      </c>
       <c r="D28" t="n">
         <v>27</v>
       </c>
       <c r="E28" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F28" t="s">
-        <v>219</v>
+        <v>245</v>
       </c>
       <c r="G28" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H28" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I28" t="s">
-        <v>220</v>
+        <v>246</v>
       </c>
       <c r="J28" t="s">
-        <v>221</v>
+        <v>247</v>
       </c>
       <c r="K28" t="s">
-        <v>222</v>
+        <v>248</v>
       </c>
       <c r="L28" t="s">
-        <v>223</v>
+        <v>249</v>
       </c>
       <c r="M28" t="n">
         <v>4</v>
       </c>
       <c r="N28" t="s">
-        <v>224</v>
+        <v>250</v>
       </c>
       <c r="O28" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="P28" t="s"/>
       <c r="Q28" t="n">
@@ -4624,50 +5071,54 @@
       <c r="W28" t="s"/>
       <c r="X28" t="s"/>
       <c r="Y28" t="s">
-        <v>225</v>
+        <v>251</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
         <v>36476</v>
       </c>
-      <c r="B29" t="s"/>
-      <c r="C29" t="s"/>
+      <c r="B29" t="n">
+        <v>174343</v>
+      </c>
+      <c r="C29" t="s">
+        <v>252</v>
+      </c>
       <c r="D29" t="n">
         <v>28</v>
       </c>
       <c r="E29" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F29" t="s">
-        <v>226</v>
+        <v>253</v>
       </c>
       <c r="G29" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H29" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I29" t="s">
-        <v>227</v>
+        <v>254</v>
       </c>
       <c r="J29" t="s">
-        <v>228</v>
+        <v>255</v>
       </c>
       <c r="K29" t="s">
-        <v>229</v>
+        <v>256</v>
       </c>
       <c r="L29" t="s">
-        <v>230</v>
+        <v>257</v>
       </c>
       <c r="M29" t="n">
         <v>1</v>
       </c>
       <c r="N29" t="s">
-        <v>224</v>
+        <v>250</v>
       </c>
       <c r="O29" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="P29" t="n">
         <v>2</v>
@@ -4685,56 +5136,60 @@
         <v>0</v>
       </c>
       <c r="W29" t="s">
-        <v>231</v>
+        <v>258</v>
       </c>
       <c r="X29" t="s">
-        <v>232</v>
+        <v>259</v>
       </c>
       <c r="Y29" t="s">
-        <v>233</v>
+        <v>260</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
         <v>36476</v>
       </c>
-      <c r="B30" t="s"/>
-      <c r="C30" t="s"/>
+      <c r="B30" t="n">
+        <v>12779</v>
+      </c>
+      <c r="C30" t="s">
+        <v>261</v>
+      </c>
       <c r="D30" t="n">
         <v>29</v>
       </c>
       <c r="E30" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F30" t="s">
-        <v>234</v>
+        <v>262</v>
       </c>
       <c r="G30" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H30" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I30" t="s">
-        <v>235</v>
+        <v>263</v>
       </c>
       <c r="J30" t="s">
-        <v>236</v>
+        <v>264</v>
       </c>
       <c r="K30" t="s">
-        <v>237</v>
+        <v>265</v>
       </c>
       <c r="L30" t="s">
-        <v>238</v>
+        <v>266</v>
       </c>
       <c r="M30" t="n">
         <v>4</v>
       </c>
       <c r="N30" t="s">
-        <v>224</v>
+        <v>250</v>
       </c>
       <c r="O30" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="P30" t="n">
         <v>5</v>
@@ -4750,56 +5205,60 @@
         <v>0</v>
       </c>
       <c r="W30" t="s">
-        <v>239</v>
+        <v>267</v>
       </c>
       <c r="X30" t="s">
-        <v>240</v>
+        <v>268</v>
       </c>
       <c r="Y30" t="s">
-        <v>241</v>
+        <v>269</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
         <v>36476</v>
       </c>
-      <c r="B31" t="s"/>
-      <c r="C31" t="s"/>
+      <c r="B31" t="n">
+        <v>8350</v>
+      </c>
+      <c r="C31" t="s">
+        <v>270</v>
+      </c>
       <c r="D31" t="n">
         <v>30</v>
       </c>
       <c r="E31" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F31" t="s">
-        <v>242</v>
+        <v>271</v>
       </c>
       <c r="G31" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H31" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I31" t="s">
-        <v>243</v>
+        <v>272</v>
       </c>
       <c r="J31" t="s">
-        <v>244</v>
+        <v>273</v>
       </c>
       <c r="K31" t="s">
-        <v>245</v>
+        <v>274</v>
       </c>
       <c r="L31" t="s">
-        <v>246</v>
+        <v>275</v>
       </c>
       <c r="M31" t="n">
         <v>4</v>
       </c>
       <c r="N31" t="s">
-        <v>224</v>
+        <v>250</v>
       </c>
       <c r="O31" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P31" t="n">
         <v>5</v>
@@ -4817,56 +5276,60 @@
         <v>0</v>
       </c>
       <c r="W31" t="s">
-        <v>239</v>
+        <v>267</v>
       </c>
       <c r="X31" t="s">
-        <v>240</v>
+        <v>268</v>
       </c>
       <c r="Y31" t="s">
-        <v>247</v>
+        <v>276</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
         <v>36476</v>
       </c>
-      <c r="B32" t="s"/>
-      <c r="C32" t="s"/>
+      <c r="B32" t="n">
+        <v>174344</v>
+      </c>
+      <c r="C32" t="s">
+        <v>277</v>
+      </c>
       <c r="D32" t="n">
         <v>31</v>
       </c>
       <c r="E32" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F32" t="s">
-        <v>248</v>
+        <v>278</v>
       </c>
       <c r="G32" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H32" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I32" t="s">
-        <v>249</v>
+        <v>279</v>
       </c>
       <c r="J32" t="s">
-        <v>250</v>
+        <v>280</v>
       </c>
       <c r="K32" t="s">
-        <v>251</v>
+        <v>281</v>
       </c>
       <c r="L32" t="s">
-        <v>252</v>
+        <v>282</v>
       </c>
       <c r="M32" t="n">
         <v>5</v>
       </c>
       <c r="N32" t="s">
-        <v>253</v>
+        <v>283</v>
       </c>
       <c r="O32" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P32" t="n">
         <v>5</v>
@@ -4882,56 +5345,60 @@
         <v>0</v>
       </c>
       <c r="W32" t="s">
-        <v>254</v>
+        <v>284</v>
       </c>
       <c r="X32" t="s">
-        <v>255</v>
+        <v>285</v>
       </c>
       <c r="Y32" t="s">
-        <v>256</v>
+        <v>286</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
         <v>36476</v>
       </c>
-      <c r="B33" t="s"/>
-      <c r="C33" t="s"/>
+      <c r="B33" t="n">
+        <v>174345</v>
+      </c>
+      <c r="C33" t="s">
+        <v>287</v>
+      </c>
       <c r="D33" t="n">
         <v>32</v>
       </c>
       <c r="E33" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F33" t="s">
-        <v>257</v>
+        <v>288</v>
       </c>
       <c r="G33" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H33" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I33" t="s">
-        <v>258</v>
+        <v>289</v>
       </c>
       <c r="J33" t="s">
-        <v>259</v>
+        <v>290</v>
       </c>
       <c r="K33" t="s">
-        <v>260</v>
+        <v>291</v>
       </c>
       <c r="L33" t="s">
-        <v>261</v>
+        <v>292</v>
       </c>
       <c r="M33" t="n">
         <v>4</v>
       </c>
       <c r="N33" t="s">
-        <v>253</v>
+        <v>283</v>
       </c>
       <c r="O33" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="P33" t="s"/>
       <c r="Q33" t="s"/>
@@ -4945,50 +5412,54 @@
       <c r="W33" t="s"/>
       <c r="X33" t="s"/>
       <c r="Y33" t="s">
-        <v>261</v>
+        <v>292</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
         <v>36476</v>
       </c>
-      <c r="B34" t="s"/>
-      <c r="C34" t="s"/>
+      <c r="B34" t="n">
+        <v>28603</v>
+      </c>
+      <c r="C34" t="s">
+        <v>293</v>
+      </c>
       <c r="D34" t="n">
         <v>33</v>
       </c>
       <c r="E34" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F34" t="s">
-        <v>262</v>
+        <v>294</v>
       </c>
       <c r="G34" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H34" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I34" t="s">
-        <v>263</v>
+        <v>295</v>
       </c>
       <c r="J34" t="s">
-        <v>264</v>
+        <v>296</v>
       </c>
       <c r="K34" t="s">
-        <v>265</v>
+        <v>297</v>
       </c>
       <c r="L34" t="s">
-        <v>266</v>
+        <v>298</v>
       </c>
       <c r="M34" t="n">
         <v>4</v>
       </c>
       <c r="N34" t="s">
-        <v>253</v>
+        <v>283</v>
       </c>
       <c r="O34" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P34" t="s"/>
       <c r="Q34" t="s"/>
@@ -5006,50 +5477,54 @@
       <c r="W34" t="s"/>
       <c r="X34" t="s"/>
       <c r="Y34" t="s">
-        <v>266</v>
+        <v>298</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
         <v>36476</v>
       </c>
-      <c r="B35" t="s"/>
-      <c r="C35" t="s"/>
+      <c r="B35" t="n">
+        <v>174346</v>
+      </c>
+      <c r="C35" t="s">
+        <v>299</v>
+      </c>
       <c r="D35" t="n">
         <v>34</v>
       </c>
       <c r="E35" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F35" t="s">
-        <v>267</v>
+        <v>300</v>
       </c>
       <c r="G35" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H35" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I35" t="s">
-        <v>268</v>
+        <v>301</v>
       </c>
       <c r="J35" t="s">
-        <v>269</v>
+        <v>302</v>
       </c>
       <c r="K35" t="s">
-        <v>270</v>
+        <v>303</v>
       </c>
       <c r="L35" t="s">
-        <v>271</v>
+        <v>304</v>
       </c>
       <c r="M35" t="n">
         <v>5</v>
       </c>
       <c r="N35" t="s">
-        <v>272</v>
+        <v>305</v>
       </c>
       <c r="O35" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="P35" t="s"/>
       <c r="Q35" t="s"/>
@@ -5065,56 +5540,60 @@
         <v>0</v>
       </c>
       <c r="W35" t="s">
-        <v>273</v>
+        <v>306</v>
       </c>
       <c r="X35" t="s">
-        <v>274</v>
+        <v>307</v>
       </c>
       <c r="Y35" t="s">
-        <v>275</v>
+        <v>308</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
         <v>36476</v>
       </c>
-      <c r="B36" t="s"/>
-      <c r="C36" t="s"/>
+      <c r="B36" t="n">
+        <v>174347</v>
+      </c>
+      <c r="C36" t="s">
+        <v>309</v>
+      </c>
       <c r="D36" t="n">
         <v>35</v>
       </c>
       <c r="E36" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F36" t="s">
-        <v>276</v>
+        <v>310</v>
       </c>
       <c r="G36" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H36" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I36" t="s">
-        <v>277</v>
+        <v>311</v>
       </c>
       <c r="J36" t="s">
-        <v>278</v>
+        <v>312</v>
       </c>
       <c r="K36" t="s">
-        <v>279</v>
+        <v>313</v>
       </c>
       <c r="L36" t="s">
-        <v>280</v>
+        <v>314</v>
       </c>
       <c r="M36" t="n">
         <v>5</v>
       </c>
       <c r="N36" t="s">
-        <v>272</v>
+        <v>305</v>
       </c>
       <c r="O36" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P36" t="s"/>
       <c r="Q36" t="s"/>
@@ -5134,50 +5613,54 @@
       <c r="W36" t="s"/>
       <c r="X36" t="s"/>
       <c r="Y36" t="s">
-        <v>280</v>
+        <v>314</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
         <v>36476</v>
       </c>
-      <c r="B37" t="s"/>
-      <c r="C37" t="s"/>
+      <c r="B37" t="n">
+        <v>4279</v>
+      </c>
+      <c r="C37" t="s">
+        <v>315</v>
+      </c>
       <c r="D37" t="n">
         <v>36</v>
       </c>
       <c r="E37" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F37" t="s">
-        <v>281</v>
+        <v>316</v>
       </c>
       <c r="G37" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H37" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I37" t="s">
-        <v>282</v>
+        <v>317</v>
       </c>
       <c r="J37" t="s">
-        <v>283</v>
+        <v>318</v>
       </c>
       <c r="K37" t="s">
-        <v>284</v>
+        <v>319</v>
       </c>
       <c r="L37" t="s">
-        <v>285</v>
+        <v>320</v>
       </c>
       <c r="M37" t="n">
         <v>4</v>
       </c>
       <c r="N37" t="s">
-        <v>286</v>
+        <v>321</v>
       </c>
       <c r="O37" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P37" t="s"/>
       <c r="Q37" t="s"/>
@@ -5197,50 +5680,54 @@
       <c r="W37" t="s"/>
       <c r="X37" t="s"/>
       <c r="Y37" t="s">
-        <v>285</v>
+        <v>320</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
         <v>36476</v>
       </c>
-      <c r="B38" t="s"/>
-      <c r="C38" t="s"/>
+      <c r="B38" t="n">
+        <v>174348</v>
+      </c>
+      <c r="C38" t="s">
+        <v>322</v>
+      </c>
       <c r="D38" t="n">
         <v>37</v>
       </c>
       <c r="E38" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F38" t="s">
-        <v>287</v>
+        <v>323</v>
       </c>
       <c r="G38" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H38" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I38" t="s">
-        <v>288</v>
+        <v>324</v>
       </c>
       <c r="J38" t="s">
-        <v>289</v>
+        <v>325</v>
       </c>
       <c r="K38" t="s">
-        <v>290</v>
+        <v>326</v>
       </c>
       <c r="L38" t="s">
-        <v>291</v>
+        <v>327</v>
       </c>
       <c r="M38" t="n">
         <v>3</v>
       </c>
       <c r="N38" t="s">
-        <v>292</v>
+        <v>328</v>
       </c>
       <c r="O38" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P38" t="n">
         <v>3</v>
@@ -5258,50 +5745,54 @@
       <c r="W38" t="s"/>
       <c r="X38" t="s"/>
       <c r="Y38" t="s">
-        <v>293</v>
+        <v>329</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
         <v>36476</v>
       </c>
-      <c r="B39" t="s"/>
-      <c r="C39" t="s"/>
+      <c r="B39" t="n">
+        <v>174349</v>
+      </c>
+      <c r="C39" t="s">
+        <v>330</v>
+      </c>
       <c r="D39" t="n">
         <v>38</v>
       </c>
       <c r="E39" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F39" t="s">
-        <v>294</v>
+        <v>331</v>
       </c>
       <c r="G39" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H39" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I39" t="s">
-        <v>295</v>
+        <v>332</v>
       </c>
       <c r="J39" t="s">
-        <v>296</v>
+        <v>333</v>
       </c>
       <c r="K39" t="s">
-        <v>297</v>
+        <v>334</v>
       </c>
       <c r="L39" t="s">
-        <v>298</v>
+        <v>335</v>
       </c>
       <c r="M39" t="n">
         <v>4</v>
       </c>
       <c r="N39" t="s">
-        <v>299</v>
+        <v>336</v>
       </c>
       <c r="O39" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="P39" t="s"/>
       <c r="Q39" t="n">
@@ -5321,41 +5812,45 @@
       <c r="W39" t="s"/>
       <c r="X39" t="s"/>
       <c r="Y39" t="s">
-        <v>300</v>
+        <v>337</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
         <v>36476</v>
       </c>
-      <c r="B40" t="s"/>
-      <c r="C40" t="s"/>
+      <c r="B40" t="n">
+        <v>36171</v>
+      </c>
+      <c r="C40" t="s">
+        <v>338</v>
+      </c>
       <c r="D40" t="n">
         <v>39</v>
       </c>
       <c r="E40" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F40" t="s">
-        <v>301</v>
+        <v>339</v>
       </c>
       <c r="G40" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H40" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I40" t="s">
-        <v>302</v>
+        <v>340</v>
       </c>
       <c r="J40" t="s">
-        <v>303</v>
+        <v>341</v>
       </c>
       <c r="K40" t="s">
-        <v>304</v>
+        <v>342</v>
       </c>
       <c r="L40" t="s">
-        <v>305</v>
+        <v>343</v>
       </c>
       <c r="M40" t="n">
         <v>4</v>
@@ -5374,41 +5869,45 @@
       <c r="W40" t="s"/>
       <c r="X40" t="s"/>
       <c r="Y40" t="s">
-        <v>305</v>
+        <v>343</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
         <v>36476</v>
       </c>
-      <c r="B41" t="s"/>
-      <c r="C41" t="s"/>
+      <c r="B41" t="n">
+        <v>5728</v>
+      </c>
+      <c r="C41" t="s">
+        <v>344</v>
+      </c>
       <c r="D41" t="n">
         <v>40</v>
       </c>
       <c r="E41" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F41" t="s">
-        <v>306</v>
+        <v>345</v>
       </c>
       <c r="G41" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H41" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I41" t="s">
-        <v>307</v>
+        <v>346</v>
       </c>
       <c r="J41" t="s">
-        <v>308</v>
+        <v>347</v>
       </c>
       <c r="K41" t="s">
-        <v>309</v>
+        <v>348</v>
       </c>
       <c r="L41" t="s">
-        <v>310</v>
+        <v>349</v>
       </c>
       <c r="M41" t="n">
         <v>3</v>
@@ -5425,56 +5924,60 @@
         <v>0</v>
       </c>
       <c r="W41" t="s">
-        <v>311</v>
+        <v>350</v>
       </c>
       <c r="X41" t="s">
-        <v>312</v>
+        <v>351</v>
       </c>
       <c r="Y41" t="s">
-        <v>313</v>
+        <v>352</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
         <v>36476</v>
       </c>
-      <c r="B42" t="s"/>
-      <c r="C42" t="s"/>
+      <c r="B42" t="n">
+        <v>174350</v>
+      </c>
+      <c r="C42" t="s">
+        <v>353</v>
+      </c>
       <c r="D42" t="n">
         <v>41</v>
       </c>
       <c r="E42" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F42" t="s">
-        <v>314</v>
+        <v>354</v>
       </c>
       <c r="G42" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H42" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I42" t="s">
-        <v>315</v>
+        <v>355</v>
       </c>
       <c r="J42" t="s">
-        <v>316</v>
+        <v>356</v>
       </c>
       <c r="K42" t="s">
-        <v>317</v>
+        <v>357</v>
       </c>
       <c r="L42" t="s">
-        <v>318</v>
+        <v>358</v>
       </c>
       <c r="M42" t="n">
         <v>1</v>
       </c>
       <c r="N42" t="s">
-        <v>319</v>
+        <v>359</v>
       </c>
       <c r="O42" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="P42" t="s"/>
       <c r="Q42" t="s"/>
@@ -5492,50 +5995,54 @@
       <c r="W42" t="s"/>
       <c r="X42" t="s"/>
       <c r="Y42" t="s">
-        <v>320</v>
+        <v>360</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
         <v>36476</v>
       </c>
-      <c r="B43" t="s"/>
-      <c r="C43" t="s"/>
+      <c r="B43" t="n">
+        <v>69344</v>
+      </c>
+      <c r="C43" t="s">
+        <v>361</v>
+      </c>
       <c r="D43" t="n">
         <v>42</v>
       </c>
       <c r="E43" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F43" t="s">
-        <v>321</v>
+        <v>362</v>
       </c>
       <c r="G43" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H43" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I43" t="s">
-        <v>322</v>
+        <v>363</v>
       </c>
       <c r="J43" t="s">
-        <v>323</v>
+        <v>364</v>
       </c>
       <c r="K43" t="s">
-        <v>324</v>
+        <v>365</v>
       </c>
       <c r="L43" t="s">
-        <v>325</v>
+        <v>366</v>
       </c>
       <c r="M43" t="n">
         <v>3</v>
       </c>
       <c r="N43" t="s">
-        <v>326</v>
+        <v>367</v>
       </c>
       <c r="O43" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P43" t="s"/>
       <c r="Q43" t="n">
@@ -5553,50 +6060,54 @@
       <c r="W43" t="s"/>
       <c r="X43" t="s"/>
       <c r="Y43" t="s">
-        <v>327</v>
+        <v>368</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
         <v>36476</v>
       </c>
-      <c r="B44" t="s"/>
-      <c r="C44" t="s"/>
+      <c r="B44" t="n">
+        <v>3346</v>
+      </c>
+      <c r="C44" t="s">
+        <v>369</v>
+      </c>
       <c r="D44" t="n">
         <v>43</v>
       </c>
       <c r="E44" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F44" t="s">
-        <v>328</v>
+        <v>370</v>
       </c>
       <c r="G44" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H44" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I44" t="s">
-        <v>329</v>
+        <v>371</v>
       </c>
       <c r="J44" t="s">
-        <v>330</v>
+        <v>372</v>
       </c>
       <c r="K44" t="s">
-        <v>331</v>
+        <v>373</v>
       </c>
       <c r="L44" t="s">
-        <v>332</v>
+        <v>374</v>
       </c>
       <c r="M44" t="n">
         <v>5</v>
       </c>
       <c r="N44" t="s">
-        <v>333</v>
+        <v>375</v>
       </c>
       <c r="O44" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="P44" t="n">
         <v>5</v>
@@ -5614,56 +6125,60 @@
         <v>0</v>
       </c>
       <c r="W44" t="s">
-        <v>334</v>
+        <v>376</v>
       </c>
       <c r="X44" t="s">
-        <v>335</v>
+        <v>377</v>
       </c>
       <c r="Y44" t="s">
-        <v>336</v>
+        <v>378</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
         <v>36476</v>
       </c>
-      <c r="B45" t="s"/>
-      <c r="C45" t="s"/>
+      <c r="B45" t="n">
+        <v>78997</v>
+      </c>
+      <c r="C45" t="s">
+        <v>379</v>
+      </c>
       <c r="D45" t="n">
         <v>44</v>
       </c>
       <c r="E45" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F45" t="s">
-        <v>337</v>
+        <v>380</v>
       </c>
       <c r="G45" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H45" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I45" t="s">
-        <v>338</v>
+        <v>381</v>
       </c>
       <c r="J45" t="s">
-        <v>339</v>
+        <v>382</v>
       </c>
       <c r="K45" t="s">
-        <v>340</v>
+        <v>383</v>
       </c>
       <c r="L45" t="s">
-        <v>341</v>
+        <v>384</v>
       </c>
       <c r="M45" t="n">
         <v>5</v>
       </c>
       <c r="N45" t="s">
-        <v>342</v>
+        <v>385</v>
       </c>
       <c r="O45" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="P45" t="s"/>
       <c r="Q45" t="n">
@@ -5681,56 +6196,60 @@
         <v>0</v>
       </c>
       <c r="W45" t="s">
-        <v>334</v>
+        <v>376</v>
       </c>
       <c r="X45" t="s">
-        <v>335</v>
+        <v>377</v>
       </c>
       <c r="Y45" t="s">
-        <v>343</v>
+        <v>386</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
         <v>36476</v>
       </c>
-      <c r="B46" t="s"/>
-      <c r="C46" t="s"/>
+      <c r="B46" t="n">
+        <v>174351</v>
+      </c>
+      <c r="C46" t="s">
+        <v>387</v>
+      </c>
       <c r="D46" t="n">
         <v>45</v>
       </c>
       <c r="E46" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F46" t="s">
-        <v>344</v>
+        <v>388</v>
       </c>
       <c r="G46" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H46" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I46" t="s">
-        <v>345</v>
+        <v>389</v>
       </c>
       <c r="J46" t="s">
-        <v>346</v>
+        <v>390</v>
       </c>
       <c r="K46" t="s">
-        <v>347</v>
+        <v>391</v>
       </c>
       <c r="L46" t="s">
-        <v>348</v>
+        <v>392</v>
       </c>
       <c r="M46" t="n">
         <v>4</v>
       </c>
       <c r="N46" t="s">
-        <v>342</v>
+        <v>385</v>
       </c>
       <c r="O46" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P46" t="s"/>
       <c r="Q46" t="s"/>
@@ -5748,47 +6267,51 @@
         <v>0</v>
       </c>
       <c r="W46" t="s">
-        <v>334</v>
+        <v>376</v>
       </c>
       <c r="X46" t="s">
-        <v>335</v>
+        <v>377</v>
       </c>
       <c r="Y46" t="s">
-        <v>349</v>
+        <v>393</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
         <v>36476</v>
       </c>
-      <c r="B47" t="s"/>
-      <c r="C47" t="s"/>
+      <c r="B47" t="n">
+        <v>174352</v>
+      </c>
+      <c r="C47" t="s">
+        <v>394</v>
+      </c>
       <c r="D47" t="n">
         <v>46</v>
       </c>
       <c r="E47" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F47" t="s">
-        <v>350</v>
+        <v>395</v>
       </c>
       <c r="G47" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H47" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I47" t="s">
-        <v>351</v>
+        <v>396</v>
       </c>
       <c r="J47" t="s">
-        <v>352</v>
+        <v>397</v>
       </c>
       <c r="K47" t="s">
-        <v>353</v>
+        <v>398</v>
       </c>
       <c r="L47" t="s">
-        <v>354</v>
+        <v>399</v>
       </c>
       <c r="M47" t="n">
         <v>4</v>
@@ -5815,47 +6338,51 @@
         <v>0</v>
       </c>
       <c r="W47" t="s">
-        <v>355</v>
+        <v>400</v>
       </c>
       <c r="X47" t="s">
-        <v>356</v>
+        <v>401</v>
       </c>
       <c r="Y47" t="s">
-        <v>357</v>
+        <v>402</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
         <v>36476</v>
       </c>
-      <c r="B48" t="s"/>
-      <c r="C48" t="s"/>
+      <c r="B48" t="n">
+        <v>29384</v>
+      </c>
+      <c r="C48" t="s">
+        <v>403</v>
+      </c>
       <c r="D48" t="n">
         <v>47</v>
       </c>
       <c r="E48" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F48" t="s">
-        <v>358</v>
+        <v>404</v>
       </c>
       <c r="G48" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H48" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I48" t="s">
-        <v>359</v>
+        <v>405</v>
       </c>
       <c r="J48" t="s">
-        <v>360</v>
+        <v>406</v>
       </c>
       <c r="K48" t="s">
-        <v>361</v>
+        <v>407</v>
       </c>
       <c r="L48" t="s">
-        <v>362</v>
+        <v>408</v>
       </c>
       <c r="M48" t="n">
         <v>1</v>
@@ -5882,56 +6409,60 @@
         <v>0</v>
       </c>
       <c r="W48" t="s">
-        <v>363</v>
+        <v>409</v>
       </c>
       <c r="X48" t="s">
-        <v>364</v>
+        <v>410</v>
       </c>
       <c r="Y48" t="s">
-        <v>365</v>
+        <v>411</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
         <v>36476</v>
       </c>
-      <c r="B49" t="s"/>
-      <c r="C49" t="s"/>
+      <c r="B49" t="n">
+        <v>174353</v>
+      </c>
+      <c r="C49" t="s">
+        <v>412</v>
+      </c>
       <c r="D49" t="n">
         <v>48</v>
       </c>
       <c r="E49" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F49" t="s">
-        <v>366</v>
+        <v>413</v>
       </c>
       <c r="G49" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H49" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I49" t="s">
-        <v>367</v>
+        <v>414</v>
       </c>
       <c r="J49" t="s">
-        <v>368</v>
+        <v>415</v>
       </c>
       <c r="K49" t="s">
-        <v>369</v>
+        <v>416</v>
       </c>
       <c r="L49" t="s">
-        <v>370</v>
+        <v>417</v>
       </c>
       <c r="M49" t="n">
         <v>5</v>
       </c>
       <c r="N49" t="s">
-        <v>371</v>
+        <v>418</v>
       </c>
       <c r="O49" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="P49" t="n">
         <v>5</v>
@@ -5953,56 +6484,60 @@
         <v>0</v>
       </c>
       <c r="W49" t="s">
-        <v>355</v>
+        <v>400</v>
       </c>
       <c r="X49" t="s">
-        <v>356</v>
+        <v>401</v>
       </c>
       <c r="Y49" t="s">
-        <v>372</v>
+        <v>419</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
         <v>36476</v>
       </c>
-      <c r="B50" t="s"/>
-      <c r="C50" t="s"/>
+      <c r="B50" t="n">
+        <v>21711</v>
+      </c>
+      <c r="C50" t="s">
+        <v>420</v>
+      </c>
       <c r="D50" t="n">
         <v>49</v>
       </c>
       <c r="E50" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F50" t="s">
-        <v>373</v>
+        <v>421</v>
       </c>
       <c r="G50" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H50" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I50" t="s">
-        <v>374</v>
+        <v>422</v>
       </c>
       <c r="J50" t="s">
-        <v>375</v>
+        <v>423</v>
       </c>
       <c r="K50" t="s">
-        <v>376</v>
+        <v>424</v>
       </c>
       <c r="L50" t="s">
-        <v>377</v>
+        <v>425</v>
       </c>
       <c r="M50" t="n">
         <v>5</v>
       </c>
       <c r="N50" t="s">
-        <v>378</v>
+        <v>426</v>
       </c>
       <c r="O50" t="s">
-        <v>162</v>
+        <v>180</v>
       </c>
       <c r="P50" t="n">
         <v>5</v>
@@ -6026,50 +6561,54 @@
       <c r="W50" t="s"/>
       <c r="X50" t="s"/>
       <c r="Y50" t="s">
-        <v>379</v>
+        <v>427</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
         <v>36476</v>
       </c>
-      <c r="B51" t="s"/>
-      <c r="C51" t="s"/>
+      <c r="B51" t="n">
+        <v>174354</v>
+      </c>
+      <c r="C51" t="s">
+        <v>428</v>
+      </c>
       <c r="D51" t="n">
         <v>50</v>
       </c>
       <c r="E51" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F51" t="s">
-        <v>380</v>
+        <v>429</v>
       </c>
       <c r="G51" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H51" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I51" t="s">
-        <v>381</v>
+        <v>430</v>
       </c>
       <c r="J51" t="s">
-        <v>382</v>
+        <v>431</v>
       </c>
       <c r="K51" t="s">
-        <v>383</v>
+        <v>432</v>
       </c>
       <c r="L51" t="s">
-        <v>384</v>
+        <v>433</v>
       </c>
       <c r="M51" t="n">
         <v>5</v>
       </c>
       <c r="N51" t="s">
-        <v>378</v>
+        <v>426</v>
       </c>
       <c r="O51" t="s">
-        <v>162</v>
+        <v>180</v>
       </c>
       <c r="P51" t="n">
         <v>5</v>
@@ -6093,50 +6632,54 @@
       <c r="W51" t="s"/>
       <c r="X51" t="s"/>
       <c r="Y51" t="s">
-        <v>384</v>
+        <v>433</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
         <v>36476</v>
       </c>
-      <c r="B52" t="s"/>
-      <c r="C52" t="s"/>
+      <c r="B52" t="n">
+        <v>13242</v>
+      </c>
+      <c r="C52" t="s">
+        <v>434</v>
+      </c>
       <c r="D52" t="n">
         <v>51</v>
       </c>
       <c r="E52" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F52" t="s">
-        <v>385</v>
+        <v>435</v>
       </c>
       <c r="G52" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H52" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I52" t="s">
-        <v>386</v>
+        <v>436</v>
       </c>
       <c r="J52" t="s">
-        <v>387</v>
+        <v>437</v>
       </c>
       <c r="K52" t="s">
-        <v>388</v>
+        <v>438</v>
       </c>
       <c r="L52" t="s">
-        <v>389</v>
+        <v>439</v>
       </c>
       <c r="M52" t="n">
         <v>5</v>
       </c>
       <c r="N52" t="s">
-        <v>390</v>
+        <v>440</v>
       </c>
       <c r="O52" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P52" t="n">
         <v>5</v>
@@ -6158,56 +6701,60 @@
         <v>0</v>
       </c>
       <c r="W52" t="s">
-        <v>391</v>
+        <v>441</v>
       </c>
       <c r="X52" t="s">
-        <v>392</v>
+        <v>442</v>
       </c>
       <c r="Y52" t="s">
-        <v>393</v>
+        <v>443</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
         <v>36476</v>
       </c>
-      <c r="B53" t="s"/>
-      <c r="C53" t="s"/>
+      <c r="B53" t="n">
+        <v>174355</v>
+      </c>
+      <c r="C53" t="s">
+        <v>444</v>
+      </c>
       <c r="D53" t="n">
         <v>52</v>
       </c>
       <c r="E53" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F53" t="s">
-        <v>394</v>
+        <v>445</v>
       </c>
       <c r="G53" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H53" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I53" t="s">
-        <v>395</v>
+        <v>446</v>
       </c>
       <c r="J53" t="s">
-        <v>396</v>
+        <v>447</v>
       </c>
       <c r="K53" t="s">
-        <v>397</v>
+        <v>448</v>
       </c>
       <c r="L53" t="s">
-        <v>398</v>
+        <v>449</v>
       </c>
       <c r="M53" t="n">
         <v>5</v>
       </c>
       <c r="N53" t="s">
-        <v>399</v>
+        <v>450</v>
       </c>
       <c r="O53" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="P53" t="n">
         <v>5</v>
@@ -6231,50 +6778,54 @@
       <c r="W53" t="s"/>
       <c r="X53" t="s"/>
       <c r="Y53" t="s">
-        <v>400</v>
+        <v>451</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
         <v>36476</v>
       </c>
-      <c r="B54" t="s"/>
-      <c r="C54" t="s"/>
+      <c r="B54" t="n">
+        <v>31235</v>
+      </c>
+      <c r="C54" t="s">
+        <v>452</v>
+      </c>
       <c r="D54" t="n">
         <v>53</v>
       </c>
       <c r="E54" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F54" t="s">
-        <v>401</v>
+        <v>453</v>
       </c>
       <c r="G54" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H54" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I54" t="s">
-        <v>402</v>
+        <v>454</v>
       </c>
       <c r="J54" t="s">
-        <v>403</v>
+        <v>455</v>
       </c>
       <c r="K54" t="s">
-        <v>404</v>
+        <v>456</v>
       </c>
       <c r="L54" t="s">
-        <v>405</v>
+        <v>457</v>
       </c>
       <c r="M54" t="n">
         <v>5</v>
       </c>
       <c r="N54" t="s">
-        <v>406</v>
+        <v>458</v>
       </c>
       <c r="O54" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="P54" t="n">
         <v>5</v>
@@ -6296,56 +6847,60 @@
         <v>0</v>
       </c>
       <c r="W54" t="s">
-        <v>407</v>
+        <v>459</v>
       </c>
       <c r="X54" t="s">
-        <v>408</v>
+        <v>460</v>
       </c>
       <c r="Y54" t="s">
-        <v>409</v>
+        <v>461</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
         <v>36476</v>
       </c>
-      <c r="B55" t="s"/>
-      <c r="C55" t="s"/>
+      <c r="B55" t="n">
+        <v>51015</v>
+      </c>
+      <c r="C55" t="s">
+        <v>462</v>
+      </c>
       <c r="D55" t="n">
         <v>54</v>
       </c>
       <c r="E55" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F55" t="s">
-        <v>410</v>
+        <v>463</v>
       </c>
       <c r="G55" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H55" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I55" t="s">
-        <v>411</v>
+        <v>464</v>
       </c>
       <c r="J55" t="s">
-        <v>412</v>
+        <v>465</v>
       </c>
       <c r="K55" t="s">
-        <v>413</v>
+        <v>466</v>
       </c>
       <c r="L55" t="s">
-        <v>414</v>
+        <v>467</v>
       </c>
       <c r="M55" t="n">
         <v>5</v>
       </c>
       <c r="N55" t="s">
-        <v>415</v>
+        <v>468</v>
       </c>
       <c r="O55" t="s">
-        <v>162</v>
+        <v>180</v>
       </c>
       <c r="P55" t="n">
         <v>3</v>
@@ -6369,50 +6924,54 @@
       <c r="W55" t="s"/>
       <c r="X55" t="s"/>
       <c r="Y55" t="s">
-        <v>414</v>
+        <v>467</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
         <v>36476</v>
       </c>
-      <c r="B56" t="s"/>
-      <c r="C56" t="s"/>
+      <c r="B56" t="n">
+        <v>2597</v>
+      </c>
+      <c r="C56" t="s">
+        <v>469</v>
+      </c>
       <c r="D56" t="n">
         <v>55</v>
       </c>
       <c r="E56" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F56" t="s">
-        <v>416</v>
+        <v>470</v>
       </c>
       <c r="G56" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H56" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I56" t="s">
-        <v>417</v>
+        <v>471</v>
       </c>
       <c r="J56" t="s">
-        <v>418</v>
+        <v>472</v>
       </c>
       <c r="K56" t="s">
-        <v>419</v>
+        <v>473</v>
       </c>
       <c r="L56" t="s">
-        <v>420</v>
+        <v>474</v>
       </c>
       <c r="M56" t="n">
         <v>4</v>
       </c>
       <c r="N56" t="s">
-        <v>421</v>
+        <v>475</v>
       </c>
       <c r="O56" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="P56" t="n">
         <v>5</v>
@@ -6436,50 +6995,54 @@
       <c r="W56" t="s"/>
       <c r="X56" t="s"/>
       <c r="Y56" t="s">
-        <v>420</v>
+        <v>474</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
         <v>36476</v>
       </c>
-      <c r="B57" t="s"/>
-      <c r="C57" t="s"/>
+      <c r="B57" t="n">
+        <v>174356</v>
+      </c>
+      <c r="C57" t="s">
+        <v>476</v>
+      </c>
       <c r="D57" t="n">
         <v>56</v>
       </c>
       <c r="E57" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F57" t="s">
-        <v>422</v>
+        <v>477</v>
       </c>
       <c r="G57" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H57" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I57" t="s">
-        <v>423</v>
+        <v>478</v>
       </c>
       <c r="J57" t="s">
-        <v>424</v>
+        <v>479</v>
       </c>
       <c r="K57" t="s">
-        <v>425</v>
+        <v>480</v>
       </c>
       <c r="L57" t="s">
-        <v>426</v>
+        <v>481</v>
       </c>
       <c r="M57" t="n">
         <v>5</v>
       </c>
       <c r="N57" t="s">
-        <v>421</v>
+        <v>475</v>
       </c>
       <c r="O57" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P57" t="n">
         <v>5</v>
@@ -6503,50 +7066,54 @@
       <c r="W57" t="s"/>
       <c r="X57" t="s"/>
       <c r="Y57" t="s">
-        <v>427</v>
+        <v>482</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
         <v>36476</v>
       </c>
-      <c r="B58" t="s"/>
-      <c r="C58" t="s"/>
+      <c r="B58" t="n">
+        <v>174357</v>
+      </c>
+      <c r="C58" t="s">
+        <v>483</v>
+      </c>
       <c r="D58" t="n">
         <v>57</v>
       </c>
       <c r="E58" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F58" t="s">
-        <v>428</v>
+        <v>484</v>
       </c>
       <c r="G58" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H58" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I58" t="s">
-        <v>429</v>
+        <v>485</v>
       </c>
       <c r="J58" t="s">
-        <v>430</v>
+        <v>486</v>
       </c>
       <c r="K58" t="s">
-        <v>431</v>
+        <v>487</v>
       </c>
       <c r="L58" t="s">
-        <v>432</v>
+        <v>488</v>
       </c>
       <c r="M58" t="n">
         <v>3</v>
       </c>
       <c r="N58" t="s">
-        <v>433</v>
+        <v>489</v>
       </c>
       <c r="O58" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="P58" t="n">
         <v>5</v>
@@ -6570,50 +7137,54 @@
       <c r="W58" t="s"/>
       <c r="X58" t="s"/>
       <c r="Y58" t="s">
-        <v>434</v>
+        <v>490</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
         <v>36476</v>
       </c>
-      <c r="B59" t="s"/>
-      <c r="C59" t="s"/>
+      <c r="B59" t="n">
+        <v>174358</v>
+      </c>
+      <c r="C59" t="s">
+        <v>491</v>
+      </c>
       <c r="D59" t="n">
         <v>58</v>
       </c>
       <c r="E59" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F59" t="s">
-        <v>435</v>
+        <v>492</v>
       </c>
       <c r="G59" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H59" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I59" t="s">
-        <v>436</v>
+        <v>493</v>
       </c>
       <c r="J59" t="s">
-        <v>437</v>
+        <v>494</v>
       </c>
       <c r="K59" t="s">
-        <v>438</v>
+        <v>495</v>
       </c>
       <c r="L59" t="s">
-        <v>439</v>
+        <v>496</v>
       </c>
       <c r="M59" t="n">
         <v>4</v>
       </c>
       <c r="N59" t="s">
-        <v>433</v>
+        <v>489</v>
       </c>
       <c r="O59" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="P59" t="n">
         <v>5</v>
@@ -6637,50 +7208,54 @@
       <c r="W59" t="s"/>
       <c r="X59" t="s"/>
       <c r="Y59" t="s">
-        <v>440</v>
+        <v>497</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
         <v>36476</v>
       </c>
-      <c r="B60" t="s"/>
-      <c r="C60" t="s"/>
+      <c r="B60" t="n">
+        <v>174359</v>
+      </c>
+      <c r="C60" t="s">
+        <v>498</v>
+      </c>
       <c r="D60" t="n">
         <v>59</v>
       </c>
       <c r="E60" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F60" t="s">
-        <v>441</v>
+        <v>499</v>
       </c>
       <c r="G60" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H60" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I60" t="s">
-        <v>442</v>
+        <v>500</v>
       </c>
       <c r="J60" t="s">
-        <v>443</v>
+        <v>501</v>
       </c>
       <c r="K60" t="s">
-        <v>444</v>
+        <v>502</v>
       </c>
       <c r="L60" t="s">
-        <v>445</v>
+        <v>503</v>
       </c>
       <c r="M60" t="n">
         <v>5</v>
       </c>
       <c r="N60" t="s">
-        <v>433</v>
+        <v>489</v>
       </c>
       <c r="O60" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="P60" t="n">
         <v>4</v>
@@ -6702,56 +7277,60 @@
         <v>0</v>
       </c>
       <c r="W60" t="s">
-        <v>446</v>
+        <v>504</v>
       </c>
       <c r="X60" t="s">
-        <v>447</v>
+        <v>505</v>
       </c>
       <c r="Y60" t="s">
-        <v>448</v>
+        <v>506</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
         <v>36476</v>
       </c>
-      <c r="B61" t="s"/>
-      <c r="C61" t="s"/>
+      <c r="B61" t="n">
+        <v>174360</v>
+      </c>
+      <c r="C61" t="s">
+        <v>507</v>
+      </c>
       <c r="D61" t="n">
         <v>60</v>
       </c>
       <c r="E61" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F61" t="s">
-        <v>449</v>
+        <v>508</v>
       </c>
       <c r="G61" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H61" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I61" t="s">
-        <v>450</v>
+        <v>509</v>
       </c>
       <c r="J61" t="s">
-        <v>451</v>
+        <v>510</v>
       </c>
       <c r="K61" t="s">
-        <v>452</v>
+        <v>511</v>
       </c>
       <c r="L61" t="s">
-        <v>453</v>
+        <v>512</v>
       </c>
       <c r="M61" t="n">
         <v>2</v>
       </c>
       <c r="N61" t="s">
-        <v>433</v>
+        <v>489</v>
       </c>
       <c r="O61" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="P61" t="n">
         <v>3</v>
@@ -6773,56 +7352,60 @@
         <v>0</v>
       </c>
       <c r="W61" t="s">
-        <v>454</v>
+        <v>513</v>
       </c>
       <c r="X61" t="s">
-        <v>455</v>
+        <v>514</v>
       </c>
       <c r="Y61" t="s">
-        <v>456</v>
+        <v>515</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
         <v>36476</v>
       </c>
-      <c r="B62" t="s"/>
-      <c r="C62" t="s"/>
+      <c r="B62" t="n">
+        <v>174361</v>
+      </c>
+      <c r="C62" t="s">
+        <v>516</v>
+      </c>
       <c r="D62" t="n">
         <v>61</v>
       </c>
       <c r="E62" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F62" t="s">
-        <v>457</v>
+        <v>517</v>
       </c>
       <c r="G62" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H62" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I62" t="s">
-        <v>458</v>
+        <v>518</v>
       </c>
       <c r="J62" t="s">
-        <v>459</v>
+        <v>519</v>
       </c>
       <c r="K62" t="s">
-        <v>460</v>
+        <v>520</v>
       </c>
       <c r="L62" t="s">
-        <v>461</v>
+        <v>521</v>
       </c>
       <c r="M62" t="n">
         <v>5</v>
       </c>
       <c r="N62" t="s">
-        <v>462</v>
+        <v>522</v>
       </c>
       <c r="O62" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="P62" t="n">
         <v>5</v>
@@ -6846,50 +7429,54 @@
       <c r="W62" t="s"/>
       <c r="X62" t="s"/>
       <c r="Y62" t="s">
-        <v>461</v>
+        <v>521</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
         <v>36476</v>
       </c>
-      <c r="B63" t="s"/>
-      <c r="C63" t="s"/>
+      <c r="B63" t="n">
+        <v>174362</v>
+      </c>
+      <c r="C63" t="s">
+        <v>523</v>
+      </c>
       <c r="D63" t="n">
         <v>62</v>
       </c>
       <c r="E63" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F63" t="s">
-        <v>463</v>
+        <v>524</v>
       </c>
       <c r="G63" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H63" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I63" t="s">
-        <v>464</v>
+        <v>525</v>
       </c>
       <c r="J63" t="s">
-        <v>459</v>
+        <v>519</v>
       </c>
       <c r="K63" t="s">
-        <v>465</v>
+        <v>526</v>
       </c>
       <c r="L63" t="s">
-        <v>466</v>
+        <v>527</v>
       </c>
       <c r="M63" t="n">
         <v>4</v>
       </c>
       <c r="N63" t="s">
-        <v>467</v>
+        <v>528</v>
       </c>
       <c r="O63" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="P63" t="s"/>
       <c r="Q63" t="n">
@@ -6911,50 +7498,54 @@
       <c r="W63" t="s"/>
       <c r="X63" t="s"/>
       <c r="Y63" t="s">
-        <v>468</v>
+        <v>529</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
         <v>36476</v>
       </c>
-      <c r="B64" t="s"/>
-      <c r="C64" t="s"/>
+      <c r="B64" t="n">
+        <v>124913</v>
+      </c>
+      <c r="C64" t="s">
+        <v>530</v>
+      </c>
       <c r="D64" t="n">
         <v>63</v>
       </c>
       <c r="E64" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F64" t="s">
-        <v>469</v>
+        <v>531</v>
       </c>
       <c r="G64" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H64" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I64" t="s">
-        <v>470</v>
+        <v>532</v>
       </c>
       <c r="J64" t="s">
-        <v>471</v>
+        <v>533</v>
       </c>
       <c r="K64" t="s">
-        <v>472</v>
+        <v>534</v>
       </c>
       <c r="L64" t="s">
-        <v>473</v>
+        <v>535</v>
       </c>
       <c r="M64" t="n">
         <v>5</v>
       </c>
       <c r="N64" t="s">
-        <v>467</v>
+        <v>528</v>
       </c>
       <c r="O64" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P64" t="n">
         <v>5</v>
@@ -6976,56 +7567,60 @@
         <v>0</v>
       </c>
       <c r="W64" t="s">
-        <v>474</v>
+        <v>536</v>
       </c>
       <c r="X64" t="s">
-        <v>475</v>
+        <v>537</v>
       </c>
       <c r="Y64" t="s">
-        <v>476</v>
+        <v>538</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
         <v>36476</v>
       </c>
-      <c r="B65" t="s"/>
-      <c r="C65" t="s"/>
+      <c r="B65" t="n">
+        <v>174363</v>
+      </c>
+      <c r="C65" t="s">
+        <v>539</v>
+      </c>
       <c r="D65" t="n">
         <v>64</v>
       </c>
       <c r="E65" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F65" t="s">
-        <v>477</v>
+        <v>540</v>
       </c>
       <c r="G65" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H65" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I65" t="s">
-        <v>478</v>
+        <v>541</v>
       </c>
       <c r="J65" t="s">
-        <v>479</v>
+        <v>542</v>
       </c>
       <c r="K65" t="s">
-        <v>480</v>
+        <v>543</v>
       </c>
       <c r="L65" t="s">
-        <v>481</v>
+        <v>544</v>
       </c>
       <c r="M65" t="n">
         <v>5</v>
       </c>
       <c r="N65" t="s">
-        <v>482</v>
+        <v>545</v>
       </c>
       <c r="O65" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P65" t="n">
         <v>5</v>
@@ -7047,56 +7642,60 @@
         <v>0</v>
       </c>
       <c r="W65" t="s">
-        <v>483</v>
+        <v>546</v>
       </c>
       <c r="X65" t="s">
-        <v>484</v>
+        <v>547</v>
       </c>
       <c r="Y65" t="s">
-        <v>485</v>
+        <v>548</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
         <v>36476</v>
       </c>
-      <c r="B66" t="s"/>
-      <c r="C66" t="s"/>
+      <c r="B66" t="n">
+        <v>57190</v>
+      </c>
+      <c r="C66" t="s">
+        <v>549</v>
+      </c>
       <c r="D66" t="n">
         <v>65</v>
       </c>
       <c r="E66" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F66" t="s">
-        <v>486</v>
+        <v>550</v>
       </c>
       <c r="G66" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H66" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I66" t="s">
-        <v>487</v>
+        <v>551</v>
       </c>
       <c r="J66" t="s">
-        <v>488</v>
+        <v>552</v>
       </c>
       <c r="K66" t="s">
-        <v>489</v>
+        <v>553</v>
       </c>
       <c r="L66" t="s">
-        <v>490</v>
+        <v>554</v>
       </c>
       <c r="M66" t="n">
         <v>5</v>
       </c>
       <c r="N66" t="s">
-        <v>482</v>
+        <v>545</v>
       </c>
       <c r="O66" t="s">
-        <v>162</v>
+        <v>180</v>
       </c>
       <c r="P66" t="n">
         <v>5</v>
@@ -7118,56 +7717,60 @@
         <v>0</v>
       </c>
       <c r="W66" t="s">
-        <v>491</v>
+        <v>555</v>
       </c>
       <c r="X66" t="s">
-        <v>484</v>
+        <v>547</v>
       </c>
       <c r="Y66" t="s">
-        <v>492</v>
+        <v>556</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
         <v>36476</v>
       </c>
-      <c r="B67" t="s"/>
-      <c r="C67" t="s"/>
+      <c r="B67" t="n">
+        <v>174364</v>
+      </c>
+      <c r="C67" t="s">
+        <v>557</v>
+      </c>
       <c r="D67" t="n">
         <v>66</v>
       </c>
       <c r="E67" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F67" t="s">
-        <v>493</v>
+        <v>558</v>
       </c>
       <c r="G67" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H67" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I67" t="s">
-        <v>494</v>
+        <v>559</v>
       </c>
       <c r="J67" t="s">
-        <v>495</v>
+        <v>560</v>
       </c>
       <c r="K67" t="s">
-        <v>496</v>
+        <v>561</v>
       </c>
       <c r="L67" t="s">
-        <v>497</v>
+        <v>562</v>
       </c>
       <c r="M67" t="n">
         <v>5</v>
       </c>
       <c r="N67" t="s">
-        <v>482</v>
+        <v>545</v>
       </c>
       <c r="O67" t="s">
-        <v>162</v>
+        <v>180</v>
       </c>
       <c r="P67" t="n">
         <v>5</v>
@@ -7189,47 +7792,51 @@
         <v>0</v>
       </c>
       <c r="W67" t="s">
-        <v>498</v>
+        <v>563</v>
       </c>
       <c r="X67" t="s">
-        <v>484</v>
+        <v>547</v>
       </c>
       <c r="Y67" t="s">
-        <v>499</v>
+        <v>564</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
         <v>36476</v>
       </c>
-      <c r="B68" t="s"/>
-      <c r="C68" t="s"/>
+      <c r="B68" t="n">
+        <v>174365</v>
+      </c>
+      <c r="C68" t="s">
+        <v>565</v>
+      </c>
       <c r="D68" t="n">
         <v>67</v>
       </c>
       <c r="E68" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F68" t="s">
-        <v>500</v>
+        <v>566</v>
       </c>
       <c r="G68" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H68" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I68" t="s">
-        <v>501</v>
+        <v>567</v>
       </c>
       <c r="J68" t="s">
-        <v>502</v>
+        <v>568</v>
       </c>
       <c r="K68" t="s">
-        <v>503</v>
+        <v>569</v>
       </c>
       <c r="L68" t="s">
-        <v>504</v>
+        <v>570</v>
       </c>
       <c r="M68" t="n">
         <v>5</v>
@@ -7258,50 +7865,54 @@
       <c r="W68" t="s"/>
       <c r="X68" t="s"/>
       <c r="Y68" t="s">
-        <v>504</v>
+        <v>570</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
         <v>36476</v>
       </c>
-      <c r="B69" t="s"/>
-      <c r="C69" t="s"/>
+      <c r="B69" t="n">
+        <v>174366</v>
+      </c>
+      <c r="C69" t="s">
+        <v>571</v>
+      </c>
       <c r="D69" t="n">
         <v>68</v>
       </c>
       <c r="E69" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F69" t="s">
-        <v>505</v>
+        <v>572</v>
       </c>
       <c r="G69" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H69" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I69" t="s">
-        <v>506</v>
+        <v>573</v>
       </c>
       <c r="J69" t="s">
-        <v>507</v>
+        <v>574</v>
       </c>
       <c r="K69" t="s">
-        <v>508</v>
+        <v>575</v>
       </c>
       <c r="L69" t="s">
-        <v>509</v>
+        <v>576</v>
       </c>
       <c r="M69" t="n">
         <v>4</v>
       </c>
       <c r="N69" t="s">
-        <v>510</v>
+        <v>577</v>
       </c>
       <c r="O69" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="P69" t="n">
         <v>4</v>
@@ -7325,50 +7936,54 @@
       <c r="W69" t="s"/>
       <c r="X69" t="s"/>
       <c r="Y69" t="s">
-        <v>511</v>
+        <v>578</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
         <v>36476</v>
       </c>
-      <c r="B70" t="s"/>
-      <c r="C70" t="s"/>
+      <c r="B70" t="n">
+        <v>3334</v>
+      </c>
+      <c r="C70" t="s">
+        <v>72</v>
+      </c>
       <c r="D70" t="n">
         <v>69</v>
       </c>
       <c r="E70" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F70" t="s">
-        <v>512</v>
+        <v>579</v>
       </c>
       <c r="G70" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H70" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I70" t="s">
-        <v>513</v>
+        <v>580</v>
       </c>
       <c r="J70" t="s">
-        <v>514</v>
+        <v>581</v>
       </c>
       <c r="K70" t="s">
-        <v>515</v>
+        <v>582</v>
       </c>
       <c r="L70" t="s">
-        <v>516</v>
+        <v>583</v>
       </c>
       <c r="M70" t="n">
         <v>5</v>
       </c>
       <c r="N70" t="s">
-        <v>517</v>
+        <v>584</v>
       </c>
       <c r="O70" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="P70" t="n">
         <v>5</v>
@@ -7390,56 +8005,60 @@
         <v>0</v>
       </c>
       <c r="W70" t="s">
-        <v>518</v>
+        <v>585</v>
       </c>
       <c r="X70" t="s">
-        <v>519</v>
+        <v>586</v>
       </c>
       <c r="Y70" t="s">
-        <v>520</v>
+        <v>587</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
         <v>36476</v>
       </c>
-      <c r="B71" t="s"/>
-      <c r="C71" t="s"/>
+      <c r="B71" t="n">
+        <v>174367</v>
+      </c>
+      <c r="C71" t="s">
+        <v>588</v>
+      </c>
       <c r="D71" t="n">
         <v>70</v>
       </c>
       <c r="E71" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F71" t="s">
-        <v>521</v>
+        <v>589</v>
       </c>
       <c r="G71" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H71" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I71" t="s">
-        <v>522</v>
+        <v>590</v>
       </c>
       <c r="J71" t="s">
-        <v>523</v>
+        <v>591</v>
       </c>
       <c r="K71" t="s">
-        <v>524</v>
+        <v>592</v>
       </c>
       <c r="L71" t="s">
-        <v>525</v>
+        <v>593</v>
       </c>
       <c r="M71" t="n">
         <v>5</v>
       </c>
       <c r="N71" t="s">
-        <v>415</v>
+        <v>468</v>
       </c>
       <c r="O71" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P71" t="n">
         <v>5</v>
@@ -7463,50 +8082,54 @@
       <c r="W71" t="s"/>
       <c r="X71" t="s"/>
       <c r="Y71" t="s">
-        <v>525</v>
+        <v>593</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
         <v>36476</v>
       </c>
-      <c r="B72" t="s"/>
-      <c r="C72" t="s"/>
+      <c r="B72" t="n">
+        <v>174368</v>
+      </c>
+      <c r="C72" t="s">
+        <v>594</v>
+      </c>
       <c r="D72" t="n">
         <v>71</v>
       </c>
       <c r="E72" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F72" t="s">
-        <v>526</v>
+        <v>595</v>
       </c>
       <c r="G72" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H72" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I72" t="s">
-        <v>527</v>
+        <v>596</v>
       </c>
       <c r="J72" t="s">
-        <v>528</v>
+        <v>597</v>
       </c>
       <c r="K72" t="s">
-        <v>529</v>
+        <v>598</v>
       </c>
       <c r="L72" t="s">
-        <v>530</v>
+        <v>599</v>
       </c>
       <c r="M72" t="n">
         <v>4</v>
       </c>
       <c r="N72" t="s">
-        <v>531</v>
+        <v>600</v>
       </c>
       <c r="O72" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="P72" t="n">
         <v>5</v>
@@ -7528,56 +8151,60 @@
         <v>0</v>
       </c>
       <c r="W72" t="s">
-        <v>518</v>
+        <v>585</v>
       </c>
       <c r="X72" t="s">
-        <v>519</v>
+        <v>586</v>
       </c>
       <c r="Y72" t="s">
-        <v>532</v>
+        <v>601</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
         <v>36476</v>
       </c>
-      <c r="B73" t="s"/>
-      <c r="C73" t="s"/>
+      <c r="B73" t="n">
+        <v>174369</v>
+      </c>
+      <c r="C73" t="s">
+        <v>602</v>
+      </c>
       <c r="D73" t="n">
         <v>72</v>
       </c>
       <c r="E73" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F73" t="s">
-        <v>533</v>
+        <v>603</v>
       </c>
       <c r="G73" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H73" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I73" t="s">
-        <v>534</v>
+        <v>604</v>
       </c>
       <c r="J73" t="s">
-        <v>535</v>
+        <v>605</v>
       </c>
       <c r="K73" t="s">
-        <v>536</v>
+        <v>606</v>
       </c>
       <c r="L73" t="s">
-        <v>537</v>
+        <v>607</v>
       </c>
       <c r="M73" t="n">
         <v>2</v>
       </c>
       <c r="N73" t="s">
-        <v>531</v>
+        <v>600</v>
       </c>
       <c r="O73" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P73" t="s"/>
       <c r="Q73" t="s"/>
@@ -7591,50 +8218,54 @@
       <c r="W73" t="s"/>
       <c r="X73" t="s"/>
       <c r="Y73" t="s">
-        <v>537</v>
+        <v>607</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
         <v>36476</v>
       </c>
-      <c r="B74" t="s"/>
-      <c r="C74" t="s"/>
+      <c r="B74" t="n">
+        <v>4611</v>
+      </c>
+      <c r="C74" t="s">
+        <v>608</v>
+      </c>
       <c r="D74" t="n">
         <v>73</v>
       </c>
       <c r="E74" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F74" t="s">
-        <v>538</v>
+        <v>609</v>
       </c>
       <c r="G74" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H74" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I74" t="s">
-        <v>539</v>
+        <v>610</v>
       </c>
       <c r="J74" t="s">
-        <v>540</v>
+        <v>611</v>
       </c>
       <c r="K74" t="s">
-        <v>541</v>
+        <v>612</v>
       </c>
       <c r="L74" t="s">
-        <v>542</v>
+        <v>613</v>
       </c>
       <c r="M74" t="n">
         <v>5</v>
       </c>
       <c r="N74" t="s">
-        <v>543</v>
+        <v>614</v>
       </c>
       <c r="O74" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="P74" t="n">
         <v>3</v>
@@ -7658,50 +8289,54 @@
       <c r="W74" t="s"/>
       <c r="X74" t="s"/>
       <c r="Y74" t="s">
-        <v>542</v>
+        <v>613</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
         <v>36476</v>
       </c>
-      <c r="B75" t="s"/>
-      <c r="C75" t="s"/>
+      <c r="B75" t="n">
+        <v>8144</v>
+      </c>
+      <c r="C75" t="s">
+        <v>615</v>
+      </c>
       <c r="D75" t="n">
         <v>74</v>
       </c>
       <c r="E75" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F75" t="s">
-        <v>544</v>
+        <v>616</v>
       </c>
       <c r="G75" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H75" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I75" t="s">
-        <v>545</v>
+        <v>617</v>
       </c>
       <c r="J75" t="s">
-        <v>546</v>
+        <v>618</v>
       </c>
       <c r="K75" t="s">
-        <v>547</v>
+        <v>619</v>
       </c>
       <c r="L75" t="s">
-        <v>548</v>
+        <v>620</v>
       </c>
       <c r="M75" t="n">
         <v>5</v>
       </c>
       <c r="N75" t="s">
-        <v>549</v>
+        <v>621</v>
       </c>
       <c r="O75" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="P75" t="n">
         <v>5</v>
@@ -7725,50 +8360,54 @@
       <c r="W75" t="s"/>
       <c r="X75" t="s"/>
       <c r="Y75" t="s">
-        <v>550</v>
+        <v>622</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
         <v>36476</v>
       </c>
-      <c r="B76" t="s"/>
-      <c r="C76" t="s"/>
+      <c r="B76" t="n">
+        <v>174370</v>
+      </c>
+      <c r="C76" t="s">
+        <v>623</v>
+      </c>
       <c r="D76" t="n">
         <v>75</v>
       </c>
       <c r="E76" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F76" t="s">
-        <v>551</v>
+        <v>624</v>
       </c>
       <c r="G76" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H76" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I76" t="s">
-        <v>552</v>
+        <v>625</v>
       </c>
       <c r="J76" t="s">
-        <v>553</v>
+        <v>626</v>
       </c>
       <c r="K76" t="s">
-        <v>554</v>
+        <v>627</v>
       </c>
       <c r="L76" t="s">
-        <v>555</v>
+        <v>628</v>
       </c>
       <c r="M76" t="n">
         <v>5</v>
       </c>
       <c r="N76" t="s">
-        <v>543</v>
+        <v>614</v>
       </c>
       <c r="O76" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P76" t="n">
         <v>5</v>
@@ -7792,50 +8431,54 @@
       <c r="W76" t="s"/>
       <c r="X76" t="s"/>
       <c r="Y76" t="s">
-        <v>555</v>
+        <v>628</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
         <v>36476</v>
       </c>
-      <c r="B77" t="s"/>
-      <c r="C77" t="s"/>
+      <c r="B77" t="n">
+        <v>174371</v>
+      </c>
+      <c r="C77" t="s">
+        <v>629</v>
+      </c>
       <c r="D77" t="n">
         <v>76</v>
       </c>
       <c r="E77" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F77" t="s">
-        <v>556</v>
+        <v>630</v>
       </c>
       <c r="G77" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H77" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I77" t="s">
-        <v>557</v>
+        <v>631</v>
       </c>
       <c r="J77" t="s">
-        <v>558</v>
+        <v>632</v>
       </c>
       <c r="K77" t="s">
-        <v>559</v>
+        <v>633</v>
       </c>
       <c r="L77" t="s">
-        <v>560</v>
+        <v>634</v>
       </c>
       <c r="M77" t="n">
         <v>5</v>
       </c>
       <c r="N77" t="s">
-        <v>561</v>
+        <v>635</v>
       </c>
       <c r="O77" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="P77" t="n">
         <v>5</v>
@@ -7859,41 +8502,45 @@
       <c r="W77" t="s"/>
       <c r="X77" t="s"/>
       <c r="Y77" t="s">
-        <v>562</v>
+        <v>636</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
         <v>36476</v>
       </c>
-      <c r="B78" t="s"/>
-      <c r="C78" t="s"/>
+      <c r="B78" t="n">
+        <v>174372</v>
+      </c>
+      <c r="C78" t="s">
+        <v>637</v>
+      </c>
       <c r="D78" t="n">
         <v>77</v>
       </c>
       <c r="E78" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F78" t="s">
-        <v>563</v>
+        <v>638</v>
       </c>
       <c r="G78" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H78" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I78" t="s">
-        <v>564</v>
+        <v>639</v>
       </c>
       <c r="J78" t="s">
-        <v>565</v>
+        <v>640</v>
       </c>
       <c r="K78" t="s">
-        <v>566</v>
+        <v>641</v>
       </c>
       <c r="L78" t="s">
-        <v>567</v>
+        <v>642</v>
       </c>
       <c r="M78" t="n">
         <v>4</v>
@@ -7922,41 +8569,45 @@
       <c r="W78" t="s"/>
       <c r="X78" t="s"/>
       <c r="Y78" t="s">
-        <v>568</v>
+        <v>643</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
         <v>36476</v>
       </c>
-      <c r="B79" t="s"/>
-      <c r="C79" t="s"/>
+      <c r="B79" t="n">
+        <v>174373</v>
+      </c>
+      <c r="C79" t="s">
+        <v>644</v>
+      </c>
       <c r="D79" t="n">
         <v>78</v>
       </c>
       <c r="E79" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F79" t="s">
-        <v>569</v>
+        <v>645</v>
       </c>
       <c r="G79" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H79" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I79" t="s">
-        <v>570</v>
+        <v>646</v>
       </c>
       <c r="J79" t="s">
-        <v>565</v>
+        <v>640</v>
       </c>
       <c r="K79" t="s">
-        <v>571</v>
+        <v>647</v>
       </c>
       <c r="L79" t="s">
-        <v>572</v>
+        <v>648</v>
       </c>
       <c r="M79" t="n">
         <v>4</v>
@@ -7985,50 +8636,54 @@
       <c r="W79" t="s"/>
       <c r="X79" t="s"/>
       <c r="Y79" t="s">
-        <v>572</v>
+        <v>648</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
         <v>36476</v>
       </c>
-      <c r="B80" t="s"/>
-      <c r="C80" t="s"/>
+      <c r="B80" t="n">
+        <v>174374</v>
+      </c>
+      <c r="C80" t="s">
+        <v>649</v>
+      </c>
       <c r="D80" t="n">
         <v>79</v>
       </c>
       <c r="E80" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F80" t="s">
-        <v>573</v>
+        <v>650</v>
       </c>
       <c r="G80" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H80" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I80" t="s">
-        <v>574</v>
+        <v>651</v>
       </c>
       <c r="J80" t="s">
-        <v>575</v>
+        <v>652</v>
       </c>
       <c r="K80" t="s">
-        <v>576</v>
+        <v>653</v>
       </c>
       <c r="L80" t="s">
-        <v>577</v>
+        <v>654</v>
       </c>
       <c r="M80" t="n">
         <v>4</v>
       </c>
       <c r="N80" t="s">
-        <v>578</v>
+        <v>655</v>
       </c>
       <c r="O80" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="P80" t="n">
         <v>4</v>
@@ -8050,56 +8705,60 @@
         <v>0</v>
       </c>
       <c r="W80" t="s">
-        <v>579</v>
+        <v>656</v>
       </c>
       <c r="X80" t="s">
-        <v>580</v>
+        <v>657</v>
       </c>
       <c r="Y80" t="s">
-        <v>581</v>
+        <v>658</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
         <v>36476</v>
       </c>
-      <c r="B81" t="s"/>
-      <c r="C81" t="s"/>
+      <c r="B81" t="n">
+        <v>12246</v>
+      </c>
+      <c r="C81" t="s">
+        <v>659</v>
+      </c>
       <c r="D81" t="n">
         <v>80</v>
       </c>
       <c r="E81" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F81" t="s">
-        <v>582</v>
+        <v>660</v>
       </c>
       <c r="G81" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H81" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I81" t="s">
-        <v>583</v>
+        <v>661</v>
       </c>
       <c r="J81" t="s">
-        <v>584</v>
+        <v>662</v>
       </c>
       <c r="K81" t="s">
-        <v>585</v>
+        <v>663</v>
       </c>
       <c r="L81" t="s">
-        <v>586</v>
+        <v>664</v>
       </c>
       <c r="M81" t="n">
         <v>3</v>
       </c>
       <c r="N81" t="s">
-        <v>578</v>
+        <v>655</v>
       </c>
       <c r="O81" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="P81" t="n">
         <v>3</v>
@@ -8121,56 +8780,60 @@
         <v>0</v>
       </c>
       <c r="W81" t="s">
-        <v>587</v>
+        <v>665</v>
       </c>
       <c r="X81" t="s">
-        <v>588</v>
+        <v>666</v>
       </c>
       <c r="Y81" t="s">
-        <v>589</v>
+        <v>667</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
         <v>36476</v>
       </c>
-      <c r="B82" t="s"/>
-      <c r="C82" t="s"/>
+      <c r="B82" t="n">
+        <v>174375</v>
+      </c>
+      <c r="C82" t="s">
+        <v>668</v>
+      </c>
       <c r="D82" t="n">
         <v>81</v>
       </c>
       <c r="E82" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F82" t="s">
-        <v>590</v>
+        <v>669</v>
       </c>
       <c r="G82" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H82" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I82" t="s">
-        <v>591</v>
+        <v>670</v>
       </c>
       <c r="J82" t="s">
-        <v>592</v>
+        <v>671</v>
       </c>
       <c r="K82" t="s">
-        <v>593</v>
+        <v>672</v>
       </c>
       <c r="L82" t="s">
-        <v>594</v>
+        <v>673</v>
       </c>
       <c r="M82" t="n">
         <v>5</v>
       </c>
       <c r="N82" t="s">
-        <v>578</v>
+        <v>655</v>
       </c>
       <c r="O82" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="P82" t="n">
         <v>5</v>
@@ -8192,56 +8855,60 @@
         <v>0</v>
       </c>
       <c r="W82" t="s">
-        <v>587</v>
+        <v>665</v>
       </c>
       <c r="X82" t="s">
-        <v>588</v>
+        <v>666</v>
       </c>
       <c r="Y82" t="s">
-        <v>595</v>
+        <v>674</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
         <v>36476</v>
       </c>
-      <c r="B83" t="s"/>
-      <c r="C83" t="s"/>
+      <c r="B83" t="n">
+        <v>174376</v>
+      </c>
+      <c r="C83" t="s">
+        <v>675</v>
+      </c>
       <c r="D83" t="n">
         <v>82</v>
       </c>
       <c r="E83" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F83" t="s">
-        <v>596</v>
+        <v>676</v>
       </c>
       <c r="G83" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H83" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I83" t="s">
-        <v>597</v>
+        <v>677</v>
       </c>
       <c r="J83" t="s">
-        <v>598</v>
+        <v>678</v>
       </c>
       <c r="K83" t="s">
-        <v>599</v>
+        <v>679</v>
       </c>
       <c r="L83" t="s">
-        <v>600</v>
+        <v>680</v>
       </c>
       <c r="M83" t="n">
         <v>3</v>
       </c>
       <c r="N83" t="s">
-        <v>601</v>
+        <v>681</v>
       </c>
       <c r="O83" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="P83" t="n">
         <v>3</v>
@@ -8265,50 +8932,54 @@
       <c r="W83" t="s"/>
       <c r="X83" t="s"/>
       <c r="Y83" t="s">
-        <v>602</v>
+        <v>682</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
         <v>36476</v>
       </c>
-      <c r="B84" t="s"/>
-      <c r="C84" t="s"/>
+      <c r="B84" t="n">
+        <v>66883</v>
+      </c>
+      <c r="C84" t="s">
+        <v>683</v>
+      </c>
       <c r="D84" t="n">
         <v>83</v>
       </c>
       <c r="E84" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F84" t="s">
-        <v>603</v>
+        <v>684</v>
       </c>
       <c r="G84" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H84" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I84" t="s">
-        <v>604</v>
+        <v>685</v>
       </c>
       <c r="J84" t="s">
-        <v>605</v>
+        <v>686</v>
       </c>
       <c r="K84" t="s">
-        <v>606</v>
+        <v>687</v>
       </c>
       <c r="L84" t="s">
-        <v>607</v>
+        <v>688</v>
       </c>
       <c r="M84" t="n">
         <v>5</v>
       </c>
       <c r="N84" t="s">
-        <v>549</v>
+        <v>621</v>
       </c>
       <c r="O84" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="P84" t="n">
         <v>5</v>
@@ -8332,50 +9003,54 @@
       <c r="W84" t="s"/>
       <c r="X84" t="s"/>
       <c r="Y84" t="s">
-        <v>607</v>
+        <v>688</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
         <v>36476</v>
       </c>
-      <c r="B85" t="s"/>
-      <c r="C85" t="s"/>
+      <c r="B85" t="n">
+        <v>174377</v>
+      </c>
+      <c r="C85" t="s">
+        <v>689</v>
+      </c>
       <c r="D85" t="n">
         <v>84</v>
       </c>
       <c r="E85" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F85" t="s">
-        <v>608</v>
+        <v>690</v>
       </c>
       <c r="G85" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H85" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I85" t="s">
-        <v>609</v>
+        <v>691</v>
       </c>
       <c r="J85" t="s">
-        <v>610</v>
+        <v>692</v>
       </c>
       <c r="K85" t="s">
-        <v>611</v>
+        <v>693</v>
       </c>
       <c r="L85" t="s">
-        <v>612</v>
+        <v>694</v>
       </c>
       <c r="M85" t="n">
         <v>4</v>
       </c>
       <c r="N85" t="s">
-        <v>601</v>
+        <v>681</v>
       </c>
       <c r="O85" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="P85" t="n">
         <v>5</v>
@@ -8399,41 +9074,45 @@
       <c r="W85" t="s"/>
       <c r="X85" t="s"/>
       <c r="Y85" t="s">
-        <v>613</v>
+        <v>695</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
         <v>36476</v>
       </c>
-      <c r="B86" t="s"/>
-      <c r="C86" t="s"/>
+      <c r="B86" t="n">
+        <v>174378</v>
+      </c>
+      <c r="C86" t="s">
+        <v>696</v>
+      </c>
       <c r="D86" t="n">
         <v>85</v>
       </c>
       <c r="E86" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F86" t="s">
-        <v>614</v>
+        <v>697</v>
       </c>
       <c r="G86" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H86" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I86" t="s">
-        <v>615</v>
+        <v>698</v>
       </c>
       <c r="J86" t="s">
-        <v>616</v>
+        <v>699</v>
       </c>
       <c r="K86" t="s">
-        <v>617</v>
+        <v>700</v>
       </c>
       <c r="L86" t="s">
-        <v>618</v>
+        <v>701</v>
       </c>
       <c r="M86" t="n">
         <v>4</v>
@@ -8462,41 +9141,45 @@
       <c r="W86" t="s"/>
       <c r="X86" t="s"/>
       <c r="Y86" t="s">
-        <v>618</v>
+        <v>701</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
         <v>36476</v>
       </c>
-      <c r="B87" t="s"/>
-      <c r="C87" t="s"/>
+      <c r="B87" t="n">
+        <v>174379</v>
+      </c>
+      <c r="C87" t="s">
+        <v>702</v>
+      </c>
       <c r="D87" t="n">
         <v>86</v>
       </c>
       <c r="E87" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F87" t="s">
-        <v>619</v>
+        <v>703</v>
       </c>
       <c r="G87" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H87" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I87" t="s">
-        <v>620</v>
+        <v>704</v>
       </c>
       <c r="J87" t="s">
-        <v>621</v>
+        <v>705</v>
       </c>
       <c r="K87" t="s">
-        <v>622</v>
+        <v>706</v>
       </c>
       <c r="L87" t="s">
-        <v>623</v>
+        <v>707</v>
       </c>
       <c r="M87" t="n">
         <v>4</v>
@@ -8525,50 +9208,54 @@
       <c r="W87" t="s"/>
       <c r="X87" t="s"/>
       <c r="Y87" t="s">
-        <v>623</v>
+        <v>707</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
         <v>36476</v>
       </c>
-      <c r="B88" t="s"/>
-      <c r="C88" t="s"/>
+      <c r="B88" t="n">
+        <v>71</v>
+      </c>
+      <c r="C88" t="s">
+        <v>708</v>
+      </c>
       <c r="D88" t="n">
         <v>87</v>
       </c>
       <c r="E88" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F88" t="s">
-        <v>624</v>
+        <v>709</v>
       </c>
       <c r="G88" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H88" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I88" t="s">
-        <v>625</v>
+        <v>710</v>
       </c>
       <c r="J88" t="s">
-        <v>626</v>
+        <v>711</v>
       </c>
       <c r="K88" t="s">
-        <v>627</v>
+        <v>712</v>
       </c>
       <c r="L88" t="s">
-        <v>628</v>
+        <v>713</v>
       </c>
       <c r="M88" t="n">
         <v>4</v>
       </c>
       <c r="N88" t="s">
-        <v>549</v>
+        <v>621</v>
       </c>
       <c r="O88" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P88" t="n">
         <v>5</v>
@@ -8592,50 +9279,54 @@
       <c r="W88" t="s"/>
       <c r="X88" t="s"/>
       <c r="Y88" t="s">
-        <v>628</v>
+        <v>713</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
         <v>36476</v>
       </c>
-      <c r="B89" t="s"/>
-      <c r="C89" t="s"/>
+      <c r="B89" t="n">
+        <v>174380</v>
+      </c>
+      <c r="C89" t="s">
+        <v>714</v>
+      </c>
       <c r="D89" t="n">
         <v>88</v>
       </c>
       <c r="E89" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F89" t="s">
-        <v>629</v>
+        <v>715</v>
       </c>
       <c r="G89" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H89" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I89" t="s">
-        <v>630</v>
+        <v>716</v>
       </c>
       <c r="J89" t="s">
-        <v>631</v>
+        <v>717</v>
       </c>
       <c r="K89" t="s">
-        <v>632</v>
+        <v>718</v>
       </c>
       <c r="L89" t="s">
-        <v>633</v>
+        <v>719</v>
       </c>
       <c r="M89" t="n">
         <v>5</v>
       </c>
       <c r="N89" t="s">
-        <v>549</v>
+        <v>621</v>
       </c>
       <c r="O89" t="s">
-        <v>162</v>
+        <v>180</v>
       </c>
       <c r="P89" t="n">
         <v>5</v>
@@ -8659,50 +9350,54 @@
       <c r="W89" t="s"/>
       <c r="X89" t="s"/>
       <c r="Y89" t="s">
-        <v>633</v>
+        <v>719</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
         <v>36476</v>
       </c>
-      <c r="B90" t="s"/>
-      <c r="C90" t="s"/>
+      <c r="B90" t="n">
+        <v>174381</v>
+      </c>
+      <c r="C90" t="s">
+        <v>720</v>
+      </c>
       <c r="D90" t="n">
         <v>89</v>
       </c>
       <c r="E90" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F90" t="s">
-        <v>634</v>
+        <v>721</v>
       </c>
       <c r="G90" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H90" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I90" t="s">
-        <v>635</v>
+        <v>722</v>
       </c>
       <c r="J90" t="s">
-        <v>636</v>
+        <v>723</v>
       </c>
       <c r="K90" t="s">
-        <v>637</v>
+        <v>724</v>
       </c>
       <c r="L90" t="s">
-        <v>638</v>
+        <v>725</v>
       </c>
       <c r="M90" t="n">
         <v>3</v>
       </c>
       <c r="N90" t="s">
-        <v>639</v>
+        <v>726</v>
       </c>
       <c r="O90" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="P90" t="n">
         <v>3</v>
@@ -8726,41 +9421,45 @@
       <c r="W90" t="s"/>
       <c r="X90" t="s"/>
       <c r="Y90" t="s">
-        <v>638</v>
+        <v>725</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
         <v>36476</v>
       </c>
-      <c r="B91" t="s"/>
-      <c r="C91" t="s"/>
+      <c r="B91" t="n">
+        <v>174382</v>
+      </c>
+      <c r="C91" t="s">
+        <v>727</v>
+      </c>
       <c r="D91" t="n">
         <v>90</v>
       </c>
       <c r="E91" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F91" t="s">
-        <v>640</v>
+        <v>728</v>
       </c>
       <c r="G91" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H91" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I91" t="s">
-        <v>641</v>
+        <v>729</v>
       </c>
       <c r="J91" t="s">
-        <v>642</v>
+        <v>730</v>
       </c>
       <c r="K91" t="s">
-        <v>643</v>
+        <v>731</v>
       </c>
       <c r="L91" t="s">
-        <v>644</v>
+        <v>732</v>
       </c>
       <c r="M91" t="n">
         <v>5</v>
@@ -8789,50 +9488,54 @@
       <c r="W91" t="s"/>
       <c r="X91" t="s"/>
       <c r="Y91" t="s">
-        <v>644</v>
+        <v>732</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
         <v>36476</v>
       </c>
-      <c r="B92" t="s"/>
-      <c r="C92" t="s"/>
+      <c r="B92" t="n">
+        <v>79164</v>
+      </c>
+      <c r="C92" t="s">
+        <v>733</v>
+      </c>
       <c r="D92" t="n">
         <v>91</v>
       </c>
       <c r="E92" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F92" t="s">
-        <v>645</v>
+        <v>734</v>
       </c>
       <c r="G92" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H92" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I92" t="s">
-        <v>646</v>
+        <v>735</v>
       </c>
       <c r="J92" t="s">
-        <v>647</v>
+        <v>736</v>
       </c>
       <c r="K92" t="s">
-        <v>648</v>
+        <v>737</v>
       </c>
       <c r="L92" t="s">
-        <v>649</v>
+        <v>738</v>
       </c>
       <c r="M92" t="n">
         <v>2</v>
       </c>
       <c r="N92" t="s">
-        <v>650</v>
+        <v>739</v>
       </c>
       <c r="O92" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P92" t="n">
         <v>3</v>
@@ -8854,56 +9557,60 @@
         <v>0</v>
       </c>
       <c r="W92" t="s">
-        <v>651</v>
+        <v>740</v>
       </c>
       <c r="X92" t="s">
-        <v>652</v>
+        <v>741</v>
       </c>
       <c r="Y92" t="s">
-        <v>653</v>
+        <v>742</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
         <v>36476</v>
       </c>
-      <c r="B93" t="s"/>
-      <c r="C93" t="s"/>
+      <c r="B93" t="n">
+        <v>174383</v>
+      </c>
+      <c r="C93" t="s">
+        <v>743</v>
+      </c>
       <c r="D93" t="n">
         <v>92</v>
       </c>
       <c r="E93" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F93" t="s">
-        <v>654</v>
+        <v>744</v>
       </c>
       <c r="G93" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H93" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I93" t="s">
-        <v>655</v>
+        <v>745</v>
       </c>
       <c r="J93" t="s">
-        <v>656</v>
+        <v>746</v>
       </c>
       <c r="K93" t="s">
-        <v>657</v>
+        <v>747</v>
       </c>
       <c r="L93" t="s">
-        <v>658</v>
+        <v>748</v>
       </c>
       <c r="M93" t="n">
         <v>5</v>
       </c>
       <c r="N93" t="s">
-        <v>650</v>
+        <v>739</v>
       </c>
       <c r="O93" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="P93" t="n">
         <v>5</v>
@@ -8927,41 +9634,45 @@
       <c r="W93" t="s"/>
       <c r="X93" t="s"/>
       <c r="Y93" t="s">
-        <v>658</v>
+        <v>748</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
         <v>36476</v>
       </c>
-      <c r="B94" t="s"/>
-      <c r="C94" t="s"/>
+      <c r="B94" t="n">
+        <v>174384</v>
+      </c>
+      <c r="C94" t="s">
+        <v>749</v>
+      </c>
       <c r="D94" t="n">
         <v>93</v>
       </c>
       <c r="E94" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F94" t="s">
-        <v>659</v>
+        <v>750</v>
       </c>
       <c r="G94" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H94" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I94" t="s">
-        <v>660</v>
+        <v>751</v>
       </c>
       <c r="J94" t="s">
-        <v>656</v>
+        <v>746</v>
       </c>
       <c r="K94" t="s">
-        <v>661</v>
+        <v>752</v>
       </c>
       <c r="L94" t="s">
-        <v>662</v>
+        <v>753</v>
       </c>
       <c r="M94" t="n">
         <v>5</v>
@@ -8990,50 +9701,54 @@
       <c r="W94" t="s"/>
       <c r="X94" t="s"/>
       <c r="Y94" t="s">
-        <v>662</v>
+        <v>753</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
         <v>36476</v>
       </c>
-      <c r="B95" t="s"/>
-      <c r="C95" t="s"/>
+      <c r="B95" t="n">
+        <v>174385</v>
+      </c>
+      <c r="C95" t="s">
+        <v>754</v>
+      </c>
       <c r="D95" t="n">
         <v>94</v>
       </c>
       <c r="E95" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F95" t="s">
-        <v>663</v>
+        <v>755</v>
       </c>
       <c r="G95" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H95" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I95" t="s">
-        <v>664</v>
+        <v>756</v>
       </c>
       <c r="J95" t="s">
-        <v>665</v>
+        <v>757</v>
       </c>
       <c r="K95" t="s">
-        <v>666</v>
+        <v>758</v>
       </c>
       <c r="L95" t="s">
-        <v>667</v>
+        <v>759</v>
       </c>
       <c r="M95" t="n">
         <v>1</v>
       </c>
       <c r="N95" t="s">
-        <v>668</v>
+        <v>760</v>
       </c>
       <c r="O95" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P95" t="n">
         <v>1</v>
@@ -9053,50 +9768,54 @@
       <c r="W95" t="s"/>
       <c r="X95" t="s"/>
       <c r="Y95" t="s">
-        <v>667</v>
+        <v>759</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
         <v>36476</v>
       </c>
-      <c r="B96" t="s"/>
-      <c r="C96" t="s"/>
+      <c r="B96" t="n">
+        <v>174386</v>
+      </c>
+      <c r="C96" t="s">
+        <v>761</v>
+      </c>
       <c r="D96" t="n">
         <v>95</v>
       </c>
       <c r="E96" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F96" t="s">
-        <v>669</v>
+        <v>762</v>
       </c>
       <c r="G96" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H96" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I96" t="s">
-        <v>670</v>
+        <v>763</v>
       </c>
       <c r="J96" t="s">
-        <v>665</v>
+        <v>757</v>
       </c>
       <c r="K96" t="s">
-        <v>671</v>
+        <v>764</v>
       </c>
       <c r="L96" t="s">
-        <v>672</v>
+        <v>765</v>
       </c>
       <c r="M96" t="n">
         <v>5</v>
       </c>
       <c r="N96" t="s">
-        <v>673</v>
+        <v>766</v>
       </c>
       <c r="O96" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P96" t="n">
         <v>5</v>
@@ -9116,50 +9835,54 @@
       <c r="W96" t="s"/>
       <c r="X96" t="s"/>
       <c r="Y96" t="s">
-        <v>672</v>
+        <v>765</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
         <v>36476</v>
       </c>
-      <c r="B97" t="s"/>
-      <c r="C97" t="s"/>
+      <c r="B97" t="n">
+        <v>174387</v>
+      </c>
+      <c r="C97" t="s">
+        <v>767</v>
+      </c>
       <c r="D97" t="n">
         <v>96</v>
       </c>
       <c r="E97" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F97" t="s">
-        <v>674</v>
+        <v>768</v>
       </c>
       <c r="G97" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H97" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I97" t="s">
-        <v>675</v>
+        <v>769</v>
       </c>
       <c r="J97" t="s">
-        <v>665</v>
+        <v>757</v>
       </c>
       <c r="K97" t="s">
-        <v>676</v>
+        <v>770</v>
       </c>
       <c r="L97" t="s">
-        <v>677</v>
+        <v>771</v>
       </c>
       <c r="M97" t="n">
         <v>5</v>
       </c>
       <c r="N97" t="s">
-        <v>678</v>
+        <v>772</v>
       </c>
       <c r="O97" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P97" t="n">
         <v>5</v>
@@ -9179,50 +9902,54 @@
       <c r="W97" t="s"/>
       <c r="X97" t="s"/>
       <c r="Y97" t="s">
-        <v>677</v>
+        <v>771</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
         <v>36476</v>
       </c>
-      <c r="B98" t="s"/>
-      <c r="C98" t="s"/>
+      <c r="B98" t="n">
+        <v>174388</v>
+      </c>
+      <c r="C98" t="s">
+        <v>773</v>
+      </c>
       <c r="D98" t="n">
         <v>97</v>
       </c>
       <c r="E98" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F98" t="s">
-        <v>679</v>
+        <v>774</v>
       </c>
       <c r="G98" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H98" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I98" t="s">
-        <v>680</v>
+        <v>775</v>
       </c>
       <c r="J98" t="s">
-        <v>681</v>
+        <v>776</v>
       </c>
       <c r="K98" t="s">
-        <v>682</v>
+        <v>777</v>
       </c>
       <c r="L98" t="s">
-        <v>683</v>
+        <v>778</v>
       </c>
       <c r="M98" t="n">
         <v>5</v>
       </c>
       <c r="N98" t="s">
-        <v>684</v>
+        <v>779</v>
       </c>
       <c r="O98" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="P98" t="n">
         <v>5</v>
@@ -9242,50 +9969,54 @@
       <c r="W98" t="s"/>
       <c r="X98" t="s"/>
       <c r="Y98" t="s">
-        <v>685</v>
+        <v>780</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
         <v>36476</v>
       </c>
-      <c r="B99" t="s"/>
-      <c r="C99" t="s"/>
+      <c r="B99" t="n">
+        <v>174389</v>
+      </c>
+      <c r="C99" t="s">
+        <v>781</v>
+      </c>
       <c r="D99" t="n">
         <v>98</v>
       </c>
       <c r="E99" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F99" t="s">
-        <v>686</v>
+        <v>782</v>
       </c>
       <c r="G99" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H99" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I99" t="s">
-        <v>687</v>
+        <v>783</v>
       </c>
       <c r="J99" t="s">
-        <v>688</v>
+        <v>784</v>
       </c>
       <c r="K99" t="s">
-        <v>689</v>
+        <v>785</v>
       </c>
       <c r="L99" t="s">
-        <v>690</v>
+        <v>786</v>
       </c>
       <c r="M99" t="n">
         <v>5</v>
       </c>
       <c r="N99" t="s">
-        <v>673</v>
+        <v>766</v>
       </c>
       <c r="O99" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="P99" t="n">
         <v>5</v>
@@ -9305,50 +10036,54 @@
       <c r="W99" t="s"/>
       <c r="X99" t="s"/>
       <c r="Y99" t="s">
-        <v>690</v>
+        <v>786</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
         <v>36476</v>
       </c>
-      <c r="B100" t="s"/>
-      <c r="C100" t="s"/>
+      <c r="B100" t="n">
+        <v>174390</v>
+      </c>
+      <c r="C100" t="s">
+        <v>787</v>
+      </c>
       <c r="D100" t="n">
         <v>99</v>
       </c>
       <c r="E100" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F100" t="s">
-        <v>691</v>
+        <v>788</v>
       </c>
       <c r="G100" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H100" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I100" t="s">
-        <v>692</v>
+        <v>789</v>
       </c>
       <c r="J100" t="s">
-        <v>693</v>
+        <v>790</v>
       </c>
       <c r="K100" t="s">
-        <v>694</v>
+        <v>791</v>
       </c>
       <c r="L100" t="s">
-        <v>695</v>
+        <v>792</v>
       </c>
       <c r="M100" t="n">
         <v>5</v>
       </c>
       <c r="N100" t="s">
-        <v>696</v>
+        <v>793</v>
       </c>
       <c r="O100" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P100" t="n">
         <v>5</v>
@@ -9372,50 +10107,54 @@
       <c r="W100" t="s"/>
       <c r="X100" t="s"/>
       <c r="Y100" t="s">
-        <v>695</v>
+        <v>792</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
         <v>36476</v>
       </c>
-      <c r="B101" t="s"/>
-      <c r="C101" t="s"/>
+      <c r="B101" t="n">
+        <v>28711</v>
+      </c>
+      <c r="C101" t="s">
+        <v>794</v>
+      </c>
       <c r="D101" t="n">
         <v>100</v>
       </c>
       <c r="E101" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F101" t="s">
-        <v>697</v>
+        <v>795</v>
       </c>
       <c r="G101" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H101" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I101" t="s">
-        <v>698</v>
+        <v>796</v>
       </c>
       <c r="J101" t="s">
-        <v>699</v>
+        <v>797</v>
       </c>
       <c r="K101" t="s">
-        <v>700</v>
+        <v>798</v>
       </c>
       <c r="L101" t="s">
-        <v>701</v>
+        <v>799</v>
       </c>
       <c r="M101" t="n">
         <v>3</v>
       </c>
       <c r="N101" t="s">
-        <v>702</v>
+        <v>800</v>
       </c>
       <c r="O101" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="P101" t="n">
         <v>4</v>
@@ -9439,50 +10178,54 @@
       <c r="W101" t="s"/>
       <c r="X101" t="s"/>
       <c r="Y101" t="s">
-        <v>703</v>
+        <v>801</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="n">
         <v>36476</v>
       </c>
-      <c r="B102" t="s"/>
-      <c r="C102" t="s"/>
+      <c r="B102" t="n">
+        <v>174391</v>
+      </c>
+      <c r="C102" t="s">
+        <v>802</v>
+      </c>
       <c r="D102" t="n">
         <v>101</v>
       </c>
       <c r="E102" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F102" t="s">
-        <v>704</v>
+        <v>803</v>
       </c>
       <c r="G102" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H102" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I102" t="s">
-        <v>705</v>
+        <v>804</v>
       </c>
       <c r="J102" t="s">
-        <v>706</v>
+        <v>805</v>
       </c>
       <c r="K102" t="s">
-        <v>707</v>
+        <v>806</v>
       </c>
       <c r="L102" t="s">
-        <v>708</v>
+        <v>807</v>
       </c>
       <c r="M102" t="n">
         <v>5</v>
       </c>
       <c r="N102" t="s">
-        <v>709</v>
+        <v>808</v>
       </c>
       <c r="O102" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="P102" t="n">
         <v>5</v>
@@ -9506,50 +10249,54 @@
       <c r="W102" t="s"/>
       <c r="X102" t="s"/>
       <c r="Y102" t="s">
-        <v>710</v>
+        <v>809</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="n">
         <v>36476</v>
       </c>
-      <c r="B103" t="s"/>
-      <c r="C103" t="s"/>
+      <c r="B103" t="n">
+        <v>174392</v>
+      </c>
+      <c r="C103" t="s">
+        <v>810</v>
+      </c>
       <c r="D103" t="n">
         <v>102</v>
       </c>
       <c r="E103" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F103" t="s">
-        <v>711</v>
+        <v>811</v>
       </c>
       <c r="G103" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H103" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I103" t="s">
-        <v>712</v>
+        <v>812</v>
       </c>
       <c r="J103" t="s">
-        <v>713</v>
+        <v>813</v>
       </c>
       <c r="K103" t="s">
-        <v>714</v>
+        <v>814</v>
       </c>
       <c r="L103" t="s">
-        <v>715</v>
+        <v>815</v>
       </c>
       <c r="M103" t="n">
         <v>5</v>
       </c>
       <c r="N103" t="s">
-        <v>716</v>
+        <v>816</v>
       </c>
       <c r="O103" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P103" t="n">
         <v>5</v>
@@ -9573,41 +10320,45 @@
       <c r="W103" t="s"/>
       <c r="X103" t="s"/>
       <c r="Y103" t="s">
-        <v>715</v>
+        <v>815</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="n">
         <v>36476</v>
       </c>
-      <c r="B104" t="s"/>
-      <c r="C104" t="s"/>
+      <c r="B104" t="n">
+        <v>174393</v>
+      </c>
+      <c r="C104" t="s">
+        <v>817</v>
+      </c>
       <c r="D104" t="n">
         <v>103</v>
       </c>
       <c r="E104" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F104" t="s">
-        <v>717</v>
+        <v>818</v>
       </c>
       <c r="G104" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H104" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I104" t="s">
-        <v>718</v>
+        <v>819</v>
       </c>
       <c r="J104" t="s">
-        <v>719</v>
+        <v>820</v>
       </c>
       <c r="K104" t="s">
-        <v>720</v>
+        <v>821</v>
       </c>
       <c r="L104" t="s">
-        <v>721</v>
+        <v>822</v>
       </c>
       <c r="M104" t="n">
         <v>5</v>
@@ -9636,50 +10387,54 @@
       <c r="W104" t="s"/>
       <c r="X104" t="s"/>
       <c r="Y104" t="s">
-        <v>721</v>
+        <v>822</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="n">
         <v>36476</v>
       </c>
-      <c r="B105" t="s"/>
-      <c r="C105" t="s"/>
+      <c r="B105" t="n">
+        <v>174394</v>
+      </c>
+      <c r="C105" t="s">
+        <v>823</v>
+      </c>
       <c r="D105" t="n">
         <v>104</v>
       </c>
       <c r="E105" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F105" t="s">
-        <v>722</v>
+        <v>824</v>
       </c>
       <c r="G105" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H105" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I105" t="s">
-        <v>723</v>
+        <v>825</v>
       </c>
       <c r="J105" t="s">
-        <v>724</v>
+        <v>826</v>
       </c>
       <c r="K105" t="s">
-        <v>725</v>
+        <v>827</v>
       </c>
       <c r="L105" t="s">
-        <v>726</v>
+        <v>828</v>
       </c>
       <c r="M105" t="n">
         <v>4</v>
       </c>
       <c r="N105" t="s">
-        <v>727</v>
+        <v>829</v>
       </c>
       <c r="O105" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="P105" t="n">
         <v>4</v>
@@ -9703,50 +10458,54 @@
       <c r="W105" t="s"/>
       <c r="X105" t="s"/>
       <c r="Y105" t="s">
-        <v>728</v>
+        <v>830</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="n">
         <v>36476</v>
       </c>
-      <c r="B106" t="s"/>
-      <c r="C106" t="s"/>
+      <c r="B106" t="n">
+        <v>174395</v>
+      </c>
+      <c r="C106" t="s">
+        <v>831</v>
+      </c>
       <c r="D106" t="n">
         <v>105</v>
       </c>
       <c r="E106" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F106" t="s">
-        <v>729</v>
+        <v>832</v>
       </c>
       <c r="G106" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H106" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I106" t="s">
-        <v>730</v>
+        <v>833</v>
       </c>
       <c r="J106" t="s">
-        <v>731</v>
+        <v>834</v>
       </c>
       <c r="K106" t="s">
-        <v>732</v>
+        <v>835</v>
       </c>
       <c r="L106" t="s">
-        <v>733</v>
+        <v>836</v>
       </c>
       <c r="M106" t="n">
         <v>5</v>
       </c>
       <c r="N106" t="s">
-        <v>734</v>
+        <v>837</v>
       </c>
       <c r="O106" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="P106" t="n">
         <v>5</v>
@@ -9770,50 +10529,54 @@
       <c r="W106" t="s"/>
       <c r="X106" t="s"/>
       <c r="Y106" t="s">
-        <v>735</v>
+        <v>838</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="n">
         <v>36476</v>
       </c>
-      <c r="B107" t="s"/>
-      <c r="C107" t="s"/>
+      <c r="B107" t="n">
+        <v>174396</v>
+      </c>
+      <c r="C107" t="s">
+        <v>839</v>
+      </c>
       <c r="D107" t="n">
         <v>106</v>
       </c>
       <c r="E107" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F107" t="s">
-        <v>736</v>
+        <v>840</v>
       </c>
       <c r="G107" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H107" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I107" t="s">
-        <v>737</v>
+        <v>841</v>
       </c>
       <c r="J107" t="s">
-        <v>738</v>
+        <v>842</v>
       </c>
       <c r="K107" t="s">
-        <v>739</v>
+        <v>843</v>
       </c>
       <c r="L107" t="s">
-        <v>740</v>
+        <v>844</v>
       </c>
       <c r="M107" t="n">
         <v>1</v>
       </c>
       <c r="N107" t="s">
-        <v>741</v>
+        <v>845</v>
       </c>
       <c r="O107" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="P107" t="n">
         <v>1</v>
@@ -9837,50 +10600,54 @@
       <c r="W107" t="s"/>
       <c r="X107" t="s"/>
       <c r="Y107" t="s">
-        <v>742</v>
+        <v>846</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="n">
         <v>36476</v>
       </c>
-      <c r="B108" t="s"/>
-      <c r="C108" t="s"/>
+      <c r="B108" t="n">
+        <v>174397</v>
+      </c>
+      <c r="C108" t="s">
+        <v>847</v>
+      </c>
       <c r="D108" t="n">
         <v>107</v>
       </c>
       <c r="E108" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F108" t="s">
-        <v>743</v>
+        <v>848</v>
       </c>
       <c r="G108" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H108" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I108" t="s">
-        <v>744</v>
+        <v>849</v>
       </c>
       <c r="J108" t="s">
-        <v>745</v>
+        <v>850</v>
       </c>
       <c r="K108" t="s">
-        <v>746</v>
+        <v>851</v>
       </c>
       <c r="L108" t="s">
-        <v>747</v>
+        <v>852</v>
       </c>
       <c r="M108" t="n">
         <v>1</v>
       </c>
       <c r="N108" t="s">
-        <v>748</v>
+        <v>853</v>
       </c>
       <c r="O108" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="P108" t="n">
         <v>1</v>
@@ -9904,50 +10671,54 @@
       <c r="W108" t="s"/>
       <c r="X108" t="s"/>
       <c r="Y108" t="s">
-        <v>749</v>
+        <v>854</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="n">
         <v>36476</v>
       </c>
-      <c r="B109" t="s"/>
-      <c r="C109" t="s"/>
+      <c r="B109" t="n">
+        <v>174398</v>
+      </c>
+      <c r="C109" t="s">
+        <v>855</v>
+      </c>
       <c r="D109" t="n">
         <v>108</v>
       </c>
       <c r="E109" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F109" t="s">
-        <v>750</v>
+        <v>856</v>
       </c>
       <c r="G109" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H109" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I109" t="s">
-        <v>751</v>
+        <v>857</v>
       </c>
       <c r="J109" t="s">
-        <v>752</v>
+        <v>858</v>
       </c>
       <c r="K109" t="s">
-        <v>753</v>
+        <v>859</v>
       </c>
       <c r="L109" t="s">
-        <v>754</v>
+        <v>860</v>
       </c>
       <c r="M109" t="n">
         <v>4</v>
       </c>
       <c r="N109" t="s">
-        <v>748</v>
+        <v>853</v>
       </c>
       <c r="O109" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="P109" t="n">
         <v>4</v>
@@ -9971,50 +10742,54 @@
       <c r="W109" t="s"/>
       <c r="X109" t="s"/>
       <c r="Y109" t="s">
-        <v>754</v>
+        <v>860</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="n">
         <v>36476</v>
       </c>
-      <c r="B110" t="s"/>
-      <c r="C110" t="s"/>
+      <c r="B110" t="n">
+        <v>174399</v>
+      </c>
+      <c r="C110" t="s">
+        <v>861</v>
+      </c>
       <c r="D110" t="n">
         <v>109</v>
       </c>
       <c r="E110" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F110" t="s">
-        <v>755</v>
+        <v>862</v>
       </c>
       <c r="G110" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H110" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I110" t="s">
-        <v>756</v>
+        <v>863</v>
       </c>
       <c r="J110" t="s">
-        <v>757</v>
+        <v>864</v>
       </c>
       <c r="K110" t="s">
-        <v>758</v>
+        <v>865</v>
       </c>
       <c r="L110" t="s">
-        <v>759</v>
+        <v>866</v>
       </c>
       <c r="M110" t="n">
         <v>5</v>
       </c>
       <c r="N110" t="s">
-        <v>760</v>
+        <v>867</v>
       </c>
       <c r="O110" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="P110" t="n">
         <v>5</v>
@@ -10038,50 +10813,54 @@
       <c r="W110" t="s"/>
       <c r="X110" t="s"/>
       <c r="Y110" t="s">
-        <v>759</v>
+        <v>866</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="n">
         <v>36476</v>
       </c>
-      <c r="B111" t="s"/>
-      <c r="C111" t="s"/>
+      <c r="B111" t="n">
+        <v>174400</v>
+      </c>
+      <c r="C111" t="s">
+        <v>868</v>
+      </c>
       <c r="D111" t="n">
         <v>110</v>
       </c>
       <c r="E111" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F111" t="s">
-        <v>761</v>
+        <v>869</v>
       </c>
       <c r="G111" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H111" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I111" t="s">
-        <v>762</v>
+        <v>870</v>
       </c>
       <c r="J111" t="s">
-        <v>763</v>
+        <v>871</v>
       </c>
       <c r="K111" t="s">
-        <v>764</v>
+        <v>872</v>
       </c>
       <c r="L111" t="s">
-        <v>765</v>
+        <v>873</v>
       </c>
       <c r="M111" t="n">
         <v>2</v>
       </c>
       <c r="N111" t="s">
-        <v>766</v>
+        <v>874</v>
       </c>
       <c r="O111" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="P111" t="n">
         <v>2</v>
@@ -10105,50 +10884,54 @@
       <c r="W111" t="s"/>
       <c r="X111" t="s"/>
       <c r="Y111" t="s">
-        <v>767</v>
+        <v>875</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="n">
         <v>36476</v>
       </c>
-      <c r="B112" t="s"/>
-      <c r="C112" t="s"/>
+      <c r="B112" t="n">
+        <v>174401</v>
+      </c>
+      <c r="C112" t="s">
+        <v>876</v>
+      </c>
       <c r="D112" t="n">
         <v>111</v>
       </c>
       <c r="E112" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F112" t="s">
-        <v>768</v>
+        <v>877</v>
       </c>
       <c r="G112" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H112" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I112" t="s">
-        <v>769</v>
+        <v>878</v>
       </c>
       <c r="J112" t="s">
-        <v>770</v>
+        <v>879</v>
       </c>
       <c r="K112" t="s">
-        <v>771</v>
+        <v>880</v>
       </c>
       <c r="L112" t="s">
-        <v>772</v>
+        <v>881</v>
       </c>
       <c r="M112" t="n">
         <v>5</v>
       </c>
       <c r="N112" t="s">
-        <v>773</v>
+        <v>882</v>
       </c>
       <c r="O112" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="P112" t="n">
         <v>5</v>
@@ -10172,50 +10955,54 @@
       <c r="W112" t="s"/>
       <c r="X112" t="s"/>
       <c r="Y112" t="s">
-        <v>774</v>
+        <v>883</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="n">
         <v>36476</v>
       </c>
-      <c r="B113" t="s"/>
-      <c r="C113" t="s"/>
+      <c r="B113" t="n">
+        <v>174402</v>
+      </c>
+      <c r="C113" t="s">
+        <v>884</v>
+      </c>
       <c r="D113" t="n">
         <v>112</v>
       </c>
       <c r="E113" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F113" t="s">
-        <v>775</v>
+        <v>885</v>
       </c>
       <c r="G113" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H113" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I113" t="s">
-        <v>776</v>
+        <v>886</v>
       </c>
       <c r="J113" t="s">
-        <v>777</v>
+        <v>887</v>
       </c>
       <c r="K113" t="s">
-        <v>778</v>
+        <v>888</v>
       </c>
       <c r="L113" t="s">
-        <v>779</v>
+        <v>889</v>
       </c>
       <c r="M113" t="n">
         <v>1</v>
       </c>
       <c r="N113" t="s">
-        <v>780</v>
+        <v>890</v>
       </c>
       <c r="O113" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="P113" t="n">
         <v>1</v>
@@ -10239,50 +11026,54 @@
       <c r="W113" t="s"/>
       <c r="X113" t="s"/>
       <c r="Y113" t="s">
-        <v>781</v>
+        <v>891</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="n">
         <v>36476</v>
       </c>
-      <c r="B114" t="s"/>
-      <c r="C114" t="s"/>
+      <c r="B114" t="n">
+        <v>172225</v>
+      </c>
+      <c r="C114" t="s">
+        <v>892</v>
+      </c>
       <c r="D114" t="n">
         <v>113</v>
       </c>
       <c r="E114" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F114" t="s">
-        <v>782</v>
+        <v>893</v>
       </c>
       <c r="G114" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H114" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I114" t="s">
-        <v>783</v>
+        <v>894</v>
       </c>
       <c r="J114" t="s">
-        <v>784</v>
+        <v>895</v>
       </c>
       <c r="K114" t="s">
-        <v>785</v>
+        <v>896</v>
       </c>
       <c r="L114" t="s">
-        <v>786</v>
+        <v>897</v>
       </c>
       <c r="M114" t="n">
         <v>1</v>
       </c>
       <c r="N114" t="s">
-        <v>787</v>
+        <v>898</v>
       </c>
       <c r="O114" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P114" t="n">
         <v>1</v>
@@ -10306,41 +11097,45 @@
       <c r="W114" t="s"/>
       <c r="X114" t="s"/>
       <c r="Y114" t="s">
-        <v>788</v>
+        <v>899</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="n">
         <v>36476</v>
       </c>
-      <c r="B115" t="s"/>
-      <c r="C115" t="s"/>
+      <c r="B115" t="n">
+        <v>7</v>
+      </c>
+      <c r="C115" t="s">
+        <v>900</v>
+      </c>
       <c r="D115" t="n">
         <v>114</v>
       </c>
       <c r="E115" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F115" t="s">
-        <v>789</v>
+        <v>901</v>
       </c>
       <c r="G115" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H115" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I115" t="s">
-        <v>790</v>
+        <v>902</v>
       </c>
       <c r="J115" t="s">
-        <v>791</v>
+        <v>903</v>
       </c>
       <c r="K115" t="s">
-        <v>792</v>
+        <v>904</v>
       </c>
       <c r="L115" t="s">
-        <v>793</v>
+        <v>905</v>
       </c>
       <c r="M115" t="n">
         <v>2</v>
@@ -10359,50 +11154,54 @@
       <c r="W115" t="s"/>
       <c r="X115" t="s"/>
       <c r="Y115" t="s">
-        <v>793</v>
+        <v>905</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="n">
         <v>36476</v>
       </c>
-      <c r="B116" t="s"/>
-      <c r="C116" t="s"/>
+      <c r="B116" t="n">
+        <v>7</v>
+      </c>
+      <c r="C116" t="s">
+        <v>900</v>
+      </c>
       <c r="D116" t="n">
         <v>115</v>
       </c>
       <c r="E116" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F116" t="s">
-        <v>794</v>
+        <v>906</v>
       </c>
       <c r="G116" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H116" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I116" t="s">
-        <v>795</v>
+        <v>907</v>
       </c>
       <c r="J116" t="s">
-        <v>796</v>
+        <v>908</v>
       </c>
       <c r="K116" t="s">
-        <v>797</v>
+        <v>909</v>
       </c>
       <c r="L116" t="s">
-        <v>798</v>
+        <v>910</v>
       </c>
       <c r="M116" t="n">
         <v>5</v>
       </c>
       <c r="N116" t="s">
-        <v>799</v>
+        <v>911</v>
       </c>
       <c r="O116" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P116" t="n">
         <v>5</v>
@@ -10424,41 +11223,45 @@
       <c r="W116" t="s"/>
       <c r="X116" t="s"/>
       <c r="Y116" t="s">
-        <v>798</v>
+        <v>910</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="n">
         <v>36476</v>
       </c>
-      <c r="B117" t="s"/>
-      <c r="C117" t="s"/>
+      <c r="B117" t="n">
+        <v>174403</v>
+      </c>
+      <c r="C117" t="s">
+        <v>912</v>
+      </c>
       <c r="D117" t="n">
         <v>116</v>
       </c>
       <c r="E117" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F117" t="s">
-        <v>800</v>
+        <v>913</v>
       </c>
       <c r="G117" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H117" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I117" t="s">
-        <v>801</v>
+        <v>914</v>
       </c>
       <c r="J117" t="s">
-        <v>802</v>
+        <v>915</v>
       </c>
       <c r="K117" t="s">
-        <v>803</v>
+        <v>916</v>
       </c>
       <c r="L117" t="s">
-        <v>804</v>
+        <v>917</v>
       </c>
       <c r="M117" t="n">
         <v>2</v>
@@ -10477,7 +11280,7 @@
       <c r="W117" t="s"/>
       <c r="X117" t="s"/>
       <c r="Y117" t="s">
-        <v>805</v>
+        <v>918</v>
       </c>
     </row>
   </sheetData>
